--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wankuma-my.sharepoint.com/personal/naka_wankuma_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="6_{B69F568A-D26F-4418-9710-6ADC08CBB386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED5306EA-3D19-4CFF-A38A-2B76B1C3BDE0}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="6_{B69F568A-D26F-4418-9710-6ADC08CBB386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78D98426-F947-41E5-899B-BFDA0F4288FA}"/>
   <bookViews>
-    <workbookView xWindow="-67" yWindow="-67" windowWidth="25734" windowHeight="13814" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="25533" yWindow="-67" windowWidth="25734" windowHeight="13814" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -1210,20 +1210,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ハミングバード
-メガトン
-後藤智香
-天麗皇希
-山田奈保</t>
-    <rPh sb="13" eb="17">
-      <t>ゴトウチカ</t>
-    </rPh>
-    <rPh sb="18" eb="22">
-      <t>アマレイコウキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>伊藤麻希
 小橋マリカ</t>
     <phoneticPr fontId="1"/>
@@ -1298,14 +1284,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>梨央
-(弥福かな)</t>
-    <rPh sb="0" eb="2">
-      <t>リオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>JENNE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1321,17 +1299,6 @@
   </si>
   <si>
     <t>香藤満月</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リアラ
-マコトユマ(D引退中)</t>
-    <rPh sb="11" eb="13">
-      <t>インタイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>チュウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1454,11 +1421,6 @@
     <rPh sb="5" eb="9">
       <t>インタイヨテイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ホルスタイン・エンジュ
-ラブリカ・ヒナーノ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1535,6 +1497,51 @@
     <rPh sb="23" eb="25">
       <t>セカイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハミングバード
+メガトン
+後藤智香
+天麗皇希
+山田奈保(休)</t>
+    <rPh sb="13" eb="17">
+      <t>ゴトウチカ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>アマレイコウキ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホルスタイン・エンジュ
+ラブリカ・ヒナーノ
+枢夜 佐季</t>
+    <rPh sb="22" eb="23">
+      <t>クルル</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>梨央
+(弥福かな)
+(ゴんべ)</t>
+    <rPh sb="0" eb="2">
+      <t>リオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リアラ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2427,10 +2434,10 @@
   <dimension ref="A1:U53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="T24" sqref="T24"/>
+      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="16" x14ac:dyDescent="0.8"/>
@@ -2466,7 +2473,7 @@
     <row r="2" spans="1:21" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RU2)</f>
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2482,7 +2489,7 @@
      LEN(D5:D999) - LEN(SUBSTITUTE(D5:D999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" cm="1">
         <f t="array" ref="E2">SUMPRODUCT(
@@ -2522,7 +2529,7 @@
      LEN(I5:I999) - LEN(SUBSTITUTE(I5:I999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" s="1" cm="1">
         <f t="array" ref="J2">SUMPRODUCT(
@@ -2618,7 +2625,7 @@
      LEN(U5:U999) - LEN(SUBSTITUTE(U5:U999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="16.7" x14ac:dyDescent="0.8">
@@ -3155,7 +3162,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -3163,7 +3170,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>85</v>
@@ -3454,7 +3461,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -3512,13 +3519,13 @@
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -3605,7 +3612,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>143</v>
@@ -3645,7 +3652,7 @@
         <v>54</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -3699,10 +3706,10 @@
         <v>137</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="U41" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="2:21" ht="16.7" x14ac:dyDescent="0.8">
@@ -3766,7 +3773,7 @@
       </c>
       <c r="T43" s="3"/>
       <c r="U43" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="2:21" ht="33.35" x14ac:dyDescent="0.8">
@@ -3790,7 +3797,7 @@
         <v>36</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -3800,7 +3807,7 @@
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="2:21" ht="33.35" x14ac:dyDescent="0.8">
@@ -3824,7 +3831,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N45" s="3"/>
       <c r="O45" s="3" t="s">
@@ -3840,7 +3847,7 @@
         <v>75</v>
       </c>
       <c r="U45" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="2:21" ht="100" x14ac:dyDescent="0.8">
@@ -3854,7 +3861,7 @@
         <v>48</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>17</v>
@@ -3894,7 +3901,7 @@
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
@@ -3916,7 +3923,7 @@
         <v>31</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3" t="s">
@@ -3932,7 +3939,7 @@
         <v>76</v>
       </c>
       <c r="U47" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="2:21" ht="50" x14ac:dyDescent="0.8">
@@ -3952,7 +3959,7 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3" t="s">
@@ -3969,10 +3976,10 @@
       </c>
       <c r="S48" s="3"/>
       <c r="T48" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="2:21" ht="50" x14ac:dyDescent="0.8">
@@ -4015,7 +4022,7 @@
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="U49" s="3"/>
     </row>
@@ -4033,10 +4040,10 @@
         <v>52</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>103</v>
@@ -4053,7 +4060,7 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
@@ -4091,7 +4098,7 @@
         <v>64</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -4105,14 +4112,14 @@
         <v>27</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="2:21" ht="100" x14ac:dyDescent="0.8">
@@ -4144,10 +4151,10 @@
         <v>32</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
@@ -4155,7 +4162,7 @@
         <v>28</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>82</v>
@@ -4173,7 +4180,7 @@
         <v>98</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>155</v>
@@ -4186,24 +4193,24 @@
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="U53" s="3"/>
     </row>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wankuma-my.sharepoint.com/personal/naka_wankuma_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="6_{B69F568A-D26F-4418-9710-6ADC08CBB386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78D98426-F947-41E5-899B-BFDA0F4288FA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1222C8-5646-4518-A6EF-E84A541CE855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25533" yWindow="-67" windowWidth="25734" windowHeight="13814" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="12913" yWindow="1247" windowWidth="12000" windowHeight="9980" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -1621,6 +1621,26 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Noto Serif JP SemiBold"/>
+        <family val="1"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1703,26 +1723,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Noto Serif JP SemiBold"/>
-        <family val="1"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2081,10 +2081,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A34D807-EC26-4518-9852-7FFB26CEC57B}" name="テーブル1" displayName="テーブル1" ref="B4:U53" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="B4:U53" xr:uid="{4A34D807-EC26-4518-9852-7FFB26CEC57B}"/>
@@ -2095,20 +2091,20 @@
     <tableColumn id="22" xr3:uid="{8EA6491D-1F78-431F-AD9B-C8AB4F6616E9}" name="TJPW" dataDxfId="16"/>
     <tableColumn id="3" xr3:uid="{CA5FBB65-FE37-40A8-B1DD-0182D7DD64C3}" name="マリゴ" dataDxfId="15"/>
     <tableColumn id="27" xr3:uid="{50745B86-8D07-4F72-B93E-5C2E105BB03C}" name="IR/ホットシュシュ" dataDxfId="14"/>
+    <tableColumn id="30" xr3:uid="{BB23C0DC-5AEB-431A-A828-4D1BDF4F315F}" name="JTO" dataDxfId="0"/>
     <tableColumn id="29" xr3:uid="{ADFF1D58-E918-4FF6-B352-AA98020CFD16}" name="チョコプロ" dataDxfId="13"/>
-    <tableColumn id="30" xr3:uid="{BB23C0DC-5AEB-431A-A828-4D1BDF4F315F}" name="JTO" dataDxfId="12"/>
-    <tableColumn id="17" xr3:uid="{C0123278-DCF4-45DB-8696-FC0805957C5C}" name="Diana" dataDxfId="11"/>
-    <tableColumn id="32" xr3:uid="{67EA2433-E1D1-4094-BFB4-0EDB7438926B}" name="Pure-J" dataDxfId="10"/>
-    <tableColumn id="21" xr3:uid="{ACF43FBE-31D7-4ED6-A997-E4AF4BF0B9D4}" name="マーベラス" dataDxfId="9"/>
-    <tableColumn id="23" xr3:uid="{9647ED0D-42FB-42C1-BFB2-8B8D56D414C4}" name="SENDAI" dataDxfId="8"/>
-    <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="7"/>
-    <tableColumn id="20" xr3:uid="{86389032-6123-44BF-98AB-D3CA13F2577A}" name="LLPW-X" dataDxfId="6"/>
-    <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="2.5" dataDxfId="5"/>
-    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="3"/>
-    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="0"/>
+    <tableColumn id="17" xr3:uid="{C0123278-DCF4-45DB-8696-FC0805957C5C}" name="Diana" dataDxfId="12"/>
+    <tableColumn id="32" xr3:uid="{67EA2433-E1D1-4094-BFB4-0EDB7438926B}" name="Pure-J" dataDxfId="11"/>
+    <tableColumn id="21" xr3:uid="{ACF43FBE-31D7-4ED6-A997-E4AF4BF0B9D4}" name="マーベラス" dataDxfId="10"/>
+    <tableColumn id="23" xr3:uid="{9647ED0D-42FB-42C1-BFB2-8B8D56D414C4}" name="SENDAI" dataDxfId="9"/>
+    <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="8"/>
+    <tableColumn id="20" xr3:uid="{86389032-6123-44BF-98AB-D3CA13F2577A}" name="LLPW-X" dataDxfId="7"/>
+    <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="2.5" dataDxfId="6"/>
+    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="4"/>
+    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2437,10 +2433,10 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomRight" activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="16" x14ac:dyDescent="0.8"/>
+  <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
   <cols>
     <col min="1" max="1" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -2448,32 +2444,33 @@
     <col min="4" max="4" width="9.71875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.27734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.71875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="47.77734375" style="1"/>
+    <col min="8" max="8" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.27734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.71875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="47.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:21" ht="16" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.8">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:21" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RU2)</f>
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2521,7 +2518,7 @@
      LEN(H5:H999) - LEN(SUBSTITUTE(H5:H999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" cm="1">
         <f t="array" ref="I2">SUMPRODUCT(
@@ -2529,104 +2526,107 @@
      LEN(I5:I999) - LEN(SUBSTITUTE(I5:I999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J2" s="1" cm="1">
         <f t="array" ref="J2">SUMPRODUCT(
-  IF(LEN(J5:J999)=0, 0,
-     LEN(J5:J999) - LEN(SUBSTITUTE(J5:J999, CHAR(10), "")) + 1
-  )
-)</f>
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" cm="1">
-        <f t="array" ref="K2">SUMPRODUCT(
   IF(LEN(K5:K999)=0, 0,
      LEN(K5:K999) - LEN(SUBSTITUTE(K5:K999, CHAR(10), "")) + 1
   )
 )</f>
         <v>9</v>
       </c>
-      <c r="L2" s="1" cm="1">
-        <f t="array" ref="L2">SUMPRODUCT(
+      <c r="K2" s="1" cm="1">
+        <f t="array" ref="K2">SUMPRODUCT(
   IF(LEN(L5:L999)=0, 0,
      LEN(L5:L999) - LEN(SUBSTITUTE(L5:L999, CHAR(10), "")) + 1
   )
 )</f>
         <v>9</v>
       </c>
-      <c r="M2" s="1" cm="1">
-        <f t="array" ref="M2">SUMPRODUCT(
+      <c r="L2" s="1" cm="1">
+        <f t="array" ref="L2">SUMPRODUCT(
   IF(LEN(M5:M999)=0, 0,
      LEN(M5:M999) - LEN(SUBSTITUTE(M5:M999, CHAR(10), "")) + 1
   )
 )</f>
         <v>9</v>
       </c>
-      <c r="N2" s="1" cm="1">
-        <f t="array" ref="N2">SUMPRODUCT(
+      <c r="M2" s="1" cm="1">
+        <f t="array" ref="M2">SUMPRODUCT(
   IF(LEN(N5:N999)=0, 0,
      LEN(N5:N999) - LEN(SUBSTITUTE(N5:N999, CHAR(10), "")) + 1
   )
 )</f>
         <v>6</v>
       </c>
-      <c r="O2" s="1" cm="1">
-        <f t="array" ref="O2">SUMPRODUCT(
+      <c r="N2" s="1" cm="1">
+        <f t="array" ref="N2">SUMPRODUCT(
   IF(LEN(O5:O999)=0, 0,
      LEN(O5:O999) - LEN(SUBSTITUTE(O5:O999, CHAR(10), "")) + 1
   )
 )</f>
         <v>5</v>
       </c>
-      <c r="P2" s="1" cm="1">
-        <f t="array" ref="P2">SUMPRODUCT(
+      <c r="O2" s="1" cm="1">
+        <f t="array" ref="O2">SUMPRODUCT(
   IF(LEN(P5:P999)=0, 0,
      LEN(P5:P999) - LEN(SUBSTITUTE(P5:P999, CHAR(10), "")) + 1
   )
 )</f>
         <v>5</v>
       </c>
-      <c r="Q2" s="1" cm="1">
-        <f t="array" ref="Q2">SUMPRODUCT(
+      <c r="P2" s="1" cm="1">
+        <f t="array" ref="P2">SUMPRODUCT(
   IF(LEN(Q5:Q999)=0, 0,
      LEN(Q5:Q999) - LEN(SUBSTITUTE(Q5:Q999, CHAR(10), "")) + 1
   )
 )</f>
         <v>5</v>
       </c>
-      <c r="R2" s="1" cm="1">
-        <f t="array" ref="R2">SUMPRODUCT(
+      <c r="Q2" s="1" cm="1">
+        <f t="array" ref="Q2">SUMPRODUCT(
   IF(LEN(R5:R999)=0, 0,
      LEN(R5:R999) - LEN(SUBSTITUTE(R5:R999, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
-      <c r="S2" s="1" cm="1">
-        <f t="array" ref="S2">SUMPRODUCT(
+      <c r="R2" s="1" cm="1">
+        <f t="array" ref="R2">SUMPRODUCT(
   IF(LEN(S5:S999)=0, 0,
      LEN(S5:S999) - LEN(SUBSTITUTE(S5:S999, CHAR(10), "")) + 1
   )
 )</f>
         <v>8</v>
       </c>
-      <c r="T2" s="1" cm="1">
-        <f t="array" ref="T2">SUMPRODUCT(
+      <c r="S2" s="1" cm="1">
+        <f t="array" ref="S2">SUMPRODUCT(
   IF(LEN(T5:T999)=0, 0,
      LEN(T5:T999) - LEN(SUBSTITUTE(T5:T999, CHAR(10), "")) + 1
   )
 )</f>
         <v>29</v>
       </c>
-      <c r="U2" s="1" cm="1">
-        <f t="array" ref="U2">SUMPRODUCT(
+      <c r="T2" s="1" cm="1">
+        <f t="array" ref="T2">SUMPRODUCT(
   IF(LEN(U5:U999)=0, 0,
      LEN(U5:U999) - LEN(SUBSTITUTE(U5:U999, CHAR(10), "")) + 1
   )
 )</f>
         <v>45</v>
       </c>
+      <c r="U2" s="1" cm="1">
+        <f t="array" ref="U2">SUMPRODUCT(
+  IF(LEN(V5:V999)=0, 0,
+     LEN(V5:V999) - LEN(SUBSTITUTE(V5:V999, CHAR(10), "")) + 1
+  )
+)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="16" x14ac:dyDescent="0.8">
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:21" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B4" s="2" t="s">
@@ -2648,10 +2648,10 @@
         <v>110</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>22</v>
@@ -2888,7 +2888,7 @@
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
     </row>
-    <row r="13" spans="1:21" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="13" spans="1:21" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B13" s="3">
         <v>1985</v>
       </c>
@@ -3144,7 +3144,7 @@
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
     </row>
-    <row r="23" spans="2:21" ht="33.35" x14ac:dyDescent="0.8">
+    <row r="23" spans="2:21" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B23" s="3">
         <v>1995</v>
       </c>
@@ -3153,10 +3153,10 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="3"/>
+      <c r="I23" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -3258,7 +3258,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="2:21" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="27" spans="2:21" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B27" s="3">
         <v>1999</v>
       </c>
@@ -3344,7 +3344,7 @@
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
     </row>
-    <row r="30" spans="2:21" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="30" spans="2:21" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B30" s="3">
         <v>2002</v>
       </c>
@@ -3581,10 +3581,10 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="3"/>
+      <c r="I38" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -3640,7 +3640,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="2:21" ht="33.35" x14ac:dyDescent="0.8">
+    <row r="40" spans="2:21" ht="50" x14ac:dyDescent="0.8">
       <c r="B40" s="3">
         <v>2012</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="2:21" ht="100" x14ac:dyDescent="0.8">
+    <row r="46" spans="2:21" ht="150" x14ac:dyDescent="0.8">
       <c r="B46" s="3">
         <v>2018</v>
       </c>
@@ -3867,10 +3867,10 @@
         <v>17</v>
       </c>
       <c r="G46" s="3"/>
-      <c r="H46" s="3" t="s">
+      <c r="H46" s="3"/>
+      <c r="I46" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3" t="s">
         <v>128</v>
@@ -3914,10 +3914,10 @@
         <v>141</v>
       </c>
       <c r="H47" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I47" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>31</v>
@@ -3957,10 +3957,10 @@
         <v>16</v>
       </c>
       <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>167</v>
       </c>
+      <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3" t="s">
         <v>129</v>
@@ -4001,10 +4001,10 @@
       <c r="G49" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3" t="s">
+      <c r="H49" s="3" t="s">
         <v>108</v>
       </c>
+      <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3" t="s">
@@ -4046,10 +4046,10 @@
         <v>177</v>
       </c>
       <c r="H50" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I50" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>30</v>
@@ -4092,10 +4092,10 @@
         <v>154</v>
       </c>
       <c r="H51" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I51" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>169</v>
@@ -4142,10 +4142,10 @@
         <v>139</v>
       </c>
       <c r="H52" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I52" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>32</v>
@@ -4191,10 +4191,10 @@
       <c r="G53" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3" t="s">
+      <c r="H53" s="3" t="s">
         <v>192</v>
       </c>
+      <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3" t="s">

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1222C8-5646-4518-A6EF-E84A541CE855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562EF201-6C3C-417D-90C8-D093D7819A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12913" yWindow="1247" windowWidth="12000" windowHeight="9980" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t>Stardom</t>
     <phoneticPr fontId="1"/>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>まなせゆうな</t>
-  </si>
-  <si>
-    <t>天咲光由</t>
   </si>
   <si>
     <t>マリゴ</t>
@@ -752,26 +749,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>吏南
-妃南
-鈴季すず
-水森由菜
-星来芽依</t>
-    <rPh sb="6" eb="8">
-      <t>スズキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ミズモリ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ユナ</t>
-    </rPh>
-    <rPh sb="16" eb="20">
-      <t>セイラメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>刀羅ナツコ
 琉悪夏</t>
     <rPh sb="6" eb="9">
@@ -1542,6 +1519,39 @@
   </si>
   <si>
     <t>リアラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(練習生あんな)</t>
+    <rPh sb="1" eb="4">
+      <t>レンシュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吏南
+妃南
+鈴季すず
+水森由菜
+星来芽依
+ジーナ</t>
+    <rPh sb="6" eb="8">
+      <t>スズキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ミズモリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ユナ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>セイラメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天咲光由
+ボジラ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1621,26 +1631,6 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Noto Serif JP SemiBold"/>
-        <family val="1"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1723,6 +1713,26 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Noto Serif JP SemiBold"/>
+        <family val="1"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2091,20 +2101,20 @@
     <tableColumn id="22" xr3:uid="{8EA6491D-1F78-431F-AD9B-C8AB4F6616E9}" name="TJPW" dataDxfId="16"/>
     <tableColumn id="3" xr3:uid="{CA5FBB65-FE37-40A8-B1DD-0182D7DD64C3}" name="マリゴ" dataDxfId="15"/>
     <tableColumn id="27" xr3:uid="{50745B86-8D07-4F72-B93E-5C2E105BB03C}" name="IR/ホットシュシュ" dataDxfId="14"/>
-    <tableColumn id="30" xr3:uid="{BB23C0DC-5AEB-431A-A828-4D1BDF4F315F}" name="JTO" dataDxfId="0"/>
-    <tableColumn id="29" xr3:uid="{ADFF1D58-E918-4FF6-B352-AA98020CFD16}" name="チョコプロ" dataDxfId="13"/>
-    <tableColumn id="17" xr3:uid="{C0123278-DCF4-45DB-8696-FC0805957C5C}" name="Diana" dataDxfId="12"/>
-    <tableColumn id="32" xr3:uid="{67EA2433-E1D1-4094-BFB4-0EDB7438926B}" name="Pure-J" dataDxfId="11"/>
-    <tableColumn id="21" xr3:uid="{ACF43FBE-31D7-4ED6-A997-E4AF4BF0B9D4}" name="マーベラス" dataDxfId="10"/>
-    <tableColumn id="23" xr3:uid="{9647ED0D-42FB-42C1-BFB2-8B8D56D414C4}" name="SENDAI" dataDxfId="9"/>
-    <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="8"/>
-    <tableColumn id="20" xr3:uid="{86389032-6123-44BF-98AB-D3CA13F2577A}" name="LLPW-X" dataDxfId="7"/>
-    <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="2.5" dataDxfId="6"/>
-    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="4"/>
-    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="1"/>
+    <tableColumn id="30" xr3:uid="{BB23C0DC-5AEB-431A-A828-4D1BDF4F315F}" name="JTO" dataDxfId="13"/>
+    <tableColumn id="29" xr3:uid="{ADFF1D58-E918-4FF6-B352-AA98020CFD16}" name="チョコプロ" dataDxfId="12"/>
+    <tableColumn id="17" xr3:uid="{C0123278-DCF4-45DB-8696-FC0805957C5C}" name="Diana" dataDxfId="11"/>
+    <tableColumn id="32" xr3:uid="{67EA2433-E1D1-4094-BFB4-0EDB7438926B}" name="Pure-J" dataDxfId="10"/>
+    <tableColumn id="21" xr3:uid="{ACF43FBE-31D7-4ED6-A997-E4AF4BF0B9D4}" name="マーベラス" dataDxfId="9"/>
+    <tableColumn id="23" xr3:uid="{9647ED0D-42FB-42C1-BFB2-8B8D56D414C4}" name="SENDAI" dataDxfId="8"/>
+    <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="7"/>
+    <tableColumn id="20" xr3:uid="{86389032-6123-44BF-98AB-D3CA13F2577A}" name="LLPW-X" dataDxfId="6"/>
+    <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="2.5" dataDxfId="5"/>
+    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="3"/>
+    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2429,11 +2439,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4F8F56-06F6-4E1D-8D81-5A485042419D}">
   <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J50" sqref="J50"/>
+      <selection pane="bottomRight" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2463,14 +2473,14 @@
   <sheetData>
     <row r="1" spans="1:21" ht="16" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:21" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RU2)</f>
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2478,7 +2488,7 @@
      LEN(C5:C999) - LEN(SUBSTITUTE(C5:C999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" cm="1">
         <f t="array" ref="D2">SUMPRODUCT(
@@ -2630,64 +2640,64 @@
     </row>
     <row r="4" spans="1:21" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="R4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="16.7" x14ac:dyDescent="0.8">
@@ -2702,7 +2712,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -2778,7 +2788,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -2789,7 +2799,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="16.7" x14ac:dyDescent="0.8">
@@ -2910,7 +2920,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="U13" s="3"/>
     </row>
@@ -2931,17 +2941,17 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="16.7" x14ac:dyDescent="0.8">
@@ -2967,7 +2977,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="16.7" x14ac:dyDescent="0.8">
@@ -2982,14 +2992,14 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -3021,7 +3031,7 @@
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="2:21" ht="16.7" x14ac:dyDescent="0.8">
@@ -3155,14 +3165,14 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -3170,10 +3180,10 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="2:21" ht="16.7" x14ac:dyDescent="0.8">
@@ -3199,7 +3209,7 @@
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="2:21" ht="16.7" x14ac:dyDescent="0.8">
@@ -3215,7 +3225,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -3227,7 +3237,7 @@
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="2:21" ht="16.7" x14ac:dyDescent="0.8">
@@ -3252,10 +3262,10 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="2:21" ht="33.35" x14ac:dyDescent="0.8">
@@ -3263,7 +3273,7 @@
         <v>1999</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -3282,7 +3292,7 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="U27" s="3"/>
     </row>
@@ -3292,7 +3302,7 @@
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -3301,7 +3311,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -3313,7 +3323,7 @@
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="2:21" ht="16.7" x14ac:dyDescent="0.8">
@@ -3328,13 +3338,13 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -3366,7 +3376,7 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="U30" s="3"/>
     </row>
@@ -3416,10 +3426,10 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U32" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="2:21" ht="16.7" x14ac:dyDescent="0.8">
@@ -3442,14 +3452,14 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S33" s="3"/>
       <c r="T33" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="U33" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="2:21" ht="66.7" x14ac:dyDescent="0.8">
@@ -3461,17 +3471,17 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -3479,11 +3489,11 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T34" s="3"/>
       <c r="U34" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="2:21" ht="33.35" x14ac:dyDescent="0.8">
@@ -3507,11 +3517,11 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="T35" s="3"/>
       <c r="U35" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="2:21" ht="33.35" x14ac:dyDescent="0.8">
@@ -3519,13 +3529,13 @@
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -3539,11 +3549,11 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T36" s="3"/>
       <c r="U36" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="2:21" ht="16.7" x14ac:dyDescent="0.8">
@@ -3568,7 +3578,7 @@
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U37" s="3"/>
     </row>
@@ -3583,7 +3593,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -3593,12 +3603,12 @@
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="U38" s="3"/>
     </row>
@@ -3607,15 +3617,15 @@
         <v>2011</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -3623,21 +3633,21 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="T39" s="3"/>
       <c r="U39" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="2:21" ht="50" x14ac:dyDescent="0.8">
@@ -3646,20 +3656,20 @@
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>1</v>
@@ -3672,7 +3682,7 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U40" s="3"/>
     </row>
@@ -3681,11 +3691,11 @@
         <v>2013</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -3703,13 +3713,13 @@
         <v>2</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="U41" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="2:21" ht="16.7" x14ac:dyDescent="0.8">
@@ -3717,11 +3727,11 @@
         <v>2014</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -3739,7 +3749,7 @@
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
       <c r="U42" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="2:21" ht="66.7" x14ac:dyDescent="0.8">
@@ -3747,11 +3757,11 @@
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -3761,7 +3771,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
@@ -3769,11 +3779,11 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T43" s="3"/>
       <c r="U43" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="2:21" ht="33.35" x14ac:dyDescent="0.8">
@@ -3781,10 +3791,10 @@
         <v>2016</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -3794,10 +3804,10 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -3807,7 +3817,7 @@
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="2:21" ht="33.35" x14ac:dyDescent="0.8">
@@ -3815,15 +3825,15 @@
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -3831,23 +3841,23 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N45" s="3"/>
       <c r="O45" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="T45" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U45" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="2:21" ht="150" x14ac:dyDescent="0.8">
@@ -3855,45 +3865,45 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M46" s="3"/>
       <c r="N46" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U46" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="2:21" ht="66.7" x14ac:dyDescent="0.8">
@@ -3901,33 +3911,33 @@
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -3936,10 +3946,10 @@
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
       <c r="T47" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U47" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="2:21" ht="50" x14ac:dyDescent="0.8">
@@ -3947,23 +3957,23 @@
         <v>2020</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
@@ -3972,14 +3982,14 @@
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="S48" s="3"/>
       <c r="T48" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="2:21" ht="50" x14ac:dyDescent="0.8">
@@ -3987,42 +3997,42 @@
         <v>2021</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M49" s="3"/>
       <c r="N49" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="U49" s="3"/>
     </row>
@@ -4031,28 +4041,28 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>3</v>
+        <v>195</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -4060,16 +4070,16 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="U50" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="2:21" ht="100" x14ac:dyDescent="0.8">
@@ -4077,49 +4087,49 @@
         <v>2023</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="2:21" ht="100" x14ac:dyDescent="0.8">
@@ -4127,45 +4137,45 @@
         <v>2024</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
@@ -4177,40 +4187,42 @@
         <v>2025</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D53" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="U53" s="3"/>
     </row>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562EF201-6C3C-417D-90C8-D093D7819A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA30C21-8DFE-4C2A-97F4-1BEB7763DCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12913" yWindow="1247" windowWidth="12000" windowHeight="9980" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="147" yWindow="3200" windowWidth="20746" windowHeight="9980" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
   <si>
     <t>Stardom</t>
     <phoneticPr fontId="1"/>
@@ -1286,10 +1286,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>苺畑ひより(666)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フライング・ペンギン
 ぽっぽちゃん</t>
     <phoneticPr fontId="1"/>
@@ -1552,6 +1548,15 @@
   <si>
     <t>天咲光由
 ボジラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結奈(REINA)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>苺畑ひより(666)
+横井真菜(REINA)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2440,10 +2445,10 @@
   <dimension ref="A1:U53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O13" sqref="O13"/>
+      <selection pane="bottomRight" activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2480,7 +2485,7 @@
     <row r="2" spans="1:21" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RU2)</f>
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2540,99 +2545,99 @@
       </c>
       <c r="J2" s="1" cm="1">
         <f t="array" ref="J2">SUMPRODUCT(
+  IF(LEN(J5:J999)=0, 0,
+     LEN(J5:J999) - LEN(SUBSTITUTE(J5:J999, CHAR(10), "")) + 1
+  )
+)</f>
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" cm="1">
+        <f t="array" ref="K2">SUMPRODUCT(
   IF(LEN(K5:K999)=0, 0,
      LEN(K5:K999) - LEN(SUBSTITUTE(K5:K999, CHAR(10), "")) + 1
   )
 )</f>
         <v>9</v>
       </c>
-      <c r="K2" s="1" cm="1">
-        <f t="array" ref="K2">SUMPRODUCT(
+      <c r="L2" s="1" cm="1">
+        <f t="array" ref="L2">SUMPRODUCT(
   IF(LEN(L5:L999)=0, 0,
      LEN(L5:L999) - LEN(SUBSTITUTE(L5:L999, CHAR(10), "")) + 1
   )
 )</f>
         <v>9</v>
       </c>
-      <c r="L2" s="1" cm="1">
-        <f t="array" ref="L2">SUMPRODUCT(
+      <c r="M2" s="1" cm="1">
+        <f t="array" ref="M2">SUMPRODUCT(
   IF(LEN(M5:M999)=0, 0,
      LEN(M5:M999) - LEN(SUBSTITUTE(M5:M999, CHAR(10), "")) + 1
   )
 )</f>
         <v>9</v>
       </c>
-      <c r="M2" s="1" cm="1">
-        <f t="array" ref="M2">SUMPRODUCT(
+      <c r="N2" s="1" cm="1">
+        <f t="array" ref="N2">SUMPRODUCT(
   IF(LEN(N5:N999)=0, 0,
      LEN(N5:N999) - LEN(SUBSTITUTE(N5:N999, CHAR(10), "")) + 1
   )
 )</f>
         <v>6</v>
       </c>
-      <c r="N2" s="1" cm="1">
-        <f t="array" ref="N2">SUMPRODUCT(
+      <c r="O2" s="1" cm="1">
+        <f t="array" ref="O2">SUMPRODUCT(
   IF(LEN(O5:O999)=0, 0,
      LEN(O5:O999) - LEN(SUBSTITUTE(O5:O999, CHAR(10), "")) + 1
   )
 )</f>
         <v>5</v>
       </c>
-      <c r="O2" s="1" cm="1">
-        <f t="array" ref="O2">SUMPRODUCT(
+      <c r="P2" s="1" cm="1">
+        <f t="array" ref="P2">SUMPRODUCT(
   IF(LEN(P5:P999)=0, 0,
      LEN(P5:P999) - LEN(SUBSTITUTE(P5:P999, CHAR(10), "")) + 1
   )
 )</f>
         <v>5</v>
       </c>
-      <c r="P2" s="1" cm="1">
-        <f t="array" ref="P2">SUMPRODUCT(
+      <c r="Q2" s="1" cm="1">
+        <f t="array" ref="Q2">SUMPRODUCT(
   IF(LEN(Q5:Q999)=0, 0,
      LEN(Q5:Q999) - LEN(SUBSTITUTE(Q5:Q999, CHAR(10), "")) + 1
   )
 )</f>
         <v>5</v>
       </c>
-      <c r="Q2" s="1" cm="1">
-        <f t="array" ref="Q2">SUMPRODUCT(
+      <c r="R2" s="1" cm="1">
+        <f t="array" ref="R2">SUMPRODUCT(
   IF(LEN(R5:R999)=0, 0,
      LEN(R5:R999) - LEN(SUBSTITUTE(R5:R999, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
-      <c r="R2" s="1" cm="1">
-        <f t="array" ref="R2">SUMPRODUCT(
+      <c r="S2" s="1" cm="1">
+        <f t="array" ref="S2">SUMPRODUCT(
   IF(LEN(S5:S999)=0, 0,
      LEN(S5:S999) - LEN(SUBSTITUTE(S5:S999, CHAR(10), "")) + 1
   )
 )</f>
         <v>8</v>
       </c>
-      <c r="S2" s="1" cm="1">
-        <f t="array" ref="S2">SUMPRODUCT(
+      <c r="T2" s="1" cm="1">
+        <f t="array" ref="T2">SUMPRODUCT(
   IF(LEN(T5:T999)=0, 0,
      LEN(T5:T999) - LEN(SUBSTITUTE(T5:T999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>29</v>
-      </c>
-      <c r="T2" s="1" cm="1">
-        <f t="array" ref="T2">SUMPRODUCT(
+        <v>31</v>
+      </c>
+      <c r="U2" s="1" cm="1">
+        <f t="array" ref="U2">SUMPRODUCT(
   IF(LEN(U5:U999)=0, 0,
      LEN(U5:U999) - LEN(SUBSTITUTE(U5:U999, CHAR(10), "")) + 1
   )
 )</f>
         <v>45</v>
-      </c>
-      <c r="U2" s="1" cm="1">
-        <f t="array" ref="U2">SUMPRODUCT(
-  IF(LEN(V5:V999)=0, 0,
-     LEN(V5:V999) - LEN(SUBSTITUTE(V5:V999, CHAR(10), "")) + 1
-  )
-)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="16" x14ac:dyDescent="0.8">
@@ -3172,7 +3177,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -3180,7 +3185,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>84</v>
@@ -3529,13 +3534,13 @@
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -3622,7 +3627,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>141</v>
@@ -3662,7 +3667,7 @@
         <v>53</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -3716,10 +3721,10 @@
         <v>135</v>
       </c>
       <c r="T41" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="U41" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="42" spans="2:21" ht="16.7" x14ac:dyDescent="0.8">
@@ -3783,7 +3788,7 @@
       </c>
       <c r="T43" s="3"/>
       <c r="U43" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="2:21" ht="33.35" x14ac:dyDescent="0.8">
@@ -3807,7 +3812,7 @@
         <v>35</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -3815,7 +3820,9 @@
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
+      <c r="T44" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="U44" s="3" t="s">
         <v>157</v>
       </c>
@@ -3841,7 +3848,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N45" s="3"/>
       <c r="O45" s="3" t="s">
@@ -3857,7 +3864,7 @@
         <v>74</v>
       </c>
       <c r="U45" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="2:21" ht="150" x14ac:dyDescent="0.8">
@@ -3865,7 +3872,7 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>47</v>
@@ -3949,7 +3956,7 @@
         <v>75</v>
       </c>
       <c r="U47" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="2:21" ht="50" x14ac:dyDescent="0.8">
@@ -3986,7 +3993,7 @@
       </c>
       <c r="S48" s="3"/>
       <c r="T48" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>162</v>
@@ -4032,7 +4039,7 @@
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U49" s="3"/>
     </row>
@@ -4041,7 +4048,7 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>67</v>
@@ -4050,10 +4057,10 @@
         <v>51</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>105</v>
@@ -4070,7 +4077,7 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
@@ -4122,14 +4129,14 @@
         <v>26</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="2:21" ht="100" x14ac:dyDescent="0.8">
@@ -4172,7 +4179,7 @@
         <v>27</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>81</v>
@@ -4190,7 +4197,7 @@
         <v>96</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>153</v>
@@ -4202,11 +4209,11 @@
         <v>138</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3" t="s">
@@ -4222,7 +4229,7 @@
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="U53" s="3"/>
     </row>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA30C21-8DFE-4C2A-97F4-1BEB7763DCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BD579A-D5A9-44B9-A9D0-DB955DA1D8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="147" yWindow="3200" windowWidth="20746" windowHeight="9980" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="17633" yWindow="1733" windowWidth="20747" windowHeight="9980" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -892,14 +892,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>紫雷美央
-キラアン</t>
-    <rPh sb="0" eb="4">
-      <t>シライミオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>柊くるみ(PR)
 夏実もち(PR)
 LINDA(信州)</t>
@@ -1000,13 +992,6 @@
     <t>白川未奈(AEW)</t>
   </si>
   <si>
-    <t>堀田祐美子(T-HAWK)</t>
-    <rPh sb="0" eb="5">
-      <t>ホッタユミコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>坂崎ユカ(AEW)</t>
     <rPh sb="0" eb="2">
       <t>サカザキ</t>
@@ -1136,10 +1121,6 @@
     <rPh sb="5" eb="7">
       <t>シンノ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>叶みく(T-HAWK)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1445,14 +1426,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>鶴姫花（愛媛）
-緑野アミサ(アルマリブレ)</t>
-    <rPh sb="4" eb="6">
-      <t>エヒメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>加藤園子(OZ)(引退予定)
 ミス・モンゴル(世界)</t>
     <rPh sb="0" eb="2">
@@ -1557,6 +1530,35 @@
   <si>
     <t>苺畑ひより(666)
 横井真菜(REINA)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紫雷美央
+キラアン
+ガキにゃん仮面</t>
+    <rPh sb="0" eb="4">
+      <t>シライミオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鶴姫花（愛媛）
+緑野アミサ(アルマリブレ)
+豊田紗也夏(T-HEARTS)</t>
+    <rPh sb="4" eb="6">
+      <t>エヒメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>叶みく(T-HEARTS)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>堀田祐美子(T-HEARTS)</t>
+    <rPh sb="0" eb="5">
+      <t>ホッタユミコ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2445,10 +2447,10 @@
   <dimension ref="A1:U53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="E47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="T2" sqref="T2"/>
+      <selection pane="bottomRight" activeCell="Q49" sqref="Q49:T49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2478,14 +2480,14 @@
   <sheetData>
     <row r="1" spans="1:21" ht="16" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:21" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RU2)</f>
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2629,7 +2631,7 @@
      LEN(T5:T999) - LEN(SUBSTITUTE(T5:T999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U2" s="1" cm="1">
         <f t="array" ref="U2">SUMPRODUCT(
@@ -2637,7 +2639,7 @@
      LEN(U5:U999) - LEN(SUBSTITUTE(U5:U999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="16" x14ac:dyDescent="0.8">
@@ -2672,7 +2674,7 @@
         <v>21</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>9</v>
@@ -2687,7 +2689,7 @@
         <v>23</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>4</v>
@@ -2696,7 +2698,7 @@
         <v>8</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>45</v>
@@ -2925,7 +2927,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="U13" s="3"/>
     </row>
@@ -2982,7 +2984,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="16.7" x14ac:dyDescent="0.8">
@@ -3036,7 +3038,7 @@
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="2:21" ht="16.7" x14ac:dyDescent="0.8">
@@ -3177,7 +3179,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -3185,7 +3187,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>84</v>
@@ -3230,7 +3232,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -3316,7 +3318,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -3457,7 +3459,7 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S33" s="3"/>
       <c r="T33" s="3" t="s">
@@ -3476,13 +3478,13 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3" t="s">
@@ -3498,10 +3500,10 @@
       </c>
       <c r="T34" s="3"/>
       <c r="U34" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="35" spans="2:21" ht="33.35" x14ac:dyDescent="0.8">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" ht="50" x14ac:dyDescent="0.8">
       <c r="B35" s="3">
         <v>2007</v>
       </c>
@@ -3522,11 +3524,11 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T35" s="3"/>
       <c r="U35" s="3" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="2:21" ht="33.35" x14ac:dyDescent="0.8">
@@ -3534,13 +3536,13 @@
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -3613,7 +3615,7 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U38" s="3"/>
     </row>
@@ -3627,10 +3629,10 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -3638,7 +3640,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
@@ -3648,7 +3650,7 @@
         <v>50</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T39" s="3"/>
       <c r="U39" s="3" t="s">
@@ -3667,14 +3669,14 @@
         <v>53</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>1</v>
@@ -3718,13 +3720,13 @@
         <v>2</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="U41" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="2:21" ht="16.7" x14ac:dyDescent="0.8">
@@ -3754,7 +3756,7 @@
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
       <c r="U42" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="2:21" ht="66.7" x14ac:dyDescent="0.8">
@@ -3784,11 +3786,11 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T43" s="3"/>
       <c r="U43" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="2:21" ht="33.35" x14ac:dyDescent="0.8">
@@ -3812,7 +3814,7 @@
         <v>35</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -3821,10 +3823,10 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
       <c r="T44" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="U44" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="2:21" ht="33.35" x14ac:dyDescent="0.8">
@@ -3840,7 +3842,7 @@
         <v>13</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -3848,7 +3850,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="N45" s="3"/>
       <c r="O45" s="3" t="s">
@@ -3858,13 +3860,13 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>74</v>
       </c>
       <c r="U45" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="2:21" ht="150" x14ac:dyDescent="0.8">
@@ -3872,13 +3874,13 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>16</v>
@@ -3890,7 +3892,7 @@
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>37</v>
@@ -3904,13 +3906,13 @@
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U46" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="2:21" ht="66.7" x14ac:dyDescent="0.8">
@@ -3918,7 +3920,7 @@
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
@@ -3928,7 +3930,7 @@
         <v>14</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>104</v>
@@ -3940,7 +3942,7 @@
         <v>30</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3" t="s">
@@ -3956,7 +3958,7 @@
         <v>75</v>
       </c>
       <c r="U47" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="2:21" ht="50" x14ac:dyDescent="0.8">
@@ -3975,12 +3977,12 @@
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
@@ -3989,17 +3991,17 @@
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S48" s="3"/>
       <c r="T48" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="49" spans="2:21" ht="50" x14ac:dyDescent="0.8">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" ht="83.35" x14ac:dyDescent="0.8">
       <c r="B49" s="3">
         <v>2021</v>
       </c>
@@ -4016,7 +4018,7 @@
         <v>12</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>106</v>
@@ -4039,7 +4041,7 @@
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="U49" s="3"/>
     </row>
@@ -4048,7 +4050,7 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>67</v>
@@ -4057,10 +4059,10 @@
         <v>51</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>105</v>
@@ -4077,16 +4079,16 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="U50" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="2:21" ht="100" x14ac:dyDescent="0.8">
@@ -4100,13 +4102,13 @@
         <v>43</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>63</v>
@@ -4115,7 +4117,7 @@
         <v>102</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -4129,14 +4131,14 @@
         <v>26</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="2:21" ht="100" x14ac:dyDescent="0.8">
@@ -4156,7 +4158,7 @@
         <v>18</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>107</v>
@@ -4168,10 +4170,10 @@
         <v>31</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
@@ -4179,7 +4181,7 @@
         <v>27</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>81</v>
@@ -4197,39 +4199,39 @@
         <v>96</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="U53" s="3"/>
     </row>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BD579A-D5A9-44B9-A9D0-DB955DA1D8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCB559D-6861-4010-BA25-EE0F01DB6EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17633" yWindow="1733" windowWidth="20747" windowHeight="9980" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="8073" yWindow="1847" windowWidth="20747" windowHeight="9980" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -1237,11 +1237,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>風南ユキ
-望天セレネ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>JENNE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1478,23 +1473,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>梨央
-(弥福かな)
-(ゴんべ)</t>
-    <rPh sb="0" eb="2">
-      <t>リオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リアラ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(練習生あんな)</t>
-    <rPh sb="1" eb="4">
-      <t>レンシュウセイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1558,6 +1537,28 @@
     <t>堀田祐美子(T-HEARTS)</t>
     <rPh sb="0" eb="5">
       <t>ホッタユミコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>風南ユキ
+望天セレネ
+&lt;せいな&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>梨央
+&lt;弥福かな&gt;
+&lt;ゴんべ&gt;</t>
+    <rPh sb="0" eb="2">
+      <t>リオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;練習生あんな&gt;</t>
+    <rPh sb="1" eb="4">
+      <t>レンシュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2447,10 +2448,10 @@
   <dimension ref="A1:U53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="E47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q49" sqref="Q49:T49"/>
+      <selection pane="bottomRight" activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2487,7 +2488,7 @@
     <row r="2" spans="1:21" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RU2)</f>
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2607,7 +2608,7 @@
      LEN(Q5:Q999) - LEN(SUBSTITUTE(Q5:Q999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R2" s="1" cm="1">
         <f t="array" ref="R2">SUMPRODUCT(
@@ -2927,7 +2928,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="U13" s="3"/>
     </row>
@@ -3179,7 +3180,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -3187,7 +3188,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>84</v>
@@ -3528,7 +3529,7 @@
       </c>
       <c r="T35" s="3"/>
       <c r="U35" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="2:21" ht="33.35" x14ac:dyDescent="0.8">
@@ -3536,13 +3537,13 @@
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -3629,7 +3630,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>139</v>
@@ -3669,7 +3670,7 @@
         <v>53</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -3723,10 +3724,10 @@
         <v>133</v>
       </c>
       <c r="T41" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="U41" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="42" spans="2:21" ht="16.7" x14ac:dyDescent="0.8">
@@ -3790,7 +3791,7 @@
       </c>
       <c r="T43" s="3"/>
       <c r="U43" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="2:21" ht="33.35" x14ac:dyDescent="0.8">
@@ -3814,7 +3815,7 @@
         <v>35</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -3823,7 +3824,7 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
       <c r="T44" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>154</v>
@@ -3850,7 +3851,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N45" s="3"/>
       <c r="O45" s="3" t="s">
@@ -3866,7 +3867,7 @@
         <v>74</v>
       </c>
       <c r="U45" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="2:21" ht="150" x14ac:dyDescent="0.8">
@@ -3874,7 +3875,7 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>47</v>
@@ -3942,7 +3943,7 @@
         <v>30</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3" t="s">
@@ -3958,7 +3959,7 @@
         <v>75</v>
       </c>
       <c r="U47" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="2:21" ht="50" x14ac:dyDescent="0.8">
@@ -3977,7 +3978,7 @@
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -3995,7 +3996,7 @@
       </c>
       <c r="S48" s="3"/>
       <c r="T48" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>159</v>
@@ -4041,7 +4042,7 @@
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="U49" s="3"/>
     </row>
@@ -4050,7 +4051,7 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>67</v>
@@ -4059,10 +4060,10 @@
         <v>51</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>105</v>
@@ -4079,13 +4080,13 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="U50" s="3" t="s">
         <v>146</v>
@@ -4117,7 +4118,7 @@
         <v>102</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -4131,14 +4132,14 @@
         <v>26</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="2:21" ht="100" x14ac:dyDescent="0.8">
@@ -4170,7 +4171,7 @@
         <v>31</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>155</v>
@@ -4181,7 +4182,7 @@
         <v>27</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>81</v>
@@ -4199,7 +4200,7 @@
         <v>96</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>150</v>
@@ -4211,27 +4212,27 @@
         <v>136</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="U53" s="3"/>
     </row>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCB559D-6861-4010-BA25-EE0F01DB6EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150E4B16-22C9-4C41-A4DD-7303F0FBD902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8073" yWindow="1847" windowWidth="20747" windowHeight="9980" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="5080" yWindow="2480" windowWidth="20747" windowHeight="9980" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t>Stardom</t>
     <phoneticPr fontId="1"/>
@@ -1100,13 +1100,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マリ卍</t>
-    <rPh sb="2" eb="3">
-      <t>マンジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>七星</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1560,6 +1553,29 @@
     <rPh sb="1" eb="4">
       <t>レンシュウセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>柳ヶ瀬</t>
+    <rPh sb="0" eb="3">
+      <t>ヤナガセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>沙恵</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マリ卍</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>星乃純奈</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クッキー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1638,7 +1654,27 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Noto Serif JP SemiBold"/>
+        <family val="1"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2100,29 +2136,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A34D807-EC26-4518-9852-7FFB26CEC57B}" name="テーブル1" displayName="テーブル1" ref="B4:U53" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="B4:U53" xr:uid="{4A34D807-EC26-4518-9852-7FFB26CEC57B}"/>
-  <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{C5BCADDE-F600-4480-BD2B-E93168A1BF7F}" name="デビュー年" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{7319872F-B1DE-47E8-ADFA-F5962E445AE2}" name="Stardom" dataDxfId="18"/>
-    <tableColumn id="18" xr3:uid="{6DD05DFF-D195-4CF5-BFC5-531553A9ADC5}" name="AWG" dataDxfId="17"/>
-    <tableColumn id="22" xr3:uid="{8EA6491D-1F78-431F-AD9B-C8AB4F6616E9}" name="TJPW" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{CA5FBB65-FE37-40A8-B1DD-0182D7DD64C3}" name="マリゴ" dataDxfId="15"/>
-    <tableColumn id="27" xr3:uid="{50745B86-8D07-4F72-B93E-5C2E105BB03C}" name="IR/ホットシュシュ" dataDxfId="14"/>
-    <tableColumn id="30" xr3:uid="{BB23C0DC-5AEB-431A-A828-4D1BDF4F315F}" name="JTO" dataDxfId="13"/>
-    <tableColumn id="29" xr3:uid="{ADFF1D58-E918-4FF6-B352-AA98020CFD16}" name="チョコプロ" dataDxfId="12"/>
-    <tableColumn id="17" xr3:uid="{C0123278-DCF4-45DB-8696-FC0805957C5C}" name="Diana" dataDxfId="11"/>
-    <tableColumn id="32" xr3:uid="{67EA2433-E1D1-4094-BFB4-0EDB7438926B}" name="Pure-J" dataDxfId="10"/>
-    <tableColumn id="21" xr3:uid="{ACF43FBE-31D7-4ED6-A997-E4AF4BF0B9D4}" name="マーベラス" dataDxfId="9"/>
-    <tableColumn id="23" xr3:uid="{9647ED0D-42FB-42C1-BFB2-8B8D56D414C4}" name="SENDAI" dataDxfId="8"/>
-    <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="7"/>
-    <tableColumn id="20" xr3:uid="{86389032-6123-44BF-98AB-D3CA13F2577A}" name="LLPW-X" dataDxfId="6"/>
-    <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="2.5" dataDxfId="5"/>
-    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="3"/>
-    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A34D807-EC26-4518-9852-7FFB26CEC57B}" name="テーブル1" displayName="テーブル1" ref="B4:V53" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="B4:V53" xr:uid="{4A34D807-EC26-4518-9852-7FFB26CEC57B}"/>
+  <tableColumns count="21">
+    <tableColumn id="1" xr3:uid="{C5BCADDE-F600-4480-BD2B-E93168A1BF7F}" name="デビュー年" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{7319872F-B1DE-47E8-ADFA-F5962E445AE2}" name="Stardom" dataDxfId="19"/>
+    <tableColumn id="18" xr3:uid="{6DD05DFF-D195-4CF5-BFC5-531553A9ADC5}" name="AWG" dataDxfId="18"/>
+    <tableColumn id="22" xr3:uid="{8EA6491D-1F78-431F-AD9B-C8AB4F6616E9}" name="TJPW" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{CA5FBB65-FE37-40A8-B1DD-0182D7DD64C3}" name="マリゴ" dataDxfId="16"/>
+    <tableColumn id="27" xr3:uid="{50745B86-8D07-4F72-B93E-5C2E105BB03C}" name="IR/ホットシュシュ" dataDxfId="15"/>
+    <tableColumn id="30" xr3:uid="{BB23C0DC-5AEB-431A-A828-4D1BDF4F315F}" name="JTO" dataDxfId="14"/>
+    <tableColumn id="29" xr3:uid="{ADFF1D58-E918-4FF6-B352-AA98020CFD16}" name="チョコプロ" dataDxfId="13"/>
+    <tableColumn id="17" xr3:uid="{C0123278-DCF4-45DB-8696-FC0805957C5C}" name="Diana" dataDxfId="12"/>
+    <tableColumn id="32" xr3:uid="{67EA2433-E1D1-4094-BFB4-0EDB7438926B}" name="Pure-J" dataDxfId="11"/>
+    <tableColumn id="21" xr3:uid="{ACF43FBE-31D7-4ED6-A997-E4AF4BF0B9D4}" name="マーベラス" dataDxfId="10"/>
+    <tableColumn id="23" xr3:uid="{9647ED0D-42FB-42C1-BFB2-8B8D56D414C4}" name="SENDAI" dataDxfId="9"/>
+    <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="8"/>
+    <tableColumn id="20" xr3:uid="{86389032-6123-44BF-98AB-D3CA13F2577A}" name="LLPW-X" dataDxfId="7"/>
+    <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="2.5" dataDxfId="6"/>
+    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="0"/>
+    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2445,13 +2482,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4F8F56-06F6-4E1D-8D81-5A485042419D}">
-  <dimension ref="A1:U53"/>
+  <dimension ref="A1:V53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="D50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J54" sqref="J54"/>
+      <selection pane="bottomRight" activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2472,23 +2509,24 @@
     <col min="16" max="16" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="47.77734375" style="1"/>
+    <col min="19" max="19" width="9.44140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="47.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:22" ht="16" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
         <v>140</v>
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:21" ht="16" x14ac:dyDescent="0.8">
+    <row r="2" spans="1:22" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
-        <f>SUM(C2:RU2)</f>
-        <v>312</v>
+        <f>SUM(C2:RV2)</f>
+        <v>315</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2624,7 +2662,7 @@
      LEN(S5:S999) - LEN(SUBSTITUTE(S5:S999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T2" s="1" cm="1">
         <f t="array" ref="T2">SUMPRODUCT(
@@ -2632,7 +2670,7 @@
      LEN(T5:T999) - LEN(SUBSTITUTE(T5:T999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="U2" s="1" cm="1">
         <f t="array" ref="U2">SUMPRODUCT(
@@ -2640,13 +2678,21 @@
      LEN(U5:U999) - LEN(SUBSTITUTE(U5:U999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="16" x14ac:dyDescent="0.8">
+        <v>32</v>
+      </c>
+      <c r="V2" s="1" cm="1">
+        <f t="array" ref="V2">SUMPRODUCT(
+  IF(LEN(V5:V999)=0, 0,
+     LEN(V5:V999) - LEN(SUBSTITUTE(V5:V999, CHAR(10), "")) + 1
+  )
+)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="16" x14ac:dyDescent="0.8">
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="4" spans="1:22" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -2690,7 +2736,7 @@
         <v>23</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>4</v>
@@ -2699,16 +2745,19 @@
         <v>8</v>
       </c>
       <c r="S4" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="V4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="5" spans="1:22" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B5" s="3">
         <v>1977</v>
       </c>
@@ -2733,8 +2782,9 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
-    </row>
-    <row r="6" spans="1:21" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="V5" s="3"/>
+    </row>
+    <row r="6" spans="1:22" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B6" s="3">
         <v>1978</v>
       </c>
@@ -2757,8 +2807,9 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
-    </row>
-    <row r="7" spans="1:21" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="V6" s="3"/>
+    </row>
+    <row r="7" spans="1:22" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B7" s="3">
         <v>1979</v>
       </c>
@@ -2781,8 +2832,9 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
-    </row>
-    <row r="8" spans="1:21" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="V7" s="3"/>
+    </row>
+    <row r="8" spans="1:22" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B8" s="3">
         <v>1980</v>
       </c>
@@ -2806,11 +2858,12 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
-      <c r="U8" s="3" t="s">
+      <c r="U8" s="3"/>
+      <c r="V8" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="9" spans="1:22" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B9" s="3">
         <v>1981</v>
       </c>
@@ -2833,8 +2886,9 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
-    </row>
-    <row r="10" spans="1:21" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="V9" s="3"/>
+    </row>
+    <row r="10" spans="1:22" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B10" s="3">
         <v>1982</v>
       </c>
@@ -2857,8 +2911,9 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
-    </row>
-    <row r="11" spans="1:21" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="V10" s="3"/>
+    </row>
+    <row r="11" spans="1:22" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B11" s="3">
         <v>1983</v>
       </c>
@@ -2881,8 +2936,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B12" s="3">
         <v>1984</v>
       </c>
@@ -2905,8 +2961,9 @@
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
-    </row>
-    <row r="13" spans="1:21" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="V12" s="3"/>
+    </row>
+    <row r="13" spans="1:22" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B13" s="3">
         <v>1985</v>
       </c>
@@ -2927,12 +2984,13 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="U13" s="3"/>
-    </row>
-    <row r="14" spans="1:21" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="T13" s="3"/>
+      <c r="U13" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="V13" s="3"/>
+    </row>
+    <row r="14" spans="1:22" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B14" s="3">
         <v>1986</v>
       </c>
@@ -2955,14 +3013,15 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="3"/>
+      <c r="U14" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="15" spans="1:22" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B15" s="3">
         <v>1987</v>
       </c>
@@ -2984,11 +3043,12 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="3" t="s">
+      <c r="U15" s="3"/>
+      <c r="V15" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="16" spans="1:22" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B16" s="3">
         <v>1988</v>
       </c>
@@ -3015,8 +3075,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="2:21" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="2:22" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B17" s="3">
         <v>1989</v>
       </c>
@@ -3038,11 +3099,12 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
-      <c r="U17" s="3" t="s">
+      <c r="U17" s="3"/>
+      <c r="V17" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="2:21" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="18" spans="2:22" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B18" s="3">
         <v>1990</v>
       </c>
@@ -3065,8 +3127,9 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
-    </row>
-    <row r="19" spans="2:21" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="V18" s="3"/>
+    </row>
+    <row r="19" spans="2:22" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B19" s="3">
         <v>1991</v>
       </c>
@@ -3089,8 +3152,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="2:21" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="2:22" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B20" s="3">
         <v>1992</v>
       </c>
@@ -3113,8 +3177,9 @@
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
-    </row>
-    <row r="21" spans="2:21" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="V20" s="3"/>
+    </row>
+    <row r="21" spans="2:22" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B21" s="3">
         <v>1993</v>
       </c>
@@ -3137,8 +3202,9 @@
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
-    </row>
-    <row r="22" spans="2:21" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="V21" s="3"/>
+    </row>
+    <row r="22" spans="2:22" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B22" s="3">
         <v>1994</v>
       </c>
@@ -3161,8 +3227,9 @@
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
-    </row>
-    <row r="23" spans="2:21" ht="66.7" x14ac:dyDescent="0.8">
+      <c r="V22" s="3"/>
+    </row>
+    <row r="23" spans="2:22" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B23" s="3">
         <v>1995</v>
       </c>
@@ -3180,21 +3247,22 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
-      <c r="T23" s="3" t="s">
-        <v>182</v>
-      </c>
+      <c r="T23" s="3"/>
       <c r="U23" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="V23" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="2:21" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="24" spans="2:22" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B24" s="3">
         <v>1996</v>
       </c>
@@ -3216,11 +3284,12 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
-      <c r="U24" s="3" t="s">
+      <c r="U24" s="3"/>
+      <c r="V24" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:21" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="25" spans="2:22" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B25" s="3">
         <v>1997</v>
       </c>
@@ -3244,11 +3313,12 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
-      <c r="U25" s="3" t="s">
+      <c r="U25" s="3"/>
+      <c r="V25" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="2:21" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="26" spans="2:22" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B26" s="3">
         <v>1998</v>
       </c>
@@ -3269,14 +3339,15 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
-      <c r="T26" s="3" t="s">
+      <c r="T26" s="3"/>
+      <c r="U26" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="U26" s="3" t="s">
+      <c r="V26" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="2:21" ht="33.35" x14ac:dyDescent="0.8">
+    <row r="27" spans="2:22" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B27" s="3">
         <v>1999</v>
       </c>
@@ -3299,12 +3370,13 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
-      <c r="T27" s="3" t="s">
+      <c r="T27" s="3"/>
+      <c r="U27" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="U27" s="3"/>
-    </row>
-    <row r="28" spans="2:21" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="V27" s="3"/>
+    </row>
+    <row r="28" spans="2:22" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B28" s="3">
         <v>2000</v>
       </c>
@@ -3330,11 +3402,12 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
-      <c r="U28" s="3" t="s">
+      <c r="U28" s="3"/>
+      <c r="V28" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="2:21" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="29" spans="2:22" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B29" s="3">
         <v>2001</v>
       </c>
@@ -3361,8 +3434,9 @@
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
-    </row>
-    <row r="30" spans="2:21" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="V29" s="3"/>
+    </row>
+    <row r="30" spans="2:22" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B30" s="3">
         <v>2002</v>
       </c>
@@ -3383,12 +3457,13 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
-      <c r="T30" s="3" t="s">
+      <c r="T30" s="3"/>
+      <c r="U30" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="U30" s="3"/>
-    </row>
-    <row r="31" spans="2:21" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="V30" s="3"/>
+    </row>
+    <row r="31" spans="2:22" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B31" s="3">
         <v>2003</v>
       </c>
@@ -3411,8 +3486,9 @@
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
-    </row>
-    <row r="32" spans="2:21" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="V31" s="3"/>
+    </row>
+    <row r="32" spans="2:22" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B32" s="3">
         <v>2004</v>
       </c>
@@ -3433,14 +3509,15 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
-      <c r="T32" s="3" t="s">
+      <c r="T32" s="3"/>
+      <c r="U32" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="U32" s="3" t="s">
+      <c r="V32" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="2:21" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="33" spans="2:22" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B33" s="3">
         <v>2005</v>
       </c>
@@ -3463,14 +3540,15 @@
         <v>119</v>
       </c>
       <c r="S33" s="3"/>
-      <c r="T33" s="3" t="s">
+      <c r="T33" s="3"/>
+      <c r="U33" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="U33" s="3" t="s">
+      <c r="V33" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="2:21" ht="66.7" x14ac:dyDescent="0.8">
+    <row r="34" spans="2:22" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B34" s="3">
         <v>2006</v>
       </c>
@@ -3479,7 +3557,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -3496,15 +3574,16 @@
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
-      <c r="S34" s="3" t="s">
+      <c r="S34" s="3"/>
+      <c r="T34" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3" t="s">
+      <c r="U34" s="3"/>
+      <c r="V34" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="2:21" ht="50" x14ac:dyDescent="0.8">
+    <row r="35" spans="2:22" ht="50" x14ac:dyDescent="0.8">
       <c r="B35" s="3">
         <v>2007</v>
       </c>
@@ -3524,26 +3603,27 @@
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
-      <c r="S35" s="3" t="s">
+      <c r="S35" s="3"/>
+      <c r="T35" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="36" spans="2:21" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="U35" s="3"/>
+      <c r="V35" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B36" s="3">
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -3556,15 +3636,16 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
-      <c r="S36" s="3" t="s">
+      <c r="S36" s="3"/>
+      <c r="T36" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3" t="s">
+      <c r="U36" s="3"/>
+      <c r="V36" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="2:21" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="37" spans="2:22" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B37" s="3">
         <v>2009</v>
       </c>
@@ -3585,12 +3666,13 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
-      <c r="T37" s="3" t="s">
+      <c r="T37" s="3"/>
+      <c r="U37" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="U37" s="3"/>
-    </row>
-    <row r="38" spans="2:21" ht="50" x14ac:dyDescent="0.8">
+      <c r="V37" s="3"/>
+    </row>
+    <row r="38" spans="2:22" ht="50" x14ac:dyDescent="0.8">
       <c r="B38" s="3">
         <v>2010</v>
       </c>
@@ -3615,12 +3697,13 @@
       </c>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
-      <c r="T38" s="3" t="s">
+      <c r="T38" s="3"/>
+      <c r="U38" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="U38" s="3"/>
-    </row>
-    <row r="39" spans="2:21" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="V38" s="3"/>
+    </row>
+    <row r="39" spans="2:22" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B39" s="3">
         <v>2011</v>
       </c>
@@ -3630,7 +3713,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>139</v>
@@ -3650,15 +3733,16 @@
       <c r="R39" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="S39" s="3" t="s">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3" t="s">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="2:21" ht="50" x14ac:dyDescent="0.8">
+    <row r="40" spans="2:22" ht="50" x14ac:dyDescent="0.8">
       <c r="B40" s="3">
         <v>2012</v>
       </c>
@@ -3670,7 +3754,7 @@
         <v>53</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -3689,12 +3773,13 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-      <c r="T40" s="3" t="s">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" ht="116.7" x14ac:dyDescent="0.8">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" ht="116.7" x14ac:dyDescent="0.8">
       <c r="B41" s="3">
         <v>2013</v>
       </c>
@@ -3720,17 +3805,18 @@
       <c r="R41" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="S41" s="3" t="s">
+      <c r="S41" s="3"/>
+      <c r="T41" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="T41" s="3" t="s">
+      <c r="U41" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="V41" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" ht="16.7" x14ac:dyDescent="0.8">
+    </row>
+    <row r="42" spans="2:22" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B42" s="3">
         <v>2014</v>
       </c>
@@ -3756,11 +3842,12 @@
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
-      <c r="U42" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="43" spans="2:21" ht="66.7" x14ac:dyDescent="0.8">
+      <c r="U42" s="3"/>
+      <c r="V42" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B43" s="3">
         <v>2015</v>
       </c>
@@ -3786,15 +3873,16 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
-      <c r="S43" s="3" t="s">
+      <c r="S43" s="3"/>
+      <c r="T43" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="U43" s="3"/>
+      <c r="V43" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B44" s="3">
         <v>2016</v>
       </c>
@@ -3815,7 +3903,7 @@
         <v>35</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -3823,14 +3911,15 @@
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
-      <c r="T44" s="3" t="s">
-        <v>188</v>
-      </c>
+      <c r="T44" s="3"/>
       <c r="U44" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="45" spans="2:21" ht="33.35" x14ac:dyDescent="0.8">
+        <v>187</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B45" s="3">
         <v>2017</v>
       </c>
@@ -3851,7 +3940,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N45" s="3"/>
       <c r="O45" s="3" t="s">
@@ -3861,27 +3950,30 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="T45" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="U45" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" ht="150" x14ac:dyDescent="0.8">
+      <c r="V45" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" ht="150" x14ac:dyDescent="0.8">
       <c r="B46" s="3">
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>16</v>
@@ -3907,21 +3999,22 @@
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="T46" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="T46" s="3" t="s">
+      <c r="U46" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" ht="66.7" x14ac:dyDescent="0.8">
+      <c r="V46" s="3"/>
+    </row>
+    <row r="47" spans="2:22" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B47" s="3">
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
@@ -3943,7 +4036,7 @@
         <v>30</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3" t="s">
@@ -3955,14 +4048,15 @@
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
-      <c r="T47" s="3" t="s">
+      <c r="T47" s="3"/>
+      <c r="U47" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="48" spans="2:21" ht="50" x14ac:dyDescent="0.8">
+      <c r="V47" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" ht="50" x14ac:dyDescent="0.8">
       <c r="B48" s="3">
         <v>2020</v>
       </c>
@@ -3978,7 +4072,7 @@
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -3995,14 +4089,15 @@
         <v>118</v>
       </c>
       <c r="S48" s="3"/>
-      <c r="T48" s="3" t="s">
-        <v>181</v>
-      </c>
+      <c r="T48" s="3"/>
       <c r="U48" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="49" spans="2:21" ht="83.35" x14ac:dyDescent="0.8">
+        <v>180</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="2:22" ht="83.35" x14ac:dyDescent="0.8">
       <c r="B49" s="3">
         <v>2021</v>
       </c>
@@ -4041,17 +4136,18 @@
       </c>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
-      <c r="T49" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="U49" s="3"/>
-    </row>
-    <row r="50" spans="2:21" ht="150" x14ac:dyDescent="0.8">
+      <c r="T49" s="3"/>
+      <c r="U49" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="V49" s="3"/>
+    </row>
+    <row r="50" spans="2:22" ht="150" x14ac:dyDescent="0.8">
       <c r="B50" s="3">
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>67</v>
@@ -4060,10 +4156,10 @@
         <v>51</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>105</v>
@@ -4080,19 +4176,20 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
-      <c r="T50" s="3" t="s">
-        <v>192</v>
-      </c>
+      <c r="T50" s="3"/>
       <c r="U50" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="51" spans="2:21" ht="100" x14ac:dyDescent="0.8">
+        <v>191</v>
+      </c>
+      <c r="V50" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="2:22" ht="100" x14ac:dyDescent="0.8">
       <c r="B51" s="3">
         <v>2023</v>
       </c>
@@ -4103,13 +4200,13 @@
         <v>43</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>63</v>
@@ -4118,7 +4215,7 @@
         <v>102</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -4132,17 +4229,18 @@
         <v>26</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
-      <c r="U51" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="52" spans="2:21" ht="100" x14ac:dyDescent="0.8">
+      <c r="U51" s="3"/>
+      <c r="V51" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22" ht="100" x14ac:dyDescent="0.8">
       <c r="B52" s="3">
         <v>2024</v>
       </c>
@@ -4171,10 +4269,10 @@
         <v>31</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
@@ -4182,17 +4280,20 @@
         <v>27</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>81</v>
       </c>
       <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
+      <c r="S52" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
-    </row>
-    <row r="53" spans="2:21" ht="83.35" x14ac:dyDescent="0.8">
+      <c r="V52" s="3"/>
+    </row>
+    <row r="53" spans="2:22" ht="83.35" x14ac:dyDescent="0.8">
       <c r="B53" s="3">
         <v>2025</v>
       </c>
@@ -4200,41 +4301,44 @@
         <v>96</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>136</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="U53" s="3"/>
+      <c r="S53" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="V53" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150E4B16-22C9-4C41-A4DD-7303F0FBD902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27058C69-EB05-422E-A6FB-764B6481D036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="2480" windowWidth="20747" windowHeight="9980" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="3300" yWindow="1000" windowWidth="13867" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <si>
     <t>Stardom</t>
     <phoneticPr fontId="1"/>
@@ -1576,6 +1576,10 @@
   </si>
   <si>
     <t>クッキー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デビーカイテル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1657,26 +1661,6 @@
   <dxfs count="23">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Noto Serif JP SemiBold"/>
-        <family val="1"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1695,6 +1679,26 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Noto Serif JP SemiBold"/>
+        <family val="1"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2156,10 +2160,10 @@
     <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="2.5" dataDxfId="6"/>
     <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="5"/>
     <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="0"/>
-    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="3"/>
+    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2485,10 +2489,10 @@
   <dimension ref="A1:V53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="D50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K53" sqref="K53"/>
+      <selection pane="bottomRight" activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2526,7 +2530,7 @@
     <row r="2" spans="1:22" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RV2)</f>
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2590,7 +2594,7 @@
      LEN(J5:J999) - LEN(SUBSTITUTE(J5:J999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="1" cm="1">
         <f t="array" ref="K2">SUMPRODUCT(
@@ -3936,7 +3940,9 @@
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
+      <c r="J45" s="3" t="s">
+        <v>201</v>
+      </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3" t="s">

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27058C69-EB05-422E-A6FB-764B6481D036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8843FF-29D5-4DF1-8546-808A83472FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="1000" windowWidth="13867" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="1467" yWindow="1000" windowWidth="14286" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -1523,10 +1523,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>叶みく(T-HEARTS)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>堀田祐美子(T-HEARTS)</t>
     <rPh sb="0" eb="5">
       <t>ホッタユミコ</t>
@@ -1580,6 +1576,10 @@
   </si>
   <si>
     <t>デビーカイテル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>叶ミク(T-HEARTS)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2489,10 +2489,10 @@
   <dimension ref="A1:V53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="M42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J46" sqref="J46"/>
+      <selection pane="bottomRight" activeCell="U51" sqref="U51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2749,7 +2749,7 @@
         <v>8</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>127</v>
@@ -2990,7 +2990,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V13" s="3"/>
     </row>
@@ -3941,7 +3941,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -3956,7 +3956,7 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>152</v>
@@ -4005,7 +4005,7 @@
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>132</v>
@@ -4189,7 +4189,7 @@
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="V50" s="3" t="s">
         <v>145</v>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="R52" s="3"/>
       <c r="S52" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
@@ -4307,7 +4307,7 @@
         <v>96</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>149</v>
@@ -4323,7 +4323,7 @@
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3" t="s">
@@ -4334,11 +4334,11 @@
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R53" s="3"/>
       <c r="S53" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T53" s="3"/>
       <c r="U53" s="3" t="s">

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8843FF-29D5-4DF1-8546-808A83472FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD57A90-558A-4DCA-A7D5-9BFA6B67AC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1467" yWindow="1000" windowWidth="14286" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="3720" yWindow="193" windowWidth="14287" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
   <si>
     <t>Stardom</t>
     <phoneticPr fontId="1"/>
@@ -1058,23 +1058,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>渡辺智子
-伊藤薫</t>
-    <rPh sb="0" eb="2">
-      <t>ワタナベ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>トモコ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イトウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カオル</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>野崎渚
 真琴
 松本浩代
@@ -1580,6 +1563,39 @@
   </si>
   <si>
     <t>叶ミク(T-HEARTS)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渡辺智子</t>
+    <rPh sb="0" eb="2">
+      <t>ワタナベ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トモコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伊藤薫(伊藤道場)</t>
+    <rPh sb="4" eb="6">
+      <t>イトウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ドウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>志真うた(伊藤道場)</t>
+    <rPh sb="0" eb="2">
+      <t>シマ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イトウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドウジョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2489,10 +2505,10 @@
   <dimension ref="A1:V53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="M42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="M48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="U51" sqref="U51"/>
+      <selection pane="bottomRight" activeCell="X50" sqref="X50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2530,7 +2546,7 @@
     <row r="2" spans="1:22" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RV2)</f>
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2682,7 +2698,7 @@
      LEN(U5:U999) - LEN(SUBSTITUTE(U5:U999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V2" s="1" cm="1">
         <f t="array" ref="V2">SUMPRODUCT(
@@ -2690,7 +2706,7 @@
      LEN(V5:V999) - LEN(SUBSTITUTE(V5:V999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="16" x14ac:dyDescent="0.8">
@@ -2740,7 +2756,7 @@
         <v>23</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>4</v>
@@ -2749,7 +2765,7 @@
         <v>8</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>127</v>
@@ -2990,7 +3006,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V13" s="3"/>
     </row>
@@ -3081,7 +3097,7 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
     </row>
-    <row r="17" spans="2:22" ht="33.35" x14ac:dyDescent="0.8">
+    <row r="17" spans="2:22" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B17" s="3">
         <v>1989</v>
       </c>
@@ -3103,9 +3119,11 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
+      <c r="U17" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="V17" s="3" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="2:22" ht="16.7" x14ac:dyDescent="0.8">
@@ -3251,7 +3269,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -3260,7 +3278,7 @@
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V23" s="3" t="s">
         <v>84</v>
@@ -3561,7 +3579,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -3584,7 +3602,7 @@
       </c>
       <c r="U34" s="3"/>
       <c r="V34" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="2:22" ht="50" x14ac:dyDescent="0.8">
@@ -3613,7 +3631,7 @@
       </c>
       <c r="U35" s="3"/>
       <c r="V35" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="2:22" ht="33.35" x14ac:dyDescent="0.8">
@@ -3621,13 +3639,13 @@
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -3717,7 +3735,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>139</v>
@@ -3758,7 +3776,7 @@
         <v>53</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -3814,10 +3832,10 @@
         <v>133</v>
       </c>
       <c r="U41" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="V41" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="V41" s="3" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="42" spans="2:22" ht="16.7" x14ac:dyDescent="0.8">
@@ -3848,7 +3866,7 @@
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="2:22" ht="66.7" x14ac:dyDescent="0.8">
@@ -3883,7 +3901,7 @@
       </c>
       <c r="U43" s="3"/>
       <c r="V43" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="2:22" ht="33.35" x14ac:dyDescent="0.8">
@@ -3907,7 +3925,7 @@
         <v>35</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -3917,10 +3935,10 @@
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="2:22" ht="33.35" x14ac:dyDescent="0.8">
@@ -3941,12 +3959,12 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N45" s="3"/>
       <c r="O45" s="3" t="s">
@@ -3956,16 +3974,16 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T45" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>74</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="2:22" ht="150" x14ac:dyDescent="0.8">
@@ -3973,13 +3991,13 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>16</v>
@@ -4005,7 +4023,7 @@
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>132</v>
@@ -4020,7 +4038,7 @@
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
@@ -4042,7 +4060,7 @@
         <v>30</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3" t="s">
@@ -4059,7 +4077,7 @@
         <v>75</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="2:22" ht="50" x14ac:dyDescent="0.8">
@@ -4078,7 +4096,7 @@
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -4097,10 +4115,10 @@
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="2:22" ht="83.35" x14ac:dyDescent="0.8">
@@ -4144,7 +4162,7 @@
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
       <c r="U49" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V49" s="3"/>
     </row>
@@ -4153,7 +4171,7 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>67</v>
@@ -4162,10 +4180,10 @@
         <v>51</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>105</v>
@@ -4182,17 +4200,17 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="2:22" ht="100" x14ac:dyDescent="0.8">
@@ -4206,13 +4224,13 @@
         <v>43</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>63</v>
@@ -4221,7 +4239,7 @@
         <v>102</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -4235,15 +4253,17 @@
         <v>26</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
-      <c r="U51" s="3"/>
+      <c r="U51" s="3" t="s">
+        <v>203</v>
+      </c>
       <c r="V51" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="2:22" ht="100" x14ac:dyDescent="0.8">
@@ -4275,10 +4295,10 @@
         <v>31</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
@@ -4286,14 +4306,14 @@
         <v>27</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>81</v>
       </c>
       <c r="R52" s="3"/>
       <c r="S52" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
@@ -4307,42 +4327,42 @@
         <v>96</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>136</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R53" s="3"/>
       <c r="S53" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T53" s="3"/>
       <c r="U53" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="V53" s="3"/>
     </row>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD57A90-558A-4DCA-A7D5-9BFA6B67AC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9818937-9BE1-4084-A180-EF301042B693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="193" windowWidth="14287" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="367" yWindow="367" windowWidth="14286" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -1675,6 +1675,26 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Noto Serif JP SemiBold"/>
+        <family val="1"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1777,26 +1797,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Noto Serif JP SemiBold"/>
-        <family val="1"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2172,14 +2172,14 @@
     <tableColumn id="21" xr3:uid="{ACF43FBE-31D7-4ED6-A997-E4AF4BF0B9D4}" name="マーベラス" dataDxfId="10"/>
     <tableColumn id="23" xr3:uid="{9647ED0D-42FB-42C1-BFB2-8B8D56D414C4}" name="SENDAI" dataDxfId="9"/>
     <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="8"/>
+    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="0"/>
     <tableColumn id="20" xr3:uid="{86389032-6123-44BF-98AB-D3CA13F2577A}" name="LLPW-X" dataDxfId="7"/>
     <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="2.5" dataDxfId="6"/>
-    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="3"/>
-    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="4"/>
+    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2505,10 +2505,10 @@
   <dimension ref="A1:V53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="M48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="M16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="X50" sqref="X50"/>
+      <selection pane="bottomRight" activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2525,16 +2525,16 @@
     <col min="12" max="12" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.71875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.44140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="47.77734375" style="1"/>
+    <col min="15" max="15" width="10.27734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.44140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="47.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="16" x14ac:dyDescent="0.8">
@@ -2542,6 +2542,7 @@
         <v>140</v>
       </c>
       <c r="J1" s="1"/>
+      <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:22" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
@@ -2650,7 +2651,7 @@
      LEN(O5:O999) - LEN(SUBSTITUTE(O5:O999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P2" s="1" cm="1">
         <f t="array" ref="P2">SUMPRODUCT(
@@ -2666,7 +2667,7 @@
      LEN(Q5:Q999) - LEN(SUBSTITUTE(Q5:Q999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R2" s="1" cm="1">
         <f t="array" ref="R2">SUMPRODUCT(
@@ -2711,6 +2712,7 @@
     </row>
     <row r="3" spans="1:22" ht="16" x14ac:dyDescent="0.8">
       <c r="J3" s="1"/>
+      <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:22" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B4" s="2" t="s">
@@ -2753,13 +2755,13 @@
         <v>34</v>
       </c>
       <c r="O4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>8</v>
@@ -3026,10 +3028,10 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3"/>
+      <c r="P14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -3086,10 +3088,10 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="3" t="s">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
@@ -3097,7 +3099,7 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
     </row>
-    <row r="17" spans="2:22" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="17" spans="2:22" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B17" s="3">
         <v>1989</v>
       </c>
@@ -3251,7 +3253,7 @@
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
     </row>
-    <row r="23" spans="2:22" ht="66.7" x14ac:dyDescent="0.8">
+    <row r="23" spans="2:22" ht="83.35" x14ac:dyDescent="0.8">
       <c r="B23" s="3">
         <v>1995</v>
       </c>
@@ -3539,7 +3541,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="2:22" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="33" spans="2:22" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B33" s="3">
         <v>2005</v>
       </c>
@@ -3712,11 +3714,11 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
+      <c r="O38" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="P38" s="3"/>
-      <c r="Q38" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
@@ -3764,7 +3766,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="2:22" ht="50" x14ac:dyDescent="0.8">
+    <row r="40" spans="2:22" ht="83.35" x14ac:dyDescent="0.8">
       <c r="B40" s="3">
         <v>2012</v>
       </c>
@@ -3869,7 +3871,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="2:22" ht="66.7" x14ac:dyDescent="0.8">
+    <row r="43" spans="2:22" ht="83.35" x14ac:dyDescent="0.8">
       <c r="B43" s="3">
         <v>2015</v>
       </c>
@@ -3967,10 +3969,10 @@
         <v>173</v>
       </c>
       <c r="N45" s="3"/>
-      <c r="O45" s="3" t="s">
+      <c r="O45" s="3"/>
+      <c r="P45" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3" t="s">
@@ -3986,7 +3988,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="46" spans="2:22" ht="150" x14ac:dyDescent="0.8">
+    <row r="46" spans="2:22" ht="216.7" x14ac:dyDescent="0.8">
       <c r="B46" s="3">
         <v>2018</v>
       </c>
@@ -4121,7 +4123,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="2:22" ht="83.35" x14ac:dyDescent="0.8">
+    <row r="49" spans="2:22" ht="116.7" x14ac:dyDescent="0.8">
       <c r="B49" s="3">
         <v>2021</v>
       </c>
@@ -4153,11 +4155,11 @@
       <c r="N49" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="O49" s="3"/>
+      <c r="O49" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="P49" s="3"/>
-      <c r="Q49" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
@@ -4199,10 +4201,10 @@
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
-      <c r="P50" s="3" t="s">
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
@@ -4249,13 +4251,13 @@
       <c r="N51" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="O51" s="3" t="s">
+      <c r="O51" s="3"/>
+      <c r="P51" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P51" s="3" t="s">
+      <c r="Q51" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
@@ -4303,13 +4305,13 @@
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P52" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P52" s="3" t="s">
+      <c r="Q52" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="R52" s="3"/>
       <c r="S52" s="3" t="s">
@@ -4351,11 +4353,11 @@
       </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
+      <c r="O53" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="P53" s="3"/>
-      <c r="Q53" s="3" t="s">
-        <v>191</v>
-      </c>
+      <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3" t="s">
         <v>197</v>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9818937-9BE1-4084-A180-EF301042B693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A18B15-9111-4819-9034-E9CCE27F8F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="367" yWindow="367" windowWidth="14286" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="25533" yWindow="-67" windowWidth="25734" windowHeight="13814" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
   <si>
     <t>Stardom</t>
     <phoneticPr fontId="1"/>
@@ -223,14 +223,6 @@
   </si>
   <si>
     <t>NORI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キャサリン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ひなた乃彩</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1596,6 +1588,31 @@
     <rPh sb="7" eb="9">
       <t>ドウジョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャサリン.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わかな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エボリューション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chi Chi
+ZONES</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CHIKA</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1674,7 +1691,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="24">
     <dxf>
       <font>
         <b val="0"/>
@@ -1797,6 +1814,26 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Noto Serif JP SemiBold"/>
+        <family val="1"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2156,27 +2193,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A34D807-EC26-4518-9852-7FFB26CEC57B}" name="テーブル1" displayName="テーブル1" ref="B4:V53" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
-  <autoFilter ref="B4:V53" xr:uid="{4A34D807-EC26-4518-9852-7FFB26CEC57B}"/>
-  <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{C5BCADDE-F600-4480-BD2B-E93168A1BF7F}" name="デビュー年" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{7319872F-B1DE-47E8-ADFA-F5962E445AE2}" name="Stardom" dataDxfId="19"/>
-    <tableColumn id="18" xr3:uid="{6DD05DFF-D195-4CF5-BFC5-531553A9ADC5}" name="AWG" dataDxfId="18"/>
-    <tableColumn id="22" xr3:uid="{8EA6491D-1F78-431F-AD9B-C8AB4F6616E9}" name="TJPW" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{CA5FBB65-FE37-40A8-B1DD-0182D7DD64C3}" name="マリゴ" dataDxfId="16"/>
-    <tableColumn id="27" xr3:uid="{50745B86-8D07-4F72-B93E-5C2E105BB03C}" name="IR/ホットシュシュ" dataDxfId="15"/>
-    <tableColumn id="30" xr3:uid="{BB23C0DC-5AEB-431A-A828-4D1BDF4F315F}" name="JTO" dataDxfId="14"/>
-    <tableColumn id="29" xr3:uid="{ADFF1D58-E918-4FF6-B352-AA98020CFD16}" name="チョコプロ" dataDxfId="13"/>
-    <tableColumn id="17" xr3:uid="{C0123278-DCF4-45DB-8696-FC0805957C5C}" name="Diana" dataDxfId="12"/>
-    <tableColumn id="32" xr3:uid="{67EA2433-E1D1-4094-BFB4-0EDB7438926B}" name="Pure-J" dataDxfId="11"/>
-    <tableColumn id="21" xr3:uid="{ACF43FBE-31D7-4ED6-A997-E4AF4BF0B9D4}" name="マーベラス" dataDxfId="10"/>
-    <tableColumn id="23" xr3:uid="{9647ED0D-42FB-42C1-BFB2-8B8D56D414C4}" name="SENDAI" dataDxfId="9"/>
-    <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="8"/>
-    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A34D807-EC26-4518-9852-7FFB26CEC57B}" name="テーブル1" displayName="テーブル1" ref="B4:W53" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="B4:W53" xr:uid="{4A34D807-EC26-4518-9852-7FFB26CEC57B}"/>
+  <tableColumns count="22">
+    <tableColumn id="1" xr3:uid="{C5BCADDE-F600-4480-BD2B-E93168A1BF7F}" name="デビュー年" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{7319872F-B1DE-47E8-ADFA-F5962E445AE2}" name="Stardom" dataDxfId="20"/>
+    <tableColumn id="18" xr3:uid="{6DD05DFF-D195-4CF5-BFC5-531553A9ADC5}" name="AWG" dataDxfId="19"/>
+    <tableColumn id="22" xr3:uid="{8EA6491D-1F78-431F-AD9B-C8AB4F6616E9}" name="TJPW" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{CA5FBB65-FE37-40A8-B1DD-0182D7DD64C3}" name="マリゴ" dataDxfId="17"/>
+    <tableColumn id="27" xr3:uid="{50745B86-8D07-4F72-B93E-5C2E105BB03C}" name="IR/ホットシュシュ" dataDxfId="16"/>
+    <tableColumn id="30" xr3:uid="{BB23C0DC-5AEB-431A-A828-4D1BDF4F315F}" name="JTO" dataDxfId="15"/>
+    <tableColumn id="29" xr3:uid="{ADFF1D58-E918-4FF6-B352-AA98020CFD16}" name="チョコプロ" dataDxfId="14"/>
+    <tableColumn id="17" xr3:uid="{C0123278-DCF4-45DB-8696-FC0805957C5C}" name="Diana" dataDxfId="13"/>
+    <tableColumn id="32" xr3:uid="{67EA2433-E1D1-4094-BFB4-0EDB7438926B}" name="Pure-J" dataDxfId="12"/>
+    <tableColumn id="21" xr3:uid="{ACF43FBE-31D7-4ED6-A997-E4AF4BF0B9D4}" name="マーベラス" dataDxfId="11"/>
+    <tableColumn id="23" xr3:uid="{9647ED0D-42FB-42C1-BFB2-8B8D56D414C4}" name="SENDAI" dataDxfId="10"/>
+    <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="9"/>
+    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="8"/>
     <tableColumn id="20" xr3:uid="{86389032-6123-44BF-98AB-D3CA13F2577A}" name="LLPW-X" dataDxfId="7"/>
     <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="2.5" dataDxfId="6"/>
     <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{3CAB629B-BA9F-4560-89E7-0980EE2B0905}" name="エボリューション" dataDxfId="0"/>
     <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="3"/>
     <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="2"/>
     <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="1"/>
@@ -2502,13 +2540,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4F8F56-06F6-4E1D-8D81-5A485042419D}">
-  <dimension ref="A1:V53"/>
+  <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="M16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="E47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P23" sqref="P23"/>
+      <selection pane="bottomRight" activeCell="Q50" sqref="Q50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2526,28 +2564,30 @@
     <col min="13" max="13" width="14.71875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.27734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.609375" style="1" customWidth="1"/>
     <col min="17" max="17" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.44140625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="47.77734375" style="1"/>
+    <col min="20" max="20" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.44140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="47.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:23" ht="16" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="16" x14ac:dyDescent="0.8">
+    <row r="2" spans="1:23" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
-        <f>SUM(C2:RV2)</f>
-        <v>317</v>
+        <f>SUM(C2:RW2)</f>
+        <v>321</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2691,7 +2731,7 @@
      LEN(T5:T999) - LEN(SUBSTITUTE(T5:T999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U2" s="1" cm="1">
         <f t="array" ref="U2">SUMPRODUCT(
@@ -2699,7 +2739,7 @@
      LEN(U5:U999) - LEN(SUBSTITUTE(U5:U999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="V2" s="1" cm="1">
         <f t="array" ref="V2">SUMPRODUCT(
@@ -2707,14 +2747,22 @@
      LEN(V5:V999) - LEN(SUBSTITUTE(V5:V999, CHAR(10), "")) + 1
   )
 )</f>
+        <v>34</v>
+      </c>
+      <c r="W2" s="1" cm="1">
+        <f t="array" ref="W2">SUMPRODUCT(
+  IF(LEN(W5:W999)=0, 0,
+     LEN(W5:W999) - LEN(SUBSTITUTE(W5:W999, CHAR(10), "")) + 1
+  )
+)</f>
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="16" x14ac:dyDescent="0.8">
+    <row r="3" spans="1:23" ht="16" x14ac:dyDescent="0.8">
       <c r="J3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:22" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="4" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -2725,34 +2773,34 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>4</v>
@@ -2761,25 +2809,28 @@
         <v>23</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>127</v>
+        <v>204</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="V4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="5" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B5" s="3">
         <v>1977</v>
       </c>
@@ -2805,8 +2856,9 @@
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
-    </row>
-    <row r="6" spans="1:22" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B6" s="3">
         <v>1978</v>
       </c>
@@ -2830,8 +2882,9 @@
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
-    </row>
-    <row r="7" spans="1:22" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="W6" s="3"/>
+    </row>
+    <row r="7" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B7" s="3">
         <v>1979</v>
       </c>
@@ -2855,8 +2908,9 @@
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-    </row>
-    <row r="8" spans="1:22" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="W7" s="3"/>
+    </row>
+    <row r="8" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B8" s="3">
         <v>1980</v>
       </c>
@@ -2870,7 +2924,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -2881,11 +2935,12 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
-      <c r="V8" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="V8" s="3"/>
+      <c r="W8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B9" s="3">
         <v>1981</v>
       </c>
@@ -2909,8 +2964,9 @@
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
-    </row>
-    <row r="10" spans="1:22" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="W9" s="3"/>
+    </row>
+    <row r="10" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B10" s="3">
         <v>1982</v>
       </c>
@@ -2934,8 +2990,9 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-    </row>
-    <row r="11" spans="1:22" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="W10" s="3"/>
+    </row>
+    <row r="11" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B11" s="3">
         <v>1983</v>
       </c>
@@ -2959,8 +3016,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B12" s="3">
         <v>1984</v>
       </c>
@@ -2984,8 +3042,9 @@
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
-    </row>
-    <row r="13" spans="1:22" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="W12" s="3"/>
+    </row>
+    <row r="13" spans="1:23" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B13" s="3">
         <v>1985</v>
       </c>
@@ -3007,12 +3066,13 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="V13" s="3"/>
-    </row>
-    <row r="14" spans="1:22" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="U13" s="3"/>
+      <c r="V13" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="W13" s="3"/>
+    </row>
+    <row r="14" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B14" s="3">
         <v>1986</v>
       </c>
@@ -3036,14 +3096,15 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
-      <c r="U14" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="U14" s="3"/>
       <c r="V14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="W14" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="15" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B15" s="3">
         <v>1987</v>
       </c>
@@ -3066,11 +3127,12 @@
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
-      <c r="V15" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="V15" s="3"/>
+      <c r="W15" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B16" s="3">
         <v>1988</v>
       </c>
@@ -3098,8 +3160,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="2:22" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="2:23" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B17" s="3">
         <v>1989</v>
       </c>
@@ -3121,14 +3184,15 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
-      <c r="U17" s="3" t="s">
-        <v>202</v>
-      </c>
+      <c r="U17" s="3"/>
       <c r="V17" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18" spans="2:22" ht="16.7" x14ac:dyDescent="0.8">
+        <v>200</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B18" s="3">
         <v>1990</v>
       </c>
@@ -3152,8 +3216,9 @@
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
-    </row>
-    <row r="19" spans="2:22" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="W18" s="3"/>
+    </row>
+    <row r="19" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B19" s="3">
         <v>1991</v>
       </c>
@@ -3177,8 +3242,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="2:22" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B20" s="3">
         <v>1992</v>
       </c>
@@ -3202,8 +3268,9 @@
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
-    </row>
-    <row r="21" spans="2:22" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="W20" s="3"/>
+    </row>
+    <row r="21" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B21" s="3">
         <v>1993</v>
       </c>
@@ -3227,8 +3294,9 @@
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
-    </row>
-    <row r="22" spans="2:22" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="W21" s="3"/>
+    </row>
+    <row r="22" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B22" s="3">
         <v>1994</v>
       </c>
@@ -3252,8 +3320,9 @@
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
-    </row>
-    <row r="23" spans="2:22" ht="83.35" x14ac:dyDescent="0.8">
+      <c r="W22" s="3"/>
+    </row>
+    <row r="23" spans="2:23" ht="83.35" x14ac:dyDescent="0.8">
       <c r="B23" s="3">
         <v>1995</v>
       </c>
@@ -3264,14 +3333,14 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -3279,14 +3348,15 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-      <c r="U23" s="3" t="s">
-        <v>180</v>
-      </c>
+      <c r="U23" s="3"/>
       <c r="V23" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22" ht="16.7" x14ac:dyDescent="0.8">
+        <v>178</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B24" s="3">
         <v>1996</v>
       </c>
@@ -3309,11 +3379,12 @@
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
-      <c r="V24" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:22" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="V24" s="3"/>
+      <c r="W24" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B25" s="3">
         <v>1997</v>
       </c>
@@ -3326,7 +3397,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -3338,11 +3409,12 @@
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
-      <c r="V25" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="2:22" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="V25" s="3"/>
+      <c r="W25" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B26" s="3">
         <v>1998</v>
       </c>
@@ -3364,19 +3436,20 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
-      <c r="U26" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="U26" s="3"/>
       <c r="V26" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="2:22" ht="33.35" x14ac:dyDescent="0.8">
+        <v>107</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B27" s="3">
         <v>1999</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -3395,18 +3468,19 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
-      <c r="U27" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="V27" s="3"/>
-    </row>
-    <row r="28" spans="2:22" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="U27" s="3"/>
+      <c r="V27" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="W27" s="3"/>
+    </row>
+    <row r="28" spans="2:23" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B28" s="3">
         <v>2000</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -3415,7 +3489,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -3427,11 +3501,12 @@
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
-      <c r="V28" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="2:22" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="V28" s="3"/>
+      <c r="W28" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B29" s="3">
         <v>2001</v>
       </c>
@@ -3443,13 +3518,13 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -3459,8 +3534,9 @@
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
-    </row>
-    <row r="30" spans="2:22" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="W29" s="3"/>
+    </row>
+    <row r="30" spans="2:23" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B30" s="3">
         <v>2002</v>
       </c>
@@ -3482,12 +3558,13 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
-      <c r="U30" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="V30" s="3"/>
-    </row>
-    <row r="31" spans="2:22" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="U30" s="3"/>
+      <c r="V30" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="W30" s="3"/>
+    </row>
+    <row r="31" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B31" s="3">
         <v>2003</v>
       </c>
@@ -3511,8 +3588,9 @@
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
-    </row>
-    <row r="32" spans="2:22" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="W31" s="3"/>
+    </row>
+    <row r="32" spans="2:23" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B32" s="3">
         <v>2004</v>
       </c>
@@ -3534,14 +3612,15 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
-      <c r="U32" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="U32" s="3"/>
       <c r="V32" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" ht="33.35" x14ac:dyDescent="0.8">
+        <v>78</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B33" s="3">
         <v>2005</v>
       </c>
@@ -3561,18 +3640,19 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
-      <c r="U33" s="3" t="s">
-        <v>116</v>
-      </c>
+      <c r="U33" s="3"/>
       <c r="V33" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" ht="66.7" x14ac:dyDescent="0.8">
+        <v>114</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B34" s="3">
         <v>2006</v>
       </c>
@@ -3581,17 +3661,17 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -3599,15 +3679,16 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
-      <c r="T34" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="2:22" ht="50" x14ac:dyDescent="0.8">
+      <c r="T34" s="3"/>
+      <c r="U34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" ht="50" x14ac:dyDescent="0.8">
       <c r="B35" s="3">
         <v>2007</v>
       </c>
@@ -3628,26 +3709,27 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
-      <c r="T35" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="36" spans="2:22" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="T35" s="3"/>
+      <c r="U35" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B36" s="3">
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -3661,15 +3743,16 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
-      <c r="T36" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="T36" s="3"/>
+      <c r="U36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B37" s="3">
         <v>2009</v>
       </c>
@@ -3691,12 +3774,13 @@
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
-      <c r="U37" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="V37" s="3"/>
-    </row>
-    <row r="38" spans="2:22" ht="50" x14ac:dyDescent="0.8">
+      <c r="U37" s="3"/>
+      <c r="V37" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="W37" s="3"/>
+    </row>
+    <row r="38" spans="2:23" ht="50" x14ac:dyDescent="0.8">
       <c r="B38" s="3">
         <v>2010</v>
       </c>
@@ -3707,7 +3791,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -3715,32 +3799,33 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
-      <c r="U38" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="V38" s="3"/>
-    </row>
-    <row r="39" spans="2:22" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="U38" s="3"/>
+      <c r="V38" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="W38" s="3"/>
+    </row>
+    <row r="39" spans="2:23" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B39" s="3">
         <v>2011</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -3748,44 +3833,45 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S39" s="3"/>
-      <c r="T39" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="2:22" ht="83.35" x14ac:dyDescent="0.8">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" ht="83.35" x14ac:dyDescent="0.8">
       <c r="B40" s="3">
         <v>2012</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>1</v>
@@ -3798,21 +3884,22 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-      <c r="U40" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" ht="116.7" x14ac:dyDescent="0.8">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" ht="116.7" x14ac:dyDescent="0.8">
       <c r="B41" s="3">
         <v>2013</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -3830,17 +3917,18 @@
         <v>2</v>
       </c>
       <c r="S41" s="3"/>
-      <c r="T41" s="3" t="s">
-        <v>133</v>
-      </c>
+      <c r="T41" s="3"/>
       <c r="U41" s="3" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" ht="16.7" x14ac:dyDescent="0.8">
+        <v>175</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B42" s="3">
         <v>2014</v>
       </c>
@@ -3849,7 +3937,7 @@
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -3867,20 +3955,21 @@
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
-      <c r="V42" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43" spans="2:22" ht="83.35" x14ac:dyDescent="0.8">
+      <c r="V42" s="3"/>
+      <c r="W42" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" ht="83.35" x14ac:dyDescent="0.8">
       <c r="B43" s="3">
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -3890,7 +3979,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
@@ -3898,23 +3987,24 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
-      <c r="T43" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="T43" s="3"/>
+      <c r="U43" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B44" s="3">
         <v>2016</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -3924,10 +4014,10 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -3936,19 +4026,20 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
-      <c r="U44" s="3" t="s">
-        <v>186</v>
-      </c>
+      <c r="U44" s="3"/>
       <c r="V44" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22" ht="33.35" x14ac:dyDescent="0.8">
+        <v>184</v>
+      </c>
+      <c r="W44" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B45" s="3">
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -3956,17 +4047,17 @@
         <v>13</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
@@ -3976,30 +4067,31 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>151</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="T45" s="3"/>
       <c r="U45" s="3" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" ht="216.7" x14ac:dyDescent="0.8">
+        <v>72</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" ht="216.7" x14ac:dyDescent="0.8">
       <c r="B46" s="3">
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>16</v>
@@ -4007,66 +4099,67 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M46" s="3"/>
       <c r="N46" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="T46" s="3" t="s">
-        <v>132</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="T46" s="3"/>
       <c r="U46" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="V46" s="3"/>
-    </row>
-    <row r="47" spans="2:22" ht="66.7" x14ac:dyDescent="0.8">
+        <v>130</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="W46" s="3"/>
+    </row>
+    <row r="47" spans="2:23" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B47" s="3">
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -4075,35 +4168,36 @@
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
-      <c r="U47" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="U47" s="3"/>
       <c r="V47" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="48" spans="2:22" ht="50" x14ac:dyDescent="0.8">
+        <v>73</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" ht="50" x14ac:dyDescent="0.8">
       <c r="B48" s="3">
         <v>2020</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
@@ -4112,89 +4206,91 @@
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
-      <c r="U48" s="3" t="s">
-        <v>179</v>
-      </c>
+      <c r="U48" s="3"/>
       <c r="V48" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="49" spans="2:22" ht="116.7" x14ac:dyDescent="0.8">
+        <v>177</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" ht="116.7" x14ac:dyDescent="0.8">
       <c r="B49" s="3">
         <v>2021</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="E49" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M49" s="3"/>
       <c r="N49" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
-      <c r="U49" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="V49" s="3"/>
-    </row>
-    <row r="50" spans="2:22" ht="150" x14ac:dyDescent="0.8">
+      <c r="U49" s="3"/>
+      <c r="V49" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="W49" s="3"/>
+    </row>
+    <row r="50" spans="2:23" ht="150" x14ac:dyDescent="0.8">
       <c r="B50" s="3">
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -4203,170 +4299,180 @@
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
-      <c r="U50" s="3" t="s">
-        <v>200</v>
-      </c>
+      <c r="U50" s="3"/>
       <c r="V50" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="51" spans="2:22" ht="100" x14ac:dyDescent="0.8">
+        <v>198</v>
+      </c>
+      <c r="W50" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" ht="100" x14ac:dyDescent="0.8">
       <c r="B51" s="3">
         <v>2023</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O51" s="3"/>
       <c r="P51" s="3" t="s">
-        <v>26</v>
+        <v>202</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
-      <c r="U51" s="3" t="s">
-        <v>203</v>
-      </c>
+      <c r="T51" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="U51" s="3"/>
       <c r="V51" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="52" spans="2:22" ht="100" x14ac:dyDescent="0.8">
+        <v>201</v>
+      </c>
+      <c r="W51" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" ht="100" x14ac:dyDescent="0.8">
       <c r="B52" s="3">
         <v>2024</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P52" s="3"/>
       <c r="Q52" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="R52" s="3"/>
       <c r="S52" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="T52" s="3"/>
+        <v>196</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
-    </row>
-    <row r="53" spans="2:22" ht="83.35" x14ac:dyDescent="0.8">
+      <c r="W52" s="3"/>
+    </row>
+    <row r="53" spans="2:23" ht="83.35" x14ac:dyDescent="0.8">
       <c r="B53" s="3">
         <v>2025</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P53" s="3"/>
+        <v>189</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>203</v>
+      </c>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="T53" s="3"/>
-      <c r="U53" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="V53" s="3"/>
+        <v>195</v>
+      </c>
+      <c r="T53" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="W53" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A18B15-9111-4819-9034-E9CCE27F8F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8E9299-C982-49F7-ACEF-F0540C5C3FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25533" yWindow="-67" windowWidth="25734" windowHeight="13814" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="-67" yWindow="-67" windowWidth="25734" windowHeight="13814" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -1520,13 +1520,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;練習生あんな&gt;</t>
-    <rPh sb="1" eb="4">
-      <t>レンシュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>柳ヶ瀬</t>
     <rPh sb="0" eb="3">
       <t>ヤナガセ</t>
@@ -1595,10 +1588,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>わかな</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エボリューション</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1613,6 +1602,15 @@
   </si>
   <si>
     <t>CHIKA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わかな
+&lt;彩夢&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;あんな&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1694,26 +1692,6 @@
   <dxfs count="24">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Noto Serif JP SemiBold"/>
-        <family val="1"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1732,6 +1710,26 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Noto Serif JP SemiBold"/>
+        <family val="1"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2214,10 +2212,10 @@
     <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="2.5" dataDxfId="6"/>
     <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{3CAB629B-BA9F-4560-89E7-0980EE2B0905}" name="エボリューション" dataDxfId="0"/>
-    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{3CAB629B-BA9F-4560-89E7-0980EE2B0905}" name="エボリューション" dataDxfId="3"/>
+    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2543,10 +2541,10 @@
   <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="E47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q50" sqref="Q50"/>
+      <selection pane="bottomRight" activeCell="R60" sqref="R60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2587,7 +2585,7 @@
     <row r="2" spans="1:23" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RW2)</f>
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2699,7 +2697,7 @@
      LEN(P5:P999) - LEN(SUBSTITUTE(P5:P999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q2" s="1" cm="1">
         <f t="array" ref="Q2">SUMPRODUCT(
@@ -2815,10 +2813,10 @@
         <v>8</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="U4" s="2" t="s">
         <v>125</v>
@@ -3186,10 +3184,10 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
@@ -4052,7 +4050,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -4067,7 +4065,7 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="T45" s="3"/>
       <c r="U45" s="3" t="s">
@@ -4117,7 +4115,7 @@
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3" t="s">
@@ -4306,7 +4304,7 @@
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W50" s="3" t="s">
         <v>142</v>
@@ -4350,7 +4348,7 @@
       </c>
       <c r="O51" s="3"/>
       <c r="P51" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q51" s="3" t="s">
         <v>162</v>
@@ -4358,11 +4356,11 @@
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U51" s="3"/>
       <c r="V51" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="W51" s="3" t="s">
         <v>181</v>
@@ -4413,10 +4411,10 @@
       </c>
       <c r="R52" s="3"/>
       <c r="S52" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
@@ -4446,7 +4444,7 @@
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3" t="s">
@@ -4458,15 +4456,15 @@
         <v>189</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="U53" s="3"/>
       <c r="V53" s="3" t="s">

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8E9299-C982-49F7-ACEF-F0540C5C3FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C4C0A2-E6C1-4545-AB7D-579F8CA60B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-67" yWindow="-67" windowWidth="25734" windowHeight="13814" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="9393" yWindow="353" windowWidth="14474" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -668,23 +668,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SAKI(COLORS)
-世羅りさ(PR)(引退発表済)</t>
-    <rPh sb="13" eb="15">
-      <t>セラ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>インタイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ハッピョウ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>松本都</t>
     <rPh sb="0" eb="2">
       <t>マツモト</t>
@@ -712,17 +695,6 @@
     <t>咲蘭</t>
     <rPh sb="0" eb="2">
       <t>サラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>炎華
-郷田明日香</t>
-    <rPh sb="0" eb="2">
-      <t>ホノカ</t>
-    </rPh>
-    <rPh sb="3" eb="8">
-      <t>ゴウダアスカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1254,25 +1226,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VENY
-尾崎妹加
-本間多恵(10.13引退予定)
-ジャングル叫女</t>
-    <rPh sb="5" eb="9">
-      <t>オザキマイカ</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>ホンマタエ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>インタイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>海乃月雫(IR)
 しのせ愛梨紗(HCC・飛鳥兼任)</t>
     <rPh sb="0" eb="4">
@@ -1323,20 +1276,6 @@
 高瀬みゆき</t>
     <rPh sb="0" eb="2">
       <t>マナミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>優宇(EVE)(引退予定)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宮崎有妃(引退予定)</t>
-    <rPh sb="0" eb="4">
-      <t>ミヤザキユキ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>インタイヨテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1389,26 +1328,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>加藤園子(OZ)(引退予定)
-ミス・モンゴル(世界)</t>
-    <rPh sb="0" eb="2">
-      <t>カトウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ソノコ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>インタイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>セカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ハミングバード
 メガトン
 後藤智香
@@ -1611,6 +1530,87 @@
   </si>
   <si>
     <t>&lt;あんな&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>炎華
+郷田明日香(休)</t>
+    <rPh sb="0" eb="2">
+      <t>ホノカ</t>
+    </rPh>
+    <rPh sb="3" eb="8">
+      <t>ゴウダアスカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優宇(EVE)(2025.12.28引退予定)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VENY
+尾崎妹加
+本間多恵(2025.10.13引退予定)
+ジャングル叫女</t>
+    <rPh sb="5" eb="9">
+      <t>オザキマイカ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ホンマタエ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>インタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加藤園子(OZ)(2025.11.23引退予定)
+ミス・モンゴル(世界)</t>
+    <rPh sb="0" eb="2">
+      <t>カトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソノコ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>インタイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮崎有妃(2026.1.1引退予定)</t>
+    <rPh sb="0" eb="4">
+      <t>ミヤザキユキ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>インタイヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SAKI(COLORS)
+世羅りさ(PR)(2026.1.12引退予定)</t>
+    <rPh sb="13" eb="15">
+      <t>セラ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>インタイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヨテイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2540,11 +2540,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4F8F56-06F6-4E1D-8D81-5A485042419D}">
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="M35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R60" sqref="R60"/>
+      <selection pane="bottomRight" activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2568,7 +2568,7 @@
     <col min="19" max="19" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.44140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.27734375" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -2577,7 +2577,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="16" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J1" s="1"/>
       <c r="R1" s="1"/>
@@ -2777,7 +2777,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>60</v>
@@ -2789,7 +2789,7 @@
         <v>21</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>9</v>
@@ -2807,19 +2807,19 @@
         <v>23</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>43</v>
@@ -3066,7 +3066,7 @@
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="W13" s="3"/>
     </row>
@@ -3127,7 +3127,7 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
@@ -3184,10 +3184,10 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
@@ -3338,7 +3338,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -3348,7 +3348,7 @@
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="W23" s="3" t="s">
         <v>82</v>
@@ -3395,7 +3395,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -3409,7 +3409,7 @@
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
@@ -3436,7 +3436,7 @@
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="W26" s="3" t="s">
         <v>39</v>
@@ -3468,7 +3468,7 @@
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="W27" s="3"/>
     </row>
@@ -3487,7 +3487,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -3501,7 +3501,7 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
@@ -3522,7 +3522,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -3558,7 +3558,7 @@
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="W30" s="3"/>
     </row>
@@ -3615,7 +3615,7 @@
         <v>78</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="2:23" ht="33.35" x14ac:dyDescent="0.8">
@@ -3638,16 +3638,16 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="2:23" ht="66.7" x14ac:dyDescent="0.8">
@@ -3659,13 +3659,13 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3" t="s">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="V34" s="3"/>
       <c r="W34" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="2:23" ht="50" x14ac:dyDescent="0.8">
@@ -3709,11 +3709,11 @@
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V35" s="3"/>
       <c r="W35" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="2:23" ht="33.35" x14ac:dyDescent="0.8">
@@ -3721,13 +3721,13 @@
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="V36" s="3"/>
       <c r="W36" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
@@ -3789,7 +3789,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -3806,7 +3806,7 @@
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="W38" s="3"/>
     </row>
@@ -3815,15 +3815,15 @@
         <v>2011</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -3831,7 +3831,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
@@ -3843,14 +3843,14 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="V39" s="3"/>
       <c r="W39" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="2:23" ht="83.35" x14ac:dyDescent="0.8">
+    <row r="40" spans="2:23" ht="50" x14ac:dyDescent="0.8">
       <c r="B40" s="3">
         <v>2012</v>
       </c>
@@ -3862,14 +3862,14 @@
         <v>51</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>1</v>
@@ -3884,7 +3884,7 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3" t="s">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="W40" s="3"/>
     </row>
@@ -3893,7 +3893,7 @@
         <v>2013</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
@@ -3917,13 +3917,13 @@
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
       <c r="U41" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
@@ -3955,15 +3955,15 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="43" spans="2:23" ht="83.35" x14ac:dyDescent="0.8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" ht="100" x14ac:dyDescent="0.8">
       <c r="B43" s="3">
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
@@ -3987,19 +3987,19 @@
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
       <c r="U43" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="V43" s="3"/>
       <c r="W43" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" ht="33.35" x14ac:dyDescent="0.8">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" ht="50" x14ac:dyDescent="0.8">
       <c r="B44" s="3">
         <v>2016</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>30</v>
@@ -4015,7 +4015,7 @@
         <v>33</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -4026,10 +4026,10 @@
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="2:23" ht="33.35" x14ac:dyDescent="0.8">
@@ -4037,7 +4037,7 @@
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4045,17 +4045,17 @@
         <v>13</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
@@ -4065,17 +4065,17 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="T45" s="3"/>
       <c r="U45" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>72</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="2:23" ht="216.7" x14ac:dyDescent="0.8">
@@ -4083,13 +4083,13 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>16</v>
@@ -4097,32 +4097,32 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>35</v>
       </c>
       <c r="M46" s="3"/>
       <c r="N46" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="W46" s="3"/>
     </row>
@@ -4131,7 +4131,7 @@
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
@@ -4141,19 +4141,19 @@
         <v>14</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>28</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3" t="s">
@@ -4171,7 +4171,7 @@
         <v>73</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="2:23" ht="50" x14ac:dyDescent="0.8">
@@ -4190,12 +4190,12 @@
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
@@ -4204,16 +4204,16 @@
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="2:23" ht="116.7" x14ac:dyDescent="0.8">
@@ -4233,10 +4233,10 @@
         <v>12</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -4246,7 +4246,7 @@
       </c>
       <c r="M49" s="3"/>
       <c r="N49" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>80</v>
@@ -4258,7 +4258,7 @@
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="W49" s="3"/>
     </row>
@@ -4267,7 +4267,7 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>65</v>
@@ -4276,16 +4276,16 @@
         <v>49</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>27</v>
@@ -4297,17 +4297,17 @@
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="W50" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="2:23" ht="100" x14ac:dyDescent="0.8">
@@ -4321,22 +4321,22 @@
         <v>41</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>61</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -4344,26 +4344,26 @@
         <v>70</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>88</v>
+        <v>202</v>
       </c>
       <c r="O51" s="3"/>
       <c r="P51" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="U51" s="3"/>
       <c r="V51" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="2:23" ht="100" x14ac:dyDescent="0.8">
@@ -4371,7 +4371,7 @@
         <v>2024</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>42</v>
@@ -4383,22 +4383,22 @@
         <v>18</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>29</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
@@ -4407,14 +4407,14 @@
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="R52" s="3"/>
       <c r="S52" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
@@ -4425,50 +4425,50 @@
         <v>2025</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="U53" s="3"/>
       <c r="V53" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="W53" s="3"/>
     </row>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C4C0A2-E6C1-4545-AB7D-579F8CA60B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56034C1-8335-4164-8BFD-E7DF4C081C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9393" yWindow="353" windowWidth="14474" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="1100" yWindow="1000" windowWidth="22393" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -165,27 +165,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>南小桃
-橘渚
-咲村良子</t>
-    <rPh sb="0" eb="3">
-      <t>ミナミコモモ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>タチバナ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ナギサ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>サキムラ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>リョウコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アジャコング</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1610,6 +1589,20 @@
     </rPh>
     <rPh sb="33" eb="35">
       <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南小桃
+橘渚</t>
+    <rPh sb="0" eb="3">
+      <t>ミナミコモモ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タチバナ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナギサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2541,10 +2534,10 @@
   <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="M35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M44" sqref="M44"/>
+      <selection pane="bottomRight" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2577,7 +2570,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="16" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J1" s="1"/>
       <c r="R1" s="1"/>
@@ -2585,7 +2578,7 @@
     <row r="2" spans="1:23" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RW2)</f>
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2617,7 +2610,7 @@
      LEN(F5:F999) - LEN(SUBSTITUTE(F5:F999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" cm="1">
         <f t="array" ref="G2">SUMPRODUCT(
@@ -2771,58 +2764,58 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>11</v>
@@ -2922,7 +2915,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -2935,7 +2928,7 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
@@ -3042,7 +3035,7 @@
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
     </row>
-    <row r="13" spans="1:23" ht="33.35" x14ac:dyDescent="0.8">
+    <row r="13" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B13" s="3">
         <v>1985</v>
       </c>
@@ -3066,7 +3059,7 @@
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W13" s="3"/>
     </row>
@@ -3088,7 +3081,7 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
@@ -3096,10 +3089,10 @@
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
@@ -3127,7 +3120,7 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
@@ -3142,7 +3135,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -3150,7 +3143,7 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -3160,7 +3153,7 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
     </row>
-    <row r="17" spans="2:23" ht="33.35" x14ac:dyDescent="0.8">
+    <row r="17" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B17" s="3">
         <v>1989</v>
       </c>
@@ -3184,10 +3177,10 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
@@ -3320,7 +3313,7 @@
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
     </row>
-    <row r="23" spans="2:23" ht="83.35" x14ac:dyDescent="0.8">
+    <row r="23" spans="2:23" ht="50" x14ac:dyDescent="0.8">
       <c r="B23" s="3">
         <v>1995</v>
       </c>
@@ -3331,14 +3324,14 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -3348,10 +3341,10 @@
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
@@ -3379,7 +3372,7 @@
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
@@ -3395,7 +3388,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -3409,7 +3402,7 @@
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
@@ -3436,18 +3429,18 @@
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="2:23" ht="33.35" x14ac:dyDescent="0.8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B27" s="3">
         <v>1999</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -3468,7 +3461,7 @@
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="W27" s="3"/>
     </row>
@@ -3478,7 +3471,7 @@
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -3487,7 +3480,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -3501,7 +3494,7 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
@@ -3516,13 +3509,13 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -3534,7 +3527,7 @@
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
     </row>
-    <row r="30" spans="2:23" ht="33.35" x14ac:dyDescent="0.8">
+    <row r="30" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B30" s="3">
         <v>2002</v>
       </c>
@@ -3558,7 +3551,7 @@
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W30" s="3"/>
     </row>
@@ -3612,13 +3605,13 @@
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" ht="33.35" x14ac:dyDescent="0.8">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B33" s="3">
         <v>2005</v>
       </c>
@@ -3638,16 +3631,16 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="2:23" ht="66.7" x14ac:dyDescent="0.8">
@@ -3659,17 +3652,17 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -3679,11 +3672,11 @@
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V34" s="3"/>
       <c r="W34" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="2:23" ht="50" x14ac:dyDescent="0.8">
@@ -3709,11 +3702,11 @@
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V35" s="3"/>
       <c r="W35" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="2:23" ht="33.35" x14ac:dyDescent="0.8">
@@ -3721,13 +3714,13 @@
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -3743,11 +3736,11 @@
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V36" s="3"/>
       <c r="W36" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
@@ -3774,7 +3767,7 @@
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W37" s="3"/>
     </row>
@@ -3789,7 +3782,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -3797,7 +3790,7 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
@@ -3806,7 +3799,7 @@
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W38" s="3"/>
     </row>
@@ -3815,15 +3808,15 @@
         <v>2011</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -3831,23 +3824,23 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V39" s="3"/>
       <c r="W39" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="2:23" ht="50" x14ac:dyDescent="0.8">
@@ -3856,20 +3849,20 @@
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>1</v>
@@ -3884,7 +3877,7 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W40" s="3"/>
     </row>
@@ -3893,11 +3886,11 @@
         <v>2013</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -3917,13 +3910,13 @@
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
       <c r="U41" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="V41" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="W41" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="W41" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="42" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
@@ -3935,7 +3928,7 @@
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -3955,7 +3948,7 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="2:23" ht="100" x14ac:dyDescent="0.8">
@@ -3963,11 +3956,11 @@
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -3977,7 +3970,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
@@ -3987,11 +3980,11 @@
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
       <c r="U43" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V43" s="3"/>
       <c r="W43" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="2:23" ht="50" x14ac:dyDescent="0.8">
@@ -3999,10 +3992,10 @@
         <v>2016</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -4012,10 +4005,10 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -4026,10 +4019,10 @@
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="2:23" ht="33.35" x14ac:dyDescent="0.8">
@@ -4037,7 +4030,7 @@
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4045,51 +4038,51 @@
         <v>13</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T45" s="3"/>
       <c r="U45" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" ht="216.7" x14ac:dyDescent="0.8">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" ht="100" x14ac:dyDescent="0.8">
       <c r="B46" s="3">
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>16</v>
@@ -4097,32 +4090,32 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M46" s="3"/>
       <c r="N46" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W46" s="3"/>
     </row>
@@ -4131,33 +4124,33 @@
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -4168,10 +4161,10 @@
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="2:23" ht="50" x14ac:dyDescent="0.8">
@@ -4179,23 +4172,23 @@
         <v>2020</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
@@ -4204,52 +4197,52 @@
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="49" spans="2:23" ht="116.7" x14ac:dyDescent="0.8">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" ht="50" x14ac:dyDescent="0.8">
       <c r="B49" s="3">
         <v>2021</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M49" s="3"/>
       <c r="N49" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
@@ -4258,7 +4251,7 @@
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W49" s="3"/>
     </row>
@@ -4267,28 +4260,28 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -4297,17 +4290,17 @@
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W50" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="2:23" ht="100" x14ac:dyDescent="0.8">
@@ -4315,55 +4308,55 @@
         <v>2023</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O51" s="3"/>
       <c r="P51" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U51" s="3"/>
       <c r="V51" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="2:23" ht="100" x14ac:dyDescent="0.8">
@@ -4371,50 +4364,50 @@
         <v>2024</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>18</v>
+        <v>207</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R52" s="3"/>
       <c r="S52" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
@@ -4425,50 +4418,50 @@
         <v>2025</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="U53" s="3"/>
       <c r="V53" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="W53" s="3"/>
     </row>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56034C1-8335-4164-8BFD-E7DF4C081C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969A48A7-1CB7-4E98-A56F-EB3D53CF28DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1000" windowWidth="22393" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
   <si>
     <t>Stardom</t>
     <phoneticPr fontId="1"/>
@@ -1149,19 +1149,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>真白優希</t>
-    <rPh sb="0" eb="4">
-      <t>マシロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>JENNE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>柳川澄樺(7/31フリー)
-神姫楽ミサ(7/31フリー)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1603,6 +1591,15 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>ナギサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>真白優希
+柳川澄樺
+神姫楽ミサ</t>
+    <rPh sb="0" eb="4">
+      <t>マシロ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2534,10 +2531,10 @@
   <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G53" sqref="G53"/>
+      <selection pane="bottomRight" activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2626,7 +2623,7 @@
      LEN(H5:H999) - LEN(SUBSTITUTE(H5:H999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1" cm="1">
         <f t="array" ref="I2">SUMPRODUCT(
@@ -2746,7 +2743,7 @@
      LEN(W5:W999) - LEN(SUBSTITUTE(W5:W999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="16" x14ac:dyDescent="0.8">
@@ -2806,10 +2803,10 @@
         <v>8</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="U4" s="2" t="s">
         <v>122</v>
@@ -3059,7 +3056,7 @@
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="W13" s="3"/>
     </row>
@@ -3177,10 +3174,10 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
@@ -3331,7 +3328,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -3341,7 +3338,7 @@
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="W23" s="3" t="s">
         <v>81</v>
@@ -3706,7 +3703,7 @@
       </c>
       <c r="V35" s="3"/>
       <c r="W35" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="2:23" ht="33.35" x14ac:dyDescent="0.8">
@@ -3714,13 +3711,13 @@
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -3813,7 +3810,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>134</v>
@@ -3855,7 +3852,7 @@
         <v>50</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -3877,7 +3874,7 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="W40" s="3"/>
     </row>
@@ -3913,10 +3910,10 @@
         <v>128</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
@@ -3984,7 +3981,7 @@
       </c>
       <c r="V43" s="3"/>
       <c r="W43" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="2:23" ht="50" x14ac:dyDescent="0.8">
@@ -4008,7 +4005,7 @@
         <v>32</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -4019,7 +4016,7 @@
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>147</v>
@@ -4043,12 +4040,12 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
@@ -4058,7 +4055,7 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="T45" s="3"/>
       <c r="U45" s="3" t="s">
@@ -4068,7 +4065,7 @@
         <v>71</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="2:23" ht="100" x14ac:dyDescent="0.8">
@@ -4076,7 +4073,7 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>44</v>
@@ -4108,7 +4105,7 @@
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3" t="s">
@@ -4146,7 +4143,7 @@
         <v>27</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3" t="s">
@@ -4164,7 +4161,7 @@
         <v>72</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="2:23" ht="50" x14ac:dyDescent="0.8">
@@ -4182,9 +4179,7 @@
         <v>15</v>
       </c>
       <c r="G48" s="3"/>
-      <c r="H48" s="3" t="s">
-        <v>154</v>
-      </c>
+      <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3" t="s">
@@ -4203,10 +4198,10 @@
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="2:23" ht="50" x14ac:dyDescent="0.8">
@@ -4251,7 +4246,7 @@
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="W49" s="3"/>
     </row>
@@ -4260,7 +4255,7 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>64</v>
@@ -4269,10 +4264,10 @@
         <v>48</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>100</v>
@@ -4290,14 +4285,14 @@
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="W50" s="3" t="s">
         <v>139</v>
@@ -4329,7 +4324,7 @@
         <v>97</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -4337,26 +4332,26 @@
         <v>69</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O51" s="3"/>
       <c r="P51" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="U51" s="3"/>
       <c r="V51" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="2:23" ht="100" x14ac:dyDescent="0.8">
@@ -4373,7 +4368,7 @@
         <v>55</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>130</v>
@@ -4388,7 +4383,7 @@
         <v>28</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>148</v>
@@ -4400,14 +4395,14 @@
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="R52" s="3"/>
       <c r="S52" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
@@ -4421,7 +4416,7 @@
         <v>91</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>143</v>
@@ -4433,35 +4428,35 @@
         <v>131</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="U53" s="3"/>
       <c r="V53" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="W53" s="3"/>
     </row>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969A48A7-1CB7-4E98-A56F-EB3D53CF28DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3B0796-C86D-44E6-B641-0417CF96A663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1000" windowWidth="22393" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="28013" yWindow="280" windowWidth="16547" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
   <si>
     <t>Stardom</t>
     <phoneticPr fontId="1"/>
@@ -1600,6 +1600,19 @@
 神姫楽ミサ</t>
     <rPh sb="0" eb="4">
       <t>マシロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>咲村良子</t>
+    <rPh sb="0" eb="1">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ムラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨシコ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2531,10 +2544,10 @@
   <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="S51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H48" sqref="H48"/>
+      <selection pane="bottomRight" activeCell="W58" sqref="W58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2575,7 +2588,7 @@
     <row r="2" spans="1:23" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RW2)</f>
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2743,7 +2756,7 @@
      LEN(W5:W999) - LEN(SUBSTITUTE(W5:W999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="16" x14ac:dyDescent="0.8">
@@ -4406,7 +4419,9 @@
       </c>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
-      <c r="W52" s="3"/>
+      <c r="W52" s="3" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="53" spans="2:23" ht="83.35" x14ac:dyDescent="0.8">
       <c r="B53" s="3">

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3B0796-C86D-44E6-B641-0417CF96A663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB7C61B-D7C4-4444-B02B-BE6499FAA5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28013" yWindow="280" windowWidth="16547" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
@@ -902,36 +902,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>竹林早苗(BBJ)
-櫻井裕子(COLORS)
-網倉理奈(COLORS)
-KONOHA(銀河)
-花園桃花(アップタウン)
-杏ちゃむ(信州)</t>
-    <rPh sb="0" eb="2">
-      <t>タケバヤシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サナエ</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>サクライユウコ</t>
-    </rPh>
-    <rPh sb="23" eb="27">
-      <t>アミクラリナ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ギンガ</t>
-    </rPh>
-    <rPh sb="47" eb="51">
-      <t>ハナゾノモモカ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>シンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>白川未奈(AEW)</t>
   </si>
   <si>
@@ -1613,6 +1583,42 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ヨシコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>竹林早苗(BBJ)
+櫻井裕子(COLORS)
+網倉理奈(COLORS)
+KONOHA(銀河)(2026.5引退予定)
+花園桃花(アップタウン)
+杏ちゃむ(信州)</t>
+    <rPh sb="0" eb="2">
+      <t>タケバヤシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サナエ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>サクライユウコ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>アミクラリナ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ギンガ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>インタイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="59" eb="63">
+      <t>ハナゾノモモカ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>シンシュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2544,10 +2550,10 @@
   <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="S51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="S42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="W58" sqref="W58"/>
+      <selection pane="bottomRight" activeCell="V47" sqref="V47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2580,7 +2586,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="16" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J1" s="1"/>
       <c r="R1" s="1"/>
@@ -2810,16 +2816,16 @@
         <v>22</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U4" s="2" t="s">
         <v>122</v>
@@ -3069,7 +3075,7 @@
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="W13" s="3"/>
     </row>
@@ -3130,7 +3136,7 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
@@ -3187,10 +3193,10 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
@@ -3341,7 +3347,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -3351,7 +3357,7 @@
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W23" s="3" t="s">
         <v>81</v>
@@ -3662,7 +3668,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -3686,7 +3692,7 @@
       </c>
       <c r="V34" s="3"/>
       <c r="W34" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="2:23" ht="50" x14ac:dyDescent="0.8">
@@ -3716,7 +3722,7 @@
       </c>
       <c r="V35" s="3"/>
       <c r="W35" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="2:23" ht="33.35" x14ac:dyDescent="0.8">
@@ -3724,13 +3730,13 @@
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -3823,10 +3829,10 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -3834,7 +3840,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
@@ -3865,7 +3871,7 @@
         <v>50</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -3887,7 +3893,7 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="W40" s="3"/>
     </row>
@@ -3920,13 +3926,13 @@
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
       <c r="U41" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V41" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="W41" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="W41" s="3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="42" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
@@ -3958,7 +3964,7 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="2:23" ht="100" x14ac:dyDescent="0.8">
@@ -3994,7 +4000,7 @@
       </c>
       <c r="V43" s="3"/>
       <c r="W43" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="2:23" ht="50" x14ac:dyDescent="0.8">
@@ -4018,7 +4024,7 @@
         <v>32</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -4029,10 +4035,10 @@
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="2:23" ht="33.35" x14ac:dyDescent="0.8">
@@ -4048,17 +4054,17 @@
         <v>13</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
@@ -4068,31 +4074,31 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T45" s="3"/>
       <c r="U45" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>71</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" ht="100" x14ac:dyDescent="0.8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" ht="116.7" x14ac:dyDescent="0.8">
       <c r="B46" s="3">
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>16</v>
@@ -4118,14 +4124,14 @@
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c r="W46" s="3"/>
     </row>
@@ -4134,7 +4140,7 @@
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
@@ -4144,7 +4150,7 @@
         <v>14</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>99</v>
@@ -4156,7 +4162,7 @@
         <v>27</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3" t="s">
@@ -4174,7 +4180,7 @@
         <v>72</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="2:23" ht="50" x14ac:dyDescent="0.8">
@@ -4211,10 +4217,10 @@
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="2:23" ht="50" x14ac:dyDescent="0.8">
@@ -4234,7 +4240,7 @@
         <v>12</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>101</v>
@@ -4259,7 +4265,7 @@
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="W49" s="3"/>
     </row>
@@ -4268,7 +4274,7 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>64</v>
@@ -4277,10 +4283,10 @@
         <v>48</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>100</v>
@@ -4298,17 +4304,17 @@
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="W50" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="2:23" ht="100" x14ac:dyDescent="0.8">
@@ -4322,13 +4328,13 @@
         <v>40</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>60</v>
@@ -4337,7 +4343,7 @@
         <v>97</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -4345,26 +4351,26 @@
         <v>69</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O51" s="3"/>
       <c r="P51" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U51" s="3"/>
       <c r="V51" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="2:23" ht="100" x14ac:dyDescent="0.8">
@@ -4381,10 +4387,10 @@
         <v>55</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>102</v>
@@ -4396,10 +4402,10 @@
         <v>28</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
@@ -4408,19 +4414,19 @@
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R52" s="3"/>
       <c r="S52" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="2:23" ht="83.35" x14ac:dyDescent="0.8">
@@ -4431,47 +4437,47 @@
         <v>91</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U53" s="3"/>
       <c r="V53" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="W53" s="3"/>
     </row>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker\joshi_wrestling_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB7C61B-D7C4-4444-B02B-BE6499FAA5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC383541-876C-4190-BC0B-9ABED7C3C393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28013" yWindow="280" windowWidth="16547" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8743" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
   <si>
     <t>Stardom</t>
     <phoneticPr fontId="1"/>
@@ -510,33 +510,6 @@
 夏葵</t>
     <rPh sb="3" eb="5">
       <t>ナツキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>荒幡寧々
-福永莉子
-水嶋さくら
-みあ朝子
-石川はるか
-KYANREN
-岩井杏加
-才原茉莉乃
-汐月なぎさ</t>
-    <rPh sb="18" eb="20">
-      <t>アサコ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>イシカワ</t>
-    </rPh>
-    <rPh sb="35" eb="39">
-      <t>イワイキョウカ</t>
-    </rPh>
-    <rPh sb="40" eb="45">
-      <t>サイハラマリノ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>シオツキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1619,6 +1592,46 @@
     </rPh>
     <rPh sb="77" eb="79">
       <t>シンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あきば栞(SECRETBASE)</t>
+    <rPh sb="3" eb="4">
+      <t>シオリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>荒幡寧々
+福永莉子
+水嶋さくら
+みあ朝子
+石川はるか
+KYANREN(2025.8.13で区切り予定)
+岩井杏加
+才原茉莉乃
+汐月なぎさ</t>
+    <rPh sb="18" eb="20">
+      <t>アサコ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イシカワ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="52" eb="56">
+      <t>イワイキョウカ</t>
+    </rPh>
+    <rPh sb="57" eb="62">
+      <t>サイハラマリノ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>シオツキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2550,51 +2563,51 @@
   <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="S42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="V47" sqref="V47"/>
+      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
+  <sheetFormatPr defaultColWidth="47.78515625" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.71875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.27734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.71875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.27734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.609375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.35546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.2109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.44140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="21.27734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.42578125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="47.77734375" style="1"/>
+    <col min="24" max="24" width="21.640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="47.78515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="16" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:23" ht="15.9" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="16" x14ac:dyDescent="0.8">
+    <row r="2" spans="1:23" ht="15.9" x14ac:dyDescent="0.65">
       <c r="B2" s="1">
         <f>SUM(C2:RW2)</f>
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2754,7 +2767,7 @@
      LEN(V5:V999) - LEN(SUBSTITUTE(V5:V999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W2" s="1" cm="1">
         <f t="array" ref="W2">SUMPRODUCT(
@@ -2765,11 +2778,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="16" x14ac:dyDescent="0.8">
+    <row r="3" spans="1:23" ht="15.9" x14ac:dyDescent="0.65">
       <c r="J3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="4" spans="1:23" ht="15.9" x14ac:dyDescent="0.65">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -2786,25 +2799,25 @@
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>59</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>31</v>
@@ -2816,19 +2829,19 @@
         <v>22</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>42</v>
@@ -2837,7 +2850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="5" spans="1:23" ht="15.9" x14ac:dyDescent="0.65">
       <c r="B5" s="3">
         <v>1977</v>
       </c>
@@ -2865,7 +2878,7 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="6" spans="1:23" ht="15.9" x14ac:dyDescent="0.65">
       <c r="B6" s="3">
         <v>1978</v>
       </c>
@@ -2891,7 +2904,7 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="7" spans="1:23" ht="15.9" x14ac:dyDescent="0.65">
       <c r="B7" s="3">
         <v>1979</v>
       </c>
@@ -2917,7 +2930,7 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="8" spans="1:23" ht="15.9" x14ac:dyDescent="0.65">
       <c r="B8" s="3">
         <v>1980</v>
       </c>
@@ -2947,7 +2960,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="9" spans="1:23" ht="15.9" x14ac:dyDescent="0.65">
       <c r="B9" s="3">
         <v>1981</v>
       </c>
@@ -2973,7 +2986,7 @@
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
     </row>
-    <row r="10" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="10" spans="1:23" ht="15.9" x14ac:dyDescent="0.65">
       <c r="B10" s="3">
         <v>1982</v>
       </c>
@@ -2999,7 +3012,7 @@
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
     </row>
-    <row r="11" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="11" spans="1:23" ht="15.9" x14ac:dyDescent="0.65">
       <c r="B11" s="3">
         <v>1983</v>
       </c>
@@ -3025,7 +3038,7 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
     </row>
-    <row r="12" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="12" spans="1:23" ht="15.9" x14ac:dyDescent="0.65">
       <c r="B12" s="3">
         <v>1984</v>
       </c>
@@ -3051,7 +3064,7 @@
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
     </row>
-    <row r="13" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="13" spans="1:23" ht="15.9" x14ac:dyDescent="0.65">
       <c r="B13" s="3">
         <v>1985</v>
       </c>
@@ -3075,11 +3088,11 @@
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="W13" s="3"/>
     </row>
-    <row r="14" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="14" spans="1:23" ht="15.9" x14ac:dyDescent="0.65">
       <c r="B14" s="3">
         <v>1986</v>
       </c>
@@ -3105,13 +3118,13 @@
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="15" spans="1:23" ht="15.9" x14ac:dyDescent="0.65">
       <c r="B15" s="3">
         <v>1987</v>
       </c>
@@ -3136,10 +3149,10 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15.9" x14ac:dyDescent="0.65">
       <c r="B16" s="3">
         <v>1988</v>
       </c>
@@ -3169,7 +3182,7 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
     </row>
-    <row r="17" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="17" spans="2:23" ht="15.9" x14ac:dyDescent="0.65">
       <c r="B17" s="3">
         <v>1989</v>
       </c>
@@ -3193,13 +3206,13 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" ht="15.9" x14ac:dyDescent="0.65">
       <c r="B18" s="3">
         <v>1990</v>
       </c>
@@ -3225,7 +3238,7 @@
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
     </row>
-    <row r="19" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="19" spans="2:23" ht="15.9" x14ac:dyDescent="0.65">
       <c r="B19" s="3">
         <v>1991</v>
       </c>
@@ -3251,7 +3264,7 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
     </row>
-    <row r="20" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="20" spans="2:23" ht="15.9" x14ac:dyDescent="0.65">
       <c r="B20" s="3">
         <v>1992</v>
       </c>
@@ -3277,7 +3290,7 @@
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
     </row>
-    <row r="21" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="21" spans="2:23" ht="15.9" x14ac:dyDescent="0.65">
       <c r="B21" s="3">
         <v>1993</v>
       </c>
@@ -3303,7 +3316,7 @@
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
     </row>
-    <row r="22" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="22" spans="2:23" ht="15.9" x14ac:dyDescent="0.65">
       <c r="B22" s="3">
         <v>1994</v>
       </c>
@@ -3329,7 +3342,7 @@
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
     </row>
-    <row r="23" spans="2:23" ht="50" x14ac:dyDescent="0.8">
+    <row r="23" spans="2:23" ht="47.6" x14ac:dyDescent="0.65">
       <c r="B23" s="3">
         <v>1995</v>
       </c>
@@ -3340,14 +3353,14 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -3357,13 +3370,13 @@
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" ht="15.9" x14ac:dyDescent="0.65">
       <c r="B24" s="3">
         <v>1996</v>
       </c>
@@ -3391,7 +3404,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="25" spans="2:23" ht="15.9" x14ac:dyDescent="0.65">
       <c r="B25" s="3">
         <v>1997</v>
       </c>
@@ -3404,7 +3417,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -3418,10 +3431,10 @@
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" ht="15.9" x14ac:dyDescent="0.65">
       <c r="B26" s="3">
         <v>1998</v>
       </c>
@@ -3445,13 +3458,13 @@
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="W26" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="27" spans="2:23" ht="15.9" x14ac:dyDescent="0.65">
       <c r="B27" s="3">
         <v>1999</v>
       </c>
@@ -3477,11 +3490,11 @@
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="W27" s="3"/>
     </row>
-    <row r="28" spans="2:23" ht="33.35" x14ac:dyDescent="0.8">
+    <row r="28" spans="2:23" ht="31.75" x14ac:dyDescent="0.65">
       <c r="B28" s="3">
         <v>2000</v>
       </c>
@@ -3496,7 +3509,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -3510,10 +3523,10 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" ht="15.9" x14ac:dyDescent="0.65">
       <c r="B29" s="3">
         <v>2001</v>
       </c>
@@ -3531,7 +3544,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -3543,7 +3556,7 @@
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
     </row>
-    <row r="30" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="30" spans="2:23" ht="15.9" x14ac:dyDescent="0.65">
       <c r="B30" s="3">
         <v>2002</v>
       </c>
@@ -3567,11 +3580,11 @@
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="W30" s="3"/>
     </row>
-    <row r="31" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="31" spans="2:23" ht="15.9" x14ac:dyDescent="0.65">
       <c r="B31" s="3">
         <v>2003</v>
       </c>
@@ -3597,7 +3610,7 @@
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
     </row>
-    <row r="32" spans="2:23" ht="33.35" x14ac:dyDescent="0.8">
+    <row r="32" spans="2:23" ht="31.75" x14ac:dyDescent="0.65">
       <c r="B32" s="3">
         <v>2004</v>
       </c>
@@ -3621,13 +3634,13 @@
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" ht="15.9" x14ac:dyDescent="0.65">
       <c r="B33" s="3">
         <v>2005</v>
       </c>
@@ -3647,19 +3660,19 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" ht="66.7" x14ac:dyDescent="0.8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" ht="63.45" x14ac:dyDescent="0.65">
       <c r="B34" s="3">
         <v>2006</v>
       </c>
@@ -3668,17 +3681,17 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -3688,14 +3701,14 @@
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V34" s="3"/>
       <c r="W34" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="2:23" ht="50" x14ac:dyDescent="0.8">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" ht="47.6" x14ac:dyDescent="0.65">
       <c r="B35" s="3">
         <v>2007</v>
       </c>
@@ -3718,25 +3731,25 @@
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V35" s="3"/>
       <c r="W35" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="36" spans="2:23" ht="33.35" x14ac:dyDescent="0.8">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" ht="31.75" x14ac:dyDescent="0.65">
       <c r="B36" s="3">
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -3752,14 +3765,14 @@
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V36" s="3"/>
       <c r="W36" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" ht="15.9" x14ac:dyDescent="0.65">
       <c r="B37" s="3">
         <v>2009</v>
       </c>
@@ -3783,11 +3796,11 @@
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W37" s="3"/>
     </row>
-    <row r="38" spans="2:23" ht="50" x14ac:dyDescent="0.8">
+    <row r="38" spans="2:23" ht="47.6" x14ac:dyDescent="0.65">
       <c r="B38" s="3">
         <v>2010</v>
       </c>
@@ -3798,7 +3811,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -3815,24 +3828,24 @@
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W38" s="3"/>
     </row>
-    <row r="39" spans="2:23" ht="33.35" x14ac:dyDescent="0.8">
+    <row r="39" spans="2:23" ht="31.75" x14ac:dyDescent="0.65">
       <c r="B39" s="3">
         <v>2011</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -3840,7 +3853,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
@@ -3852,14 +3865,14 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V39" s="3"/>
       <c r="W39" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="2:23" ht="50" x14ac:dyDescent="0.8">
+    <row r="40" spans="2:23" ht="47.6" x14ac:dyDescent="0.65">
       <c r="B40" s="3">
         <v>2012</v>
       </c>
@@ -3871,14 +3884,14 @@
         <v>50</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>1</v>
@@ -3893,16 +3906,16 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="W40" s="3"/>
     </row>
-    <row r="41" spans="2:23" ht="116.7" x14ac:dyDescent="0.8">
+    <row r="41" spans="2:23" ht="111" x14ac:dyDescent="0.65">
       <c r="B41" s="3">
         <v>2013</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
@@ -3926,16 +3939,16 @@
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
       <c r="U41" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V41" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W41" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
+    </row>
+    <row r="42" spans="2:23" ht="15.9" x14ac:dyDescent="0.65">
       <c r="B42" s="3">
         <v>2014</v>
       </c>
@@ -3962,17 +3975,19 @@
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
+      <c r="V42" s="3" t="s">
+        <v>207</v>
+      </c>
       <c r="W42" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="43" spans="2:23" ht="100" x14ac:dyDescent="0.8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" ht="95.15" x14ac:dyDescent="0.65">
       <c r="B43" s="3">
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
@@ -3986,7 +4001,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
@@ -3996,19 +4011,19 @@
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
       <c r="U43" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V43" s="3"/>
       <c r="W43" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" ht="50" x14ac:dyDescent="0.8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" ht="47.6" x14ac:dyDescent="0.65">
       <c r="B44" s="3">
         <v>2016</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>29</v>
@@ -4024,7 +4039,7 @@
         <v>32</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -4035,18 +4050,18 @@
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" ht="33.35" x14ac:dyDescent="0.8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" ht="31.75" x14ac:dyDescent="0.65">
       <c r="B45" s="3">
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4054,17 +4069,17 @@
         <v>13</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
@@ -4074,31 +4089,31 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T45" s="3"/>
       <c r="U45" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" ht="116.7" x14ac:dyDescent="0.8">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" ht="111" x14ac:dyDescent="0.65">
       <c r="B46" s="3">
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>16</v>
@@ -4106,41 +4121,41 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M46" s="3"/>
       <c r="N46" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W46" s="3"/>
     </row>
-    <row r="47" spans="2:23" ht="66.7" x14ac:dyDescent="0.8">
+    <row r="47" spans="2:23" ht="63.45" x14ac:dyDescent="0.65">
       <c r="B47" s="3">
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
@@ -4150,23 +4165,23 @@
         <v>14</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -4177,13 +4192,13 @@
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23" ht="50" x14ac:dyDescent="0.8">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" ht="47.6" x14ac:dyDescent="0.65">
       <c r="B48" s="3">
         <v>2020</v>
       </c>
@@ -4202,7 +4217,7 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
@@ -4211,19 +4226,19 @@
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="49" spans="2:23" ht="50" x14ac:dyDescent="0.8">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" ht="47.6" x14ac:dyDescent="0.65">
       <c r="B49" s="3">
         <v>2021</v>
       </c>
@@ -4240,10 +4255,10 @@
         <v>12</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -4253,10 +4268,10 @@
       </c>
       <c r="M49" s="3"/>
       <c r="N49" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
@@ -4265,34 +4280,34 @@
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="W49" s="3"/>
     </row>
-    <row r="50" spans="2:23" ht="150" x14ac:dyDescent="0.8">
+    <row r="50" spans="2:23" ht="190.3" x14ac:dyDescent="0.65">
       <c r="B50" s="3">
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>64</v>
+        <v>208</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>26</v>
@@ -4304,20 +4319,20 @@
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="W50" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="2:23" ht="100" x14ac:dyDescent="0.8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" ht="95.15" x14ac:dyDescent="0.65">
       <c r="B51" s="3">
         <v>2023</v>
       </c>
@@ -4328,57 +4343,57 @@
         <v>40</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>60</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O51" s="3"/>
       <c r="P51" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U51" s="3"/>
       <c r="V51" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="52" spans="2:23" ht="100" x14ac:dyDescent="0.8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" ht="95.15" x14ac:dyDescent="0.65">
       <c r="B52" s="3">
         <v>2024</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>41</v>
@@ -4387,97 +4402,97 @@
         <v>55</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>28</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R52" s="3"/>
       <c r="S52" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="53" spans="2:23" ht="83.35" x14ac:dyDescent="0.8">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" ht="79.3" x14ac:dyDescent="0.65">
       <c r="B53" s="3">
         <v>2025</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U53" s="3"/>
       <c r="V53" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W53" s="3"/>
     </row>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker\joshi_wrestling_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC383541-876C-4190-BC0B-9ABED7C3C393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D2F8CE-9575-434D-BEC4-A2DF1A45BE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8743" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="-67" yWindow="-67" windowWidth="25734" windowHeight="13814" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
   <si>
     <t>Stardom</t>
     <phoneticPr fontId="1"/>
@@ -1270,10 +1270,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リアラ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>吏南
 妃南
 鈴季すず
@@ -1304,11 +1300,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>苺畑ひより(666)
-横井真菜(REINA)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>紫雷美央
 キラアン
 ガキにゃん仮面</t>
@@ -1395,19 +1386,6 @@
       <t>イトウ</t>
     </rPh>
     <rPh sb="6" eb="8">
-      <t>ドウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>志真うた(伊藤道場)</t>
-    <rPh sb="0" eb="2">
-      <t>シマ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イトウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
       <t>ドウジョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1603,12 +1581,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>志真うた(伊藤道場)
+リアラ(PPP)</t>
+    <rPh sb="0" eb="2">
+      <t>シマ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イトウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>荒幡寧々
 福永莉子
 水嶋さくら
 みあ朝子
 石川はるか
-KYANREN(2025.8.13で区切り予定)
+KYANREN(一区切り)
 岩井杏加
 才原茉莉乃
 汐月なぎさ</t>
@@ -1618,20 +1610,36 @@
     <rPh sb="21" eb="23">
       <t>イシカワ</t>
     </rPh>
-    <rPh sb="45" eb="47">
+    <rPh sb="35" eb="36">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="36" eb="38">
       <t>クギ</t>
     </rPh>
-    <rPh sb="48" eb="50">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="52" eb="56">
+    <rPh sb="41" eb="45">
       <t>イワイキョウカ</t>
     </rPh>
-    <rPh sb="57" eb="62">
+    <rPh sb="46" eb="51">
       <t>サイハラマリノ</t>
     </rPh>
-    <rPh sb="63" eb="65">
+    <rPh sb="52" eb="54">
       <t>シオツキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>苺畑ひより(666)
+横井真菜(REINA)
+&lt;堀このみ&gt;(ZeroOne)
+タギリヒメ真夢(九州女子プロレス)</t>
+    <rPh sb="24" eb="25">
+      <t>ホリ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>キュウシュウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ジョシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1694,7 +1702,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1705,6 +1713,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2213,8 +2224,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A34D807-EC26-4518-9852-7FFB26CEC57B}" name="テーブル1" displayName="テーブル1" ref="B4:W53" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="B4:W53" xr:uid="{4A34D807-EC26-4518-9852-7FFB26CEC57B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A34D807-EC26-4518-9852-7FFB26CEC57B}" name="テーブル1" displayName="テーブル1" ref="B4:W54" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="B4:W54" xr:uid="{4A34D807-EC26-4518-9852-7FFB26CEC57B}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{C5BCADDE-F600-4480-BD2B-E93168A1BF7F}" name="デビュー年" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{7319872F-B1DE-47E8-ADFA-F5962E445AE2}" name="Stardom" dataDxfId="20"/>
@@ -2560,229 +2571,229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4F8F56-06F6-4E1D-8D81-5A485042419D}">
-  <dimension ref="A1:W53"/>
+  <dimension ref="A1:W54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="I48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomRight" activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="47.78515625" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.35546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.2109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.71875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.27734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.71875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.27734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.42578125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.44140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="21.27734375" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="47.78515625" style="1"/>
+    <col min="24" max="24" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="47.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.9" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:23" ht="16" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
         <v>133</v>
       </c>
       <c r="J1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="15.9" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:23" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RW2)</f>
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
-  IF(LEN(C5:C999)=0, 0,
-     LEN(C5:C999) - LEN(SUBSTITUTE(C5:C999, CHAR(10), "")) + 1
+  IF(LEN(C5:C1000)=0, 0,
+     LEN(C5:C1000) - LEN(SUBSTITUTE(C5:C1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>41</v>
       </c>
       <c r="D2" s="1" cm="1">
         <f t="array" ref="D2">SUMPRODUCT(
-  IF(LEN(D5:D999)=0, 0,
-     LEN(D5:D999) - LEN(SUBSTITUTE(D5:D999, CHAR(10), "")) + 1
+  IF(LEN(D5:D1000)=0, 0,
+     LEN(D5:D1000) - LEN(SUBSTITUTE(D5:D1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>29</v>
       </c>
       <c r="E2" s="1" cm="1">
         <f t="array" ref="E2">SUMPRODUCT(
-  IF(LEN(E5:E999)=0, 0,
-     LEN(E5:E999) - LEN(SUBSTITUTE(E5:E999, CHAR(10), "")) + 1
+  IF(LEN(E5:E1000)=0, 0,
+     LEN(E5:E1000) - LEN(SUBSTITUTE(E5:E1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>27</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2">SUMPRODUCT(
-  IF(LEN(F5:F999)=0, 0,
-     LEN(F5:F999) - LEN(SUBSTITUTE(F5:F999, CHAR(10), "")) + 1
+  IF(LEN(F5:F1000)=0, 0,
+     LEN(F5:F1000) - LEN(SUBSTITUTE(F5:F1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>23</v>
       </c>
       <c r="G2" s="1" cm="1">
         <f t="array" ref="G2">SUMPRODUCT(
-  IF(LEN(G5:G999)=0, 0,
-     LEN(G5:G999) - LEN(SUBSTITUTE(G5:G999, CHAR(10), "")) + 1
+  IF(LEN(G5:G1000)=0, 0,
+     LEN(G5:G1000) - LEN(SUBSTITUTE(G5:G1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>18</v>
       </c>
       <c r="H2" s="1" cm="1">
         <f t="array" ref="H2">SUMPRODUCT(
-  IF(LEN(H5:H999)=0, 0,
-     LEN(H5:H999) - LEN(SUBSTITUTE(H5:H999, CHAR(10), "")) + 1
+  IF(LEN(H5:H1000)=0, 0,
+     LEN(H5:H1000) - LEN(SUBSTITUTE(H5:H1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>11</v>
       </c>
       <c r="I2" s="1" cm="1">
         <f t="array" ref="I2">SUMPRODUCT(
-  IF(LEN(I5:I999)=0, 0,
-     LEN(I5:I999) - LEN(SUBSTITUTE(I5:I999, CHAR(10), "")) + 1
+  IF(LEN(I5:I1000)=0, 0,
+     LEN(I5:I1000) - LEN(SUBSTITUTE(I5:I1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>11</v>
       </c>
       <c r="J2" s="1" cm="1">
         <f t="array" ref="J2">SUMPRODUCT(
-  IF(LEN(J5:J999)=0, 0,
-     LEN(J5:J999) - LEN(SUBSTITUTE(J5:J999, CHAR(10), "")) + 1
+  IF(LEN(J5:J1000)=0, 0,
+     LEN(J5:J1000) - LEN(SUBSTITUTE(J5:J1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>11</v>
       </c>
       <c r="K2" s="1" cm="1">
         <f t="array" ref="K2">SUMPRODUCT(
-  IF(LEN(K5:K999)=0, 0,
-     LEN(K5:K999) - LEN(SUBSTITUTE(K5:K999, CHAR(10), "")) + 1
+  IF(LEN(K5:K1000)=0, 0,
+     LEN(K5:K1000) - LEN(SUBSTITUTE(K5:K1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>9</v>
       </c>
       <c r="L2" s="1" cm="1">
         <f t="array" ref="L2">SUMPRODUCT(
-  IF(LEN(L5:L999)=0, 0,
-     LEN(L5:L999) - LEN(SUBSTITUTE(L5:L999, CHAR(10), "")) + 1
+  IF(LEN(L5:L1000)=0, 0,
+     LEN(L5:L1000) - LEN(SUBSTITUTE(L5:L1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>9</v>
       </c>
       <c r="M2" s="1" cm="1">
         <f t="array" ref="M2">SUMPRODUCT(
-  IF(LEN(M5:M999)=0, 0,
-     LEN(M5:M999) - LEN(SUBSTITUTE(M5:M999, CHAR(10), "")) + 1
+  IF(LEN(M5:M1000)=0, 0,
+     LEN(M5:M1000) - LEN(SUBSTITUTE(M5:M1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>9</v>
       </c>
       <c r="N2" s="1" cm="1">
         <f t="array" ref="N2">SUMPRODUCT(
-  IF(LEN(N5:N999)=0, 0,
-     LEN(N5:N999) - LEN(SUBSTITUTE(N5:N999, CHAR(10), "")) + 1
+  IF(LEN(N5:N1000)=0, 0,
+     LEN(N5:N1000) - LEN(SUBSTITUTE(N5:N1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>6</v>
       </c>
       <c r="O2" s="1" cm="1">
         <f t="array" ref="O2">SUMPRODUCT(
-  IF(LEN(O5:O999)=0, 0,
-     LEN(O5:O999) - LEN(SUBSTITUTE(O5:O999, CHAR(10), "")) + 1
+  IF(LEN(O5:O1000)=0, 0,
+     LEN(O5:O1000) - LEN(SUBSTITUTE(O5:O1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>6</v>
       </c>
       <c r="P2" s="1" cm="1">
         <f t="array" ref="P2">SUMPRODUCT(
-  IF(LEN(P5:P999)=0, 0,
-     LEN(P5:P999) - LEN(SUBSTITUTE(P5:P999, CHAR(10), "")) + 1
+  IF(LEN(P5:P1000)=0, 0,
+     LEN(P5:P1000) - LEN(SUBSTITUTE(P5:P1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>6</v>
       </c>
       <c r="Q2" s="1" cm="1">
         <f t="array" ref="Q2">SUMPRODUCT(
-  IF(LEN(Q5:Q999)=0, 0,
-     LEN(Q5:Q999) - LEN(SUBSTITUTE(Q5:Q999, CHAR(10), "")) + 1
+  IF(LEN(Q5:Q1000)=0, 0,
+     LEN(Q5:Q1000) - LEN(SUBSTITUTE(Q5:Q1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>5</v>
       </c>
       <c r="R2" s="1" cm="1">
         <f t="array" ref="R2">SUMPRODUCT(
-  IF(LEN(R5:R999)=0, 0,
-     LEN(R5:R999) - LEN(SUBSTITUTE(R5:R999, CHAR(10), "")) + 1
+  IF(LEN(R5:R1000)=0, 0,
+     LEN(R5:R1000) - LEN(SUBSTITUTE(R5:R1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
       <c r="S2" s="1" cm="1">
         <f t="array" ref="S2">SUMPRODUCT(
-  IF(LEN(S5:S999)=0, 0,
-     LEN(S5:S999) - LEN(SUBSTITUTE(S5:S999, CHAR(10), "")) + 1
+  IF(LEN(S5:S1000)=0, 0,
+     LEN(S5:S1000) - LEN(SUBSTITUTE(S5:S1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
       <c r="T2" s="1" cm="1">
         <f t="array" ref="T2">SUMPRODUCT(
-  IF(LEN(T5:T999)=0, 0,
-     LEN(T5:T999) - LEN(SUBSTITUTE(T5:T999, CHAR(10), "")) + 1
+  IF(LEN(T5:T1000)=0, 0,
+     LEN(T5:T1000) - LEN(SUBSTITUTE(T5:T1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
       <c r="U2" s="1" cm="1">
         <f t="array" ref="U2">SUMPRODUCT(
-  IF(LEN(U5:U999)=0, 0,
-     LEN(U5:U999) - LEN(SUBSTITUTE(U5:U999, CHAR(10), "")) + 1
+  IF(LEN(U5:U1000)=0, 0,
+     LEN(U5:U1000) - LEN(SUBSTITUTE(U5:U1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>8</v>
       </c>
       <c r="V2" s="1" cm="1">
         <f t="array" ref="V2">SUMPRODUCT(
-  IF(LEN(V5:V999)=0, 0,
-     LEN(V5:V999) - LEN(SUBSTITUTE(V5:V999, CHAR(10), "")) + 1
+  IF(LEN(V5:V1000)=0, 0,
+     LEN(V5:V1000) - LEN(SUBSTITUTE(V5:V1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="W2" s="1" cm="1">
         <f t="array" ref="W2">SUMPRODUCT(
-  IF(LEN(W5:W999)=0, 0,
-     LEN(W5:W999) - LEN(SUBSTITUTE(W5:W999, CHAR(10), "")) + 1
+  IF(LEN(W5:W1000)=0, 0,
+     LEN(W5:W1000) - LEN(SUBSTITUTE(W5:W1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="15.9" x14ac:dyDescent="0.65">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="16" x14ac:dyDescent="0.8">
       <c r="J3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="15.9" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -2835,10 +2846,10 @@
         <v>8</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="U4" s="2" t="s">
         <v>121</v>
@@ -2850,7 +2861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15.9" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B5" s="3">
         <v>1977</v>
       </c>
@@ -2878,7 +2889,7 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:23" ht="15.9" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B6" s="3">
         <v>1978</v>
       </c>
@@ -2904,7 +2915,7 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" spans="1:23" ht="15.9" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B7" s="3">
         <v>1979</v>
       </c>
@@ -2930,7 +2941,7 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" spans="1:23" ht="15.9" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B8" s="3">
         <v>1980</v>
       </c>
@@ -2960,7 +2971,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15.9" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B9" s="3">
         <v>1981</v>
       </c>
@@ -2986,7 +2997,7 @@
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
     </row>
-    <row r="10" spans="1:23" ht="15.9" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B10" s="3">
         <v>1982</v>
       </c>
@@ -3012,7 +3023,7 @@
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
     </row>
-    <row r="11" spans="1:23" ht="15.9" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B11" s="3">
         <v>1983</v>
       </c>
@@ -3038,7 +3049,7 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
     </row>
-    <row r="12" spans="1:23" ht="15.9" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B12" s="3">
         <v>1984</v>
       </c>
@@ -3064,7 +3075,7 @@
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
     </row>
-    <row r="13" spans="1:23" ht="15.9" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B13" s="3">
         <v>1985</v>
       </c>
@@ -3088,11 +3099,11 @@
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="W13" s="3"/>
     </row>
-    <row r="14" spans="1:23" ht="15.9" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B14" s="3">
         <v>1986</v>
       </c>
@@ -3124,7 +3135,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="15.9" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B15" s="3">
         <v>1987</v>
       </c>
@@ -3152,7 +3163,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15.9" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B16" s="3">
         <v>1988</v>
       </c>
@@ -3182,7 +3193,7 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
     </row>
-    <row r="17" spans="2:23" ht="15.9" x14ac:dyDescent="0.65">
+    <row r="17" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B17" s="3">
         <v>1989</v>
       </c>
@@ -3206,13 +3217,13 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" ht="15.9" x14ac:dyDescent="0.65">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B18" s="3">
         <v>1990</v>
       </c>
@@ -3238,7 +3249,7 @@
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
     </row>
-    <row r="19" spans="2:23" ht="15.9" x14ac:dyDescent="0.65">
+    <row r="19" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B19" s="3">
         <v>1991</v>
       </c>
@@ -3264,7 +3275,7 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
     </row>
-    <row r="20" spans="2:23" ht="15.9" x14ac:dyDescent="0.65">
+    <row r="20" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B20" s="3">
         <v>1992</v>
       </c>
@@ -3290,7 +3301,7 @@
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
     </row>
-    <row r="21" spans="2:23" ht="15.9" x14ac:dyDescent="0.65">
+    <row r="21" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B21" s="3">
         <v>1993</v>
       </c>
@@ -3316,7 +3327,7 @@
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
     </row>
-    <row r="22" spans="2:23" ht="15.9" x14ac:dyDescent="0.65">
+    <row r="22" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B22" s="3">
         <v>1994</v>
       </c>
@@ -3342,7 +3353,7 @@
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
     </row>
-    <row r="23" spans="2:23" ht="47.6" x14ac:dyDescent="0.65">
+    <row r="23" spans="2:23" ht="50" x14ac:dyDescent="0.8">
       <c r="B23" s="3">
         <v>1995</v>
       </c>
@@ -3360,7 +3371,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -3370,13 +3381,13 @@
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="W23" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="2:23" ht="15.9" x14ac:dyDescent="0.65">
+    <row r="24" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B24" s="3">
         <v>1996</v>
       </c>
@@ -3404,7 +3415,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="2:23" ht="15.9" x14ac:dyDescent="0.65">
+    <row r="25" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B25" s="3">
         <v>1997</v>
       </c>
@@ -3434,7 +3445,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="2:23" ht="15.9" x14ac:dyDescent="0.65">
+    <row r="26" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B26" s="3">
         <v>1998</v>
       </c>
@@ -3464,7 +3475,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="2:23" ht="15.9" x14ac:dyDescent="0.65">
+    <row r="27" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B27" s="3">
         <v>1999</v>
       </c>
@@ -3494,7 +3505,7 @@
       </c>
       <c r="W27" s="3"/>
     </row>
-    <row r="28" spans="2:23" ht="31.75" x14ac:dyDescent="0.65">
+    <row r="28" spans="2:23" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B28" s="3">
         <v>2000</v>
       </c>
@@ -3526,7 +3537,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="2:23" ht="15.9" x14ac:dyDescent="0.65">
+    <row r="29" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B29" s="3">
         <v>2001</v>
       </c>
@@ -3556,7 +3567,7 @@
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
     </row>
-    <row r="30" spans="2:23" ht="15.9" x14ac:dyDescent="0.65">
+    <row r="30" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B30" s="3">
         <v>2002</v>
       </c>
@@ -3584,7 +3595,7 @@
       </c>
       <c r="W30" s="3"/>
     </row>
-    <row r="31" spans="2:23" ht="15.9" x14ac:dyDescent="0.65">
+    <row r="31" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B31" s="3">
         <v>2003</v>
       </c>
@@ -3610,7 +3621,7 @@
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
     </row>
-    <row r="32" spans="2:23" ht="31.75" x14ac:dyDescent="0.65">
+    <row r="32" spans="2:23" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B32" s="3">
         <v>2004</v>
       </c>
@@ -3640,7 +3651,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="2:23" ht="15.9" x14ac:dyDescent="0.65">
+    <row r="33" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B33" s="3">
         <v>2005</v>
       </c>
@@ -3672,7 +3683,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="2:23" ht="63.45" x14ac:dyDescent="0.65">
+    <row r="34" spans="2:23" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B34" s="3">
         <v>2006</v>
       </c>
@@ -3708,7 +3719,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="2:23" ht="47.6" x14ac:dyDescent="0.65">
+    <row r="35" spans="2:23" ht="50" x14ac:dyDescent="0.8">
       <c r="B35" s="3">
         <v>2007</v>
       </c>
@@ -3735,10 +3746,10 @@
       </c>
       <c r="V35" s="3"/>
       <c r="W35" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="36" spans="2:23" ht="31.75" x14ac:dyDescent="0.65">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B36" s="3">
         <v>2008</v>
       </c>
@@ -3772,7 +3783,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="2:23" ht="15.9" x14ac:dyDescent="0.65">
+    <row r="37" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B37" s="3">
         <v>2009</v>
       </c>
@@ -3800,7 +3811,7 @@
       </c>
       <c r="W37" s="3"/>
     </row>
-    <row r="38" spans="2:23" ht="47.6" x14ac:dyDescent="0.65">
+    <row r="38" spans="2:23" ht="50" x14ac:dyDescent="0.8">
       <c r="B38" s="3">
         <v>2010</v>
       </c>
@@ -3832,7 +3843,7 @@
       </c>
       <c r="W38" s="3"/>
     </row>
-    <row r="39" spans="2:23" ht="31.75" x14ac:dyDescent="0.65">
+    <row r="39" spans="2:23" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B39" s="3">
         <v>2011</v>
       </c>
@@ -3872,7 +3883,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="2:23" ht="47.6" x14ac:dyDescent="0.65">
+    <row r="40" spans="2:23" ht="50" x14ac:dyDescent="0.8">
       <c r="B40" s="3">
         <v>2012</v>
       </c>
@@ -3906,11 +3917,11 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="W40" s="3"/>
     </row>
-    <row r="41" spans="2:23" ht="111" x14ac:dyDescent="0.65">
+    <row r="41" spans="2:23" ht="116.7" x14ac:dyDescent="0.8">
       <c r="B41" s="3">
         <v>2013</v>
       </c>
@@ -3948,7 +3959,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="2:23" ht="15.9" x14ac:dyDescent="0.65">
+    <row r="42" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B42" s="3">
         <v>2014</v>
       </c>
@@ -3976,13 +3987,13 @@
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="2:23" ht="95.15" x14ac:dyDescent="0.65">
+    <row r="43" spans="2:23" ht="100" x14ac:dyDescent="0.8">
       <c r="B43" s="3">
         <v>2015</v>
       </c>
@@ -4015,10 +4026,10 @@
       </c>
       <c r="V43" s="3"/>
       <c r="W43" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" ht="47.6" x14ac:dyDescent="0.65">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" ht="50" x14ac:dyDescent="0.8">
       <c r="B44" s="3">
         <v>2016</v>
       </c>
@@ -4039,7 +4050,7 @@
         <v>32</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -4050,13 +4061,13 @@
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="2:23" ht="31.75" x14ac:dyDescent="0.65">
+    <row r="45" spans="2:23" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B45" s="3">
         <v>2017</v>
       </c>
@@ -4074,7 +4085,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -4089,7 +4100,7 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="T45" s="3"/>
       <c r="U45" s="3" t="s">
@@ -4102,12 +4113,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="46" spans="2:23" ht="111" x14ac:dyDescent="0.65">
+    <row r="46" spans="2:23" ht="116.7" x14ac:dyDescent="0.8">
       <c r="B46" s="3">
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>44</v>
@@ -4139,18 +4150,18 @@
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3" t="s">
         <v>125</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="W46" s="3"/>
     </row>
-    <row r="47" spans="2:23" ht="63.45" x14ac:dyDescent="0.65">
+    <row r="47" spans="2:23" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B47" s="3">
         <v>2019</v>
       </c>
@@ -4198,7 +4209,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="2:23" ht="47.6" x14ac:dyDescent="0.65">
+    <row r="48" spans="2:23" ht="50" x14ac:dyDescent="0.8">
       <c r="B48" s="3">
         <v>2020</v>
       </c>
@@ -4235,10 +4246,10 @@
         <v>167</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="49" spans="2:23" ht="47.6" x14ac:dyDescent="0.65">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" ht="50" x14ac:dyDescent="0.8">
       <c r="B49" s="3">
         <v>2021</v>
       </c>
@@ -4280,19 +4291,19 @@
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="W49" s="3"/>
     </row>
-    <row r="50" spans="2:23" ht="190.3" x14ac:dyDescent="0.65">
+    <row r="50" spans="2:23" ht="166.7" x14ac:dyDescent="0.8">
       <c r="B50" s="3">
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>48</v>
@@ -4326,13 +4337,13 @@
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="W50" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="2:23" ht="95.15" x14ac:dyDescent="0.65">
+    <row r="51" spans="2:23" ht="100" x14ac:dyDescent="0.8">
       <c r="B51" s="3">
         <v>2023</v>
       </c>
@@ -4366,11 +4377,11 @@
         <v>68</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O51" s="3"/>
       <c r="P51" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q51" s="3" t="s">
         <v>155</v>
@@ -4378,17 +4389,15 @@
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="U51" s="3"/>
       <c r="V51" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="W51" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="52" spans="2:23" ht="95.15" x14ac:dyDescent="0.65">
+        <v>205</v>
+      </c>
+      <c r="W51" s="3"/>
+    </row>
+    <row r="52" spans="2:23" ht="100" x14ac:dyDescent="0.8">
       <c r="B52" s="3">
         <v>2024</v>
       </c>
@@ -4402,7 +4411,7 @@
         <v>55</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>128</v>
@@ -4433,18 +4442,18 @@
       </c>
       <c r="R52" s="3"/>
       <c r="S52" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="53" spans="2:23" ht="79.3" x14ac:dyDescent="0.65">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" ht="83.35" x14ac:dyDescent="0.8">
       <c r="B53" s="3">
         <v>2025</v>
       </c>
@@ -4452,7 +4461,7 @@
         <v>90</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>141</v>
@@ -4468,7 +4477,7 @@
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3" t="s">
@@ -4477,24 +4486,48 @@
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="U53" s="3"/>
       <c r="V53" s="3" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="W53" s="3"/>
+    </row>
+    <row r="54" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D2F8CE-9575-434D-BEC4-A2DF1A45BE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15598537-507D-4FE6-8B7C-77166ECB0D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-67" yWindow="-67" windowWidth="25734" windowHeight="13814" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
   <si>
     <t>Stardom</t>
     <phoneticPr fontId="1"/>
@@ -1641,6 +1641,10 @@
     <rPh sb="49" eb="51">
       <t>ジョシ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビー・プレストリー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1702,7 +1706,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1713,9 +1717,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2574,10 +2575,10 @@
   <dimension ref="A1:W54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="I48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O50" sqref="O50"/>
+      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2618,7 +2619,7 @@
     <row r="2" spans="1:23" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RW2)</f>
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2626,7 +2627,7 @@
      LEN(C5:C1000) - LEN(SUBSTITUTE(C5:C1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1" cm="1">
         <f t="array" ref="D2">SUMPRODUCT(
@@ -3887,7 +3888,9 @@
       <c r="B40" s="3">
         <v>2012</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>208</v>
+      </c>
       <c r="D40" s="3" t="s">
         <v>45</v>
       </c>
@@ -4506,11 +4509,11 @@
       <c r="W53" s="3"/>
     </row>
     <row r="54" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="4"/>
+      <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -4522,12 +4525,12 @@
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
-      <c r="R54" s="4"/>
+      <c r="R54" s="3"/>
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
-      <c r="W54" s="4"/>
+      <c r="W54" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15598537-507D-4FE6-8B7C-77166ECB0D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B28BCBA-6B20-450A-83FC-8D811ED491AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-67" yWindow="-67" windowWidth="25734" windowHeight="13814" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="1880" yWindow="707" windowWidth="16547" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -1309,15 +1309,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>鶴姫花（愛媛）
-緑野アミサ(アルマリブレ)
-豊田紗也夏(T-HEARTS)</t>
-    <rPh sb="4" eb="6">
-      <t>エヒメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>堀田祐美子(T-HEARTS)</t>
     <rPh sb="0" eb="5">
       <t>ホッタユミコ</t>
@@ -1364,10 +1355,6 @@
   </si>
   <si>
     <t>デビーカイテル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>叶ミク(T-HEARTS)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1645,6 +1632,21 @@
   </si>
   <si>
     <t>ビー・プレストリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鶴姫花（愛媛）
+緑野アミサ(アルマリブレ)
+豊田紗也夏(T-HEARTS)
+ちゃんよた(PPP)</t>
+    <rPh sb="4" eb="6">
+      <t>エヒメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>叶ミク(T-HEARTS)
+エチカミヤビ(PPP)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2575,10 +2577,10 @@
   <dimension ref="A1:W54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="K48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomRight" activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2619,7 +2621,7 @@
     <row r="2" spans="1:23" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RW2)</f>
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2779,7 +2781,7 @@
      LEN(V5:V1000) - LEN(SUBSTITUTE(V5:V1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="W2" s="1" cm="1">
         <f t="array" ref="W2">SUMPRODUCT(
@@ -2847,10 +2849,10 @@
         <v>8</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="U4" s="2" t="s">
         <v>121</v>
@@ -3100,7 +3102,7 @@
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W13" s="3"/>
     </row>
@@ -3218,10 +3220,10 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
@@ -3372,7 +3374,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -3382,7 +3384,7 @@
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="W23" s="3" t="s">
         <v>80</v>
@@ -3889,7 +3891,7 @@
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>45</v>
@@ -3920,7 +3922,7 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="W40" s="3"/>
     </row>
@@ -3990,7 +3992,7 @@
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>143</v>
@@ -4029,7 +4031,7 @@
       </c>
       <c r="V43" s="3"/>
       <c r="W43" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="2:23" ht="50" x14ac:dyDescent="0.8">
@@ -4053,7 +4055,7 @@
         <v>32</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -4088,7 +4090,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -4103,7 +4105,7 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T45" s="3"/>
       <c r="U45" s="3" t="s">
@@ -4153,14 +4155,14 @@
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3" t="s">
         <v>125</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="W46" s="3"/>
     </row>
@@ -4249,10 +4251,10 @@
         <v>167</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="49" spans="2:23" ht="50" x14ac:dyDescent="0.8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B49" s="3">
         <v>2021</v>
       </c>
@@ -4294,7 +4296,7 @@
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="W49" s="3"/>
     </row>
@@ -4306,7 +4308,7 @@
         <v>171</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>48</v>
@@ -4340,7 +4342,7 @@
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="W50" s="3" t="s">
         <v>137</v>
@@ -4380,11 +4382,11 @@
         <v>68</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O51" s="3"/>
       <c r="P51" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Q51" s="3" t="s">
         <v>155</v>
@@ -4392,11 +4394,11 @@
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="U51" s="3"/>
       <c r="V51" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="W51" s="3"/>
     </row>
@@ -4414,7 +4416,7 @@
         <v>55</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>128</v>
@@ -4445,15 +4447,15 @@
       </c>
       <c r="R52" s="3"/>
       <c r="S52" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="2:23" ht="83.35" x14ac:dyDescent="0.8">
@@ -4464,7 +4466,7 @@
         <v>90</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>141</v>
@@ -4480,7 +4482,7 @@
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3" t="s">
@@ -4489,22 +4491,22 @@
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="U53" s="3"/>
       <c r="V53" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="W53" s="3"/>
     </row>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B28BCBA-6B20-450A-83FC-8D811ED491AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D200422D-E287-4C89-966B-480E8A1E1ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="707" windowWidth="16547" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="1880" yWindow="280" windowWidth="16547" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -1615,22 +1615,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>苺畑ひより(666)
-横井真菜(REINA)
-&lt;堀このみ&gt;(ZeroOne)
-タギリヒメ真夢(九州女子プロレス)</t>
-    <rPh sb="24" eb="25">
-      <t>ホリ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>キュウシュウ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ジョシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ビー・プレストリー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1647,6 +1631,26 @@
   <si>
     <t>叶ミク(T-HEARTS)
 エチカミヤビ(PPP)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>苺畑ひより(666)
+横井真菜(REINA)
+&lt;堀このみ&gt;(ZeroOne)
+タギリヒメ真夢(九州女子プロレス)
+&lt;八神のえみ&gt;(ちゃんよた預かり)</t>
+    <rPh sb="24" eb="25">
+      <t>ホリ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>キュウシュウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ジョシ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>アズ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2577,10 +2581,10 @@
   <dimension ref="A1:W54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="K48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="K50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P50" sqref="P50"/>
+      <selection pane="bottomRight" activeCell="V53" sqref="V53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2621,7 +2625,7 @@
     <row r="2" spans="1:23" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RW2)</f>
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2781,7 +2785,7 @@
      LEN(V5:V1000) - LEN(SUBSTITUTE(V5:V1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W2" s="1" cm="1">
         <f t="array" ref="W2">SUMPRODUCT(
@@ -3891,7 +3895,7 @@
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>45</v>
@@ -4296,7 +4300,7 @@
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W49" s="3"/>
     </row>
@@ -4342,7 +4346,7 @@
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="W50" s="3" t="s">
         <v>137</v>
@@ -4458,7 +4462,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="2:23" ht="83.35" x14ac:dyDescent="0.8">
+    <row r="53" spans="2:23" ht="116.7" x14ac:dyDescent="0.8">
       <c r="B53" s="3">
         <v>2025</v>
       </c>
@@ -4506,7 +4510,7 @@
       </c>
       <c r="U53" s="3"/>
       <c r="V53" s="3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="W53" s="3"/>
     </row>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D200422D-E287-4C89-966B-480E8A1E1ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F27FF9A-D1FA-4954-BDE1-6C2AAC3E7EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="280" windowWidth="16547" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="6100" yWindow="1240" windowWidth="16547" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
   <si>
     <t>Stardom</t>
     <phoneticPr fontId="1"/>
@@ -551,23 +551,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>青木いつ希(SC)</t>
-    <rPh sb="0" eb="2">
-      <t>アオキ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>マレ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山中絵里奈(BBJ)</t>
-    <rPh sb="0" eb="5">
-      <t>ヤマナカエリナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>里歩(AEW)</t>
     <rPh sb="0" eb="2">
       <t>リホ</t>
@@ -794,20 +777,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>群馬</t>
-    <rPh sb="0" eb="2">
-      <t>グンマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ラム会長(666)</t>
-    <rPh sb="2" eb="4">
-      <t>カイチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>柊くるみ(PR)
 夏実もち(PR)
 LINDA(信州)</t>
@@ -966,10 +935,6 @@
     <rPh sb="12" eb="15">
       <t>シズクアキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>七星</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1112,11 +1077,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>フライング・ペンギン
-ぽっぽちゃん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>noa</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1186,15 +1146,6 @@
 高瀬みゆき</t>
     <rPh sb="0" eb="2">
       <t>マナミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バニー及川
-マドレーヌ
-ウナギ・サヤカ</t>
-    <rPh sb="3" eb="5">
-      <t>オイカワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1300,15 +1251,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>紫雷美央
-キラアン
-ガキにゃん仮面</t>
-    <rPh sb="0" eb="4">
-      <t>シライミオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>堀田祐美子(T-HEARTS)</t>
     <rPh sb="0" eb="5">
       <t>ホッタユミコ</t>
@@ -1525,59 +1467,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>竹林早苗(BBJ)
-櫻井裕子(COLORS)
-網倉理奈(COLORS)
-KONOHA(銀河)(2026.5引退予定)
-花園桃花(アップタウン)
-杏ちゃむ(信州)</t>
-    <rPh sb="0" eb="2">
-      <t>タケバヤシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サナエ</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>サクライユウコ</t>
-    </rPh>
-    <rPh sb="23" eb="27">
-      <t>アミクラリナ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ギンガ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>インタイ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="59" eb="63">
-      <t>ハナゾノモモカ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>シンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>あきば栞(SECRETBASE)</t>
     <rPh sb="3" eb="4">
       <t>シオリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>志真うた(伊藤道場)
-リアラ(PPP)</t>
-    <rPh sb="0" eb="2">
-      <t>シマ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イトウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ドウジョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1638,6 +1530,7 @@
 横井真菜(REINA)
 &lt;堀このみ&gt;(ZeroOne)
 タギリヒメ真夢(九州女子プロレス)
+彩月悠叶(2AW)
 &lt;八神のえみ&gt;(ちゃんよた預かり)</t>
     <rPh sb="24" eb="25">
       <t>ホリ</t>
@@ -1648,8 +1541,155 @@
     <rPh sb="49" eb="51">
       <t>ジョシ</t>
     </rPh>
-    <rPh sb="70" eb="71">
+    <rPh sb="80" eb="81">
       <t>アズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青木いつ希(SC)
+笹村あやめ(2AW)</t>
+    <rPh sb="0" eb="2">
+      <t>アオキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スーパーW
+フライング・ペンギン
+ぽっぽちゃん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>志真うた(伊藤道場)
+リアラ(PPP)
+CoCo(MyWay)</t>
+    <rPh sb="0" eb="2">
+      <t>シマ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イトウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BBJ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小久保アリサ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大竹仁美</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山中絵里奈</t>
+  </si>
+  <si>
+    <t>竹林早苗</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>櫻井裕子(COLORS)
+網倉理奈(COLORS)
+KONOHA(銀河)(2026.5引退予定)
+花園桃花(アップタウン)
+杏ちゃむ(信州)</t>
+    <rPh sb="0" eb="4">
+      <t>サクライユウコ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>アミクラリナ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ギンガ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>インタイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="49" eb="53">
+      <t>ハナゾノモモカ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>シンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藍川はるか</t>
+    <rPh sb="0" eb="2">
+      <t>アイカワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バニー及川
+マドレーヌ
+ウナギ・サヤカ
+松澤さん</t>
+    <rPh sb="3" eb="5">
+      <t>オイカワ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>マツザワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>七星
+馬頭ほかげ
+りえまる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラム会長(666)
+群馬キャット(群馬)</t>
+    <rPh sb="2" eb="4">
+      <t>カイチョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>グンマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>紫雷美央
+キラ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="1"/>
+      </rPr>
+      <t>✩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Serif JP SemiBold"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アン
+ガキにゃん仮面</t>
+    </r>
+    <rPh sb="0" eb="4">
+      <t>シライミオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1658,7 +1698,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1688,6 +1728,12 @@
       <name val="Noto Serif JP SemiBold"/>
       <family val="1"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1729,7 +1775,27 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Noto Serif JP SemiBold"/>
+        <family val="1"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2231,31 +2297,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A34D807-EC26-4518-9852-7FFB26CEC57B}" name="テーブル1" displayName="テーブル1" ref="B4:W54" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="B4:W54" xr:uid="{4A34D807-EC26-4518-9852-7FFB26CEC57B}"/>
-  <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{C5BCADDE-F600-4480-BD2B-E93168A1BF7F}" name="デビュー年" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{7319872F-B1DE-47E8-ADFA-F5962E445AE2}" name="Stardom" dataDxfId="20"/>
-    <tableColumn id="18" xr3:uid="{6DD05DFF-D195-4CF5-BFC5-531553A9ADC5}" name="AWG" dataDxfId="19"/>
-    <tableColumn id="22" xr3:uid="{8EA6491D-1F78-431F-AD9B-C8AB4F6616E9}" name="TJPW" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{CA5FBB65-FE37-40A8-B1DD-0182D7DD64C3}" name="マリゴ" dataDxfId="17"/>
-    <tableColumn id="27" xr3:uid="{50745B86-8D07-4F72-B93E-5C2E105BB03C}" name="IR/ホットシュシュ" dataDxfId="16"/>
-    <tableColumn id="30" xr3:uid="{BB23C0DC-5AEB-431A-A828-4D1BDF4F315F}" name="JTO" dataDxfId="15"/>
-    <tableColumn id="29" xr3:uid="{ADFF1D58-E918-4FF6-B352-AA98020CFD16}" name="チョコプロ" dataDxfId="14"/>
-    <tableColumn id="17" xr3:uid="{C0123278-DCF4-45DB-8696-FC0805957C5C}" name="Diana" dataDxfId="13"/>
-    <tableColumn id="32" xr3:uid="{67EA2433-E1D1-4094-BFB4-0EDB7438926B}" name="Pure-J" dataDxfId="12"/>
-    <tableColumn id="21" xr3:uid="{ACF43FBE-31D7-4ED6-A997-E4AF4BF0B9D4}" name="マーベラス" dataDxfId="11"/>
-    <tableColumn id="23" xr3:uid="{9647ED0D-42FB-42C1-BFB2-8B8D56D414C4}" name="SENDAI" dataDxfId="10"/>
-    <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="9"/>
-    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="8"/>
-    <tableColumn id="20" xr3:uid="{86389032-6123-44BF-98AB-D3CA13F2577A}" name="LLPW-X" dataDxfId="7"/>
-    <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="2.5" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{3CAB629B-BA9F-4560-89E7-0980EE2B0905}" name="エボリューション" dataDxfId="3"/>
-    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A34D807-EC26-4518-9852-7FFB26CEC57B}" name="テーブル1" displayName="テーブル1" ref="B4:X54" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="B4:X54" xr:uid="{4A34D807-EC26-4518-9852-7FFB26CEC57B}"/>
+  <tableColumns count="23">
+    <tableColumn id="1" xr3:uid="{C5BCADDE-F600-4480-BD2B-E93168A1BF7F}" name="デビュー年" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{7319872F-B1DE-47E8-ADFA-F5962E445AE2}" name="Stardom" dataDxfId="21"/>
+    <tableColumn id="18" xr3:uid="{6DD05DFF-D195-4CF5-BFC5-531553A9ADC5}" name="AWG" dataDxfId="20"/>
+    <tableColumn id="22" xr3:uid="{8EA6491D-1F78-431F-AD9B-C8AB4F6616E9}" name="TJPW" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{CA5FBB65-FE37-40A8-B1DD-0182D7DD64C3}" name="マリゴ" dataDxfId="18"/>
+    <tableColumn id="27" xr3:uid="{50745B86-8D07-4F72-B93E-5C2E105BB03C}" name="IR/ホットシュシュ" dataDxfId="17"/>
+    <tableColumn id="30" xr3:uid="{BB23C0DC-5AEB-431A-A828-4D1BDF4F315F}" name="JTO" dataDxfId="16"/>
+    <tableColumn id="29" xr3:uid="{ADFF1D58-E918-4FF6-B352-AA98020CFD16}" name="チョコプロ" dataDxfId="15"/>
+    <tableColumn id="17" xr3:uid="{C0123278-DCF4-45DB-8696-FC0805957C5C}" name="Diana" dataDxfId="14"/>
+    <tableColumn id="32" xr3:uid="{67EA2433-E1D1-4094-BFB4-0EDB7438926B}" name="Pure-J" dataDxfId="13"/>
+    <tableColumn id="21" xr3:uid="{ACF43FBE-31D7-4ED6-A997-E4AF4BF0B9D4}" name="マーベラス" dataDxfId="12"/>
+    <tableColumn id="23" xr3:uid="{9647ED0D-42FB-42C1-BFB2-8B8D56D414C4}" name="SENDAI" dataDxfId="11"/>
+    <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="10"/>
+    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="9"/>
+    <tableColumn id="20" xr3:uid="{86389032-6123-44BF-98AB-D3CA13F2577A}" name="LLPW-X" dataDxfId="8"/>
+    <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="2.5" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{3CAB629B-BA9F-4560-89E7-0980EE2B0905}" name="エボリューション" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{5C631C06-2946-4CE3-901A-57A0BABE156F}" name="BBJ" dataDxfId="0"/>
+    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2578,13 +2645,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4F8F56-06F6-4E1D-8D81-5A485042419D}">
-  <dimension ref="A1:W54"/>
+  <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="K50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="N43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="V53" sqref="V53"/>
+      <selection pane="bottomRight" activeCell="X36" sqref="X36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2607,25 +2674,26 @@
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.44140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="21.27734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="47.77734375" style="1"/>
+    <col min="21" max="21" width="19.1640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9.44140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="21.27734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="47.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="16" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:24" ht="16" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="16" x14ac:dyDescent="0.8">
+    <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
-        <f>SUM(C2:RW2)</f>
-        <v>329</v>
+        <f>SUM(C2:RX2)</f>
+        <v>335</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2745,7 +2813,7 @@
      LEN(Q5:Q1000) - LEN(SUBSTITUTE(Q5:Q1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R2" s="1" cm="1">
         <f t="array" ref="R2">SUMPRODUCT(
@@ -2771,21 +2839,13 @@
 )</f>
         <v>4</v>
       </c>
-      <c r="U2" s="1" cm="1">
-        <f t="array" ref="U2">SUMPRODUCT(
-  IF(LEN(U5:U1000)=0, 0,
-     LEN(U5:U1000) - LEN(SUBSTITUTE(U5:U1000, CHAR(10), "")) + 1
-  )
-)</f>
-        <v>8</v>
-      </c>
       <c r="V2" s="1" cm="1">
         <f t="array" ref="V2">SUMPRODUCT(
   IF(LEN(V5:V1000)=0, 0,
      LEN(V5:V1000) - LEN(SUBSTITUTE(V5:V1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="W2" s="1" cm="1">
         <f t="array" ref="W2">SUMPRODUCT(
@@ -2793,14 +2853,22 @@
      LEN(W5:W1000) - LEN(SUBSTITUTE(W5:W1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="16" x14ac:dyDescent="0.8">
+        <v>43</v>
+      </c>
+      <c r="X2" s="1" cm="1">
+        <f t="array" ref="X2">SUMPRODUCT(
+  IF(LEN(X5:X1000)=0, 0,
+     LEN(X5:X1000) - LEN(SUBSTITUTE(X5:X1000, CHAR(10), "")) + 1
+  )
+)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.8">
       <c r="J3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="4" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -2817,19 +2885,19 @@
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>59</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>9</v>
@@ -2847,28 +2915,31 @@
         <v>22</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="V4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="W4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="X4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="5" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B5" s="3">
         <v>1977</v>
       </c>
@@ -2895,8 +2966,9 @@
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
-    </row>
-    <row r="6" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="X5" s="3"/>
+    </row>
+    <row r="6" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B6" s="3">
         <v>1978</v>
       </c>
@@ -2921,8 +2993,9 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
-    </row>
-    <row r="7" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="X6" s="3"/>
+    </row>
+    <row r="7" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B7" s="3">
         <v>1979</v>
       </c>
@@ -2947,8 +3020,9 @@
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
-    </row>
-    <row r="8" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B8" s="3">
         <v>1980</v>
       </c>
@@ -2974,11 +3048,12 @@
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="W8" s="3" t="s">
+      <c r="W8" s="3"/>
+      <c r="X8" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="9" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B9" s="3">
         <v>1981</v>
       </c>
@@ -3003,8 +3078,9 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-    </row>
-    <row r="10" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B10" s="3">
         <v>1982</v>
       </c>
@@ -3029,8 +3105,9 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-    </row>
-    <row r="11" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B11" s="3">
         <v>1983</v>
       </c>
@@ -3055,8 +3132,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B12" s="3">
         <v>1984</v>
       </c>
@@ -3081,8 +3159,9 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-    </row>
-    <row r="13" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B13" s="3">
         <v>1985</v>
       </c>
@@ -3105,12 +3184,13 @@
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
-      <c r="V13" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="W13" s="3"/>
-    </row>
-    <row r="14" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="V13" s="3"/>
+      <c r="W13" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B14" s="3">
         <v>1986</v>
       </c>
@@ -3135,14 +3215,15 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="V14" s="3"/>
       <c r="W14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="X14" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="15" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B15" s="3">
         <v>1987</v>
       </c>
@@ -3166,11 +3247,12 @@
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
-      <c r="W15" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="W15" s="3"/>
+      <c r="X15" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B16" s="3">
         <v>1988</v>
       </c>
@@ -3199,8 +3281,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B17" s="3">
         <v>1989</v>
       </c>
@@ -3223,14 +3306,15 @@
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="3" t="s">
-        <v>184</v>
-      </c>
+      <c r="V17" s="3"/>
       <c r="W17" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
+        <v>176</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B18" s="3">
         <v>1990</v>
       </c>
@@ -3255,8 +3339,9 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
-    </row>
-    <row r="19" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="X18" s="3"/>
+    </row>
+    <row r="19" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B19" s="3">
         <v>1991</v>
       </c>
@@ -3281,8 +3366,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B20" s="3">
         <v>1992</v>
       </c>
@@ -3307,8 +3393,9 @@
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
-    </row>
-    <row r="21" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="X20" s="3"/>
+    </row>
+    <row r="21" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B21" s="3">
         <v>1993</v>
       </c>
@@ -3333,8 +3420,9 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
-    </row>
-    <row r="22" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B22" s="3">
         <v>1994</v>
       </c>
@@ -3359,8 +3447,9 @@
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
-    </row>
-    <row r="23" spans="2:23" ht="50" x14ac:dyDescent="0.8">
+      <c r="X22" s="3"/>
+    </row>
+    <row r="23" spans="2:24" ht="50" x14ac:dyDescent="0.8">
       <c r="B23" s="3">
         <v>1995</v>
       </c>
@@ -3371,14 +3460,14 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -3387,14 +3476,15 @@
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
-      <c r="V23" s="3" t="s">
-        <v>195</v>
-      </c>
+      <c r="V23" s="3"/>
       <c r="W23" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
+        <v>187</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B24" s="3">
         <v>1996</v>
       </c>
@@ -3418,11 +3508,12 @@
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
-      <c r="W24" s="3" t="s">
+      <c r="W24" s="3"/>
+      <c r="X24" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="25" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B25" s="3">
         <v>1997</v>
       </c>
@@ -3435,7 +3526,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -3448,11 +3539,12 @@
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
-      <c r="W25" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="W25" s="3"/>
+      <c r="X25" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B26" s="3">
         <v>1998</v>
       </c>
@@ -3475,14 +3567,15 @@
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
-      <c r="V26" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="V26" s="3"/>
       <c r="W26" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="X26" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="27" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B27" s="3">
         <v>1999</v>
       </c>
@@ -3507,12 +3600,13 @@
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
-      <c r="V27" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="W27" s="3"/>
-    </row>
-    <row r="28" spans="2:23" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="V27" s="3"/>
+      <c r="W27" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X27" s="3"/>
+    </row>
+    <row r="28" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B28" s="3">
         <v>2000</v>
       </c>
@@ -3527,7 +3621,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -3540,11 +3634,12 @@
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
-      <c r="W28" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="W28" s="3"/>
+      <c r="X28" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B29" s="3">
         <v>2001</v>
       </c>
@@ -3562,7 +3657,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -3573,8 +3668,9 @@
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
-    </row>
-    <row r="30" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="X29" s="3"/>
+    </row>
+    <row r="30" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B30" s="3">
         <v>2002</v>
       </c>
@@ -3597,12 +3693,13 @@
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
-      <c r="V30" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="W30" s="3"/>
-    </row>
-    <row r="31" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="V30" s="3"/>
+      <c r="W30" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="X30" s="3"/>
+    </row>
+    <row r="31" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B31" s="3">
         <v>2003</v>
       </c>
@@ -3627,8 +3724,9 @@
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
-    </row>
-    <row r="32" spans="2:23" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="X31" s="3"/>
+    </row>
+    <row r="32" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B32" s="3">
         <v>2004</v>
       </c>
@@ -3651,14 +3749,15 @@
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
-      <c r="V32" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="V32" s="3"/>
       <c r="W32" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
+        <v>74</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B33" s="3">
         <v>2005</v>
       </c>
@@ -3678,19 +3777,18 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
-      <c r="V33" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="V33" s="3"/>
       <c r="W33" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" ht="66.7" x14ac:dyDescent="0.8">
+        <v>211</v>
+      </c>
+      <c r="X33" s="3"/>
+    </row>
+    <row r="34" spans="2:24" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B34" s="3">
         <v>2006</v>
       </c>
@@ -3699,13 +3797,13 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3" t="s">
@@ -3718,15 +3816,16 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
-      <c r="U34" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="2:23" ht="50" x14ac:dyDescent="0.8">
+      <c r="U34" s="3"/>
+      <c r="V34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" ht="50" x14ac:dyDescent="0.8">
       <c r="B35" s="3">
         <v>2007</v>
       </c>
@@ -3748,26 +3847,27 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
-      <c r="U35" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="36" spans="2:23" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="U35" s="3"/>
+      <c r="V35" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B36" s="3">
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -3782,15 +3882,16 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
-      <c r="U36" s="3" t="s">
+      <c r="U36" s="3"/>
+      <c r="V36" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="W36" s="3"/>
+      <c r="X36" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B37" s="3">
         <v>2009</v>
       </c>
@@ -3813,12 +3914,13 @@
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
-      <c r="V37" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="W37" s="3"/>
-    </row>
-    <row r="38" spans="2:23" ht="50" x14ac:dyDescent="0.8">
+      <c r="V37" s="3"/>
+      <c r="W37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="X37" s="3"/>
+    </row>
+    <row r="38" spans="2:24" ht="50" x14ac:dyDescent="0.8">
       <c r="B38" s="3">
         <v>2010</v>
       </c>
@@ -3829,7 +3931,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -3845,25 +3947,26 @@
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
-      <c r="V38" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="W38" s="3"/>
-    </row>
-    <row r="39" spans="2:23" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="V38" s="3"/>
+      <c r="W38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="X38" s="3"/>
+    </row>
+    <row r="39" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B39" s="3">
         <v>2011</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -3871,7 +3974,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
@@ -3882,20 +3985,21 @@
       </c>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-      <c r="U39" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3" t="s">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="2:23" ht="50" x14ac:dyDescent="0.8">
+    <row r="40" spans="2:24" ht="50" x14ac:dyDescent="0.8">
       <c r="B40" s="3">
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>45</v>
@@ -3904,14 +4008,14 @@
         <v>50</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>1</v>
@@ -3925,17 +4029,18 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-      <c r="V40" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" ht="116.7" x14ac:dyDescent="0.8">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" ht="116.7" x14ac:dyDescent="0.8">
       <c r="B41" s="3">
         <v>2013</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
@@ -3958,17 +4063,18 @@
       </c>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
-      <c r="U41" s="3" t="s">
-        <v>126</v>
-      </c>
+      <c r="U41" s="3"/>
       <c r="V41" s="3" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
+        <v>158</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B42" s="3">
         <v>2014</v>
       </c>
@@ -3995,19 +4101,20 @@
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
-      <c r="V42" s="3" t="s">
-        <v>202</v>
-      </c>
+      <c r="V42" s="3"/>
       <c r="W42" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="43" spans="2:23" ht="100" x14ac:dyDescent="0.8">
+        <v>193</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" ht="100" x14ac:dyDescent="0.8">
       <c r="B43" s="3">
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
@@ -4030,20 +4137,21 @@
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
-      <c r="U43" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" ht="50" x14ac:dyDescent="0.8">
+      <c r="U43" s="3"/>
+      <c r="V43" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" ht="50" x14ac:dyDescent="0.8">
       <c r="B44" s="3">
         <v>2016</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>29</v>
@@ -4059,7 +4167,7 @@
         <v>32</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -4069,19 +4177,20 @@
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
-      <c r="V44" s="3" t="s">
-        <v>172</v>
-      </c>
+      <c r="V44" s="3"/>
       <c r="W44" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" ht="33.35" x14ac:dyDescent="0.8">
+        <v>165</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B45" s="3">
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4089,17 +4198,17 @@
         <v>13</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
@@ -4109,31 +4218,32 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="T45" s="3"/>
-      <c r="U45" s="3" t="s">
-        <v>144</v>
-      </c>
+      <c r="U45" s="3"/>
       <c r="V45" s="3" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" ht="116.7" x14ac:dyDescent="0.8">
+        <v>199</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" ht="100" x14ac:dyDescent="0.8">
       <c r="B46" s="3">
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>16</v>
@@ -4141,41 +4251,46 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M46" s="3"/>
       <c r="N46" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3" t="s">
-        <v>125</v>
+        <v>206</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="W46" s="3"/>
-    </row>
-    <row r="47" spans="2:23" ht="66.7" x14ac:dyDescent="0.8">
+        <v>121</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B47" s="3">
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
@@ -4185,19 +4300,19 @@
         <v>14</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3" t="s">
@@ -4210,15 +4325,16 @@
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="W47" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23" ht="50" x14ac:dyDescent="0.8">
+      <c r="U47" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" ht="50" x14ac:dyDescent="0.8">
       <c r="B48" s="3">
         <v>2020</v>
       </c>
@@ -4237,7 +4353,7 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
@@ -4246,19 +4362,20 @@
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
-      <c r="V48" s="3" t="s">
-        <v>167</v>
-      </c>
+      <c r="V48" s="3"/>
       <c r="W48" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="49" spans="2:23" ht="66.7" x14ac:dyDescent="0.8">
+        <v>160</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B49" s="3">
         <v>2021</v>
       </c>
@@ -4275,10 +4392,10 @@
         <v>12</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -4288,10 +4405,10 @@
       </c>
       <c r="M49" s="3"/>
       <c r="N49" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
@@ -4299,35 +4416,36 @@
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
-      <c r="V49" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="W49" s="3"/>
-    </row>
-    <row r="50" spans="2:23" ht="166.7" x14ac:dyDescent="0.8">
+      <c r="V49" s="3"/>
+      <c r="W49" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="X49" s="3"/>
+    </row>
+    <row r="50" spans="2:24" ht="166.7" x14ac:dyDescent="0.8">
       <c r="B50" s="3">
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>26</v>
@@ -4339,20 +4457,21 @@
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
-      <c r="V50" s="3" t="s">
-        <v>207</v>
-      </c>
+      <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="2:23" ht="100" x14ac:dyDescent="0.8">
+        <v>197</v>
+      </c>
+      <c r="X50" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" ht="100" x14ac:dyDescent="0.8">
       <c r="B51" s="3">
         <v>2023</v>
       </c>
@@ -4363,22 +4482,22 @@
         <v>40</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>60</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -4386,32 +4505,35 @@
         <v>68</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="O51" s="3"/>
       <c r="P51" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="U51" s="3"/>
-      <c r="V51" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="W51" s="3"/>
-    </row>
-    <row r="52" spans="2:23" ht="100" x14ac:dyDescent="0.8">
+        <v>180</v>
+      </c>
+      <c r="U51" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="X51" s="3"/>
+    </row>
+    <row r="52" spans="2:24" ht="100" x14ac:dyDescent="0.8">
       <c r="B52" s="3">
         <v>2024</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>41</v>
@@ -4420,101 +4542,105 @@
         <v>55</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>28</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="R52" s="3"/>
       <c r="S52" s="3" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
-      <c r="W52" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53" spans="2:23" ht="116.7" x14ac:dyDescent="0.8">
+      <c r="W52" s="3"/>
+      <c r="X52" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" ht="133.35" x14ac:dyDescent="0.8">
       <c r="B53" s="3">
         <v>2025</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="U53" s="3"/>
-      <c r="V53" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="W53" s="3"/>
-    </row>
-    <row r="54" spans="2:23" ht="16.7" x14ac:dyDescent="0.8">
+        <v>181</v>
+      </c>
+      <c r="U53" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="X53" s="3"/>
+    </row>
+    <row r="54" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -4537,6 +4663,7 @@
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F27FF9A-D1FA-4954-BDE1-6C2AAC3E7EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDABD2A-85D1-42B7-9818-CC315A918424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6100" yWindow="1240" windowWidth="16547" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="6100" yWindow="280" windowWidth="16547" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -540,10 +540,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>YUNA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>志田光(AEW)</t>
     <rPh sb="0" eb="3">
       <t>シダヒカリ</t>
@@ -1691,6 +1687,11 @@
     <rPh sb="0" eb="4">
       <t>シライミオ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YUNA
+スパイクニシムラ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1900,6 +1901,26 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Noto Serif JP SemiBold"/>
+        <family val="1"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1918,26 +1939,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Noto Serif JP SemiBold"/>
-        <family val="1"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2309,17 +2310,17 @@
     <tableColumn id="30" xr3:uid="{BB23C0DC-5AEB-431A-A828-4D1BDF4F315F}" name="JTO" dataDxfId="16"/>
     <tableColumn id="29" xr3:uid="{ADFF1D58-E918-4FF6-B352-AA98020CFD16}" name="チョコプロ" dataDxfId="15"/>
     <tableColumn id="17" xr3:uid="{C0123278-DCF4-45DB-8696-FC0805957C5C}" name="Diana" dataDxfId="14"/>
+    <tableColumn id="23" xr3:uid="{9647ED0D-42FB-42C1-BFB2-8B8D56D414C4}" name="SENDAI" dataDxfId="0"/>
     <tableColumn id="32" xr3:uid="{67EA2433-E1D1-4094-BFB4-0EDB7438926B}" name="Pure-J" dataDxfId="13"/>
     <tableColumn id="21" xr3:uid="{ACF43FBE-31D7-4ED6-A997-E4AF4BF0B9D4}" name="マーベラス" dataDxfId="12"/>
-    <tableColumn id="23" xr3:uid="{9647ED0D-42FB-42C1-BFB2-8B8D56D414C4}" name="SENDAI" dataDxfId="11"/>
-    <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="10"/>
-    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="9"/>
-    <tableColumn id="20" xr3:uid="{86389032-6123-44BF-98AB-D3CA13F2577A}" name="LLPW-X" dataDxfId="8"/>
-    <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="2.5" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{3CAB629B-BA9F-4560-89E7-0980EE2B0905}" name="エボリューション" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{5C631C06-2946-4CE3-901A-57A0BABE156F}" name="BBJ" dataDxfId="0"/>
+    <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="11"/>
+    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{86389032-6123-44BF-98AB-D3CA13F2577A}" name="LLPW-X" dataDxfId="9"/>
+    <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="2.5" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{3CAB629B-BA9F-4560-89E7-0980EE2B0905}" name="エボリューション" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{5C631C06-2946-4CE3-901A-57A0BABE156F}" name="BBJ" dataDxfId="4"/>
     <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="3"/>
     <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="2"/>
     <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="1"/>
@@ -2648,10 +2649,10 @@
   <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="N43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="I46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="X36" sqref="X36"/>
+      <selection pane="bottomRight" activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2664,36 +2665,37 @@
     <col min="7" max="7" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.27734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.71875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.27734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.1640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.44140625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="21.27734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="47.77734375" style="1"/>
+    <col min="11" max="11" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.94140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.27734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.1640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="9.44140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="21.27734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="47.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="16" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J1" s="1"/>
-      <c r="R1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RX2)</f>
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2765,7 +2767,7 @@
      LEN(K5:K1000) - LEN(SUBSTITUTE(K5:K1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L2" s="1" cm="1">
         <f t="array" ref="L2">SUMPRODUCT(
@@ -2785,88 +2787,89 @@
       </c>
       <c r="N2" s="1" cm="1">
         <f t="array" ref="N2">SUMPRODUCT(
-  IF(LEN(N5:N1000)=0, 0,
-     LEN(N5:N1000) - LEN(SUBSTITUTE(N5:N1000, CHAR(10), "")) + 1
-  )
-)</f>
-        <v>6</v>
-      </c>
-      <c r="O2" s="1" cm="1">
-        <f t="array" ref="O2">SUMPRODUCT(
   IF(LEN(O5:O1000)=0, 0,
      LEN(O5:O1000) - LEN(SUBSTITUTE(O5:O1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>6</v>
       </c>
-      <c r="P2" s="1" cm="1">
-        <f t="array" ref="P2">SUMPRODUCT(
+      <c r="O2" s="1" cm="1">
+        <f t="array" ref="O2">SUMPRODUCT(
   IF(LEN(P5:P1000)=0, 0,
      LEN(P5:P1000) - LEN(SUBSTITUTE(P5:P1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>6</v>
       </c>
-      <c r="Q2" s="1" cm="1">
-        <f t="array" ref="Q2">SUMPRODUCT(
+      <c r="P2" s="1" cm="1">
+        <f t="array" ref="P2">SUMPRODUCT(
   IF(LEN(Q5:Q1000)=0, 0,
      LEN(Q5:Q1000) - LEN(SUBSTITUTE(Q5:Q1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>6</v>
       </c>
-      <c r="R2" s="1" cm="1">
-        <f t="array" ref="R2">SUMPRODUCT(
+      <c r="Q2" s="1" cm="1">
+        <f t="array" ref="Q2">SUMPRODUCT(
   IF(LEN(R5:R1000)=0, 0,
      LEN(R5:R1000) - LEN(SUBSTITUTE(R5:R1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
-      <c r="S2" s="1" cm="1">
-        <f t="array" ref="S2">SUMPRODUCT(
+      <c r="R2" s="1" cm="1">
+        <f t="array" ref="R2">SUMPRODUCT(
   IF(LEN(S5:S1000)=0, 0,
      LEN(S5:S1000) - LEN(SUBSTITUTE(S5:S1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
-      <c r="T2" s="1" cm="1">
-        <f t="array" ref="T2">SUMPRODUCT(
+      <c r="S2" s="1" cm="1">
+        <f t="array" ref="S2">SUMPRODUCT(
   IF(LEN(T5:T1000)=0, 0,
      LEN(T5:T1000) - LEN(SUBSTITUTE(T5:T1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
+      <c r="T2" s="1" cm="1">
+        <f t="array" ref="T2">SUMPRODUCT(
+  IF(LEN(U5:U1000)=0, 0,
+     LEN(U5:U1000) - LEN(SUBSTITUTE(U5:U1000, CHAR(10), "")) + 1
+  )
+)</f>
+        <v>4</v>
+      </c>
       <c r="V2" s="1" cm="1">
         <f t="array" ref="V2">SUMPRODUCT(
-  IF(LEN(V5:V1000)=0, 0,
-     LEN(V5:V1000) - LEN(SUBSTITUTE(V5:V1000, CHAR(10), "")) + 1
-  )
-)</f>
-        <v>8</v>
-      </c>
-      <c r="W2" s="1" cm="1">
-        <f t="array" ref="W2">SUMPRODUCT(
   IF(LEN(W5:W1000)=0, 0,
      LEN(W5:W1000) - LEN(SUBSTITUTE(W5:W1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>43</v>
       </c>
-      <c r="X2" s="1" cm="1">
-        <f t="array" ref="X2">SUMPRODUCT(
+      <c r="W2" s="1" cm="1">
+        <f t="array" ref="W2">SUMPRODUCT(
   IF(LEN(X5:X1000)=0, 0,
      LEN(X5:X1000) - LEN(SUBSTITUTE(X5:X1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>49</v>
       </c>
+      <c r="X2" s="1" cm="1">
+        <f t="array" ref="X2">SUMPRODUCT(
+  IF(LEN(Y5:Y1000)=0, 0,
+     LEN(Y5:Y1000) - LEN(SUBSTITUTE(Y5:Y1000, CHAR(10), "")) + 1
+  )
+)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.8">
       <c r="J3" s="1"/>
-      <c r="R3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B4" s="2" t="s">
@@ -2885,25 +2888,25 @@
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>59</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>31</v>
@@ -2915,22 +2918,22 @@
         <v>22</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>42</v>
@@ -3035,10 +3038,10 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="3"/>
+      <c r="M8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -3161,7 +3164,7 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
-    <row r="13" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="13" spans="1:24" ht="50" x14ac:dyDescent="0.8">
       <c r="B13" s="3">
         <v>1985</v>
       </c>
@@ -3186,11 +3189,11 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="X13" s="3"/>
     </row>
-    <row r="14" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="14" spans="1:24" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B14" s="3">
         <v>1986</v>
       </c>
@@ -3217,7 +3220,7 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>18</v>
@@ -3249,7 +3252,7 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3283,7 +3286,7 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="17" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B17" s="3">
         <v>1989</v>
       </c>
@@ -3308,10 +3311,10 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3449,7 +3452,7 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
     </row>
-    <row r="23" spans="2:24" ht="50" x14ac:dyDescent="0.8">
+    <row r="23" spans="2:24" ht="100" x14ac:dyDescent="0.8">
       <c r="B23" s="3">
         <v>1995</v>
       </c>
@@ -3460,14 +3463,14 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -3478,10 +3481,10 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3525,10 +3528,10 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -3541,10 +3544,10 @@
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B26" s="3">
         <v>1998</v>
       </c>
@@ -3569,13 +3572,13 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X26" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="27" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B27" s="3">
         <v>1999</v>
       </c>
@@ -3602,7 +3605,7 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="X27" s="3"/>
     </row>
@@ -3620,10 +3623,10 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -3636,7 +3639,7 @@
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3657,7 +3660,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -3670,7 +3673,7 @@
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
     </row>
-    <row r="30" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="30" spans="2:24" ht="50" x14ac:dyDescent="0.8">
       <c r="B30" s="3">
         <v>2002</v>
       </c>
@@ -3695,7 +3698,7 @@
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X30" s="3"/>
     </row>
@@ -3751,13 +3754,13 @@
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B33" s="3">
         <v>2005</v>
       </c>
@@ -3777,14 +3780,14 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="X33" s="3"/>
     </row>
@@ -3797,18 +3800,18 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="L34" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
@@ -3818,11 +3821,11 @@
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W34" s="3"/>
       <c r="X34" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="2:24" ht="50" x14ac:dyDescent="0.8">
@@ -3849,11 +3852,11 @@
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W35" s="3"/>
       <c r="X35" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -3861,13 +3864,13 @@
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -3884,14 +3887,14 @@
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W36" s="3"/>
       <c r="X36" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B37" s="3">
         <v>2009</v>
       </c>
@@ -3916,11 +3919,11 @@
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X37" s="3"/>
     </row>
-    <row r="38" spans="2:24" ht="50" x14ac:dyDescent="0.8">
+    <row r="38" spans="2:24" ht="100" x14ac:dyDescent="0.8">
       <c r="B38" s="3">
         <v>2010</v>
       </c>
@@ -3931,7 +3934,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -3949,33 +3952,33 @@
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X38" s="3"/>
     </row>
-    <row r="39" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
+    <row r="39" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B39" s="3">
         <v>2011</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
+      <c r="K39" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="L39" s="3"/>
-      <c r="M39" s="3" t="s">
-        <v>130</v>
-      </c>
+      <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
@@ -3987,19 +3990,19 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="W39" s="3"/>
       <c r="X39" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="2:24" ht="50" x14ac:dyDescent="0.8">
+    <row r="40" spans="2:24" ht="100" x14ac:dyDescent="0.8">
       <c r="B40" s="3">
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>45</v>
@@ -4008,19 +4011,19 @@
         <v>50</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
-      <c r="K40" s="3" t="s">
-        <v>114</v>
-      </c>
+      <c r="K40" s="3"/>
       <c r="L40" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M40" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
@@ -4031,7 +4034,7 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="X40" s="3"/>
     </row>
@@ -4040,7 +4043,7 @@
         <v>2013</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
@@ -4065,16 +4068,16 @@
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W41" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="X41" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
+    </row>
+    <row r="42" spans="2:24" ht="50" x14ac:dyDescent="0.8">
       <c r="B42" s="3">
         <v>2014</v>
       </c>
@@ -4103,18 +4106,18 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="2:24" ht="100" x14ac:dyDescent="0.8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" ht="83.35" x14ac:dyDescent="0.8">
       <c r="B43" s="3">
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
@@ -4125,11 +4128,11 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
+      <c r="K43" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="L43" s="3"/>
-      <c r="M43" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
@@ -4139,19 +4142,19 @@
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W43" s="3"/>
       <c r="X43" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" ht="50" x14ac:dyDescent="0.8">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B44" s="3">
         <v>2016</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>29</v>
@@ -4162,12 +4165,12 @@
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3" t="s">
+      <c r="K44" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -4179,18 +4182,18 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B45" s="3">
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4198,18 +4201,18 @@
         <v>13</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="K45" s="3"/>
+        <v>173</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="L45" s="3"/>
-      <c r="M45" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3" t="s">
@@ -4218,32 +4221,32 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" ht="100" x14ac:dyDescent="0.8">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" ht="216.7" x14ac:dyDescent="0.8">
       <c r="B46" s="3">
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>16</v>
@@ -4251,38 +4254,38 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J46" s="3"/>
-      <c r="K46" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="K46" s="3"/>
       <c r="L46" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M46" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M46" s="3"/>
       <c r="N46" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="W46" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="W46" s="3" t="s">
+      <c r="X46" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="X46" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="47" spans="2:24" ht="66.7" x14ac:dyDescent="0.8">
@@ -4290,7 +4293,7 @@
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
@@ -4300,24 +4303,24 @@
         <v>14</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="L47" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
@@ -4326,12 +4329,12 @@
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="2:24" ht="50" x14ac:dyDescent="0.8">
@@ -4352,30 +4355,30 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
-      <c r="K48" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="L48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="49" spans="2:24" ht="66.7" x14ac:dyDescent="0.8">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" ht="166.7" x14ac:dyDescent="0.8">
       <c r="B49" s="3">
         <v>2021</v>
       </c>
@@ -4392,23 +4395,23 @@
         <v>12</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
-      <c r="L49" s="3" t="s">
+      <c r="L49" s="3"/>
+      <c r="M49" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M49" s="3"/>
       <c r="N49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
@@ -4418,7 +4421,7 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X49" s="3"/>
     </row>
@@ -4427,25 +4430,25 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>26</v>
@@ -4457,7 +4460,7 @@
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
@@ -4465,10 +4468,10 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4482,49 +4485,49 @@
         <v>40</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>60</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="K51" s="3"/>
+        <v>146</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="L51" s="3"/>
-      <c r="M51" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="M51" s="3"/>
       <c r="N51" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O51" s="3"/>
       <c r="P51" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="V51" s="3"/>
       <c r="W51" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X51" s="3"/>
     </row>
@@ -4533,7 +4536,7 @@
         <v>2024</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>41</v>
@@ -4542,101 +4545,101 @@
         <v>55</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>145</v>
-      </c>
+      <c r="K52" s="3"/>
       <c r="L52" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="M52" s="3"/>
+        <v>144</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="N52" s="3"/>
       <c r="O52" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R52" s="3"/>
       <c r="S52" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="53" spans="2:24" ht="133.35" x14ac:dyDescent="0.8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" ht="283.35000000000002" x14ac:dyDescent="0.8">
       <c r="B53" s="3">
         <v>2025</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K53" s="3"/>
-      <c r="L53" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="M53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="V53" s="3"/>
       <c r="W53" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="X53" s="3"/>
     </row>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDABD2A-85D1-42B7-9818-CC315A918424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0854442F-0AF8-4129-BD63-07DA7B76C240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6100" yWindow="280" windowWidth="16547" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
@@ -1346,20 +1346,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>炎華
-郷田明日香(休)</t>
-    <rPh sb="0" eb="2">
-      <t>ホノカ</t>
-    </rPh>
-    <rPh sb="3" eb="8">
-      <t>ゴウダアスカ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>キュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>優宇(EVE)(2025.12.28引退予定)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1692,6 +1678,23 @@
   <si>
     <t>YUNA
 スパイクニシムラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>炎華
+郷田明日香(休, 8/31でWave退団)</t>
+    <rPh sb="0" eb="2">
+      <t>ホノカ</t>
+    </rPh>
+    <rPh sb="3" eb="8">
+      <t>ゴウダアスカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タイダン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1777,6 +1780,46 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Noto Serif JP SemiBold"/>
+        <family val="1"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Noto Serif JP SemiBold"/>
+        <family val="1"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1939,46 +1982,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Noto Serif JP SemiBold"/>
-        <family val="1"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Noto Serif JP SemiBold"/>
-        <family val="1"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2310,20 +2313,20 @@
     <tableColumn id="30" xr3:uid="{BB23C0DC-5AEB-431A-A828-4D1BDF4F315F}" name="JTO" dataDxfId="16"/>
     <tableColumn id="29" xr3:uid="{ADFF1D58-E918-4FF6-B352-AA98020CFD16}" name="チョコプロ" dataDxfId="15"/>
     <tableColumn id="17" xr3:uid="{C0123278-DCF4-45DB-8696-FC0805957C5C}" name="Diana" dataDxfId="14"/>
-    <tableColumn id="23" xr3:uid="{9647ED0D-42FB-42C1-BFB2-8B8D56D414C4}" name="SENDAI" dataDxfId="0"/>
-    <tableColumn id="32" xr3:uid="{67EA2433-E1D1-4094-BFB4-0EDB7438926B}" name="Pure-J" dataDxfId="13"/>
-    <tableColumn id="21" xr3:uid="{ACF43FBE-31D7-4ED6-A997-E4AF4BF0B9D4}" name="マーベラス" dataDxfId="12"/>
-    <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="11"/>
-    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="10"/>
-    <tableColumn id="20" xr3:uid="{86389032-6123-44BF-98AB-D3CA13F2577A}" name="LLPW-X" dataDxfId="9"/>
-    <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="2.5" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{3CAB629B-BA9F-4560-89E7-0980EE2B0905}" name="エボリューション" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{5C631C06-2946-4CE3-901A-57A0BABE156F}" name="BBJ" dataDxfId="4"/>
-    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="1"/>
+    <tableColumn id="23" xr3:uid="{9647ED0D-42FB-42C1-BFB2-8B8D56D414C4}" name="SENDAI" dataDxfId="13"/>
+    <tableColumn id="32" xr3:uid="{67EA2433-E1D1-4094-BFB4-0EDB7438926B}" name="Pure-J" dataDxfId="12"/>
+    <tableColumn id="21" xr3:uid="{ACF43FBE-31D7-4ED6-A997-E4AF4BF0B9D4}" name="マーベラス" dataDxfId="11"/>
+    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="2"/>
+    <tableColumn id="20" xr3:uid="{86389032-6123-44BF-98AB-D3CA13F2577A}" name="LLPW-X" dataDxfId="1"/>
+    <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="2.5" dataDxfId="10"/>
+    <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{3CAB629B-BA9F-4560-89E7-0980EE2B0905}" name="エボリューション" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{5C631C06-2946-4CE3-901A-57A0BABE156F}" name="BBJ" dataDxfId="6"/>
+    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2649,10 +2652,10 @@
   <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="I46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K49" sqref="K49"/>
+      <selection pane="bottomRight" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2662,26 +2665,30 @@
     <col min="3" max="3" width="18.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.71875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.27734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.94140625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.27734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.1640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9.44140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="21.27734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="47.77734375" style="1"/>
+    <col min="14" max="14" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.1640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="21.94140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.27734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="47.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="16" x14ac:dyDescent="0.8">
@@ -2689,13 +2696,16 @@
         <v>128</v>
       </c>
       <c r="J1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
       <c r="S1" s="1"/>
+      <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RX2)</f>
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2787,89 +2797,92 @@
       </c>
       <c r="N2" s="1" cm="1">
         <f t="array" ref="N2">SUMPRODUCT(
+  IF(LEN(N5:N1000)=0, 0,
+     LEN(N5:N1000) - LEN(SUBSTITUTE(N5:N1000, CHAR(10), "")) + 1
+  )
+)</f>
+        <v>6</v>
+      </c>
+      <c r="O2" s="1" cm="1">
+        <f t="array" ref="O2">SUMPRODUCT(
   IF(LEN(O5:O1000)=0, 0,
      LEN(O5:O1000) - LEN(SUBSTITUTE(O5:O1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>6</v>
       </c>
-      <c r="O2" s="1" cm="1">
-        <f t="array" ref="O2">SUMPRODUCT(
+      <c r="P2" s="1" cm="1">
+        <f t="array" ref="P2">SUMPRODUCT(
   IF(LEN(P5:P1000)=0, 0,
      LEN(P5:P1000) - LEN(SUBSTITUTE(P5:P1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>6</v>
       </c>
-      <c r="P2" s="1" cm="1">
-        <f t="array" ref="P2">SUMPRODUCT(
+      <c r="Q2" s="1" cm="1">
+        <f t="array" ref="Q2">SUMPRODUCT(
   IF(LEN(Q5:Q1000)=0, 0,
      LEN(Q5:Q1000) - LEN(SUBSTITUTE(Q5:Q1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>6</v>
       </c>
-      <c r="Q2" s="1" cm="1">
-        <f t="array" ref="Q2">SUMPRODUCT(
+      <c r="R2" s="1" cm="1">
+        <f t="array" ref="R2">SUMPRODUCT(
   IF(LEN(R5:R1000)=0, 0,
      LEN(R5:R1000) - LEN(SUBSTITUTE(R5:R1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
-      <c r="R2" s="1" cm="1">
-        <f t="array" ref="R2">SUMPRODUCT(
-  IF(LEN(S5:S1000)=0, 0,
-     LEN(S5:S1000) - LEN(SUBSTITUTE(S5:S1000, CHAR(10), "")) + 1
-  )
-)</f>
-        <v>4</v>
-      </c>
       <c r="S2" s="1" cm="1">
         <f t="array" ref="S2">SUMPRODUCT(
-  IF(LEN(T5:T1000)=0, 0,
-     LEN(T5:T1000) - LEN(SUBSTITUTE(T5:T1000, CHAR(10), "")) + 1
-  )
-)</f>
-        <v>4</v>
-      </c>
-      <c r="T2" s="1" cm="1">
-        <f t="array" ref="T2">SUMPRODUCT(
-  IF(LEN(U5:U1000)=0, 0,
-     LEN(U5:U1000) - LEN(SUBSTITUTE(U5:U1000, CHAR(10), "")) + 1
-  )
-)</f>
-        <v>4</v>
-      </c>
-      <c r="V2" s="1" cm="1">
-        <f t="array" ref="V2">SUMPRODUCT(
   IF(LEN(W5:W1000)=0, 0,
      LEN(W5:W1000) - LEN(SUBSTITUTE(W5:W1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>43</v>
       </c>
-      <c r="W2" s="1" cm="1">
-        <f t="array" ref="W2">SUMPRODUCT(
+      <c r="T2" s="1" cm="1">
+        <f t="array" ref="T2">SUMPRODUCT(
   IF(LEN(X5:X1000)=0, 0,
      LEN(X5:X1000) - LEN(SUBSTITUTE(X5:X1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>49</v>
       </c>
-      <c r="X2" s="1" cm="1">
-        <f t="array" ref="X2">SUMPRODUCT(
-  IF(LEN(Y5:Y1000)=0, 0,
-     LEN(Y5:Y1000) - LEN(SUBSTITUTE(Y5:Y1000, CHAR(10), "")) + 1
+      <c r="V2" s="1" cm="1">
+        <f t="array" ref="V2">SUMPRODUCT(
+  IF(LEN(Z5:Z1000)=0, 0,
+     LEN(Z5:Z1000) - LEN(SUBSTITUTE(Z5:Z1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>0</v>
       </c>
+      <c r="W2" s="1" cm="1">
+        <f t="array" ref="W2">SUMPRODUCT(
+  IF(LEN(AA5:AA1000)=0, 0,
+     LEN(AA5:AA1000) - LEN(SUBSTITUTE(AA5:AA1000, CHAR(10), "")) + 1
+  )
+)</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="1" cm="1">
+        <f t="array" ref="X2">SUMPRODUCT(
+  IF(LEN(AB5:AB1000)=0, 0,
+     LEN(AB5:AB1000) - LEN(SUBSTITUTE(AB5:AB1000, CHAR(10), "")) + 1
+  )
+)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.8">
       <c r="J3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
       <c r="S3" s="1"/>
+      <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B4" s="2" t="s">
@@ -2909,16 +2922,16 @@
         <v>9</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>8</v>
@@ -2930,7 +2943,7 @@
         <v>177</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>116</v>
@@ -3209,10 +3222,10 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -3273,10 +3286,10 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3" t="s">
+      <c r="O16" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
@@ -3469,19 +3482,19 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="3" t="s">
-        <v>187</v>
-      </c>
+      <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
+      <c r="Q23" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X23" s="3" t="s">
         <v>77</v>
@@ -3659,12 +3672,12 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-      <c r="N29" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
+      <c r="Q29" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
@@ -3787,7 +3800,7 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="X33" s="3"/>
     </row>
@@ -3856,7 +3869,7 @@
       </c>
       <c r="W35" s="3"/>
       <c r="X35" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -3940,10 +3953,10 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3" t="s">
+      <c r="N38" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
@@ -4002,7 +4015,7 @@
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>45</v>
@@ -4034,7 +4047,7 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="X40" s="3"/>
     </row>
@@ -4106,7 +4119,7 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>137</v>
@@ -4146,7 +4159,7 @@
       </c>
       <c r="W43" s="3"/>
       <c r="X43" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4166,7 +4179,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3" t="s">
@@ -4214,10 +4227,10 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3" t="s">
+      <c r="O45" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3" t="s">
@@ -4229,7 +4242,7 @@
         <v>138</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>155</v>
@@ -4264,28 +4277,28 @@
       <c r="M46" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
+      <c r="Q46" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="R46" s="3"/>
       <c r="S46" s="3" t="s">
         <v>170</v>
       </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V46" s="3" t="s">
         <v>120</v>
       </c>
       <c r="W46" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="X46" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="X46" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="47" spans="2:24" ht="66.7" x14ac:dyDescent="0.8">
@@ -4329,12 +4342,12 @@
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="2:24" ht="50" x14ac:dyDescent="0.8">
@@ -4375,7 +4388,7 @@
         <v>159</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="2:24" ht="166.7" x14ac:dyDescent="0.8">
@@ -4408,20 +4421,20 @@
         <v>33</v>
       </c>
       <c r="N49" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X49" s="3"/>
     </row>
@@ -4433,7 +4446,7 @@
         <v>163</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>48</v>
@@ -4458,20 +4471,20 @@
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3" t="s">
-        <v>199</v>
-      </c>
+      <c r="P50" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4503,19 +4516,19 @@
         <v>146</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
-      <c r="N51" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="O51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="P51" s="3" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>148</v>
+        <v>212</v>
       </c>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
@@ -4523,11 +4536,11 @@
         <v>179</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="V51" s="3"/>
       <c r="W51" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X51" s="3"/>
     </row>
@@ -4545,7 +4558,7 @@
         <v>55</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>123</v>
@@ -4566,14 +4579,14 @@
       <c r="M52" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3" t="s">
+      <c r="N52" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3" t="s">
+      <c r="O52" s="3"/>
+      <c r="P52" s="3" t="s">
         <v>149</v>
       </c>
+      <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3" t="s">
         <v>172</v>
@@ -4585,7 +4598,7 @@
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="2:24" ht="283.35000000000002" x14ac:dyDescent="0.8">
@@ -4619,13 +4632,13 @@
       <c r="M53" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="N53" s="3"/>
+      <c r="N53" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="O53" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="P53" s="3" t="s">
         <v>181</v>
       </c>
+      <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3" t="s">
@@ -4635,11 +4648,11 @@
         <v>180</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V53" s="3"/>
       <c r="W53" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="X53" s="3"/>
     </row>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0854442F-0AF8-4129-BD63-07DA7B76C240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDE348A-2823-4E74-A3BA-6CE08A52B7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6100" yWindow="280" windowWidth="16547" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="4573" yWindow="400" windowWidth="16547" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
   <si>
     <t>Stardom</t>
     <phoneticPr fontId="1"/>
@@ -1681,20 +1681,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>炎華
-郷田明日香(休, 8/31でWave退団)</t>
+    <t>炎華</t>
     <rPh sb="0" eb="2">
       <t>ホノカ</t>
     </rPh>
-    <rPh sb="3" eb="8">
-      <t>ゴウダアスカ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>キュウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>タイダン</t>
-    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郷田明日香(休)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1780,66 +1774,6 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Noto Serif JP SemiBold"/>
-        <family val="1"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Noto Serif JP SemiBold"/>
-        <family val="1"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Noto Serif JP SemiBold"/>
-        <family val="1"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1982,6 +1916,66 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Noto Serif JP SemiBold"/>
+        <family val="1"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Noto Serif JP SemiBold"/>
+        <family val="1"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Noto Serif JP SemiBold"/>
+        <family val="1"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2316,17 +2310,17 @@
     <tableColumn id="23" xr3:uid="{9647ED0D-42FB-42C1-BFB2-8B8D56D414C4}" name="SENDAI" dataDxfId="13"/>
     <tableColumn id="32" xr3:uid="{67EA2433-E1D1-4094-BFB4-0EDB7438926B}" name="Pure-J" dataDxfId="12"/>
     <tableColumn id="21" xr3:uid="{ACF43FBE-31D7-4ED6-A997-E4AF4BF0B9D4}" name="マーベラス" dataDxfId="11"/>
-    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="2"/>
-    <tableColumn id="20" xr3:uid="{86389032-6123-44BF-98AB-D3CA13F2577A}" name="LLPW-X" dataDxfId="1"/>
-    <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="2.5" dataDxfId="10"/>
-    <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{3CAB629B-BA9F-4560-89E7-0980EE2B0905}" name="エボリューション" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{5C631C06-2946-4CE3-901A-57A0BABE156F}" name="BBJ" dataDxfId="6"/>
-    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="3"/>
+    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{86389032-6123-44BF-98AB-D3CA13F2577A}" name="LLPW-X" dataDxfId="9"/>
+    <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="2.5" dataDxfId="8"/>
+    <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{3CAB629B-BA9F-4560-89E7-0980EE2B0905}" name="エボリューション" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{5C631C06-2946-4CE3-901A-57A0BABE156F}" name="BBJ" dataDxfId="3"/>
+    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2652,10 +2646,10 @@
   <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="N49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q13" sqref="Q13"/>
+      <selection pane="bottomRight" activeCell="Y51" sqref="Y51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2680,7 +2674,7 @@
     <col min="20" max="20" width="17.609375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="19.1640625" style="1" customWidth="1"/>
     <col min="26" max="26" width="21.94140625" style="1" bestFit="1" customWidth="1"/>
@@ -2705,7 +2699,7 @@
     <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RX2)</f>
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2825,7 +2819,7 @@
      LEN(Q5:Q1000) - LEN(SUBSTITUTE(Q5:Q1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R2" s="1" cm="1">
         <f t="array" ref="R2">SUMPRODUCT(
@@ -2837,43 +2831,51 @@
       </c>
       <c r="S2" s="1" cm="1">
         <f t="array" ref="S2">SUMPRODUCT(
+  IF(LEN(S5:S1000)=0, 0,
+     LEN(S5:S1000) - LEN(SUBSTITUTE(S5:S1000, CHAR(10), "")) + 1
+  )
+)</f>
+        <v>4</v>
+      </c>
+      <c r="T2" s="1" cm="1">
+        <f t="array" ref="T2">SUMPRODUCT(
+  IF(LEN(T5:T1000)=0, 0,
+     LEN(T5:T1000) - LEN(SUBSTITUTE(T5:T1000, CHAR(10), "")) + 1
+  )
+)</f>
+        <v>4</v>
+      </c>
+      <c r="U2" s="1" cm="1">
+        <f t="array" ref="U2">SUMPRODUCT(
+  IF(LEN(U5:U1000)=0, 0,
+     LEN(U5:U1000) - LEN(SUBSTITUTE(U5:U1000, CHAR(10), "")) + 1
+  )
+)</f>
+        <v>4</v>
+      </c>
+      <c r="V2" s="1" cm="1">
+        <f t="array" ref="V2">SUMPRODUCT(
+  IF(LEN(V5:V1000)=0, 0,
+     LEN(V5:V1000) - LEN(SUBSTITUTE(V5:V1000, CHAR(10), "")) + 1
+  )
+)</f>
+        <v>8</v>
+      </c>
+      <c r="W2" s="1" cm="1">
+        <f t="array" ref="W2">SUMPRODUCT(
   IF(LEN(W5:W1000)=0, 0,
      LEN(W5:W1000) - LEN(SUBSTITUTE(W5:W1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>43</v>
       </c>
-      <c r="T2" s="1" cm="1">
-        <f t="array" ref="T2">SUMPRODUCT(
+      <c r="X2" s="1" cm="1">
+        <f t="array" ref="X2">SUMPRODUCT(
   IF(LEN(X5:X1000)=0, 0,
      LEN(X5:X1000) - LEN(SUBSTITUTE(X5:X1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>49</v>
-      </c>
-      <c r="V2" s="1" cm="1">
-        <f t="array" ref="V2">SUMPRODUCT(
-  IF(LEN(Z5:Z1000)=0, 0,
-     LEN(Z5:Z1000) - LEN(SUBSTITUTE(Z5:Z1000, CHAR(10), "")) + 1
-  )
-)</f>
-        <v>0</v>
-      </c>
-      <c r="W2" s="1" cm="1">
-        <f t="array" ref="W2">SUMPRODUCT(
-  IF(LEN(AA5:AA1000)=0, 0,
-     LEN(AA5:AA1000) - LEN(SUBSTITUTE(AA5:AA1000, CHAR(10), "")) + 1
-  )
-)</f>
-        <v>0</v>
-      </c>
-      <c r="X2" s="1" cm="1">
-        <f t="array" ref="X2">SUMPRODUCT(
-  IF(LEN(AB5:AB1000)=0, 0,
-     LEN(AB5:AB1000) - LEN(SUBSTITUTE(AB5:AB1000, CHAR(10), "")) + 1
-  )
-)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.8">
@@ -3177,7 +3179,7 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
-    <row r="13" spans="1:24" ht="50" x14ac:dyDescent="0.8">
+    <row r="13" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B13" s="3">
         <v>1985</v>
       </c>
@@ -3206,7 +3208,7 @@
       </c>
       <c r="X13" s="3"/>
     </row>
-    <row r="14" spans="1:24" ht="33.35" x14ac:dyDescent="0.8">
+    <row r="14" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B14" s="3">
         <v>1986</v>
       </c>
@@ -3299,7 +3301,7 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
+    <row r="17" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B17" s="3">
         <v>1989</v>
       </c>
@@ -3465,7 +3467,7 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
     </row>
-    <row r="23" spans="2:24" ht="100" x14ac:dyDescent="0.8">
+    <row r="23" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B23" s="3">
         <v>1995</v>
       </c>
@@ -3560,7 +3562,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
+    <row r="26" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B26" s="3">
         <v>1998</v>
       </c>
@@ -3591,7 +3593,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
+    <row r="27" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B27" s="3">
         <v>1999</v>
       </c>
@@ -3686,7 +3688,7 @@
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
     </row>
-    <row r="30" spans="2:24" ht="50" x14ac:dyDescent="0.8">
+    <row r="30" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B30" s="3">
         <v>2002</v>
       </c>
@@ -3773,7 +3775,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="2:24" ht="66.7" x14ac:dyDescent="0.8">
+    <row r="33" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B33" s="3">
         <v>2005</v>
       </c>
@@ -3907,7 +3909,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
+    <row r="37" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B37" s="3">
         <v>2009</v>
       </c>
@@ -3936,7 +3938,7 @@
       </c>
       <c r="X37" s="3"/>
     </row>
-    <row r="38" spans="2:24" ht="100" x14ac:dyDescent="0.8">
+    <row r="38" spans="2:24" ht="50" x14ac:dyDescent="0.8">
       <c r="B38" s="3">
         <v>2010</v>
       </c>
@@ -4010,7 +4012,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="2:24" ht="100" x14ac:dyDescent="0.8">
+    <row r="40" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B40" s="3">
         <v>2012</v>
       </c>
@@ -4090,7 +4092,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="2:24" ht="50" x14ac:dyDescent="0.8">
+    <row r="42" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B42" s="3">
         <v>2014</v>
       </c>
@@ -4201,7 +4203,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="2:24" ht="66.7" x14ac:dyDescent="0.8">
+    <row r="45" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B45" s="3">
         <v>2017</v>
       </c>
@@ -4248,7 +4250,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="2:24" ht="216.7" x14ac:dyDescent="0.8">
+    <row r="46" spans="2:24" ht="100" x14ac:dyDescent="0.8">
       <c r="B46" s="3">
         <v>2018</v>
       </c>
@@ -4391,7 +4393,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="2:24" ht="166.7" x14ac:dyDescent="0.8">
+    <row r="49" spans="2:24" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B49" s="3">
         <v>2021</v>
       </c>
@@ -4542,7 +4544,9 @@
       <c r="W51" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="X51" s="3"/>
+      <c r="X51" s="3" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="52" spans="2:24" ht="100" x14ac:dyDescent="0.8">
       <c r="B52" s="3">
@@ -4601,7 +4605,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="2:24" ht="283.35000000000002" x14ac:dyDescent="0.8">
+    <row r="53" spans="2:24" ht="100" x14ac:dyDescent="0.8">
       <c r="B53" s="3">
         <v>2025</v>
       </c>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDE348A-2823-4E74-A3BA-6CE08A52B7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF496618-C97D-467E-B334-AA6CA663BC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4573" yWindow="400" windowWidth="16547" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="-67" yWindow="-67" windowWidth="25734" windowHeight="13814" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -1030,29 +1030,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>猫はるな(休)
-渡辺未詩
-原宿ぽむ
-らく
-愛野ユキ</t>
-    <rPh sb="0" eb="1">
-      <t>ネコ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>キュウ</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>ワタナベミウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ハラジュク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>アイノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>JENNE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1689,6 +1666,32 @@
   </si>
   <si>
     <t>郷田明日香(休)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>猫はるな(休2025.9.27卒業)
+渡辺未詩
+原宿ぽむ
+らく
+愛野ユキ</t>
+    <rPh sb="0" eb="1">
+      <t>ネコ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソツギョウ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ワタナベミウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ハラジュク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>アイノ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2646,10 +2649,10 @@
   <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="N49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Y51" sqref="Y51"/>
+      <selection pane="bottomRight" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2939,13 +2942,13 @@
         <v>8</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>116</v>
@@ -3204,7 +3207,7 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X13" s="3"/>
     </row>
@@ -3326,10 +3329,10 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3488,7 +3491,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
@@ -3496,7 +3499,7 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X23" s="3" t="s">
         <v>77</v>
@@ -3802,7 +3805,7 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="X33" s="3"/>
     </row>
@@ -3871,7 +3874,7 @@
       </c>
       <c r="W35" s="3"/>
       <c r="X35" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -3879,13 +3882,13 @@
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -3981,7 +3984,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>127</v>
@@ -4017,7 +4020,7 @@
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>45</v>
@@ -4026,7 +4029,7 @@
         <v>50</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -4049,7 +4052,7 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X40" s="3"/>
     </row>
@@ -4086,10 +4089,10 @@
         <v>121</v>
       </c>
       <c r="W41" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="X41" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="X41" s="3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="42" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -4121,7 +4124,7 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>137</v>
@@ -4161,7 +4164,7 @@
       </c>
       <c r="W43" s="3"/>
       <c r="X43" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4181,7 +4184,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3" t="s">
@@ -4197,7 +4200,7 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X44" s="3" t="s">
         <v>139</v>
@@ -4221,10 +4224,10 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -4236,7 +4239,7 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -4244,10 +4247,10 @@
         <v>138</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4255,13 +4258,13 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>143</v>
+        <v>213</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>16</v>
@@ -4287,20 +4290,20 @@
       </c>
       <c r="R46" s="3"/>
       <c r="S46" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="V46" s="3" t="s">
         <v>120</v>
       </c>
       <c r="W46" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="X46" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="X46" s="3" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="47" spans="2:24" ht="66.7" x14ac:dyDescent="0.8">
@@ -4333,7 +4336,7 @@
         <v>67</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
@@ -4344,12 +4347,12 @@
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="2:24" ht="50" x14ac:dyDescent="0.8">
@@ -4387,10 +4390,10 @@
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="2:24" ht="66.7" x14ac:dyDescent="0.8">
@@ -4436,7 +4439,7 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X49" s="3"/>
     </row>
@@ -4445,19 +4448,19 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>96</v>
@@ -4474,7 +4477,7 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
@@ -4483,10 +4486,10 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4515,37 +4518,37 @@
         <v>93</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V51" s="3"/>
       <c r="W51" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4562,7 +4565,7 @@
         <v>55</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>123</v>
@@ -4578,7 +4581,7 @@
       </c>
       <c r="K52" s="3"/>
       <c r="L52" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>140</v>
@@ -4588,21 +4591,21 @@
       </c>
       <c r="O52" s="3"/>
       <c r="P52" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4613,7 +4616,7 @@
         <v>87</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>135</v>
@@ -4625,38 +4628,38 @@
         <v>124</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V53" s="3"/>
       <c r="W53" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X53" s="3"/>
     </row>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF496618-C97D-467E-B334-AA6CA663BC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983B9F47-D163-475B-8DE8-D61C1E432633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-67" yWindow="-67" windowWidth="25734" windowHeight="13814" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
@@ -502,10 +502,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Sareee</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>なる
 夏葵</t>
     <rPh sb="3" eb="5">
@@ -1691,6 +1687,14 @@
     </rPh>
     <rPh sb="32" eb="34">
       <t>アイノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sareee
+フェアリー日本橋</t>
+    <rPh sb="12" eb="15">
+      <t>ニホンバシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2649,10 +2653,10 @@
   <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F46" sqref="F46"/>
+      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2690,7 +2694,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="16" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J1" s="1"/>
       <c r="P1" s="1"/>
@@ -2702,7 +2706,7 @@
     <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RX2)</f>
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2878,7 +2882,7 @@
      LEN(X5:X1000) - LEN(SUBSTITUTE(X5:X1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.8">
@@ -2906,22 +2910,22 @@
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>59</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>9</v>
@@ -2933,7 +2937,7 @@
         <v>22</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>31</v>
@@ -2942,16 +2946,16 @@
         <v>8</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>42</v>
@@ -3207,7 +3211,7 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X13" s="3"/>
     </row>
@@ -3238,7 +3242,7 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>18</v>
@@ -3270,7 +3274,7 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3329,10 +3333,10 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3481,7 +3485,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -3491,7 +3495,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
@@ -3499,10 +3503,10 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3548,7 +3552,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -3562,7 +3566,7 @@
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3590,7 +3594,7 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X26" s="3" t="s">
         <v>38</v>
@@ -3623,7 +3627,7 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X27" s="3"/>
     </row>
@@ -3643,7 +3647,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -3657,7 +3661,7 @@
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3681,7 +3685,7 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
@@ -3716,7 +3720,7 @@
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X30" s="3"/>
     </row>
@@ -3772,10 +3776,10 @@
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -3798,14 +3802,14 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X33" s="3"/>
     </row>
@@ -3818,16 +3822,16 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
@@ -3839,11 +3843,11 @@
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W34" s="3"/>
       <c r="X34" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="2:24" ht="50" x14ac:dyDescent="0.8">
@@ -3870,11 +3874,11 @@
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W35" s="3"/>
       <c r="X35" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -3882,13 +3886,13 @@
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -3905,11 +3909,11 @@
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W36" s="3"/>
       <c r="X36" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3937,7 +3941,7 @@
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X37" s="3"/>
     </row>
@@ -3952,7 +3956,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -3970,30 +3974,30 @@
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X38" s="3"/>
     </row>
-    <row r="39" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="39" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B39" s="3">
         <v>2011</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -4008,11 +4012,11 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W39" s="3"/>
       <c r="X39" s="3" t="s">
-        <v>62</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4020,7 +4024,7 @@
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>45</v>
@@ -4029,7 +4033,7 @@
         <v>50</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -4037,7 +4041,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M40" s="3" t="s">
         <v>1</v>
@@ -4052,7 +4056,7 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X40" s="3"/>
     </row>
@@ -4061,7 +4065,7 @@
         <v>2013</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
@@ -4086,13 +4090,13 @@
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W41" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="X41" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="X41" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="42" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -4124,10 +4128,10 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="2:24" ht="83.35" x14ac:dyDescent="0.8">
@@ -4135,7 +4139,7 @@
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
@@ -4147,7 +4151,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
@@ -4160,11 +4164,11 @@
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="W43" s="3"/>
       <c r="X43" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4172,7 +4176,7 @@
         <v>2016</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>29</v>
@@ -4184,7 +4188,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3" t="s">
@@ -4200,10 +4204,10 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4211,7 +4215,7 @@
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4219,15 +4223,15 @@
         <v>13</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -4239,18 +4243,18 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4258,13 +4262,13 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>16</v>
@@ -4272,12 +4276,12 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>34</v>
@@ -4286,24 +4290,24 @@
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R46" s="3"/>
       <c r="S46" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="W46" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="W46" s="3" t="s">
+      <c r="X46" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="X46" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="47" spans="2:24" ht="66.7" x14ac:dyDescent="0.8">
@@ -4311,7 +4315,7 @@
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
@@ -4321,22 +4325,22 @@
         <v>14</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
@@ -4347,12 +4351,12 @@
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" spans="2:24" ht="50" x14ac:dyDescent="0.8">
@@ -4375,7 +4379,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
@@ -4383,17 +4387,17 @@
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="2:24" ht="66.7" x14ac:dyDescent="0.8">
@@ -4404,7 +4408,7 @@
         <v>61</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>56</v>
@@ -4413,10 +4417,10 @@
         <v>12</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -4426,12 +4430,12 @@
         <v>33</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
@@ -4439,7 +4443,7 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X49" s="3"/>
     </row>
@@ -4448,25 +4452,25 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>26</v>
@@ -4477,7 +4481,7 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
@@ -4486,10 +4490,10 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4503,52 +4507,52 @@
         <v>40</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>60</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V51" s="3"/>
       <c r="W51" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4556,7 +4560,7 @@
         <v>2024</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>41</v>
@@ -4565,47 +4569,47 @@
         <v>55</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>28</v>
       </c>
       <c r="K52" s="3"/>
       <c r="L52" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O52" s="3"/>
       <c r="P52" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4613,53 +4617,53 @@
         <v>2025</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V53" s="3"/>
       <c r="W53" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X53" s="3"/>
     </row>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983B9F47-D163-475B-8DE8-D61C1E432633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD7677F-A8FF-4FBB-A711-005E69AF5025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-67" yWindow="-67" windowWidth="25734" windowHeight="13814" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
@@ -1466,16 +1466,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>鶴姫花（愛媛）
-緑野アミサ(アルマリブレ)
-豊田紗也夏(T-HEARTS)
-ちゃんよた(PPP)</t>
-    <rPh sb="4" eb="6">
-      <t>エヒメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>叶ミク(T-HEARTS)
 エチカミヤビ(PPP)</t>
     <phoneticPr fontId="1"/>
@@ -1695,6 +1685,17 @@
 フェアリー日本橋</t>
     <rPh sb="12" eb="15">
       <t>ニホンバシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鶴姫花（愛媛）
+緑野アミサ(アルマリブレ)
+豊田紗也夏(T-HEARTS)
+ちゃんよた(PPP)
+みゆ(BRS)</t>
+    <rPh sb="4" eb="6">
+      <t>エヒメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2653,10 +2654,10 @@
   <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="G49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomRight" activeCell="Q51" sqref="Q51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2706,7 +2707,7 @@
     <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RX2)</f>
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2874,7 +2875,7 @@
      LEN(W5:W1000) - LEN(SUBSTITUTE(W5:W1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X2" s="1" cm="1">
         <f t="array" ref="X2">SUMPRODUCT(
@@ -2952,7 +2953,7 @@
         <v>175</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>115</v>
@@ -3809,7 +3810,7 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="X33" s="3"/>
     </row>
@@ -3878,7 +3879,7 @@
       </c>
       <c r="W35" s="3"/>
       <c r="X35" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4016,7 +4017,7 @@
       </c>
       <c r="W39" s="3"/>
       <c r="X39" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4251,7 +4252,7 @@
         <v>137</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>153</v>
@@ -4268,7 +4269,7 @@
         <v>44</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>16</v>
@@ -4298,16 +4299,16 @@
       </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V46" s="3" t="s">
         <v>119</v>
       </c>
       <c r="W46" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="X46" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="X46" s="3" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="47" spans="2:24" ht="66.7" x14ac:dyDescent="0.8">
@@ -4351,12 +4352,12 @@
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="2:24" ht="50" x14ac:dyDescent="0.8">
@@ -4400,7 +4401,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="49" spans="2:24" ht="66.7" x14ac:dyDescent="0.8">
+    <row r="49" spans="2:24" ht="83.35" x14ac:dyDescent="0.8">
       <c r="B49" s="3">
         <v>2021</v>
       </c>
@@ -4443,7 +4444,7 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="X49" s="3"/>
     </row>
@@ -4481,7 +4482,7 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
@@ -4490,10 +4491,10 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4525,7 +4526,7 @@
         <v>144</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
@@ -4537,7 +4538,7 @@
         <v>146</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
@@ -4545,14 +4546,14 @@
         <v>177</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V51" s="3"/>
       <c r="W51" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4659,11 +4660,11 @@
         <v>178</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="V53" s="3"/>
       <c r="W53" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X53" s="3"/>
     </row>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD7677F-A8FF-4FBB-A711-005E69AF5025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108F04A6-FF3B-4E11-8545-D00D5D10F051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-67" yWindow="-67" windowWidth="25734" windowHeight="13814" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="26360" yWindow="300" windowWidth="16547" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -930,10 +930,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2.5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>山岡聖怜
 心希
 山﨑裕花</t>
@@ -1651,10 +1647,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>郷田明日香(休)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>猫はるな(休2025.9.27卒業)
 渡辺未詩
 原宿ぽむ
@@ -1696,6 +1688,18 @@
 みゆ(BRS)</t>
     <rPh sb="4" eb="6">
       <t>エヒメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郷田明日香(休)
+ブランキー真帆</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.5(11.24～なにわ女子)</t>
+    <rPh sb="13" eb="15">
+      <t>ジョシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2320,7 +2324,7 @@
     <tableColumn id="21" xr3:uid="{ACF43FBE-31D7-4ED6-A997-E4AF4BF0B9D4}" name="マーベラス" dataDxfId="11"/>
     <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="10"/>
     <tableColumn id="20" xr3:uid="{86389032-6123-44BF-98AB-D3CA13F2577A}" name="LLPW-X" dataDxfId="9"/>
-    <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="2.5" dataDxfId="8"/>
+    <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="2.5(11.24～なにわ女子)" dataDxfId="8"/>
     <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="7"/>
     <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="5"/>
@@ -2654,10 +2658,10 @@
   <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="G49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="N48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q51" sqref="Q51"/>
+      <selection pane="bottomRight" activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2707,7 +2711,7 @@
     <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RX2)</f>
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2883,7 +2887,7 @@
      LEN(X5:X1000) - LEN(SUBSTITUTE(X5:X1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.8">
@@ -2938,7 +2942,7 @@
         <v>22</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>31</v>
@@ -2947,13 +2951,13 @@
         <v>8</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>115</v>
@@ -3212,7 +3216,7 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X13" s="3"/>
     </row>
@@ -3334,10 +3338,10 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3496,7 +3500,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
@@ -3504,7 +3508,7 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X23" s="3" t="s">
         <v>76</v>
@@ -3810,7 +3814,7 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="X33" s="3"/>
     </row>
@@ -3823,7 +3827,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -3879,7 +3883,7 @@
       </c>
       <c r="W35" s="3"/>
       <c r="X35" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -3887,13 +3891,13 @@
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -3989,7 +3993,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>126</v>
@@ -4017,7 +4021,7 @@
       </c>
       <c r="W39" s="3"/>
       <c r="X39" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4025,7 +4029,7 @@
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>45</v>
@@ -4034,7 +4038,7 @@
         <v>50</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -4057,7 +4061,7 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X40" s="3"/>
     </row>
@@ -4094,10 +4098,10 @@
         <v>120</v>
       </c>
       <c r="W41" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="X41" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="X41" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="42" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -4129,10 +4133,10 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="2:24" ht="83.35" x14ac:dyDescent="0.8">
@@ -4169,7 +4173,7 @@
       </c>
       <c r="W43" s="3"/>
       <c r="X43" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4189,7 +4193,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3" t="s">
@@ -4205,10 +4209,10 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4229,10 +4233,10 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -4244,18 +4248,18 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4263,13 +4267,13 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>16</v>
@@ -4295,20 +4299,20 @@
       </c>
       <c r="R46" s="3"/>
       <c r="S46" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V46" s="3" t="s">
         <v>119</v>
       </c>
       <c r="W46" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="X46" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="X46" s="3" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="47" spans="2:24" ht="66.7" x14ac:dyDescent="0.8">
@@ -4316,7 +4320,7 @@
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
@@ -4341,7 +4345,7 @@
         <v>66</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
@@ -4352,12 +4356,12 @@
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="2:24" ht="50" x14ac:dyDescent="0.8">
@@ -4395,10 +4399,10 @@
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="2:24" ht="83.35" x14ac:dyDescent="0.8">
@@ -4444,7 +4448,7 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="X49" s="3"/>
     </row>
@@ -4453,19 +4457,19 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>95</v>
@@ -4482,7 +4486,7 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
@@ -4491,10 +4495,10 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4508,13 +4512,13 @@
         <v>40</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>60</v>
@@ -4523,37 +4527,37 @@
         <v>92</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="V51" s="3"/>
       <c r="W51" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4570,7 +4574,7 @@
         <v>55</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>122</v>
@@ -4586,31 +4590,31 @@
       </c>
       <c r="K52" s="3"/>
       <c r="L52" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>73</v>
       </c>
       <c r="O52" s="3"/>
       <c r="P52" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4621,50 +4625,50 @@
         <v>86</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>123</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V53" s="3"/>
       <c r="W53" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X53" s="3"/>
     </row>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108F04A6-FF3B-4E11-8545-D00D5D10F051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F89159-6366-43C3-BC83-B76709130154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26360" yWindow="300" windowWidth="16547" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="8073" yWindow="793" windowWidth="16547" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -1229,15 +1229,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>梨央
-&lt;弥福かな&gt;
-&lt;ゴんべ&gt;</t>
-    <rPh sb="0" eb="2">
-      <t>リオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>柳ヶ瀬</t>
     <rPh sb="0" eb="3">
       <t>ヤナガセ</t>
@@ -1700,6 +1691,16 @@
     <t>2.5(11.24～なにわ女子)</t>
     <rPh sb="13" eb="15">
       <t>ジョシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>梨央
+&lt;弥福かな&gt;
+&lt;ゴんべ&gt;
+&lt;摩利乃&gt;</t>
+    <rPh sb="0" eb="2">
+      <t>リオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2658,10 +2659,10 @@
   <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="N48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P49" sqref="P49"/>
+      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2711,7 +2712,7 @@
     <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RX2)</f>
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2727,7 +2728,7 @@
      LEN(D5:D1000) - LEN(SUBSTITUTE(D5:D1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" cm="1">
         <f t="array" ref="E2">SUMPRODUCT(
@@ -2942,7 +2943,7 @@
         <v>22</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>31</v>
@@ -2951,13 +2952,13 @@
         <v>8</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>115</v>
@@ -3338,10 +3339,10 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3500,7 +3501,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
@@ -3508,7 +3509,7 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X23" s="3" t="s">
         <v>76</v>
@@ -3814,7 +3815,7 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="X33" s="3"/>
     </row>
@@ -3883,7 +3884,7 @@
       </c>
       <c r="W35" s="3"/>
       <c r="X35" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4021,7 +4022,7 @@
       </c>
       <c r="W39" s="3"/>
       <c r="X39" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4029,7 +4030,7 @@
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>45</v>
@@ -4061,7 +4062,7 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X40" s="3"/>
     </row>
@@ -4133,7 +4134,7 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>135</v>
@@ -4173,7 +4174,7 @@
       </c>
       <c r="W43" s="3"/>
       <c r="X43" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4193,7 +4194,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3" t="s">
@@ -4233,7 +4234,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>153</v>
@@ -4248,7 +4249,7 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -4256,7 +4257,7 @@
         <v>136</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>152</v>
@@ -4273,7 +4274,7 @@
         <v>44</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>16</v>
@@ -4299,20 +4300,20 @@
       </c>
       <c r="R46" s="3"/>
       <c r="S46" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V46" s="3" t="s">
         <v>119</v>
       </c>
       <c r="W46" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="X46" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="X46" s="3" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="47" spans="2:24" ht="66.7" x14ac:dyDescent="0.8">
@@ -4356,12 +4357,12 @@
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="2:24" ht="50" x14ac:dyDescent="0.8">
@@ -4402,7 +4403,7 @@
         <v>156</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="2:24" ht="83.35" x14ac:dyDescent="0.8">
@@ -4448,7 +4449,7 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="X49" s="3"/>
     </row>
@@ -4460,7 +4461,7 @@
         <v>160</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>48</v>
@@ -4486,7 +4487,7 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
@@ -4495,10 +4496,10 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4530,34 +4531,34 @@
         <v>143</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P51" s="3" t="s">
         <v>145</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V51" s="3"/>
       <c r="W51" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4574,7 +4575,7 @@
         <v>55</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>122</v>
@@ -4605,16 +4606,16 @@
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4625,7 +4626,7 @@
         <v>86</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>133</v>
@@ -4641,7 +4642,7 @@
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -4652,23 +4653,23 @@
         <v>163</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V53" s="3"/>
       <c r="W53" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X53" s="3"/>
     </row>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F89159-6366-43C3-BC83-B76709130154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D81E4E-0249-44C9-9C5C-1AB5936CCB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8073" yWindow="793" windowWidth="16547" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="8073" yWindow="280" windowWidth="16547" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -1154,23 +1154,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ハミングバード
-メガトン
-後藤智香
-天麗皇希
-山田奈保(休)</t>
-    <rPh sb="13" eb="17">
-      <t>ゴトウチカ</t>
-    </rPh>
-    <rPh sb="18" eb="22">
-      <t>アマレイコウキ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>キュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ホルスタイン・エンジュ
 ラブリカ・ヒナーノ
 枢夜 佐季</t>
@@ -1576,12 +1559,6 @@
     <rPh sb="20" eb="22">
       <t>マツザワ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>七星
-馬頭ほかげ
-りえまる</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1701,6 +1678,29 @@
 &lt;摩利乃&gt;</t>
     <rPh sb="0" eb="2">
       <t>リオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハミングバード
+メガトン
+後藤智香
+天麗皇希</t>
+    <rPh sb="13" eb="17">
+      <t>ゴトウチカ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>アマレイコウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>七星
+馬頭ほかげ
+りえまる
+山田奈保(2025.9.18引退？)</t>
+    <rPh sb="28" eb="30">
+      <t>インタイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2659,10 +2659,10 @@
   <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomRight" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2670,7 +2670,7 @@
     <col min="1" max="1" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.71875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.609375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -2744,7 +2744,7 @@
      LEN(F5:F1000) - LEN(SUBSTITUTE(F5:F1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" cm="1">
         <f t="array" ref="G2">SUMPRODUCT(
@@ -2888,7 +2888,7 @@
      LEN(X5:X1000) - LEN(SUBSTITUTE(X5:X1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.8">
@@ -2943,7 +2943,7 @@
         <v>22</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>31</v>
@@ -2952,13 +2952,13 @@
         <v>8</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>115</v>
@@ -3217,7 +3217,7 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="X13" s="3"/>
     </row>
@@ -3339,10 +3339,10 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3501,7 +3501,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
@@ -3509,7 +3509,7 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X23" s="3" t="s">
         <v>76</v>
@@ -3815,7 +3815,7 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="X33" s="3"/>
     </row>
@@ -3884,7 +3884,7 @@
       </c>
       <c r="W35" s="3"/>
       <c r="X35" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="W39" s="3"/>
       <c r="X39" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4030,7 +4030,7 @@
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>45</v>
@@ -4062,7 +4062,7 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X40" s="3"/>
     </row>
@@ -4134,7 +4134,7 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>135</v>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="W43" s="3"/>
       <c r="X43" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4194,7 +4194,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3" t="s">
@@ -4210,7 +4210,7 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X44" s="3" t="s">
         <v>137</v>
@@ -4234,7 +4234,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>153</v>
@@ -4249,7 +4249,7 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -4257,7 +4257,7 @@
         <v>136</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>152</v>
@@ -4268,13 +4268,13 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>16</v>
@@ -4300,20 +4300,20 @@
       </c>
       <c r="R46" s="3"/>
       <c r="S46" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="V46" s="3" t="s">
         <v>119</v>
       </c>
       <c r="W46" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="X46" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="X46" s="3" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="47" spans="2:24" ht="66.7" x14ac:dyDescent="0.8">
@@ -4357,12 +4357,12 @@
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="2:24" ht="50" x14ac:dyDescent="0.8">
@@ -4403,7 +4403,7 @@
         <v>156</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="2:24" ht="83.35" x14ac:dyDescent="0.8">
@@ -4449,25 +4449,25 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="X49" s="3"/>
     </row>
-    <row r="50" spans="2:24" ht="166.7" x14ac:dyDescent="0.8">
+    <row r="50" spans="2:24" ht="150" x14ac:dyDescent="0.8">
       <c r="B50" s="3">
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>157</v>
+        <v>212</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>148</v>
@@ -4487,7 +4487,7 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
@@ -4496,10 +4496,10 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4531,34 +4531,34 @@
         <v>143</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P51" s="3" t="s">
         <v>145</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V51" s="3"/>
       <c r="W51" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4575,7 +4575,7 @@
         <v>55</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>122</v>
@@ -4606,16 +4606,16 @@
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4626,7 +4626,7 @@
         <v>86</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>133</v>
@@ -4638,11 +4638,11 @@
         <v>123</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -4650,26 +4650,26 @@
         <v>144</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="V53" s="3"/>
       <c r="W53" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X53" s="3"/>
     </row>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D81E4E-0249-44C9-9C5C-1AB5936CCB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3289F0-F6E6-4F63-92BF-9D56C65C2EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8073" yWindow="280" windowWidth="16547" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIRAI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>石川奈青
 桜井麻衣</t>
     <rPh sb="0" eb="4">
@@ -1701,6 +1697,13 @@
 山田奈保(2025.9.18引退？)</t>
     <rPh sb="28" eb="30">
       <t>インタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MIRAI(10.13退団)</t>
+    <rPh sb="11" eb="13">
+      <t>タイダン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2659,10 +2662,10 @@
   <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F50" sqref="F50"/>
+      <selection pane="bottomRight" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2700,7 +2703,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="16" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J1" s="1"/>
       <c r="P1" s="1"/>
@@ -2910,28 +2913,28 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>9</v>
@@ -2940,31 +2943,31 @@
         <v>4</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X4" s="2" t="s">
         <v>11</v>
@@ -3068,7 +3071,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -3081,7 +3084,7 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3217,7 +3220,7 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X13" s="3"/>
     </row>
@@ -3238,7 +3241,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -3248,10 +3251,10 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3280,7 +3283,7 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3295,14 +3298,14 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -3339,10 +3342,10 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3491,7 +3494,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -3501,7 +3504,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
@@ -3509,10 +3512,10 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3541,7 +3544,7 @@
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3558,7 +3561,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -3572,7 +3575,7 @@
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3600,10 +3603,10 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3611,7 +3614,7 @@
         <v>1999</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -3633,7 +3636,7 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X27" s="3"/>
     </row>
@@ -3643,7 +3646,7 @@
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -3653,7 +3656,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -3667,7 +3670,7 @@
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3682,7 +3685,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -3691,7 +3694,7 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
@@ -3726,7 +3729,7 @@
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="X30" s="3"/>
     </row>
@@ -3782,10 +3785,10 @@
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -3808,14 +3811,14 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X33" s="3"/>
     </row>
@@ -3828,16 +3831,16 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
@@ -3849,11 +3852,11 @@
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W34" s="3"/>
       <c r="X34" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="2:24" ht="50" x14ac:dyDescent="0.8">
@@ -3880,11 +3883,11 @@
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W35" s="3"/>
       <c r="X35" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -3892,13 +3895,13 @@
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -3915,11 +3918,11 @@
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W36" s="3"/>
       <c r="X36" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3947,7 +3950,7 @@
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X37" s="3"/>
     </row>
@@ -3962,14 +3965,14 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
@@ -3980,7 +3983,7 @@
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X38" s="3"/>
     </row>
@@ -3989,21 +3992,21 @@
         <v>2011</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -4012,17 +4015,17 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W39" s="3"/>
       <c r="X39" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4030,16 +4033,16 @@
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -4047,7 +4050,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M40" s="3" t="s">
         <v>1</v>
@@ -4062,7 +4065,7 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X40" s="3"/>
     </row>
@@ -4071,11 +4074,11 @@
         <v>2013</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -4096,13 +4099,13 @@
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W41" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="X41" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="X41" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="42" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -4114,7 +4117,7 @@
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -4134,10 +4137,10 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="2:24" ht="83.35" x14ac:dyDescent="0.8">
@@ -4145,11 +4148,11 @@
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -4157,7 +4160,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
@@ -4170,11 +4173,11 @@
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W43" s="3"/>
       <c r="X43" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4182,10 +4185,10 @@
         <v>2016</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -4194,11 +4197,11 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -4210,10 +4213,10 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4221,7 +4224,7 @@
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4229,38 +4232,38 @@
         <v>13</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4268,52 +4271,52 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R46" s="3"/>
       <c r="S46" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="W46" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="W46" s="3" t="s">
+      <c r="X46" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="X46" s="3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="47" spans="2:24" ht="66.7" x14ac:dyDescent="0.8">
@@ -4321,32 +4324,32 @@
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>14</v>
+        <v>213</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
@@ -4357,12 +4360,12 @@
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="2:24" ht="50" x14ac:dyDescent="0.8">
@@ -4370,14 +4373,14 @@
         <v>2020</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -4385,7 +4388,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
@@ -4393,17 +4396,17 @@
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="2:24" ht="83.35" x14ac:dyDescent="0.8">
@@ -4411,37 +4414,37 @@
         <v>2021</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="E49" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
@@ -4449,7 +4452,7 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X49" s="3"/>
     </row>
@@ -4458,28 +4461,28 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -4487,7 +4490,7 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
@@ -4496,10 +4499,10 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4507,58 +4510,58 @@
         <v>2023</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="V51" s="3"/>
       <c r="W51" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4566,56 +4569,56 @@
         <v>2024</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K52" s="3"/>
       <c r="L52" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O52" s="3"/>
       <c r="P52" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4623,53 +4626,53 @@
         <v>2025</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="V53" s="3"/>
       <c r="W53" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X53" s="3"/>
     </row>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3289F0-F6E6-4F63-92BF-9D56C65C2EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A6E0A6-C9E3-404D-8891-4D90ADEEBD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8073" yWindow="280" windowWidth="16547" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
@@ -940,10 +940,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>小夏れん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>風城ハル
 芦田美歩
 大久保琉那(休)
@@ -1705,6 +1701,13 @@
     <rPh sb="11" eb="13">
       <t>タイダン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小夏れん
+&lt;シオン&gt;仮
+&lt;アンリ&gt;仮
+&lt;ユウカ&gt;仮</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2662,10 +2665,10 @@
   <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F48" sqref="F48"/>
+      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2715,7 +2718,7 @@
     <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RX2)</f>
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2739,7 +2742,7 @@
      LEN(E5:E1000) - LEN(SUBSTITUTE(E5:E1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2">SUMPRODUCT(
@@ -2946,7 +2949,7 @@
         <v>21</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>30</v>
@@ -2955,13 +2958,13 @@
         <v>8</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>114</v>
@@ -3220,7 +3223,7 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X13" s="3"/>
     </row>
@@ -3342,10 +3345,10 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3504,7 +3507,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
@@ -3512,7 +3515,7 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X23" s="3" t="s">
         <v>75</v>
@@ -3818,7 +3821,7 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X33" s="3"/>
     </row>
@@ -3831,7 +3834,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -3887,7 +3890,7 @@
       </c>
       <c r="W35" s="3"/>
       <c r="X35" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -3895,13 +3898,13 @@
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -3997,7 +4000,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>125</v>
@@ -4025,7 +4028,7 @@
       </c>
       <c r="W39" s="3"/>
       <c r="X39" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4033,7 +4036,7 @@
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>44</v>
@@ -4042,7 +4045,7 @@
         <v>49</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -4065,7 +4068,7 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X40" s="3"/>
     </row>
@@ -4102,10 +4105,10 @@
         <v>119</v>
       </c>
       <c r="W41" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="X41" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="X41" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="42" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -4137,10 +4140,10 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="2:24" ht="83.35" x14ac:dyDescent="0.8">
@@ -4177,7 +4180,7 @@
       </c>
       <c r="W43" s="3"/>
       <c r="X43" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4197,7 +4200,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3" t="s">
@@ -4213,10 +4216,10 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4237,10 +4240,10 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -4252,18 +4255,18 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4271,13 +4274,13 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>15</v>
@@ -4303,20 +4306,20 @@
       </c>
       <c r="R46" s="3"/>
       <c r="S46" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V46" s="3" t="s">
         <v>118</v>
       </c>
       <c r="W46" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="X46" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="X46" s="3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="47" spans="2:24" ht="66.7" x14ac:dyDescent="0.8">
@@ -4324,14 +4327,14 @@
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>123</v>
@@ -4349,7 +4352,7 @@
         <v>65</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
@@ -4360,12 +4363,12 @@
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="2:24" ht="50" x14ac:dyDescent="0.8">
@@ -4403,10 +4406,10 @@
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="2:24" ht="83.35" x14ac:dyDescent="0.8">
@@ -4452,7 +4455,7 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="X49" s="3"/>
     </row>
@@ -4461,19 +4464,19 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>47</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>94</v>
@@ -4490,7 +4493,7 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
@@ -4499,10 +4502,10 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4516,7 +4519,7 @@
         <v>39</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>16</v>
@@ -4531,37 +4534,37 @@
         <v>91</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="V51" s="3"/>
       <c r="W51" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4578,7 +4581,7 @@
         <v>54</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>121</v>
@@ -4594,31 +4597,31 @@
       </c>
       <c r="K52" s="3"/>
       <c r="L52" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>72</v>
       </c>
       <c r="O52" s="3"/>
       <c r="P52" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4629,10 +4632,10 @@
         <v>85</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>132</v>
+        <v>213</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>130</v>
@@ -4641,38 +4644,38 @@
         <v>122</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V53" s="3"/>
       <c r="W53" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="X53" s="3"/>
     </row>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A6E0A6-C9E3-404D-8891-4D90ADEEBD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6337BB-BF5E-43C5-A786-9756C91366FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8073" yWindow="280" windowWidth="16547" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <si>
     <t>Stardom</t>
     <phoneticPr fontId="1"/>
@@ -1104,10 +1104,6 @@
     <rPh sb="0" eb="2">
       <t>マナミ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>YAKO(アルマリブレ)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1708,6 +1704,15 @@
 &lt;シオン&gt;仮
 &lt;アンリ&gt;仮
 &lt;ユウカ&gt;仮</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浦幌ちほ(北都)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YAKO(アルマリブレ)
+神田愛実(北都)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2665,10 +2670,10 @@
   <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="Q49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
+      <selection pane="bottomRight" activeCell="W52" sqref="W52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2718,7 +2723,7 @@
     <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RX2)</f>
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2886,7 +2891,7 @@
      LEN(W5:W1000) - LEN(SUBSTITUTE(W5:W1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X2" s="1" cm="1">
         <f t="array" ref="X2">SUMPRODUCT(
@@ -2949,7 +2954,7 @@
         <v>21</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>30</v>
@@ -2958,13 +2963,13 @@
         <v>8</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>114</v>
@@ -3223,7 +3228,7 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X13" s="3"/>
     </row>
@@ -3345,10 +3350,10 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3507,7 +3512,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
@@ -3515,7 +3520,7 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X23" s="3" t="s">
         <v>75</v>
@@ -3821,7 +3826,7 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X33" s="3"/>
     </row>
@@ -3890,7 +3895,7 @@
       </c>
       <c r="W35" s="3"/>
       <c r="X35" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4028,7 +4033,7 @@
       </c>
       <c r="W39" s="3"/>
       <c r="X39" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4036,7 +4041,7 @@
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>44</v>
@@ -4068,7 +4073,7 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X40" s="3"/>
     </row>
@@ -4105,10 +4110,10 @@
         <v>119</v>
       </c>
       <c r="W41" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="X41" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="X41" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="42" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -4140,7 +4145,7 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>133</v>
@@ -4180,7 +4185,7 @@
       </c>
       <c r="W43" s="3"/>
       <c r="X43" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4200,7 +4205,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3" t="s">
@@ -4216,7 +4221,7 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X44" s="3" t="s">
         <v>135</v>
@@ -4240,7 +4245,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>151</v>
@@ -4255,7 +4260,7 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -4263,7 +4268,7 @@
         <v>134</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>150</v>
@@ -4274,13 +4279,13 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>15</v>
@@ -4306,20 +4311,20 @@
       </c>
       <c r="R46" s="3"/>
       <c r="S46" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="V46" s="3" t="s">
         <v>118</v>
       </c>
       <c r="W46" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="X46" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="X46" s="3" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="47" spans="2:24" ht="66.7" x14ac:dyDescent="0.8">
@@ -4334,7 +4339,7 @@
         <v>53</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>123</v>
@@ -4363,12 +4368,12 @@
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="2:24" ht="50" x14ac:dyDescent="0.8">
@@ -4406,10 +4411,10 @@
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="2:24" ht="83.35" x14ac:dyDescent="0.8">
@@ -4455,7 +4460,7 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="X49" s="3"/>
     </row>
@@ -4464,16 +4469,16 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>47</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>146</v>
@@ -4493,7 +4498,7 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
@@ -4502,10 +4507,10 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4537,34 +4542,34 @@
         <v>141</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P51" s="3" t="s">
         <v>143</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V51" s="3"/>
       <c r="W51" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4581,7 +4586,7 @@
         <v>54</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>121</v>
@@ -4612,16 +4617,18 @@
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
-      <c r="W52" s="3"/>
+      <c r="W52" s="3" t="s">
+        <v>213</v>
+      </c>
       <c r="X52" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4632,10 +4639,10 @@
         <v>85</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>130</v>
@@ -4644,11 +4651,11 @@
         <v>122</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -4656,26 +4663,26 @@
         <v>142</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V53" s="3"/>
       <c r="W53" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="X53" s="3"/>
     </row>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6337BB-BF5E-43C5-A786-9756C91366FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BF90EF-2B8C-4C0E-BBA9-300C14416645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8073" yWindow="280" windowWidth="16547" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
@@ -842,14 +842,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>松下楓歩(IR)
-キク(HCC)</t>
-    <rPh sb="0" eb="4">
-      <t>マツシタカホ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>若菜きらり(IR)
 緋彩ませ(HCC)</t>
     <rPh sb="0" eb="2">
@@ -1713,6 +1705,20 @@
   <si>
     <t>YAKO(アルマリブレ)
 神田愛実(北都)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松下楓歩(IR)
+キク(HCC)(2026/3引退予定)</t>
+    <rPh sb="0" eb="4">
+      <t>マツシタカホ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>インタイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヨテイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2670,10 +2676,10 @@
   <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="Q49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="W52" sqref="W52"/>
+      <selection pane="bottomRight" activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2711,7 +2717,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="16" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J1" s="1"/>
       <c r="P1" s="1"/>
@@ -2954,7 +2960,7 @@
         <v>21</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>30</v>
@@ -2963,13 +2969,13 @@
         <v>8</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>114</v>
@@ -3228,7 +3234,7 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X13" s="3"/>
     </row>
@@ -3291,7 +3297,7 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3350,10 +3356,10 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3512,7 +3518,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
@@ -3520,7 +3526,7 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X23" s="3" t="s">
         <v>75</v>
@@ -3826,7 +3832,7 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X33" s="3"/>
     </row>
@@ -3839,7 +3845,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -3864,7 +3870,7 @@
       </c>
       <c r="W34" s="3"/>
       <c r="X34" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="2:24" ht="50" x14ac:dyDescent="0.8">
@@ -3895,7 +3901,7 @@
       </c>
       <c r="W35" s="3"/>
       <c r="X35" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -3903,13 +3909,13 @@
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -4005,16 +4011,16 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -4033,7 +4039,7 @@
       </c>
       <c r="W39" s="3"/>
       <c r="X39" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4041,7 +4047,7 @@
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>44</v>
@@ -4050,7 +4056,7 @@
         <v>49</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -4073,7 +4079,7 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X40" s="3"/>
     </row>
@@ -4110,10 +4116,10 @@
         <v>119</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -4145,10 +4151,10 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="2:24" ht="83.35" x14ac:dyDescent="0.8">
@@ -4185,7 +4191,7 @@
       </c>
       <c r="W43" s="3"/>
       <c r="X43" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4205,7 +4211,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3" t="s">
@@ -4221,10 +4227,10 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4240,15 +4246,15 @@
         <v>13</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -4260,18 +4266,18 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4279,13 +4285,13 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>15</v>
@@ -4311,20 +4317,20 @@
       </c>
       <c r="R46" s="3"/>
       <c r="S46" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="V46" s="3" t="s">
         <v>118</v>
       </c>
       <c r="W46" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="X46" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="X46" s="3" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="47" spans="2:24" ht="66.7" x14ac:dyDescent="0.8">
@@ -4332,17 +4338,17 @@
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>93</v>
@@ -4357,7 +4363,7 @@
         <v>65</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
@@ -4368,12 +4374,12 @@
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="2:24" ht="50" x14ac:dyDescent="0.8">
@@ -4411,10 +4417,10 @@
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="2:24" ht="83.35" x14ac:dyDescent="0.8">
@@ -4434,7 +4440,7 @@
         <v>12</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>120</v>
+        <v>214</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>95</v>
@@ -4460,7 +4466,7 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="X49" s="3"/>
     </row>
@@ -4469,19 +4475,19 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>47</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>94</v>
@@ -4498,7 +4504,7 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
@@ -4507,10 +4513,10 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4524,13 +4530,13 @@
         <v>39</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>59</v>
@@ -4539,37 +4545,37 @@
         <v>91</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V51" s="3"/>
       <c r="W51" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4586,10 +4592,10 @@
         <v>54</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>96</v>
@@ -4602,33 +4608,33 @@
       </c>
       <c r="K52" s="3"/>
       <c r="L52" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>72</v>
       </c>
       <c r="O52" s="3"/>
       <c r="P52" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="X52" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4639,50 +4645,50 @@
         <v>85</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V53" s="3"/>
       <c r="W53" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X53" s="3"/>
     </row>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BF90EF-2B8C-4C0E-BBA9-300C14416645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FAFC39-1262-4236-BD9B-26C0EB5F1CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8073" yWindow="280" windowWidth="16547" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
@@ -1265,10 +1265,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;あんな&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>優宇(EVE)(2025.12.28引退予定)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1652,16 +1648,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>梨央
-&lt;弥福かな&gt;
-&lt;ゴんべ&gt;
-&lt;摩利乃&gt;</t>
-    <rPh sb="0" eb="2">
-      <t>リオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ハミングバード
 メガトン
 後藤智香
@@ -1717,6 +1703,26 @@
       <t>インタイ</t>
     </rPh>
     <rPh sb="25" eb="27">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>梨央
+&lt;弥福かな&gt;(10.1デビュー予定)
+&lt;ゴんべ&gt;
+&lt;摩利乃&gt;</t>
+    <rPh sb="0" eb="2">
+      <t>リオ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;あんな&gt;(10.5デビュー予定)</t>
+    <rPh sb="14" eb="16">
       <t>ヨテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2676,10 +2682,10 @@
   <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H50" sqref="H50"/>
+      <selection pane="bottomRight" activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2960,7 +2966,7 @@
         <v>21</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>30</v>
@@ -2975,7 +2981,7 @@
         <v>168</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>114</v>
@@ -3518,7 +3524,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
@@ -3526,7 +3532,7 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X23" s="3" t="s">
         <v>75</v>
@@ -3832,7 +3838,7 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="X33" s="3"/>
     </row>
@@ -3901,7 +3907,7 @@
       </c>
       <c r="W35" s="3"/>
       <c r="X35" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4039,7 +4045,7 @@
       </c>
       <c r="W39" s="3"/>
       <c r="X39" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4047,7 +4053,7 @@
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>44</v>
@@ -4079,7 +4085,7 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X40" s="3"/>
     </row>
@@ -4116,7 +4122,7 @@
         <v>119</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="X41" s="3" t="s">
         <v>151</v>
@@ -4151,7 +4157,7 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>132</v>
@@ -4191,7 +4197,7 @@
       </c>
       <c r="W43" s="3"/>
       <c r="X43" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4211,7 +4217,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3" t="s">
@@ -4274,7 +4280,7 @@
         <v>133</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>149</v>
@@ -4291,7 +4297,7 @@
         <v>43</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>15</v>
@@ -4321,16 +4327,16 @@
       </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V46" s="3" t="s">
         <v>118</v>
       </c>
       <c r="W46" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="X46" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="X46" s="3" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="47" spans="2:24" ht="66.7" x14ac:dyDescent="0.8">
@@ -4345,7 +4351,7 @@
         <v>53</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>122</v>
@@ -4374,12 +4380,12 @@
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="2:24" ht="50" x14ac:dyDescent="0.8">
@@ -4420,7 +4426,7 @@
         <v>152</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="2:24" ht="83.35" x14ac:dyDescent="0.8">
@@ -4440,7 +4446,7 @@
         <v>12</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>95</v>
@@ -4466,7 +4472,7 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="X49" s="3"/>
     </row>
@@ -4478,13 +4484,13 @@
         <v>155</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>47</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>145</v>
@@ -4504,7 +4510,7 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
@@ -4513,10 +4519,10 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4548,7 +4554,7 @@
         <v>140</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
@@ -4560,7 +4566,7 @@
         <v>142</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
@@ -4568,14 +4574,14 @@
         <v>170</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V51" s="3"/>
       <c r="W51" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4592,7 +4598,7 @@
         <v>54</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>120</v>
@@ -4631,10 +4637,10 @@
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="X52" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4645,10 +4651,10 @@
         <v>85</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>129</v>
@@ -4661,7 +4667,7 @@
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -4684,11 +4690,11 @@
         <v>171</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V53" s="3"/>
       <c r="W53" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X53" s="3"/>
     </row>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FAFC39-1262-4236-BD9B-26C0EB5F1CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C76885-5F88-4916-A858-A11FCE3606AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8073" yWindow="280" windowWidth="16547" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
@@ -415,14 +415,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>山下実優
-中島翔子</t>
-    <rPh sb="5" eb="9">
-      <t>ナカジマショウコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>桐生真弥
 鈴芽</t>
     <rPh sb="0" eb="4">
@@ -1095,37 +1087,6 @@
 高瀬みゆき</t>
     <rPh sb="0" eb="2">
       <t>マナミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山下りな
-日向小陽(休)
-夏 すみれ
-藤田あかね
-小林香萌
-上福ゆき
-弓李</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマシタ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒナタ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コハル</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>キュウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>フジタ</t>
-    </rPh>
-    <rPh sb="25" eb="29">
-      <t>コバヤシカホ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>キュウリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1724,6 +1685,45 @@
     <t>&lt;あんな&gt;(10.5デビュー予定)</t>
     <rPh sb="14" eb="16">
       <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山下りな
+日向小陽(休)
+夏 すみれ
+藤田あかね
+小林香萌
+弓李</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマシタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒナタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コハル</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>フジタ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>コバヤシカホ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キュウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山下実優
+中島翔子
+上福ゆき</t>
+    <rPh sb="5" eb="9">
+      <t>ナカジマショウコ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2682,10 +2682,10 @@
   <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="D40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J53" sqref="J53"/>
+      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2723,7 +2723,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="16" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J1" s="1"/>
       <c r="P1" s="1"/>
@@ -2759,7 +2759,7 @@
      LEN(E5:E1000) - LEN(SUBSTITUTE(E5:E1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2">SUMPRODUCT(
@@ -2911,7 +2911,7 @@
      LEN(X5:X1000) - LEN(SUBSTITUTE(X5:X1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.8">
@@ -2939,22 +2939,22 @@
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>9</v>
@@ -2966,7 +2966,7 @@
         <v>21</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>30</v>
@@ -2975,16 +2975,16 @@
         <v>8</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>41</v>
@@ -3240,7 +3240,7 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X13" s="3"/>
     </row>
@@ -3271,7 +3271,7 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>17</v>
@@ -3303,7 +3303,7 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3362,10 +3362,10 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3514,7 +3514,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -3524,7 +3524,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
@@ -3532,10 +3532,10 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3581,7 +3581,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -3595,7 +3595,7 @@
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3623,7 +3623,7 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X26" s="3" t="s">
         <v>37</v>
@@ -3634,7 +3634,7 @@
         <v>1999</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -3656,7 +3656,7 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X27" s="3"/>
     </row>
@@ -3676,7 +3676,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -3690,7 +3690,7 @@
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3714,7 +3714,7 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
@@ -3749,7 +3749,7 @@
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="X30" s="3"/>
     </row>
@@ -3805,10 +3805,10 @@
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -3831,14 +3831,14 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="X33" s="3"/>
     </row>
@@ -3851,16 +3851,16 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
@@ -3872,11 +3872,11 @@
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W34" s="3"/>
       <c r="X34" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="2:24" ht="50" x14ac:dyDescent="0.8">
@@ -3903,11 +3903,11 @@
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W35" s="3"/>
       <c r="X35" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -3915,13 +3915,13 @@
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -3938,11 +3938,11 @@
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W36" s="3"/>
       <c r="X36" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3970,7 +3970,7 @@
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X37" s="3"/>
     </row>
@@ -3985,7 +3985,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -4003,7 +4003,7 @@
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X38" s="3"/>
     </row>
@@ -4012,21 +4012,21 @@
         <v>2011</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -4041,11 +4041,11 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W39" s="3"/>
       <c r="X39" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4053,7 +4053,7 @@
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>44</v>
@@ -4062,7 +4062,7 @@
         <v>49</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -4070,7 +4070,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M40" s="3" t="s">
         <v>1</v>
@@ -4085,20 +4085,20 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="X40" s="3"/>
     </row>
-    <row r="41" spans="2:24" ht="116.7" x14ac:dyDescent="0.8">
+    <row r="41" spans="2:24" ht="100" x14ac:dyDescent="0.8">
       <c r="B41" s="3">
         <v>2013</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>52</v>
+        <v>214</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -4119,13 +4119,13 @@
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -4157,10 +4157,10 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="2:24" ht="83.35" x14ac:dyDescent="0.8">
@@ -4168,7 +4168,7 @@
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
@@ -4180,7 +4180,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
@@ -4193,11 +4193,11 @@
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W43" s="3"/>
       <c r="X43" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4205,7 +4205,7 @@
         <v>2016</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>28</v>
@@ -4217,7 +4217,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3" t="s">
@@ -4233,10 +4233,10 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4244,7 +4244,7 @@
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4252,15 +4252,15 @@
         <v>13</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -4272,18 +4272,18 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4291,13 +4291,13 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>15</v>
@@ -4305,12 +4305,12 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>33</v>
@@ -4319,24 +4319,24 @@
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R46" s="3"/>
       <c r="S46" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="X46" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="V46" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="W46" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="X46" s="3" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="47" spans="2:24" ht="66.7" x14ac:dyDescent="0.8">
@@ -4344,32 +4344,32 @@
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>26</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
@@ -4380,12 +4380,12 @@
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="2:24" ht="50" x14ac:dyDescent="0.8">
@@ -4393,7 +4393,7 @@
         <v>2020</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
@@ -4408,7 +4408,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
@@ -4416,17 +4416,17 @@
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="2:24" ht="83.35" x14ac:dyDescent="0.8">
@@ -4434,22 +4434,22 @@
         <v>2021</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="E49" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -4459,12 +4459,12 @@
         <v>32</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
@@ -4472,7 +4472,7 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="X49" s="3"/>
     </row>
@@ -4481,25 +4481,25 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>47</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>25</v>
@@ -4510,7 +4510,7 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
@@ -4519,10 +4519,10 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4536,52 +4536,52 @@
         <v>39</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="V51" s="3"/>
       <c r="W51" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4589,58 +4589,58 @@
         <v>2024</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K52" s="3"/>
       <c r="L52" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O52" s="3"/>
       <c r="P52" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="X52" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4648,53 +4648,53 @@
         <v>2025</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="V53" s="3"/>
       <c r="W53" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="X53" s="3"/>
     </row>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C76885-5F88-4916-A858-A11FCE3606AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FC016B-EA1E-43DB-BC43-D2D1B2B5DCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8073" yWindow="280" windowWidth="16547" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
@@ -1552,32 +1552,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>猫はるな(休2025.9.27卒業)
-渡辺未詩
-原宿ぽむ
-らく
-愛野ユキ</t>
-    <rPh sb="0" eb="1">
-      <t>ネコ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>キュウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ソツギョウ</t>
-    </rPh>
-    <rPh sb="19" eb="23">
-      <t>ワタナベミウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ハラジュク</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>アイノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Sareee
 フェアリー日本橋</t>
     <rPh sb="12" eb="15">
@@ -1724,6 +1698,22 @@
 上福ゆき</t>
     <rPh sb="5" eb="9">
       <t>ナカジマショウコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渡辺未詩
+原宿ぽむ
+らく
+愛野ユキ</t>
+    <rPh sb="0" eb="4">
+      <t>ワタナベミウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハラジュク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>アイノ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2685,7 +2675,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="D40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
+      <selection pane="bottomRight" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2735,7 +2725,7 @@
     <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RX2)</f>
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2759,7 +2749,7 @@
      LEN(E5:E1000) - LEN(SUBSTITUTE(E5:E1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2">SUMPRODUCT(
@@ -2966,7 +2956,7 @@
         <v>21</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>30</v>
@@ -4045,7 +4035,7 @@
       </c>
       <c r="W39" s="3"/>
       <c r="X39" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4098,7 +4088,7 @@
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -4122,10 +4112,10 @@
         <v>118</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -4297,7 +4287,7 @@
         <v>43</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>15</v>
@@ -4351,7 +4341,7 @@
         <v>52</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>121</v>
@@ -4446,7 +4436,7 @@
         <v>12</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>94</v>
@@ -4472,7 +4462,7 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X49" s="3"/>
     </row>
@@ -4490,7 +4480,7 @@
         <v>47</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>144</v>
@@ -4522,7 +4512,7 @@
         <v>182</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4581,7 +4571,7 @@
         <v>186</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4637,7 +4627,7 @@
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>178</v>
@@ -4651,10 +4641,10 @@
         <v>84</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>128</v>
@@ -4667,7 +4657,7 @@
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FC016B-EA1E-43DB-BC43-D2D1B2B5DCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920DC1A0-0845-4708-86E4-81AD0F3F4A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8073" yWindow="280" windowWidth="16547" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
@@ -1540,11 +1540,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>YUNA
-スパイクニシムラ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>炎華</t>
     <rPh sb="0" eb="2">
       <t>ホノカ</t>
@@ -1638,19 +1633,6 @@
       <t>インタイ</t>
     </rPh>
     <rPh sb="25" eb="27">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>梨央
-&lt;弥福かな&gt;(10.1デビュー予定)
-&lt;ゴんべ&gt;
-&lt;摩利乃&gt;</t>
-    <rPh sb="0" eb="2">
-      <t>リオ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
       <t>ヨテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1714,6 +1696,21 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>アイノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YUNA
+スパイク・ニシムラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>梨央
+弥福かな
+&lt;ゴんべ&gt;
+&lt;摩利乃&gt;</t>
+    <rPh sb="0" eb="2">
+      <t>リオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2672,10 +2669,10 @@
   <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="D40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="D50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F46" sqref="F46"/>
+      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2956,7 +2953,7 @@
         <v>21</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>30</v>
@@ -4035,7 +4032,7 @@
       </c>
       <c r="W39" s="3"/>
       <c r="X39" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4088,7 +4085,7 @@
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -4112,10 +4109,10 @@
         <v>118</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -4287,7 +4284,7 @@
         <v>43</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>15</v>
@@ -4341,7 +4338,7 @@
         <v>52</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>121</v>
@@ -4436,7 +4433,7 @@
         <v>12</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>94</v>
@@ -4462,7 +4459,7 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X49" s="3"/>
     </row>
@@ -4480,7 +4477,7 @@
         <v>47</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>144</v>
@@ -4512,7 +4509,7 @@
         <v>182</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4544,7 +4541,7 @@
         <v>139</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
@@ -4556,7 +4553,7 @@
         <v>141</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
@@ -4571,7 +4568,7 @@
         <v>186</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4627,7 +4624,7 @@
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>178</v>
@@ -4641,10 +4638,10 @@
         <v>84</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>128</v>
@@ -4657,7 +4654,7 @@
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920DC1A0-0845-4708-86E4-81AD0F3F4A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25606849-285D-44B8-BCA9-7128BBDAAD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8073" yWindow="280" windowWidth="16547" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="2933" yWindow="280" windowWidth="16547" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -1638,13 +1638,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;あんな&gt;(10.5デビュー予定)</t>
-    <rPh sb="14" eb="16">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>山下りな
 日向小陽(休)
 夏 すみれ
@@ -1712,6 +1705,10 @@
     <rPh sb="0" eb="2">
       <t>リオ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Anna</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2672,7 +2669,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="D50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
+      <selection pane="bottomRight" activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -4085,7 +4082,7 @@
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -4112,7 +4109,7 @@
         <v>207</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -4284,7 +4281,7 @@
         <v>43</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>15</v>
@@ -4541,7 +4538,7 @@
         <v>139</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
@@ -4638,7 +4635,7 @@
         <v>84</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>205</v>
@@ -4654,7 +4651,7 @@
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25606849-285D-44B8-BCA9-7128BBDAAD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967F9A52-9D27-4134-9C4B-9187E7EB733E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2933" yWindow="280" windowWidth="16547" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="8707" yWindow="573" windowWidth="16546" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -1410,12 +1410,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スーパーW
-フライング・ペンギン
-ぽっぽちゃん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>志真うた(伊藤道場)
 リアラ(PPP)
 CoCo(MyWay)</t>
@@ -1578,19 +1572,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ハミングバード
-メガトン
-後藤智香
-天麗皇希</t>
-    <rPh sb="13" eb="17">
-      <t>ゴトウチカ</t>
-    </rPh>
-    <rPh sb="18" eb="22">
-      <t>アマレイコウキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>七星
 馬頭ほかげ
 りえまる
@@ -1709,6 +1690,29 @@
   </si>
   <si>
     <t>Anna</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハミングバード
+メガトン
+後藤智香
+天麗皇希
+越野SHOKO(別名あり)</t>
+    <rPh sb="13" eb="17">
+      <t>ゴトウチカ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>アマレイコウキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ベツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スーパーW
+フライング・ペンギン(別名あり)
+ぽっぽちゃん</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2666,10 +2670,10 @@
   <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="D50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="H49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J53" sqref="J53"/>
+      <selection pane="bottomRight" activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2719,7 +2723,7 @@
     <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RX2)</f>
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2751,7 +2755,7 @@
      LEN(F5:F1000) - LEN(SUBSTITUTE(F5:F1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" cm="1">
         <f t="array" ref="G2">SUMPRODUCT(
@@ -2950,7 +2954,7 @@
         <v>21</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>30</v>
@@ -2965,7 +2969,7 @@
         <v>166</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>113</v>
@@ -3822,7 +3826,7 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X33" s="3"/>
     </row>
@@ -3891,7 +3895,7 @@
       </c>
       <c r="W35" s="3"/>
       <c r="X35" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4029,7 +4033,7 @@
       </c>
       <c r="W39" s="3"/>
       <c r="X39" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4082,7 +4086,7 @@
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -4106,10 +4110,10 @@
         <v>118</v>
       </c>
       <c r="W41" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="X41" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="X41" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="42" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -4281,7 +4285,7 @@
         <v>43</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>15</v>
@@ -4311,16 +4315,16 @@
       </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V46" s="3" t="s">
         <v>117</v>
       </c>
       <c r="W46" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="X46" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="X46" s="3" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="47" spans="2:24" ht="66.7" x14ac:dyDescent="0.8">
@@ -4335,7 +4339,7 @@
         <v>52</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>121</v>
@@ -4364,12 +4368,12 @@
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="2:24" ht="50" x14ac:dyDescent="0.8">
@@ -4430,7 +4434,7 @@
         <v>12</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>94</v>
@@ -4456,7 +4460,7 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X49" s="3"/>
     </row>
@@ -4474,7 +4478,7 @@
         <v>47</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>144</v>
@@ -4494,7 +4498,7 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
@@ -4506,7 +4510,7 @@
         <v>182</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4538,7 +4542,7 @@
         <v>139</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
@@ -4550,7 +4554,7 @@
         <v>141</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
@@ -4558,14 +4562,14 @@
         <v>168</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V51" s="3"/>
       <c r="W51" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4621,7 +4625,7 @@
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>178</v>
@@ -4635,10 +4639,10 @@
         <v>84</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>128</v>
@@ -4651,7 +4655,7 @@
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -4674,7 +4678,7 @@
         <v>169</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="V53" s="3"/>
       <c r="W53" s="3" t="s">

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967F9A52-9D27-4134-9C4B-9187E7EB733E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3646F15-6D55-4D52-8036-2ED43FD05CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8707" yWindow="573" windowWidth="16546" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="8707" yWindow="280" windowWidth="16546" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -1693,26 +1693,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>スーパーW
+フライング・ペンギン(別名あり)
+ぽっぽちゃん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ハミングバード
 メガトン
 後藤智香
 天麗皇希
-越野SHOKO(別名あり)</t>
+越野SYOKO.(別名あり)</t>
     <rPh sb="13" eb="17">
       <t>ゴトウチカ</t>
     </rPh>
     <rPh sb="18" eb="22">
       <t>アマレイコウキ</t>
     </rPh>
-    <rPh sb="31" eb="33">
+    <rPh sb="32" eb="34">
       <t>ベツメイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スーパーW
-フライング・ペンギン(別名あり)
-ぽっぽちゃん</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2670,10 +2670,10 @@
   <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="H49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L50" sqref="L50"/>
+      <selection pane="bottomRight" activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -4478,7 +4478,7 @@
         <v>47</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>144</v>
@@ -4498,7 +4498,7 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3646F15-6D55-4D52-8036-2ED43FD05CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA26BB94-48EE-4213-A4E1-3663125E5147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8707" yWindow="280" windowWidth="16546" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
   <si>
     <t>Stardom</t>
     <phoneticPr fontId="1"/>
@@ -1227,25 +1227,6 @@
   </si>
   <si>
     <t>優宇(EVE)(2025.12.28引退予定)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VENY
-尾崎妹加
-本間多恵(2025.10.13引退予定)
-ジャングル叫女</t>
-    <rPh sb="5" eb="9">
-      <t>オザキマイカ</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>ホンマタエ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>インタイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヨテイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1476,19 +1457,6 @@
     <t>藍川はるか</t>
     <rPh sb="0" eb="2">
       <t>アイカワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バニー及川
-マドレーヌ
-ウナギ・サヤカ
-松澤さん</t>
-    <rPh sb="3" eb="5">
-      <t>オイカワ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>マツザワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1582,13 +1550,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIRAI(10.13退団)</t>
-    <rPh sb="11" eb="13">
-      <t>タイダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>小夏れん
 &lt;シオン&gt;仮
 &lt;アンリ&gt;仮
@@ -1712,6 +1673,32 @@
     </rPh>
     <rPh sb="32" eb="34">
       <t>ベツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バニー及川
+マドレーヌ
+ウナギ・サヤカ
+松澤さん
+MIRAI</t>
+    <rPh sb="3" eb="5">
+      <t>オイカワ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>マツザワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VENY
+尾崎妹加
+ジャングル叫女(休)</t>
+    <rPh sb="5" eb="9">
+      <t>オザキマイカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>キュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2670,10 +2657,10 @@
   <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="K41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G50" sqref="G50"/>
+      <selection pane="bottomRight" activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2723,7 +2710,7 @@
     <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RX2)</f>
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2755,7 +2742,7 @@
      LEN(F5:F1000) - LEN(SUBSTITUTE(F5:F1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" cm="1">
         <f t="array" ref="G2">SUMPRODUCT(
@@ -2954,7 +2941,7 @@
         <v>21</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>30</v>
@@ -2969,7 +2956,7 @@
         <v>166</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>113</v>
@@ -3512,7 +3499,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
@@ -3520,7 +3507,7 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X23" s="3" t="s">
         <v>74</v>
@@ -3826,7 +3813,7 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="X33" s="3"/>
     </row>
@@ -3895,7 +3882,7 @@
       </c>
       <c r="W35" s="3"/>
       <c r="X35" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4033,7 +4020,7 @@
       </c>
       <c r="W39" s="3"/>
       <c r="X39" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4041,7 +4028,7 @@
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>44</v>
@@ -4073,7 +4060,7 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X40" s="3"/>
     </row>
@@ -4086,7 +4073,7 @@
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -4110,10 +4097,10 @@
         <v>118</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -4145,13 +4132,13 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="2:24" ht="83.35" x14ac:dyDescent="0.8">
+    <row r="43" spans="2:24" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B43" s="3">
         <v>2015</v>
       </c>
@@ -4185,7 +4172,7 @@
       </c>
       <c r="W43" s="3"/>
       <c r="X43" s="3" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
@@ -4268,7 +4255,7 @@
         <v>132</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>148</v>
@@ -4285,7 +4272,7 @@
         <v>43</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>15</v>
@@ -4315,19 +4302,19 @@
       </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V46" s="3" t="s">
         <v>117</v>
       </c>
       <c r="W46" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="X46" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" ht="66.7" x14ac:dyDescent="0.8">
+    </row>
+    <row r="47" spans="2:24" ht="83.35" x14ac:dyDescent="0.8">
       <c r="B47" s="3">
         <v>2019</v>
       </c>
@@ -4338,9 +4325,7 @@
       <c r="E47" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>202</v>
-      </c>
+      <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
         <v>121</v>
       </c>
@@ -4368,12 +4353,12 @@
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="2:24" ht="50" x14ac:dyDescent="0.8">
@@ -4414,7 +4399,7 @@
         <v>150</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="2:24" ht="83.35" x14ac:dyDescent="0.8">
@@ -4434,7 +4419,7 @@
         <v>12</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>94</v>
@@ -4460,7 +4445,7 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="X49" s="3"/>
     </row>
@@ -4472,13 +4457,13 @@
         <v>153</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>47</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>144</v>
@@ -4498,7 +4483,7 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
@@ -4507,10 +4492,10 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4542,7 +4527,7 @@
         <v>139</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
@@ -4554,7 +4539,7 @@
         <v>141</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
@@ -4562,14 +4547,14 @@
         <v>168</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="V51" s="3"/>
       <c r="W51" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4586,7 +4571,7 @@
         <v>53</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>119</v>
@@ -4625,10 +4610,10 @@
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="X52" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4639,10 +4624,10 @@
         <v>84</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>128</v>
@@ -4655,7 +4640,7 @@
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -4678,11 +4663,11 @@
         <v>169</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="V53" s="3"/>
       <c r="W53" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X53" s="3"/>
     </row>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA26BB94-48EE-4213-A4E1-3663125E5147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA160F57-5CEF-4F77-827A-9A0193C729BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8707" yWindow="280" windowWidth="16546" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="407" yWindow="280" windowWidth="16546" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -357,20 +357,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入江彩乃
-未依(休)</t>
-    <rPh sb="0" eb="4">
-      <t>イリエアヤノ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ミイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>キュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>惡斗</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1313,39 +1299,6 @@
     <t>あきば栞(SECRETBASE)</t>
     <rPh sb="3" eb="4">
       <t>シオリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>荒幡寧々
-福永莉子
-水嶋さくら
-みあ朝子
-石川はるか
-KYANREN(一区切り)
-岩井杏加
-才原茉莉乃
-汐月なぎさ</t>
-    <rPh sb="18" eb="20">
-      <t>アサコ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>イシカワ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>クギ</t>
-    </rPh>
-    <rPh sb="41" eb="45">
-      <t>イワイキョウカ</t>
-    </rPh>
-    <rPh sb="46" eb="51">
-      <t>サイハラマリノ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>シオツキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1540,16 +1493,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>七星
-馬頭ほかげ
-りえまる
-山田奈保(2025.9.18引退？)</t>
-    <rPh sb="28" eb="30">
-      <t>インタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>小夏れん
 &lt;シオン&gt;仮
 &lt;アンリ&gt;仮
@@ -1699,6 +1642,52 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>荒幡寧々
+福永莉子
+水嶋さくら
+みあ朝子
+石川はるか
+岩井杏加
+才原茉莉乃
+汐月なぎさ</t>
+    <rPh sb="18" eb="20">
+      <t>アサコ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イシカワ</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>イワイキョウカ</t>
+    </rPh>
+    <rPh sb="32" eb="37">
+      <t>サイハラマリノ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シオツキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>七星
+馬頭ほかげ
+りえまる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入江彩乃
+未依(2025.10.31卒業)</t>
+    <rPh sb="0" eb="4">
+      <t>イリエアヤノ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ミイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ソツギョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1785,6 +1774,26 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Noto Serif JP SemiBold"/>
+        <family val="1"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2193,26 +2202,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Noto Serif JP SemiBold"/>
-        <family val="1"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -2311,27 +2300,27 @@
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{C5BCADDE-F600-4480-BD2B-E93168A1BF7F}" name="デビュー年" dataDxfId="22"/>
     <tableColumn id="2" xr3:uid="{7319872F-B1DE-47E8-ADFA-F5962E445AE2}" name="Stardom" dataDxfId="21"/>
+    <tableColumn id="22" xr3:uid="{8EA6491D-1F78-431F-AD9B-C8AB4F6616E9}" name="TJPW" dataDxfId="0"/>
     <tableColumn id="18" xr3:uid="{6DD05DFF-D195-4CF5-BFC5-531553A9ADC5}" name="AWG" dataDxfId="20"/>
-    <tableColumn id="22" xr3:uid="{8EA6491D-1F78-431F-AD9B-C8AB4F6616E9}" name="TJPW" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{CA5FBB65-FE37-40A8-B1DD-0182D7DD64C3}" name="マリゴ" dataDxfId="18"/>
-    <tableColumn id="27" xr3:uid="{50745B86-8D07-4F72-B93E-5C2E105BB03C}" name="IR/ホットシュシュ" dataDxfId="17"/>
-    <tableColumn id="30" xr3:uid="{BB23C0DC-5AEB-431A-A828-4D1BDF4F315F}" name="JTO" dataDxfId="16"/>
-    <tableColumn id="29" xr3:uid="{ADFF1D58-E918-4FF6-B352-AA98020CFD16}" name="チョコプロ" dataDxfId="15"/>
-    <tableColumn id="17" xr3:uid="{C0123278-DCF4-45DB-8696-FC0805957C5C}" name="Diana" dataDxfId="14"/>
-    <tableColumn id="23" xr3:uid="{9647ED0D-42FB-42C1-BFB2-8B8D56D414C4}" name="SENDAI" dataDxfId="13"/>
-    <tableColumn id="32" xr3:uid="{67EA2433-E1D1-4094-BFB4-0EDB7438926B}" name="Pure-J" dataDxfId="12"/>
-    <tableColumn id="21" xr3:uid="{ACF43FBE-31D7-4ED6-A997-E4AF4BF0B9D4}" name="マーベラス" dataDxfId="11"/>
-    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="10"/>
-    <tableColumn id="20" xr3:uid="{86389032-6123-44BF-98AB-D3CA13F2577A}" name="LLPW-X" dataDxfId="9"/>
-    <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="2.5(11.24～なにわ女子)" dataDxfId="8"/>
-    <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{3CAB629B-BA9F-4560-89E7-0980EE2B0905}" name="エボリューション" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{5C631C06-2946-4CE3-901A-57A0BABE156F}" name="BBJ" dataDxfId="3"/>
-    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{CA5FBB65-FE37-40A8-B1DD-0182D7DD64C3}" name="マリゴ" dataDxfId="19"/>
+    <tableColumn id="27" xr3:uid="{50745B86-8D07-4F72-B93E-5C2E105BB03C}" name="IR/ホットシュシュ" dataDxfId="18"/>
+    <tableColumn id="30" xr3:uid="{BB23C0DC-5AEB-431A-A828-4D1BDF4F315F}" name="JTO" dataDxfId="17"/>
+    <tableColumn id="29" xr3:uid="{ADFF1D58-E918-4FF6-B352-AA98020CFD16}" name="チョコプロ" dataDxfId="16"/>
+    <tableColumn id="17" xr3:uid="{C0123278-DCF4-45DB-8696-FC0805957C5C}" name="Diana" dataDxfId="15"/>
+    <tableColumn id="23" xr3:uid="{9647ED0D-42FB-42C1-BFB2-8B8D56D414C4}" name="SENDAI" dataDxfId="14"/>
+    <tableColumn id="32" xr3:uid="{67EA2433-E1D1-4094-BFB4-0EDB7438926B}" name="Pure-J" dataDxfId="13"/>
+    <tableColumn id="21" xr3:uid="{ACF43FBE-31D7-4ED6-A997-E4AF4BF0B9D4}" name="マーベラス" dataDxfId="12"/>
+    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="11"/>
+    <tableColumn id="20" xr3:uid="{86389032-6123-44BF-98AB-D3CA13F2577A}" name="LLPW-X" dataDxfId="10"/>
+    <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="2.5(11.24～なにわ女子)" dataDxfId="9"/>
+    <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{3CAB629B-BA9F-4560-89E7-0980EE2B0905}" name="エボリューション" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{5C631C06-2946-4CE3-901A-57A0BABE156F}" name="BBJ" dataDxfId="4"/>
+    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2657,10 +2646,10 @@
   <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="K41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M44" sqref="M44"/>
+      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2668,49 +2657,51 @@
     <col min="1" max="1" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.27734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.94140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.1640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="21.94140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.27734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="47.77734375" style="1"/>
+    <col min="4" max="4" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.27734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.94140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.1640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="21.94140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.27734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="47.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="16" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J1" s="1"/>
-      <c r="P1" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="K1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-      <c r="V1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RX2)</f>
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2734,168 +2725,169 @@
      LEN(E5:E1000) - LEN(SUBSTITUTE(E5:E1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2">SUMPRODUCT(
-  IF(LEN(F5:F1000)=0, 0,
-     LEN(F5:F1000) - LEN(SUBSTITUTE(F5:F1000, CHAR(10), "")) + 1
-  )
-)</f>
-        <v>22</v>
-      </c>
-      <c r="G2" s="1" cm="1">
-        <f t="array" ref="G2">SUMPRODUCT(
   IF(LEN(G5:G1000)=0, 0,
      LEN(G5:G1000) - LEN(SUBSTITUTE(G5:G1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>18</v>
       </c>
-      <c r="H2" s="1" cm="1">
-        <f t="array" ref="H2">SUMPRODUCT(
+      <c r="G2" s="1" cm="1">
+        <f t="array" ref="G2">SUMPRODUCT(
   IF(LEN(H5:H1000)=0, 0,
      LEN(H5:H1000) - LEN(SUBSTITUTE(H5:H1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>11</v>
       </c>
-      <c r="I2" s="1" cm="1">
-        <f t="array" ref="I2">SUMPRODUCT(
+      <c r="H2" s="1" cm="1">
+        <f t="array" ref="H2">SUMPRODUCT(
   IF(LEN(I5:I1000)=0, 0,
      LEN(I5:I1000) - LEN(SUBSTITUTE(I5:I1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>11</v>
       </c>
-      <c r="J2" s="1" cm="1">
-        <f t="array" ref="J2">SUMPRODUCT(
+      <c r="I2" s="1" cm="1">
+        <f t="array" ref="I2">SUMPRODUCT(
   IF(LEN(J5:J1000)=0, 0,
      LEN(J5:J1000) - LEN(SUBSTITUTE(J5:J1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>11</v>
       </c>
-      <c r="K2" s="1" cm="1">
-        <f t="array" ref="K2">SUMPRODUCT(
+      <c r="J2" s="1" cm="1">
+        <f t="array" ref="J2">SUMPRODUCT(
   IF(LEN(K5:K1000)=0, 0,
      LEN(K5:K1000) - LEN(SUBSTITUTE(K5:K1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>10</v>
       </c>
-      <c r="L2" s="1" cm="1">
-        <f t="array" ref="L2">SUMPRODUCT(
+      <c r="K2" s="1" cm="1">
+        <f t="array" ref="K2">SUMPRODUCT(
   IF(LEN(L5:L1000)=0, 0,
      LEN(L5:L1000) - LEN(SUBSTITUTE(L5:L1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>9</v>
       </c>
-      <c r="M2" s="1" cm="1">
-        <f t="array" ref="M2">SUMPRODUCT(
+      <c r="L2" s="1" cm="1">
+        <f t="array" ref="L2">SUMPRODUCT(
   IF(LEN(M5:M1000)=0, 0,
      LEN(M5:M1000) - LEN(SUBSTITUTE(M5:M1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>9</v>
       </c>
-      <c r="N2" s="1" cm="1">
-        <f t="array" ref="N2">SUMPRODUCT(
+      <c r="M2" s="1" cm="1">
+        <f t="array" ref="M2">SUMPRODUCT(
   IF(LEN(N5:N1000)=0, 0,
      LEN(N5:N1000) - LEN(SUBSTITUTE(N5:N1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>6</v>
       </c>
-      <c r="O2" s="1" cm="1">
-        <f t="array" ref="O2">SUMPRODUCT(
+      <c r="N2" s="1" cm="1">
+        <f t="array" ref="N2">SUMPRODUCT(
   IF(LEN(O5:O1000)=0, 0,
      LEN(O5:O1000) - LEN(SUBSTITUTE(O5:O1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>6</v>
       </c>
-      <c r="P2" s="1" cm="1">
-        <f t="array" ref="P2">SUMPRODUCT(
+      <c r="O2" s="1" cm="1">
+        <f t="array" ref="O2">SUMPRODUCT(
   IF(LEN(P5:P1000)=0, 0,
      LEN(P5:P1000) - LEN(SUBSTITUTE(P5:P1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>6</v>
       </c>
-      <c r="Q2" s="1" cm="1">
-        <f t="array" ref="Q2">SUMPRODUCT(
+      <c r="P2" s="1" cm="1">
+        <f t="array" ref="P2">SUMPRODUCT(
   IF(LEN(Q5:Q1000)=0, 0,
      LEN(Q5:Q1000) - LEN(SUBSTITUTE(Q5:Q1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>5</v>
       </c>
-      <c r="R2" s="1" cm="1">
-        <f t="array" ref="R2">SUMPRODUCT(
+      <c r="Q2" s="1" cm="1">
+        <f t="array" ref="Q2">SUMPRODUCT(
   IF(LEN(R5:R1000)=0, 0,
      LEN(R5:R1000) - LEN(SUBSTITUTE(R5:R1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
-      <c r="S2" s="1" cm="1">
-        <f t="array" ref="S2">SUMPRODUCT(
+      <c r="R2" s="1" cm="1">
+        <f t="array" ref="R2">SUMPRODUCT(
   IF(LEN(S5:S1000)=0, 0,
      LEN(S5:S1000) - LEN(SUBSTITUTE(S5:S1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
-      <c r="T2" s="1" cm="1">
-        <f t="array" ref="T2">SUMPRODUCT(
+      <c r="S2" s="1" cm="1">
+        <f t="array" ref="S2">SUMPRODUCT(
   IF(LEN(T5:T1000)=0, 0,
      LEN(T5:T1000) - LEN(SUBSTITUTE(T5:T1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
-      <c r="U2" s="1" cm="1">
-        <f t="array" ref="U2">SUMPRODUCT(
+      <c r="T2" s="1" cm="1">
+        <f t="array" ref="T2">SUMPRODUCT(
   IF(LEN(U5:U1000)=0, 0,
      LEN(U5:U1000) - LEN(SUBSTITUTE(U5:U1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
-      <c r="V2" s="1" cm="1">
-        <f t="array" ref="V2">SUMPRODUCT(
+      <c r="U2" s="1" cm="1">
+        <f t="array" ref="U2">SUMPRODUCT(
   IF(LEN(V5:V1000)=0, 0,
      LEN(V5:V1000) - LEN(SUBSTITUTE(V5:V1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>8</v>
       </c>
-      <c r="W2" s="1" cm="1">
-        <f t="array" ref="W2">SUMPRODUCT(
+      <c r="V2" s="1" cm="1">
+        <f t="array" ref="V2">SUMPRODUCT(
   IF(LEN(W5:W1000)=0, 0,
      LEN(W5:W1000) - LEN(SUBSTITUTE(W5:W1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>46</v>
       </c>
-      <c r="X2" s="1" cm="1">
-        <f t="array" ref="X2">SUMPRODUCT(
+      <c r="W2" s="1" cm="1">
+        <f t="array" ref="W2">SUMPRODUCT(
   IF(LEN(X5:X1000)=0, 0,
      LEN(X5:X1000) - LEN(SUBSTITUTE(X5:X1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="X2" s="1" cm="1">
+        <f t="array" ref="X2">SUMPRODUCT(
+  IF(LEN(Y5:Y1000)=0, 0,
+     LEN(Y5:Y1000) - LEN(SUBSTITUTE(Y5:Y1000, CHAR(10), "")) + 1
+  )
+)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.8">
-      <c r="J3" s="1"/>
-      <c r="P3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="K3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="V3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="W3" s="1"/>
     </row>
     <row r="4" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B4" s="2" t="s">
@@ -2905,31 +2897,31 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>9</v>
@@ -2941,7 +2933,7 @@
         <v>21</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>30</v>
@@ -2950,16 +2942,16 @@
         <v>8</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>41</v>
@@ -3190,7 +3182,7 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
-    <row r="13" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="13" spans="1:24" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B13" s="3">
         <v>1985</v>
       </c>
@@ -3215,7 +3207,7 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X13" s="3"/>
     </row>
@@ -3246,7 +3238,7 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>17</v>
@@ -3278,7 +3270,7 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3312,7 +3304,7 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="17" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B17" s="3">
         <v>1989</v>
       </c>
@@ -3337,10 +3329,10 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3478,7 +3470,7 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
     </row>
-    <row r="23" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
+    <row r="23" spans="2:24" ht="83.35" x14ac:dyDescent="0.8">
       <c r="B23" s="3">
         <v>1995</v>
       </c>
@@ -3489,7 +3481,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -3499,7 +3491,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
@@ -3507,10 +3499,10 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3556,7 +3548,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -3570,7 +3562,7 @@
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3598,18 +3590,18 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X26" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="27" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B27" s="3">
         <v>1999</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -3631,7 +3623,7 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X27" s="3"/>
     </row>
@@ -3640,10 +3632,10 @@
         <v>2000</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -3651,7 +3643,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -3665,7 +3657,7 @@
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3689,7 +3681,7 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
@@ -3699,7 +3691,7 @@
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
     </row>
-    <row r="30" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="30" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B30" s="3">
         <v>2002</v>
       </c>
@@ -3724,7 +3716,7 @@
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X30" s="3"/>
     </row>
@@ -3780,13 +3772,13 @@
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" ht="50" x14ac:dyDescent="0.8">
       <c r="B33" s="3">
         <v>2005</v>
       </c>
@@ -3806,14 +3798,14 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="X33" s="3"/>
     </row>
@@ -3826,16 +3818,16 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
@@ -3847,11 +3839,11 @@
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W34" s="3"/>
       <c r="X34" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="2:24" ht="50" x14ac:dyDescent="0.8">
@@ -3878,25 +3870,25 @@
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="W35" s="3"/>
       <c r="X35" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="36" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24" ht="50" x14ac:dyDescent="0.8">
       <c r="B36" s="3">
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -3913,11 +3905,11 @@
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W36" s="3"/>
       <c r="X36" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
@@ -3945,7 +3937,7 @@
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X37" s="3"/>
     </row>
@@ -3960,14 +3952,14 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
@@ -3978,7 +3970,7 @@
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="X38" s="3"/>
     </row>
@@ -3987,21 +3979,21 @@
         <v>2011</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -4010,34 +4002,34 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W39" s="3"/>
       <c r="X39" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="40" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24" ht="83.35" x14ac:dyDescent="0.8">
       <c r="B40" s="3">
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -4045,7 +4037,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M40" s="3" t="s">
         <v>1</v>
@@ -4060,7 +4052,7 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X40" s="3"/>
     </row>
@@ -4069,12 +4061,12 @@
         <v>2013</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3" t="s">
-        <v>205</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -4094,26 +4086,26 @@
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" ht="50" x14ac:dyDescent="0.8">
       <c r="B42" s="3">
         <v>2014</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="D42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -4132,10 +4124,10 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="2:24" ht="66.7" x14ac:dyDescent="0.8">
@@ -4143,19 +4135,19 @@
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
@@ -4168,31 +4160,31 @@
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W43" s="3"/>
       <c r="X43" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" ht="50" x14ac:dyDescent="0.8">
       <c r="B44" s="3">
         <v>2016</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D44" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3" t="s">
@@ -4208,18 +4200,18 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B45" s="3">
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4227,15 +4219,15 @@
         <v>13</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -4247,32 +4239,32 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" ht="100" x14ac:dyDescent="0.8">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" ht="166.7" x14ac:dyDescent="0.8">
       <c r="B46" s="3">
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>43</v>
+        <v>203</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>15</v>
@@ -4280,12 +4272,12 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>33</v>
@@ -4294,24 +4286,24 @@
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R46" s="3"/>
       <c r="S46" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="X46" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="V46" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="W46" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="X46" s="3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="47" spans="2:24" ht="83.35" x14ac:dyDescent="0.8">
@@ -4319,30 +4311,30 @@
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>26</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
@@ -4353,12 +4345,12 @@
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="2:24" ht="50" x14ac:dyDescent="0.8">
@@ -4366,12 +4358,12 @@
         <v>2020</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
         <v>14</v>
       </c>
@@ -4381,7 +4373,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
@@ -4389,40 +4381,40 @@
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="49" spans="2:24" ht="83.35" x14ac:dyDescent="0.8">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" ht="150" x14ac:dyDescent="0.8">
       <c r="B49" s="3">
         <v>2021</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -4432,12 +4424,12 @@
         <v>32</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
@@ -4445,34 +4437,34 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="X49" s="3"/>
     </row>
-    <row r="50" spans="2:24" ht="150" x14ac:dyDescent="0.8">
+    <row r="50" spans="2:24" ht="133.35" x14ac:dyDescent="0.8">
       <c r="B50" s="3">
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>179</v>
+        <v>46</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>25</v>
@@ -4483,7 +4475,7 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
@@ -4492,10 +4484,10 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4506,55 +4498,55 @@
         <v>29</v>
       </c>
       <c r="D51" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V51" s="3"/>
       <c r="W51" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4562,112 +4554,112 @@
         <v>2024</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="F52" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K52" s="3"/>
       <c r="L52" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O52" s="3"/>
       <c r="P52" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="X52" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="53" spans="2:24" ht="100" x14ac:dyDescent="0.8">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" ht="233.35" x14ac:dyDescent="0.8">
       <c r="B53" s="3">
         <v>2025</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="V53" s="3"/>
       <c r="W53" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="X53" s="3"/>
     </row>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA160F57-5CEF-4F77-827A-9A0193C729BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3C0D4F-3423-4BF8-A008-F15D57BB002A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="407" yWindow="280" windowWidth="16546" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
@@ -1583,16 +1583,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>梨央
-弥福かな
-&lt;ゴんべ&gt;
-&lt;摩利乃&gt;</t>
-    <rPh sb="0" eb="2">
-      <t>リオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Anna</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1688,6 +1678,17 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>ソツギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>梨央
+弥福かな
+&lt;ゴんべ&gt;
+&lt;摩利乃&gt;
+&lt;小谷さつき&gt;</t>
+    <rPh sb="0" eb="2">
+      <t>リオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1774,26 +1775,6 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Noto Serif JP SemiBold"/>
-        <family val="1"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2202,6 +2183,26 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Noto Serif JP SemiBold"/>
+        <family val="1"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -2300,27 +2301,27 @@
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{C5BCADDE-F600-4480-BD2B-E93168A1BF7F}" name="デビュー年" dataDxfId="22"/>
     <tableColumn id="2" xr3:uid="{7319872F-B1DE-47E8-ADFA-F5962E445AE2}" name="Stardom" dataDxfId="21"/>
-    <tableColumn id="22" xr3:uid="{8EA6491D-1F78-431F-AD9B-C8AB4F6616E9}" name="TJPW" dataDxfId="0"/>
-    <tableColumn id="18" xr3:uid="{6DD05DFF-D195-4CF5-BFC5-531553A9ADC5}" name="AWG" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{CA5FBB65-FE37-40A8-B1DD-0182D7DD64C3}" name="マリゴ" dataDxfId="19"/>
-    <tableColumn id="27" xr3:uid="{50745B86-8D07-4F72-B93E-5C2E105BB03C}" name="IR/ホットシュシュ" dataDxfId="18"/>
-    <tableColumn id="30" xr3:uid="{BB23C0DC-5AEB-431A-A828-4D1BDF4F315F}" name="JTO" dataDxfId="17"/>
-    <tableColumn id="29" xr3:uid="{ADFF1D58-E918-4FF6-B352-AA98020CFD16}" name="チョコプロ" dataDxfId="16"/>
-    <tableColumn id="17" xr3:uid="{C0123278-DCF4-45DB-8696-FC0805957C5C}" name="Diana" dataDxfId="15"/>
-    <tableColumn id="23" xr3:uid="{9647ED0D-42FB-42C1-BFB2-8B8D56D414C4}" name="SENDAI" dataDxfId="14"/>
-    <tableColumn id="32" xr3:uid="{67EA2433-E1D1-4094-BFB4-0EDB7438926B}" name="Pure-J" dataDxfId="13"/>
-    <tableColumn id="21" xr3:uid="{ACF43FBE-31D7-4ED6-A997-E4AF4BF0B9D4}" name="マーベラス" dataDxfId="12"/>
-    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="11"/>
-    <tableColumn id="20" xr3:uid="{86389032-6123-44BF-98AB-D3CA13F2577A}" name="LLPW-X" dataDxfId="10"/>
-    <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="2.5(11.24～なにわ女子)" dataDxfId="9"/>
-    <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{3CAB629B-BA9F-4560-89E7-0980EE2B0905}" name="エボリューション" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{5C631C06-2946-4CE3-901A-57A0BABE156F}" name="BBJ" dataDxfId="4"/>
-    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="1"/>
+    <tableColumn id="22" xr3:uid="{8EA6491D-1F78-431F-AD9B-C8AB4F6616E9}" name="TJPW" dataDxfId="20"/>
+    <tableColumn id="18" xr3:uid="{6DD05DFF-D195-4CF5-BFC5-531553A9ADC5}" name="AWG" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{CA5FBB65-FE37-40A8-B1DD-0182D7DD64C3}" name="マリゴ" dataDxfId="18"/>
+    <tableColumn id="27" xr3:uid="{50745B86-8D07-4F72-B93E-5C2E105BB03C}" name="IR/ホットシュシュ" dataDxfId="17"/>
+    <tableColumn id="30" xr3:uid="{BB23C0DC-5AEB-431A-A828-4D1BDF4F315F}" name="JTO" dataDxfId="16"/>
+    <tableColumn id="29" xr3:uid="{ADFF1D58-E918-4FF6-B352-AA98020CFD16}" name="チョコプロ" dataDxfId="15"/>
+    <tableColumn id="17" xr3:uid="{C0123278-DCF4-45DB-8696-FC0805957C5C}" name="Diana" dataDxfId="14"/>
+    <tableColumn id="23" xr3:uid="{9647ED0D-42FB-42C1-BFB2-8B8D56D414C4}" name="SENDAI" dataDxfId="13"/>
+    <tableColumn id="32" xr3:uid="{67EA2433-E1D1-4094-BFB4-0EDB7438926B}" name="Pure-J" dataDxfId="12"/>
+    <tableColumn id="21" xr3:uid="{ACF43FBE-31D7-4ED6-A997-E4AF4BF0B9D4}" name="マーベラス" dataDxfId="11"/>
+    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{86389032-6123-44BF-98AB-D3CA13F2577A}" name="LLPW-X" dataDxfId="9"/>
+    <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="2.5(11.24～なにわ女子)" dataDxfId="8"/>
+    <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{3CAB629B-BA9F-4560-89E7-0980EE2B0905}" name="エボリューション" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{5C631C06-2946-4CE3-901A-57A0BABE156F}" name="BBJ" dataDxfId="3"/>
+    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2646,10 +2647,10 @@
   <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2701,7 +2702,7 @@
     <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RX2)</f>
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2725,7 +2726,7 @@
      LEN(E5:E1000) - LEN(SUBSTITUTE(E5:E1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2">SUMPRODUCT(
@@ -4164,7 +4165,7 @@
       </c>
       <c r="W43" s="3"/>
       <c r="X43" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="2:24" ht="50" x14ac:dyDescent="0.8">
@@ -4264,7 +4265,7 @@
         <v>203</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>15</v>
@@ -4350,7 +4351,7 @@
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="2:24" ht="50" x14ac:dyDescent="0.8">
@@ -4452,10 +4453,10 @@
         <v>46</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>143</v>
@@ -4475,7 +4476,7 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
@@ -4487,7 +4488,7 @@
         <v>179</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="2:24" ht="100" x14ac:dyDescent="0.8">
@@ -4619,7 +4620,7 @@
         <v>197</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>127</v>
@@ -4632,7 +4633,7 @@
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3C0D4F-3423-4BF8-A008-F15D57BB002A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69649292-5FA5-4791-8592-09CC2DE651C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="407" yWindow="280" windowWidth="16546" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="-67" yWindow="-67" windowWidth="25734" windowHeight="13814" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
   <si>
     <t>Stardom</t>
     <phoneticPr fontId="1"/>
@@ -1307,32 +1307,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>叶ミク(T-HEARTS)
-エチカミヤビ(PPP)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>苺畑ひより(666)
-横井真菜(REINA)
-&lt;堀このみ&gt;(ZeroOne)
-タギリヒメ真夢(九州女子プロレス)
-彩月悠叶(2AW)
-&lt;八神のえみ&gt;(ちゃんよた預かり)</t>
-    <rPh sb="24" eb="25">
-      <t>ホリ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>キュウシュウ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ジョシ</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>アズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>青木いつ希(SC)
 笹村あやめ(2AW)</t>
     <rPh sb="0" eb="2">
@@ -1340,21 +1314,6 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>マレ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>志真うた(伊藤道場)
-リアラ(PPP)
-CoCo(MyWay)</t>
-    <rPh sb="0" eb="2">
-      <t>シマ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イトウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ドウジョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1470,17 +1429,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>鶴姫花（愛媛）
-緑野アミサ(アルマリブレ)
-豊田紗也夏(T-HEARTS)
-ちゃんよた(PPP)
-みゆ(BRS)</t>
-    <rPh sb="4" eb="6">
-      <t>エヒメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>郷田明日香(休)
 ブランキー真帆</t>
     <phoneticPr fontId="1"/>
@@ -1689,6 +1637,74 @@
 &lt;小谷さつき&gt;</t>
     <rPh sb="0" eb="2">
       <t>リオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PPP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鶴姫花（愛媛）
+緑野アミサ(アルマリブレ)
+豊田紗也夏(T-HEARTS)
+みゆ(BRS)</t>
+    <rPh sb="4" eb="6">
+      <t>エヒメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>叶ミク(T-HEARTS)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>志真うた(伊藤道場)
+CoCo(MyWay)</t>
+    <rPh sb="0" eb="2">
+      <t>シマ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イトウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>苺畑ひより(666)
+横井真菜(REINA)
+&lt;堀このみ&gt;(ZeroOne)
+タギリヒメ真夢(九州女子プロレス)
+彩月悠叶(2AW)</t>
+    <rPh sb="24" eb="25">
+      <t>ホリ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>キュウシュウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ジョシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちゃんよた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エチカミヤビ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リアラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;虎牙のん&gt;(2025.12.29デビュー予定)</t>
+    <rPh sb="21" eb="23">
+      <t>ヨテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1774,7 +1790,27 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Noto Serif JP SemiBold"/>
+        <family val="1"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2296,32 +2332,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A34D807-EC26-4518-9852-7FFB26CEC57B}" name="テーブル1" displayName="テーブル1" ref="B4:X54" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="B4:X54" xr:uid="{4A34D807-EC26-4518-9852-7FFB26CEC57B}"/>
-  <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{C5BCADDE-F600-4480-BD2B-E93168A1BF7F}" name="デビュー年" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{7319872F-B1DE-47E8-ADFA-F5962E445AE2}" name="Stardom" dataDxfId="21"/>
-    <tableColumn id="22" xr3:uid="{8EA6491D-1F78-431F-AD9B-C8AB4F6616E9}" name="TJPW" dataDxfId="20"/>
-    <tableColumn id="18" xr3:uid="{6DD05DFF-D195-4CF5-BFC5-531553A9ADC5}" name="AWG" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{CA5FBB65-FE37-40A8-B1DD-0182D7DD64C3}" name="マリゴ" dataDxfId="18"/>
-    <tableColumn id="27" xr3:uid="{50745B86-8D07-4F72-B93E-5C2E105BB03C}" name="IR/ホットシュシュ" dataDxfId="17"/>
-    <tableColumn id="30" xr3:uid="{BB23C0DC-5AEB-431A-A828-4D1BDF4F315F}" name="JTO" dataDxfId="16"/>
-    <tableColumn id="29" xr3:uid="{ADFF1D58-E918-4FF6-B352-AA98020CFD16}" name="チョコプロ" dataDxfId="15"/>
-    <tableColumn id="17" xr3:uid="{C0123278-DCF4-45DB-8696-FC0805957C5C}" name="Diana" dataDxfId="14"/>
-    <tableColumn id="23" xr3:uid="{9647ED0D-42FB-42C1-BFB2-8B8D56D414C4}" name="SENDAI" dataDxfId="13"/>
-    <tableColumn id="32" xr3:uid="{67EA2433-E1D1-4094-BFB4-0EDB7438926B}" name="Pure-J" dataDxfId="12"/>
-    <tableColumn id="21" xr3:uid="{ACF43FBE-31D7-4ED6-A997-E4AF4BF0B9D4}" name="マーベラス" dataDxfId="11"/>
-    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="10"/>
-    <tableColumn id="20" xr3:uid="{86389032-6123-44BF-98AB-D3CA13F2577A}" name="LLPW-X" dataDxfId="9"/>
-    <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="2.5(11.24～なにわ女子)" dataDxfId="8"/>
-    <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{3CAB629B-BA9F-4560-89E7-0980EE2B0905}" name="エボリューション" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{5C631C06-2946-4CE3-901A-57A0BABE156F}" name="BBJ" dataDxfId="3"/>
-    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A34D807-EC26-4518-9852-7FFB26CEC57B}" name="テーブル1" displayName="テーブル1" ref="B4:Y54" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="B4:Y54" xr:uid="{4A34D807-EC26-4518-9852-7FFB26CEC57B}"/>
+  <tableColumns count="24">
+    <tableColumn id="1" xr3:uid="{C5BCADDE-F600-4480-BD2B-E93168A1BF7F}" name="デビュー年" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{7319872F-B1DE-47E8-ADFA-F5962E445AE2}" name="Stardom" dataDxfId="22"/>
+    <tableColumn id="22" xr3:uid="{8EA6491D-1F78-431F-AD9B-C8AB4F6616E9}" name="TJPW" dataDxfId="21"/>
+    <tableColumn id="18" xr3:uid="{6DD05DFF-D195-4CF5-BFC5-531553A9ADC5}" name="AWG" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{CA5FBB65-FE37-40A8-B1DD-0182D7DD64C3}" name="マリゴ" dataDxfId="19"/>
+    <tableColumn id="27" xr3:uid="{50745B86-8D07-4F72-B93E-5C2E105BB03C}" name="IR/ホットシュシュ" dataDxfId="18"/>
+    <tableColumn id="30" xr3:uid="{BB23C0DC-5AEB-431A-A828-4D1BDF4F315F}" name="JTO" dataDxfId="17"/>
+    <tableColumn id="29" xr3:uid="{ADFF1D58-E918-4FF6-B352-AA98020CFD16}" name="チョコプロ" dataDxfId="16"/>
+    <tableColumn id="17" xr3:uid="{C0123278-DCF4-45DB-8696-FC0805957C5C}" name="Diana" dataDxfId="15"/>
+    <tableColumn id="23" xr3:uid="{9647ED0D-42FB-42C1-BFB2-8B8D56D414C4}" name="SENDAI" dataDxfId="14"/>
+    <tableColumn id="32" xr3:uid="{67EA2433-E1D1-4094-BFB4-0EDB7438926B}" name="Pure-J" dataDxfId="13"/>
+    <tableColumn id="21" xr3:uid="{ACF43FBE-31D7-4ED6-A997-E4AF4BF0B9D4}" name="マーベラス" dataDxfId="12"/>
+    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="11"/>
+    <tableColumn id="20" xr3:uid="{86389032-6123-44BF-98AB-D3CA13F2577A}" name="LLPW-X" dataDxfId="10"/>
+    <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="2.5(11.24～なにわ女子)" dataDxfId="9"/>
+    <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{3CAB629B-BA9F-4560-89E7-0980EE2B0905}" name="エボリューション" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{5C631C06-2946-4CE3-901A-57A0BABE156F}" name="BBJ" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{F6B1BCBE-A702-4B7C-9B81-2600AE026FEA}" name="PPP" dataDxfId="0"/>
+    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2644,13 +2681,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4F8F56-06F6-4E1D-8D81-5A485042419D}">
-  <dimension ref="A1:X54"/>
+  <dimension ref="A1:Y54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="J51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
+      <selection pane="bottomRight" activeCell="X53" sqref="X53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2674,20 +2711,21 @@
     <col min="19" max="19" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.1640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="21.94140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21.27734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="47.77734375" style="1"/>
+    <col min="22" max="22" width="17.609375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.1640625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="21.94140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.27734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="47.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:25" ht="16" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -2697,12 +2735,12 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-      <c r="W1" s="1"/>
-    </row>
-    <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.8">
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="1:25" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
-        <f>SUM(C2:RX2)</f>
-        <v>325</v>
+        <f>SUM(C2:RY2)</f>
+        <v>347</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2730,167 +2768,175 @@
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2">SUMPRODUCT(
+  IF(LEN(F5:F1000)=0, 0,
+     LEN(F5:F1000) - LEN(SUBSTITUTE(F5:F1000, CHAR(10), "")) + 1
+  )
+)</f>
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" cm="1">
+        <f t="array" ref="G2">SUMPRODUCT(
   IF(LEN(G5:G1000)=0, 0,
      LEN(G5:G1000) - LEN(SUBSTITUTE(G5:G1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>18</v>
       </c>
-      <c r="G2" s="1" cm="1">
-        <f t="array" ref="G2">SUMPRODUCT(
+      <c r="H2" s="1" cm="1">
+        <f t="array" ref="H2">SUMPRODUCT(
   IF(LEN(H5:H1000)=0, 0,
      LEN(H5:H1000) - LEN(SUBSTITUTE(H5:H1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>11</v>
       </c>
-      <c r="H2" s="1" cm="1">
-        <f t="array" ref="H2">SUMPRODUCT(
+      <c r="I2" s="1" cm="1">
+        <f t="array" ref="I2">SUMPRODUCT(
   IF(LEN(I5:I1000)=0, 0,
      LEN(I5:I1000) - LEN(SUBSTITUTE(I5:I1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>11</v>
       </c>
-      <c r="I2" s="1" cm="1">
-        <f t="array" ref="I2">SUMPRODUCT(
+      <c r="J2" s="1" cm="1">
+        <f t="array" ref="J2">SUMPRODUCT(
   IF(LEN(J5:J1000)=0, 0,
      LEN(J5:J1000) - LEN(SUBSTITUTE(J5:J1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>11</v>
       </c>
-      <c r="J2" s="1" cm="1">
-        <f t="array" ref="J2">SUMPRODUCT(
+      <c r="K2" s="1" cm="1">
+        <f t="array" ref="K2">SUMPRODUCT(
   IF(LEN(K5:K1000)=0, 0,
      LEN(K5:K1000) - LEN(SUBSTITUTE(K5:K1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>10</v>
       </c>
-      <c r="K2" s="1" cm="1">
-        <f t="array" ref="K2">SUMPRODUCT(
+      <c r="L2" s="1" cm="1">
+        <f t="array" ref="L2">SUMPRODUCT(
   IF(LEN(L5:L1000)=0, 0,
      LEN(L5:L1000) - LEN(SUBSTITUTE(L5:L1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>9</v>
       </c>
-      <c r="L2" s="1" cm="1">
-        <f t="array" ref="L2">SUMPRODUCT(
+      <c r="M2" s="1" cm="1">
+        <f t="array" ref="M2">SUMPRODUCT(
   IF(LEN(M5:M1000)=0, 0,
      LEN(M5:M1000) - LEN(SUBSTITUTE(M5:M1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>9</v>
       </c>
-      <c r="M2" s="1" cm="1">
-        <f t="array" ref="M2">SUMPRODUCT(
+      <c r="N2" s="1" cm="1">
+        <f t="array" ref="N2">SUMPRODUCT(
   IF(LEN(N5:N1000)=0, 0,
      LEN(N5:N1000) - LEN(SUBSTITUTE(N5:N1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>6</v>
       </c>
-      <c r="N2" s="1" cm="1">
-        <f t="array" ref="N2">SUMPRODUCT(
+      <c r="O2" s="1" cm="1">
+        <f t="array" ref="O2">SUMPRODUCT(
   IF(LEN(O5:O1000)=0, 0,
      LEN(O5:O1000) - LEN(SUBSTITUTE(O5:O1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>6</v>
       </c>
-      <c r="O2" s="1" cm="1">
-        <f t="array" ref="O2">SUMPRODUCT(
+      <c r="P2" s="1" cm="1">
+        <f t="array" ref="P2">SUMPRODUCT(
   IF(LEN(P5:P1000)=0, 0,
      LEN(P5:P1000) - LEN(SUBSTITUTE(P5:P1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>6</v>
       </c>
-      <c r="P2" s="1" cm="1">
-        <f t="array" ref="P2">SUMPRODUCT(
+      <c r="Q2" s="1" cm="1">
+        <f t="array" ref="Q2">SUMPRODUCT(
   IF(LEN(Q5:Q1000)=0, 0,
      LEN(Q5:Q1000) - LEN(SUBSTITUTE(Q5:Q1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>5</v>
       </c>
-      <c r="Q2" s="1" cm="1">
-        <f t="array" ref="Q2">SUMPRODUCT(
+      <c r="R2" s="1" cm="1">
+        <f t="array" ref="R2">SUMPRODUCT(
   IF(LEN(R5:R1000)=0, 0,
      LEN(R5:R1000) - LEN(SUBSTITUTE(R5:R1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
-      <c r="R2" s="1" cm="1">
-        <f t="array" ref="R2">SUMPRODUCT(
+      <c r="S2" s="1" cm="1">
+        <f t="array" ref="S2">SUMPRODUCT(
   IF(LEN(S5:S1000)=0, 0,
      LEN(S5:S1000) - LEN(SUBSTITUTE(S5:S1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
-      <c r="S2" s="1" cm="1">
-        <f t="array" ref="S2">SUMPRODUCT(
+      <c r="T2" s="1" cm="1">
+        <f t="array" ref="T2">SUMPRODUCT(
   IF(LEN(T5:T1000)=0, 0,
      LEN(T5:T1000) - LEN(SUBSTITUTE(T5:T1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
-      <c r="T2" s="1" cm="1">
-        <f t="array" ref="T2">SUMPRODUCT(
+      <c r="U2" s="1" cm="1">
+        <f t="array" ref="U2">SUMPRODUCT(
   IF(LEN(U5:U1000)=0, 0,
      LEN(U5:U1000) - LEN(SUBSTITUTE(U5:U1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
-      <c r="U2" s="1" cm="1">
-        <f t="array" ref="U2">SUMPRODUCT(
+      <c r="V2" s="1" cm="1">
+        <f t="array" ref="V2">SUMPRODUCT(
   IF(LEN(V5:V1000)=0, 0,
      LEN(V5:V1000) - LEN(SUBSTITUTE(V5:V1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>8</v>
-      </c>
-      <c r="V2" s="1" cm="1">
-        <f t="array" ref="V2">SUMPRODUCT(
+        <v>4</v>
+      </c>
+      <c r="W2" s="1" cm="1">
+        <f t="array" ref="W2">SUMPRODUCT(
   IF(LEN(W5:W1000)=0, 0,
      LEN(W5:W1000) - LEN(SUBSTITUTE(W5:W1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>46</v>
-      </c>
-      <c r="W2" s="1" cm="1">
-        <f t="array" ref="W2">SUMPRODUCT(
+        <v>8</v>
+      </c>
+      <c r="X2" s="1" cm="1">
+        <f t="array" ref="X2">SUMPRODUCT(
   IF(LEN(X5:X1000)=0, 0,
      LEN(X5:X1000) - LEN(SUBSTITUTE(X5:X1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>51</v>
-      </c>
-      <c r="X2" s="1" cm="1">
-        <f t="array" ref="X2">SUMPRODUCT(
+        <v>42</v>
+      </c>
+      <c r="Y2" s="1" cm="1">
+        <f t="array" ref="Y2">SUMPRODUCT(
   IF(LEN(Y5:Y1000)=0, 0,
      LEN(Y5:Y1000) - LEN(SUBSTITUTE(Y5:Y1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="16" x14ac:dyDescent="0.8">
       <c r="F3" s="1"/>
       <c r="K3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="W3" s="1"/>
-    </row>
-    <row r="4" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="1:25" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -2934,7 +2980,7 @@
         <v>21</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>30</v>
@@ -2949,19 +2995,22 @@
         <v>165</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="V4" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="W4" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="X4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="Y4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="5" spans="1:25" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B5" s="3">
         <v>1977</v>
       </c>
@@ -2989,8 +3038,9 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
-    </row>
-    <row r="6" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="Y5" s="3"/>
+    </row>
+    <row r="6" spans="1:25" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B6" s="3">
         <v>1978</v>
       </c>
@@ -3016,8 +3066,9 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
-    </row>
-    <row r="7" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="Y6" s="3"/>
+    </row>
+    <row r="7" spans="1:25" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B7" s="3">
         <v>1979</v>
       </c>
@@ -3043,8 +3094,9 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
-    </row>
-    <row r="8" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="Y7" s="3"/>
+    </row>
+    <row r="8" spans="1:25" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B8" s="3">
         <v>1980</v>
       </c>
@@ -3071,11 +3123,12 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-      <c r="X8" s="3" t="s">
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="9" spans="1:25" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B9" s="3">
         <v>1981</v>
       </c>
@@ -3101,8 +3154,9 @@
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
-    </row>
-    <row r="10" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="Y9" s="3"/>
+    </row>
+    <row r="10" spans="1:25" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B10" s="3">
         <v>1982</v>
       </c>
@@ -3128,8 +3182,9 @@
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
-    </row>
-    <row r="11" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="Y10" s="3"/>
+    </row>
+    <row r="11" spans="1:25" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B11" s="3">
         <v>1983</v>
       </c>
@@ -3155,8 +3210,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B12" s="3">
         <v>1984</v>
       </c>
@@ -3182,8 +3238,9 @@
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
-    </row>
-    <row r="13" spans="1:24" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="Y12" s="3"/>
+    </row>
+    <row r="13" spans="1:25" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B13" s="3">
         <v>1985</v>
       </c>
@@ -3207,12 +3264,13 @@
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
-      <c r="W13" s="3" t="s">
+      <c r="W13" s="3"/>
+      <c r="X13" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="X13" s="3"/>
-    </row>
-    <row r="14" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="Y13" s="3"/>
+    </row>
+    <row r="14" spans="1:25" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B14" s="3">
         <v>1986</v>
       </c>
@@ -3238,14 +3296,15 @@
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
-      <c r="W14" s="3" t="s">
+      <c r="W14" s="3"/>
+      <c r="X14" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="15" spans="1:25" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B15" s="3">
         <v>1987</v>
       </c>
@@ -3270,11 +3329,12 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-      <c r="X15" s="3" t="s">
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="16" spans="1:25" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B16" s="3">
         <v>1988</v>
       </c>
@@ -3304,8 +3364,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="2:25" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B17" s="3">
         <v>1989</v>
       </c>
@@ -3329,14 +3390,15 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
-      <c r="W17" s="3" t="s">
+      <c r="W17" s="3"/>
+      <c r="X17" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="X17" s="3" t="s">
+      <c r="Y17" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="18" spans="2:25" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B18" s="3">
         <v>1990</v>
       </c>
@@ -3362,8 +3424,9 @@
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
-    </row>
-    <row r="19" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="Y18" s="3"/>
+    </row>
+    <row r="19" spans="2:25" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B19" s="3">
         <v>1991</v>
       </c>
@@ -3389,8 +3452,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="2:25" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B20" s="3">
         <v>1992</v>
       </c>
@@ -3416,8 +3480,9 @@
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
-    </row>
-    <row r="21" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="Y20" s="3"/>
+    </row>
+    <row r="21" spans="2:25" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B21" s="3">
         <v>1993</v>
       </c>
@@ -3443,8 +3508,9 @@
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
-    </row>
-    <row r="22" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="Y21" s="3"/>
+    </row>
+    <row r="22" spans="2:25" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B22" s="3">
         <v>1994</v>
       </c>
@@ -3470,8 +3536,9 @@
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
-    </row>
-    <row r="23" spans="2:24" ht="83.35" x14ac:dyDescent="0.8">
+      <c r="Y22" s="3"/>
+    </row>
+    <row r="23" spans="2:25" ht="83.35" x14ac:dyDescent="0.8">
       <c r="B23" s="3">
         <v>1995</v>
       </c>
@@ -3499,14 +3566,15 @@
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
-      <c r="W23" s="3" t="s">
+      <c r="W23" s="3"/>
+      <c r="X23" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="X23" s="3" t="s">
+      <c r="Y23" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="24" spans="2:25" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B24" s="3">
         <v>1996</v>
       </c>
@@ -3531,11 +3599,12 @@
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
-      <c r="X24" s="3" t="s">
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="25" spans="2:25" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B25" s="3">
         <v>1997</v>
       </c>
@@ -3562,11 +3631,12 @@
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
-      <c r="X25" s="3" t="s">
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="26" spans="2:25" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B26" s="3">
         <v>1998</v>
       </c>
@@ -3590,14 +3660,15 @@
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
-      <c r="W26" s="3" t="s">
+      <c r="W26" s="3"/>
+      <c r="X26" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="X26" s="3" t="s">
+      <c r="Y26" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
+    <row r="27" spans="2:25" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B27" s="3">
         <v>1999</v>
       </c>
@@ -3623,12 +3694,13 @@
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
-      <c r="W27" s="3" t="s">
+      <c r="W27" s="3"/>
+      <c r="X27" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="X27" s="3"/>
-    </row>
-    <row r="28" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="Y27" s="3"/>
+    </row>
+    <row r="28" spans="2:25" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B28" s="3">
         <v>2000</v>
       </c>
@@ -3657,11 +3729,12 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
-      <c r="X28" s="3" t="s">
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="29" spans="2:25" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B29" s="3">
         <v>2001</v>
       </c>
@@ -3691,8 +3764,9 @@
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
-    </row>
-    <row r="30" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="Y29" s="3"/>
+    </row>
+    <row r="30" spans="2:25" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B30" s="3">
         <v>2002</v>
       </c>
@@ -3716,12 +3790,13 @@
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
-      <c r="W30" s="3" t="s">
+      <c r="W30" s="3"/>
+      <c r="X30" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="X30" s="3"/>
-    </row>
-    <row r="31" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="Y30" s="3"/>
+    </row>
+    <row r="31" spans="2:25" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B31" s="3">
         <v>2003</v>
       </c>
@@ -3747,8 +3822,9 @@
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
-    </row>
-    <row r="32" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="Y31" s="3"/>
+    </row>
+    <row r="32" spans="2:25" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B32" s="3">
         <v>2004</v>
       </c>
@@ -3772,14 +3848,15 @@
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
-      <c r="W32" s="3" t="s">
+      <c r="W32" s="3"/>
+      <c r="X32" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="X32" s="3" t="s">
+      <c r="Y32" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="2:24" ht="50" x14ac:dyDescent="0.8">
+    <row r="33" spans="2:25" ht="50" x14ac:dyDescent="0.8">
       <c r="B33" s="3">
         <v>2005</v>
       </c>
@@ -3805,12 +3882,13 @@
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
-      <c r="W33" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="X33" s="3"/>
-    </row>
-    <row r="34" spans="2:24" ht="66.7" x14ac:dyDescent="0.8">
+      <c r="W33" s="3"/>
+      <c r="X33" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y33" s="3"/>
+    </row>
+    <row r="34" spans="2:25" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B34" s="3">
         <v>2006</v>
       </c>
@@ -3839,15 +3917,16 @@
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
-      <c r="V34" s="3" t="s">
+      <c r="V34" s="3"/>
+      <c r="W34" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3" t="s">
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="2:24" ht="50" x14ac:dyDescent="0.8">
+    <row r="35" spans="2:25" ht="50" x14ac:dyDescent="0.8">
       <c r="B35" s="3">
         <v>2007</v>
       </c>
@@ -3870,15 +3949,16 @@
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
-      <c r="V35" s="3" t="s">
+      <c r="V35" s="3"/>
+      <c r="W35" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="36" spans="2:24" ht="50" x14ac:dyDescent="0.8">
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" ht="50" x14ac:dyDescent="0.8">
       <c r="B36" s="3">
         <v>2008</v>
       </c>
@@ -3905,15 +3985,16 @@
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
-      <c r="V36" s="3" t="s">
+      <c r="V36" s="3"/>
+      <c r="W36" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3" t="s">
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="37" spans="2:25" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B37" s="3">
         <v>2009</v>
       </c>
@@ -3937,12 +4018,13 @@
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
-      <c r="W37" s="3" t="s">
+      <c r="W37" s="3"/>
+      <c r="X37" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="X37" s="3"/>
-    </row>
-    <row r="38" spans="2:24" ht="50" x14ac:dyDescent="0.8">
+      <c r="Y37" s="3"/>
+    </row>
+    <row r="38" spans="2:25" ht="50" x14ac:dyDescent="0.8">
       <c r="B38" s="3">
         <v>2010</v>
       </c>
@@ -3970,12 +4052,13 @@
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
-      <c r="W38" s="3" t="s">
+      <c r="W38" s="3"/>
+      <c r="X38" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="X38" s="3"/>
-    </row>
-    <row r="39" spans="2:24" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="Y38" s="3"/>
+    </row>
+    <row r="39" spans="2:25" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B39" s="3">
         <v>2011</v>
       </c>
@@ -4008,15 +4091,16 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-      <c r="V39" s="3" t="s">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="40" spans="2:24" ht="83.35" x14ac:dyDescent="0.8">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="2:25" ht="83.35" x14ac:dyDescent="0.8">
       <c r="B40" s="3">
         <v>2012</v>
       </c>
@@ -4052,12 +4136,13 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-      <c r="W40" s="3" t="s">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" ht="100" x14ac:dyDescent="0.8">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" ht="100" x14ac:dyDescent="0.8">
       <c r="B41" s="3">
         <v>2013</v>
       </c>
@@ -4065,7 +4150,7 @@
         <v>79</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -4086,17 +4171,18 @@
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
-      <c r="V41" s="3" t="s">
+      <c r="V41" s="3"/>
+      <c r="W41" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="X41" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" ht="50" x14ac:dyDescent="0.8">
+        <v>195</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" ht="50" x14ac:dyDescent="0.8">
       <c r="B42" s="3">
         <v>2014</v>
       </c>
@@ -4124,14 +4210,15 @@
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
-      <c r="W42" s="3" t="s">
+      <c r="W42" s="3"/>
+      <c r="X42" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="X42" s="3" t="s">
+      <c r="Y42" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="2:24" ht="66.7" x14ac:dyDescent="0.8">
+    <row r="43" spans="2:25" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B43" s="3">
         <v>2015</v>
       </c>
@@ -4160,15 +4247,16 @@
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
-      <c r="V43" s="3" t="s">
+      <c r="V43" s="3"/>
+      <c r="W43" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" ht="50" x14ac:dyDescent="0.8">
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" ht="50" x14ac:dyDescent="0.8">
       <c r="B44" s="3">
         <v>2016</v>
       </c>
@@ -4200,14 +4288,15 @@
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
-      <c r="W44" s="3" t="s">
+      <c r="W44" s="3"/>
+      <c r="X44" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="X44" s="3" t="s">
+      <c r="Y44" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="2:24" ht="66.7" x14ac:dyDescent="0.8">
+    <row r="45" spans="2:25" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B45" s="3">
         <v>2017</v>
       </c>
@@ -4244,17 +4333,18 @@
       </c>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
-      <c r="V45" s="3" t="s">
+      <c r="V45" s="3"/>
+      <c r="W45" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="X45" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y45" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="2:24" ht="166.7" x14ac:dyDescent="0.8">
+    <row r="46" spans="2:25" ht="166.7" x14ac:dyDescent="0.8">
       <c r="B46" s="3">
         <v>2018</v>
       </c>
@@ -4262,10 +4352,10 @@
         <v>151</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>15</v>
@@ -4295,19 +4385,20 @@
       </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="V46" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>188</v>
-      </c>
       <c r="X46" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" ht="83.35" x14ac:dyDescent="0.8">
+        <v>185</v>
+      </c>
+      <c r="Y46" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" ht="83.35" x14ac:dyDescent="0.8">
       <c r="B47" s="3">
         <v>2019</v>
       </c>
@@ -4346,15 +4437,16 @@
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
-      <c r="X47" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="48" spans="2:24" ht="50" x14ac:dyDescent="0.8">
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" ht="50" x14ac:dyDescent="0.8">
       <c r="B48" s="3">
         <v>2020</v>
       </c>
@@ -4388,14 +4480,15 @@
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
-      <c r="W48" s="3" t="s">
+      <c r="W48" s="3"/>
+      <c r="X48" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="X48" s="3" t="s">
+      <c r="Y48" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="49" spans="2:24" ht="150" x14ac:dyDescent="0.8">
+    <row r="49" spans="2:25" ht="116.7" x14ac:dyDescent="0.8">
       <c r="B49" s="3">
         <v>2021</v>
       </c>
@@ -4412,7 +4505,7 @@
         <v>12</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>93</v>
@@ -4436,13 +4529,16 @@
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="X49" s="3"/>
-    </row>
-    <row r="50" spans="2:24" ht="133.35" x14ac:dyDescent="0.8">
+      <c r="V49" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y49" s="3"/>
+    </row>
+    <row r="50" spans="2:25" ht="133.35" x14ac:dyDescent="0.8">
       <c r="B50" s="3">
         <v>2022</v>
       </c>
@@ -4453,10 +4549,10 @@
         <v>46</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>143</v>
@@ -4476,22 +4572,25 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="3" t="s">
-        <v>179</v>
-      </c>
+      <c r="V50" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="W50" s="3"/>
       <c r="X50" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="51" spans="2:24" ht="100" x14ac:dyDescent="0.8">
+        <v>212</v>
+      </c>
+      <c r="Y50" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="51" spans="2:25" ht="100" x14ac:dyDescent="0.8">
       <c r="B51" s="3">
         <v>2023</v>
       </c>
@@ -4520,7 +4619,7 @@
         <v>138</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
@@ -4532,7 +4631,7 @@
         <v>140</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
@@ -4540,17 +4639,20 @@
         <v>167</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="V51" s="3"/>
-      <c r="W51" s="3" t="s">
         <v>182</v>
       </c>
+      <c r="V51" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="W51" s="3"/>
       <c r="X51" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="52" spans="2:24" ht="100" x14ac:dyDescent="0.8">
+        <v>213</v>
+      </c>
+      <c r="Y51" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="52" spans="2:25" ht="100" x14ac:dyDescent="0.8">
       <c r="B52" s="3">
         <v>2024</v>
       </c>
@@ -4602,14 +4704,15 @@
       </c>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
-      <c r="W52" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="W52" s="3"/>
       <c r="X52" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y52" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="2:24" ht="233.35" x14ac:dyDescent="0.8">
+    <row r="53" spans="2:25" ht="183.35" x14ac:dyDescent="0.8">
       <c r="B53" s="3">
         <v>2025</v>
       </c>
@@ -4617,10 +4720,10 @@
         <v>83</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>127</v>
@@ -4633,7 +4736,7 @@
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -4656,15 +4759,18 @@
         <v>168</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="V53" s="3"/>
-      <c r="W53" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="X53" s="3"/>
-    </row>
-    <row r="54" spans="2:24" ht="16.7" x14ac:dyDescent="0.8">
+        <v>181</v>
+      </c>
+      <c r="V53" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y53" s="3"/>
+    </row>
+    <row r="54" spans="2:25" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -4688,6 +4794,7 @@
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69649292-5FA5-4791-8592-09CC2DE651C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FAB138-CC6C-40ED-A715-D5967C5C1058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-67" yWindow="-67" windowWidth="25734" windowHeight="13814" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
@@ -303,28 +303,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>青葉ちい
-山下真菜
-研菜々美
-天翔ゆい</t>
-    <rPh sb="0" eb="2">
-      <t>アオバ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヤマシタ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>マナ</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>トギナナミ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>テンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アンリ
 永井絵梨沙
 千夜ヒナタ
@@ -354,10 +332,6 @@
   </si>
   <si>
     <t>TJPW</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>惡斗</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1616,20 +1590,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入江彩乃
-未依(2025.10.31卒業)</t>
-    <rPh sb="0" eb="4">
-      <t>イリエアヤノ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ミイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ソツギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>梨央
 弥福かな
 &lt;ゴんべ&gt;
@@ -1705,6 +1665,48 @@
     <t>&lt;虎牙のん&gt;(2025.12.29デビュー予定)</t>
     <rPh sb="21" eb="23">
       <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青葉ちい
+山下真菜
+研菜々美
+天翔ゆい(2025.12.29卒業予定)</t>
+    <rPh sb="0" eb="2">
+      <t>アオバ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヤマシタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>マナ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>トギナナミ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テンショウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ソツギョウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入江彩乃</t>
+    <rPh sb="0" eb="4">
+      <t>イリエアヤノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>惡斗(休)</t>
+    <rPh sb="3" eb="4">
+      <t>キュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1793,26 +1795,6 @@
   <dxfs count="26">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Noto Serif JP SemiBold"/>
-        <family val="1"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1831,6 +1813,26 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Noto Serif JP SemiBold"/>
+        <family val="1"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2355,10 +2357,10 @@
     <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="6"/>
     <tableColumn id="5" xr3:uid="{3CAB629B-BA9F-4560-89E7-0980EE2B0905}" name="エボリューション" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{5C631C06-2946-4CE3-901A-57A0BABE156F}" name="BBJ" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{F6B1BCBE-A702-4B7C-9B81-2600AE026FEA}" name="PPP" dataDxfId="0"/>
-    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{F6B1BCBE-A702-4B7C-9B81-2600AE026FEA}" name="PPP" dataDxfId="3"/>
+    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2684,10 +2686,10 @@
   <dimension ref="A1:Y54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="J51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="X53" sqref="X53"/>
+      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2727,7 +2729,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="16" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1"/>
       <c r="K1" s="1"/>
@@ -2740,7 +2742,7 @@
     <row r="2" spans="1:25" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RY2)</f>
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2764,7 +2766,7 @@
      LEN(E5:E1000) - LEN(SUBSTITUTE(E5:E1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2">SUMPRODUCT(
@@ -2944,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>5</v>
@@ -2953,22 +2955,22 @@
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>9</v>
@@ -2980,7 +2982,7 @@
         <v>21</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>30</v>
@@ -2989,22 +2991,22 @@
         <v>8</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>11</v>
@@ -3266,7 +3268,7 @@
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Y13" s="3"/>
     </row>
@@ -3298,7 +3300,7 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>17</v>
@@ -3331,7 +3333,7 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="16.7" x14ac:dyDescent="0.8">
@@ -3392,10 +3394,10 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="2:25" ht="16.7" x14ac:dyDescent="0.8">
@@ -3549,7 +3551,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -3559,7 +3561,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
@@ -3568,10 +3570,10 @@
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="2:25" ht="16.7" x14ac:dyDescent="0.8">
@@ -3618,7 +3620,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -3633,7 +3635,7 @@
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="2:25" ht="16.7" x14ac:dyDescent="0.8">
@@ -3662,7 +3664,7 @@
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Y26" s="3" t="s">
         <v>37</v>
@@ -3673,7 +3675,7 @@
         <v>1999</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -3696,7 +3698,7 @@
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Y27" s="3"/>
     </row>
@@ -3716,7 +3718,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -3731,7 +3733,7 @@
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="2:25" ht="16.7" x14ac:dyDescent="0.8">
@@ -3755,7 +3757,7 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
@@ -3792,7 +3794,7 @@
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Y30" s="3"/>
     </row>
@@ -3850,10 +3852,10 @@
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Y32" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="2:25" ht="50" x14ac:dyDescent="0.8">
@@ -3876,7 +3878,7 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
@@ -3884,7 +3886,7 @@
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Y33" s="3"/>
     </row>
@@ -3897,16 +3899,16 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
@@ -3919,11 +3921,11 @@
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="X34" s="3"/>
       <c r="Y34" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="2:25" ht="50" x14ac:dyDescent="0.8">
@@ -3951,11 +3953,11 @@
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="X35" s="3"/>
       <c r="Y35" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="2:25" ht="50" x14ac:dyDescent="0.8">
@@ -3963,13 +3965,13 @@
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -3987,11 +3989,11 @@
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="X36" s="3"/>
       <c r="Y36" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="2:25" ht="16.7" x14ac:dyDescent="0.8">
@@ -4020,7 +4022,7 @@
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y37" s="3"/>
     </row>
@@ -4035,14 +4037,14 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
@@ -4054,7 +4056,7 @@
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Y38" s="3"/>
     </row>
@@ -4063,21 +4065,21 @@
         <v>2011</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -4086,18 +4088,18 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="X39" s="3"/>
       <c r="Y39" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="2:25" ht="83.35" x14ac:dyDescent="0.8">
@@ -4105,16 +4107,16 @@
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>43</v>
+        <v>218</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -4122,7 +4124,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M40" s="3" t="s">
         <v>1</v>
@@ -4138,7 +4140,7 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Y40" s="3"/>
     </row>
@@ -4147,10 +4149,10 @@
         <v>2013</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -4173,13 +4175,13 @@
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="X41" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y41" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="Y41" s="3" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="42" spans="2:25" ht="50" x14ac:dyDescent="0.8">
@@ -4190,7 +4192,7 @@
         <v>6</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -4212,10 +4214,10 @@
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
       <c r="X42" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Y42" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="2:25" ht="66.7" x14ac:dyDescent="0.8">
@@ -4223,10 +4225,10 @@
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -4235,7 +4237,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
@@ -4249,11 +4251,11 @@
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="X43" s="3"/>
       <c r="Y43" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="2:25" ht="50" x14ac:dyDescent="0.8">
@@ -4261,7 +4263,7 @@
         <v>2016</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
@@ -4273,7 +4275,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3" t="s">
@@ -4290,10 +4292,10 @@
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
       <c r="X44" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y44" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="2:25" ht="66.7" x14ac:dyDescent="0.8">
@@ -4301,7 +4303,7 @@
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4309,15 +4311,15 @@
         <v>13</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -4329,19 +4331,19 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Y45" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="2:25" ht="166.7" x14ac:dyDescent="0.8">
@@ -4349,13 +4351,13 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>15</v>
@@ -4363,12 +4365,12 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>33</v>
@@ -4377,25 +4379,25 @@
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R46" s="3"/>
       <c r="S46" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="V46" s="3"/>
       <c r="W46" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Y46" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="2:25" ht="83.35" x14ac:dyDescent="0.8">
@@ -4403,30 +4405,30 @@
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>26</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
@@ -4437,13 +4439,13 @@
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="2:25" ht="50" x14ac:dyDescent="0.8">
@@ -4451,10 +4453,10 @@
         <v>2020</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
@@ -4466,7 +4468,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
@@ -4474,7 +4476,7 @@
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
@@ -4482,10 +4484,10 @@
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Y48" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="2:25" ht="116.7" x14ac:dyDescent="0.8">
@@ -4493,22 +4495,22 @@
         <v>2021</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -4518,23 +4520,23 @@
         <v>32</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="W49" s="3"/>
       <c r="X49" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Y49" s="3"/>
     </row>
@@ -4543,25 +4545,25 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>25</v>
@@ -4572,7 +4574,7 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
@@ -4580,14 +4582,14 @@
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="W50" s="3"/>
       <c r="X50" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Y50" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51" spans="2:25" ht="100" x14ac:dyDescent="0.8">
@@ -4598,58 +4600,58 @@
         <v>29</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>39</v>
+        <v>216</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="W51" s="3"/>
       <c r="X51" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Y51" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="2:25" ht="100" x14ac:dyDescent="0.8">
@@ -4657,59 +4659,59 @@
         <v>2024</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K52" s="3"/>
       <c r="L52" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O52" s="3"/>
       <c r="P52" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Y52" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="2:25" ht="183.35" x14ac:dyDescent="0.8">
@@ -4717,56 +4719,56 @@
         <v>2025</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="W53" s="3"/>
       <c r="X53" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Y53" s="3"/>
     </row>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FAB138-CC6C-40ED-A715-D5967C5C1058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F68AEB-9C06-4A97-9062-EB1E3CB51EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-67" yWindow="-67" windowWidth="25734" windowHeight="13814" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
   <si>
     <t>Stardom</t>
     <phoneticPr fontId="1"/>
@@ -1532,20 +1532,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>バニー及川
-マドレーヌ
-ウナギ・サヤカ
-松澤さん
-MIRAI</t>
-    <rPh sb="3" eb="5">
-      <t>オイカワ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>マツザワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>VENY
 尾崎妹加
 ジャングル叫女(休)</t>
@@ -1708,6 +1694,23 @@
     <rPh sb="3" eb="4">
       <t>キュウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バニー及川
+マドレーヌ
+ウナギ・サヤカ
+松澤さん</t>
+    <rPh sb="3" eb="5">
+      <t>オイカワ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>マツザワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MIRAI(みちのく)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2686,10 +2689,10 @@
   <dimension ref="A1:Y54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="J46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
+      <selection pane="bottomRight" activeCell="Y47" sqref="Y47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2918,7 +2921,7 @@
      LEN(X5:X1000) - LEN(SUBSTITUTE(X5:X1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y2" s="1" cm="1">
         <f t="array" ref="Y2">SUMPRODUCT(
@@ -2926,7 +2929,7 @@
      LEN(Y5:Y1000) - LEN(SUBSTITUTE(Y5:Y1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="16" x14ac:dyDescent="0.8">
@@ -3000,7 +3003,7 @@
         <v>178</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>110</v>
@@ -4113,7 +4116,7 @@
         <v>46</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>143</v>
@@ -4255,7 +4258,7 @@
       </c>
       <c r="X43" s="3"/>
       <c r="Y43" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="2:25" ht="50" x14ac:dyDescent="0.8">
@@ -4357,7 +4360,7 @@
         <v>197</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>15</v>
@@ -4400,7 +4403,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="47" spans="2:25" ht="83.35" x14ac:dyDescent="0.8">
+    <row r="47" spans="2:25" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B47" s="3">
         <v>2019</v>
       </c>
@@ -4443,9 +4446,11 @@
       </c>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
+      <c r="X47" s="3" t="s">
+        <v>219</v>
+      </c>
       <c r="Y47" s="3" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="2:25" ht="50" x14ac:dyDescent="0.8">
@@ -4532,11 +4537,11 @@
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="W49" s="3"/>
       <c r="X49" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Y49" s="3"/>
     </row>
@@ -4551,7 +4556,7 @@
         <v>44</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>201</v>
@@ -4582,14 +4587,14 @@
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W50" s="3"/>
       <c r="X50" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Y50" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="2:25" ht="100" x14ac:dyDescent="0.8">
@@ -4603,7 +4608,7 @@
         <v>127</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>16</v>
@@ -4644,11 +4649,11 @@
         <v>180</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W51" s="3"/>
       <c r="X51" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Y51" s="3" t="s">
         <v>189</v>
@@ -4725,7 +4730,7 @@
         <v>191</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>125</v>
@@ -4764,11 +4769,11 @@
         <v>179</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="W53" s="3"/>
       <c r="X53" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Y53" s="3"/>
     </row>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F68AEB-9C06-4A97-9062-EB1E3CB51EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8A2061-37AD-479A-AE87-3CB0CE6087A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-67" yWindow="-67" windowWidth="25734" windowHeight="13814" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
@@ -1055,21 +1055,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ホルスタイン・エンジュ
-ラブリカ・ヒナーノ
-枢夜 佐季</t>
-    <rPh sb="22" eb="23">
-      <t>クルル</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>サキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>吏南
 妃南
 鈴季すず
@@ -1088,11 +1073,6 @@
     <rPh sb="16" eb="20">
       <t>セイラメイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>天咲光由
-ボジラ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1711,6 +1691,28 @@
   </si>
   <si>
     <t>MIRAI(みちのく)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天咲光由
+ボジラ
+フワちゃん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホルスタイン・エンジュ
+ラブリカ・ヒナーノ
+枢夜 佐季
+&lt;Y&gt;</t>
+    <rPh sb="22" eb="23">
+      <t>クルル</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2689,10 +2691,10 @@
   <dimension ref="A1:Y54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="J46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Y47" sqref="Y47"/>
+      <selection pane="bottomRight" activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2745,7 +2747,7 @@
     <row r="2" spans="1:25" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RY2)</f>
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2753,7 +2755,7 @@
      LEN(C5:C1000) - LEN(SUBSTITUTE(C5:C1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" cm="1">
         <f t="array" ref="D2">SUMPRODUCT(
@@ -2793,7 +2795,7 @@
      LEN(H5:H1000) - LEN(SUBSTITUTE(H5:H1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" cm="1">
         <f t="array" ref="I2">SUMPRODUCT(
@@ -2985,7 +2987,7 @@
         <v>21</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>30</v>
@@ -2994,16 +2996,16 @@
         <v>8</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>110</v>
@@ -3271,7 +3273,7 @@
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y13" s="3"/>
     </row>
@@ -3397,10 +3399,10 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="2:25" ht="16.7" x14ac:dyDescent="0.8">
@@ -3564,7 +3566,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
@@ -3573,7 +3575,7 @@
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y23" s="3" t="s">
         <v>71</v>
@@ -3889,7 +3891,7 @@
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Y33" s="3"/>
     </row>
@@ -3960,7 +3962,7 @@
       </c>
       <c r="X35" s="3"/>
       <c r="Y35" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="2:25" ht="50" x14ac:dyDescent="0.8">
@@ -4102,7 +4104,7 @@
       </c>
       <c r="X39" s="3"/>
       <c r="Y39" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="2:25" ht="83.35" x14ac:dyDescent="0.8">
@@ -4110,13 +4112,13 @@
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>143</v>
@@ -4143,7 +4145,7 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Y40" s="3"/>
     </row>
@@ -4155,7 +4157,7 @@
         <v>77</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -4181,10 +4183,10 @@
         <v>115</v>
       </c>
       <c r="X41" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y41" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="Y41" s="3" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="42" spans="2:25" ht="50" x14ac:dyDescent="0.8">
@@ -4217,7 +4219,7 @@
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
       <c r="X42" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Y42" s="3" t="s">
         <v>128</v>
@@ -4258,7 +4260,7 @@
       </c>
       <c r="X43" s="3"/>
       <c r="Y43" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="2:25" ht="50" x14ac:dyDescent="0.8">
@@ -4278,7 +4280,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3" t="s">
@@ -4295,7 +4297,7 @@
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
       <c r="X44" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Y44" s="3" t="s">
         <v>130</v>
@@ -4319,7 +4321,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>146</v>
@@ -4334,7 +4336,7 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -4343,7 +4345,7 @@
         <v>129</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>145</v>
@@ -4354,13 +4356,13 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>15</v>
@@ -4386,21 +4388,21 @@
       </c>
       <c r="R46" s="3"/>
       <c r="S46" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="V46" s="3"/>
       <c r="W46" s="3" t="s">
         <v>114</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Y46" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="2:25" ht="66.7" x14ac:dyDescent="0.8">
@@ -4442,15 +4444,15 @@
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="Y47" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="2:25" ht="50" x14ac:dyDescent="0.8">
@@ -4492,7 +4494,7 @@
         <v>147</v>
       </c>
       <c r="Y48" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="2:25" ht="116.7" x14ac:dyDescent="0.8">
@@ -4512,7 +4514,7 @@
         <v>12</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>91</v>
@@ -4537,11 +4539,11 @@
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="W49" s="3"/>
       <c r="X49" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Y49" s="3"/>
     </row>
@@ -4550,16 +4552,16 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>150</v>
+        <v>218</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>141</v>
@@ -4579,7 +4581,7 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
@@ -4587,14 +4589,14 @@
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W50" s="3"/>
       <c r="X50" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Y50" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="2:25" ht="100" x14ac:dyDescent="0.8">
@@ -4608,7 +4610,7 @@
         <v>127</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>16</v>
@@ -4626,37 +4628,37 @@
         <v>136</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P51" s="3" t="s">
         <v>138</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="W51" s="3"/>
       <c r="X51" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y51" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="2:25" ht="100" x14ac:dyDescent="0.8">
@@ -4673,7 +4675,7 @@
         <v>39</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>116</v>
@@ -4704,19 +4706,19 @@
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Y52" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="2:25" ht="183.35" x14ac:dyDescent="0.8">
@@ -4727,10 +4729,10 @@
         <v>81</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>125</v>
@@ -4739,11 +4741,11 @@
         <v>117</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -4751,29 +4753,29 @@
         <v>137</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="W53" s="3"/>
       <c r="X53" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Y53" s="3"/>
     </row>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8A2061-37AD-479A-AE87-3CB0CE6087A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8458F1-6723-4805-9982-5FDD46FBFA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-67" yWindow="-67" windowWidth="25734" windowHeight="13814" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="5040" yWindow="1067" windowWidth="16547" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="224">
   <si>
     <t>Stardom</t>
     <phoneticPr fontId="1"/>
@@ -574,10 +574,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>羽南</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コグマ
 葉月
 AZM</t>
@@ -790,14 +786,6 @@
     <t>坂崎ユカ(AEW)</t>
     <rPh sb="0" eb="2">
       <t>サカザキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>若菜きらり(IR)
-緋彩ませ(HCC)</t>
-    <rPh sb="0" eb="2">
-      <t>ワカナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -929,16 +917,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>みなみ飛香(IR)(休)</t>
-    <rPh sb="3" eb="5">
-      <t>ヒカ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>キュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>飯田沙耶
 上谷沙弥
 向後桃
@@ -984,27 +962,6 @@
   <si>
     <t>レディくらら
 レディせりな</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>朱里(休)</t>
-    <rPh sb="0" eb="2">
-      <t>シュリ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>キュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>海乃月雫(IR)
-しのせ愛梨紗(HCC・飛鳥兼任)</t>
-    <rPh sb="0" eb="4">
-      <t>ウミノツキナ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ケンニン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1713,6 +1670,103 @@
     <rPh sb="25" eb="27">
       <t>サキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>若菜きらり(IR,V)
+緋彩ませ(HCC)</t>
+    <rPh sb="0" eb="2">
+      <t>ワカナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>若菜きらり(IR,V)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海乃月雫(IR,V)
+しのせ愛梨紗(HCC・飛鳥兼任)</t>
+    <rPh sb="0" eb="4">
+      <t>ウミノツキナ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケンニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海乃月雫(IR,V)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みなみ飛香(IR,V)</t>
+    <rPh sb="3" eb="5">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;希咲みなみ&gt;
+&lt;ひな&gt;
+&lt;髙橋光咲&gt;
+&lt;伊田惟吹&gt;
+&lt;優華&gt;
+&lt;松橋ななを&gt;
+&lt;当麻煌&gt;
+&lt;直江ミう&gt;</t>
+    <rPh sb="1" eb="3">
+      <t>キサキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タカハシ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ミサキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イダ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ノブ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>スイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ユウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>マツハシ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>トウマ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ナオエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Venus(1.4旗揚げ)</t>
+    <rPh sb="9" eb="11">
+      <t>ハタア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>朱里</t>
+    <rPh sb="0" eb="2">
+      <t>シュリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>羽南
+メーガンベーン</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1797,7 +1851,27 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Noto Serif JP SemiBold"/>
+        <family val="1"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2339,33 +2413,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A34D807-EC26-4518-9852-7FFB26CEC57B}" name="テーブル1" displayName="テーブル1" ref="B4:Y54" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="B4:Y54" xr:uid="{4A34D807-EC26-4518-9852-7FFB26CEC57B}"/>
-  <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{C5BCADDE-F600-4480-BD2B-E93168A1BF7F}" name="デビュー年" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{7319872F-B1DE-47E8-ADFA-F5962E445AE2}" name="Stardom" dataDxfId="22"/>
-    <tableColumn id="22" xr3:uid="{8EA6491D-1F78-431F-AD9B-C8AB4F6616E9}" name="TJPW" dataDxfId="21"/>
-    <tableColumn id="18" xr3:uid="{6DD05DFF-D195-4CF5-BFC5-531553A9ADC5}" name="AWG" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{CA5FBB65-FE37-40A8-B1DD-0182D7DD64C3}" name="マリゴ" dataDxfId="19"/>
-    <tableColumn id="27" xr3:uid="{50745B86-8D07-4F72-B93E-5C2E105BB03C}" name="IR/ホットシュシュ" dataDxfId="18"/>
-    <tableColumn id="30" xr3:uid="{BB23C0DC-5AEB-431A-A828-4D1BDF4F315F}" name="JTO" dataDxfId="17"/>
-    <tableColumn id="29" xr3:uid="{ADFF1D58-E918-4FF6-B352-AA98020CFD16}" name="チョコプロ" dataDxfId="16"/>
-    <tableColumn id="17" xr3:uid="{C0123278-DCF4-45DB-8696-FC0805957C5C}" name="Diana" dataDxfId="15"/>
-    <tableColumn id="23" xr3:uid="{9647ED0D-42FB-42C1-BFB2-8B8D56D414C4}" name="SENDAI" dataDxfId="14"/>
-    <tableColumn id="32" xr3:uid="{67EA2433-E1D1-4094-BFB4-0EDB7438926B}" name="Pure-J" dataDxfId="13"/>
-    <tableColumn id="21" xr3:uid="{ACF43FBE-31D7-4ED6-A997-E4AF4BF0B9D4}" name="マーベラス" dataDxfId="12"/>
-    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="11"/>
-    <tableColumn id="20" xr3:uid="{86389032-6123-44BF-98AB-D3CA13F2577A}" name="LLPW-X" dataDxfId="10"/>
-    <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="2.5(11.24～なにわ女子)" dataDxfId="9"/>
-    <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{3CAB629B-BA9F-4560-89E7-0980EE2B0905}" name="エボリューション" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{5C631C06-2946-4CE3-901A-57A0BABE156F}" name="BBJ" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{F6B1BCBE-A702-4B7C-9B81-2600AE026FEA}" name="PPP" dataDxfId="3"/>
-    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A34D807-EC26-4518-9852-7FFB26CEC57B}" name="テーブル1" displayName="テーブル1" ref="B4:Z54" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="B4:Z54" xr:uid="{4A34D807-EC26-4518-9852-7FFB26CEC57B}"/>
+  <tableColumns count="25">
+    <tableColumn id="1" xr3:uid="{C5BCADDE-F600-4480-BD2B-E93168A1BF7F}" name="デビュー年" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{7319872F-B1DE-47E8-ADFA-F5962E445AE2}" name="Stardom" dataDxfId="23"/>
+    <tableColumn id="22" xr3:uid="{8EA6491D-1F78-431F-AD9B-C8AB4F6616E9}" name="TJPW" dataDxfId="22"/>
+    <tableColumn id="18" xr3:uid="{6DD05DFF-D195-4CF5-BFC5-531553A9ADC5}" name="AWG" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{CA5FBB65-FE37-40A8-B1DD-0182D7DD64C3}" name="マリゴ" dataDxfId="20"/>
+    <tableColumn id="27" xr3:uid="{50745B86-8D07-4F72-B93E-5C2E105BB03C}" name="IR/ホットシュシュ" dataDxfId="19"/>
+    <tableColumn id="30" xr3:uid="{BB23C0DC-5AEB-431A-A828-4D1BDF4F315F}" name="JTO" dataDxfId="18"/>
+    <tableColumn id="29" xr3:uid="{ADFF1D58-E918-4FF6-B352-AA98020CFD16}" name="チョコプロ" dataDxfId="17"/>
+    <tableColumn id="17" xr3:uid="{C0123278-DCF4-45DB-8696-FC0805957C5C}" name="Diana" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{0D2ABC96-F0CF-44E9-912A-CA35E8452616}" name="Venus(1.4旗揚げ)" dataDxfId="0"/>
+    <tableColumn id="23" xr3:uid="{9647ED0D-42FB-42C1-BFB2-8B8D56D414C4}" name="SENDAI" dataDxfId="15"/>
+    <tableColumn id="32" xr3:uid="{67EA2433-E1D1-4094-BFB4-0EDB7438926B}" name="Pure-J" dataDxfId="14"/>
+    <tableColumn id="21" xr3:uid="{ACF43FBE-31D7-4ED6-A997-E4AF4BF0B9D4}" name="マーベラス" dataDxfId="13"/>
+    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="12"/>
+    <tableColumn id="20" xr3:uid="{86389032-6123-44BF-98AB-D3CA13F2577A}" name="LLPW-X" dataDxfId="11"/>
+    <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="2.5(11.24～なにわ女子)" dataDxfId="10"/>
+    <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{3CAB629B-BA9F-4560-89E7-0980EE2B0905}" name="エボリューション" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{5C631C06-2946-4CE3-901A-57A0BABE156F}" name="BBJ" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{F6B1BCBE-A702-4B7C-9B81-2600AE026FEA}" name="PPP" dataDxfId="4"/>
+    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2688,13 +2763,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4F8F56-06F6-4E1D-8D81-5A485042419D}">
-  <dimension ref="A1:Y54"/>
+  <dimension ref="A1:Z54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H53" sqref="H53"/>
+      <selection pane="bottomRight" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2708,46 +2783,49 @@
     <col min="8" max="8" width="18.609375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.27734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.94140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.609375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.1640625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="21.94140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.27734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="47.77734375" style="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.94140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.609375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.1640625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="21.94140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.27734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="47.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="16" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:26" ht="16" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-      <c r="X1" s="1"/>
-    </row>
-    <row r="2" spans="1:25" ht="16" x14ac:dyDescent="0.8">
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
-        <f>SUM(C2:RY2)</f>
-        <v>348</v>
+        <f>SUM(C2:RZ2)</f>
+        <v>351</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2755,7 +2833,7 @@
      LEN(C5:C1000) - LEN(SUBSTITUTE(C5:C1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" cm="1">
         <f t="array" ref="D2">SUMPRODUCT(
@@ -2819,7 +2897,7 @@
      LEN(K5:K1000) - LEN(SUBSTITUTE(K5:K1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L2" s="1" cm="1">
         <f t="array" ref="L2">SUMPRODUCT(
@@ -2827,123 +2905,133 @@
      LEN(L5:L1000) - LEN(SUBSTITUTE(L5:L1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M2" s="1" cm="1">
         <f t="array" ref="M2">SUMPRODUCT(
-  IF(LEN(M5:M1000)=0, 0,
-     LEN(M5:M1000) - LEN(SUBSTITUTE(M5:M1000, CHAR(10), "")) + 1
-  )
-)</f>
-        <v>9</v>
-      </c>
-      <c r="N2" s="1" cm="1">
-        <f t="array" ref="N2">SUMPRODUCT(
   IF(LEN(N5:N1000)=0, 0,
      LEN(N5:N1000) - LEN(SUBSTITUTE(N5:N1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>6</v>
-      </c>
-      <c r="O2" s="1" cm="1">
-        <f t="array" ref="O2">SUMPRODUCT(
+        <v>9</v>
+      </c>
+      <c r="N2" s="1" cm="1">
+        <f t="array" ref="N2">SUMPRODUCT(
   IF(LEN(O5:O1000)=0, 0,
      LEN(O5:O1000) - LEN(SUBSTITUTE(O5:O1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>6</v>
       </c>
-      <c r="P2" s="1" cm="1">
-        <f t="array" ref="P2">SUMPRODUCT(
+      <c r="O2" s="1" cm="1">
+        <f t="array" ref="O2">SUMPRODUCT(
   IF(LEN(P5:P1000)=0, 0,
      LEN(P5:P1000) - LEN(SUBSTITUTE(P5:P1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>6</v>
       </c>
-      <c r="Q2" s="1" cm="1">
-        <f t="array" ref="Q2">SUMPRODUCT(
+      <c r="P2" s="1" cm="1">
+        <f t="array" ref="P2">SUMPRODUCT(
   IF(LEN(Q5:Q1000)=0, 0,
      LEN(Q5:Q1000) - LEN(SUBSTITUTE(Q5:Q1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>5</v>
-      </c>
-      <c r="R2" s="1" cm="1">
-        <f t="array" ref="R2">SUMPRODUCT(
+        <v>6</v>
+      </c>
+      <c r="Q2" s="1" cm="1">
+        <f t="array" ref="Q2">SUMPRODUCT(
   IF(LEN(R5:R1000)=0, 0,
      LEN(R5:R1000) - LEN(SUBSTITUTE(R5:R1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>4</v>
-      </c>
-      <c r="S2" s="1" cm="1">
-        <f t="array" ref="S2">SUMPRODUCT(
+        <v>5</v>
+      </c>
+      <c r="R2" s="1" cm="1">
+        <f t="array" ref="R2">SUMPRODUCT(
   IF(LEN(S5:S1000)=0, 0,
      LEN(S5:S1000) - LEN(SUBSTITUTE(S5:S1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
-      <c r="T2" s="1" cm="1">
-        <f t="array" ref="T2">SUMPRODUCT(
+      <c r="S2" s="1" cm="1">
+        <f t="array" ref="S2">SUMPRODUCT(
   IF(LEN(T5:T1000)=0, 0,
      LEN(T5:T1000) - LEN(SUBSTITUTE(T5:T1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
-      <c r="U2" s="1" cm="1">
-        <f t="array" ref="U2">SUMPRODUCT(
+      <c r="T2" s="1" cm="1">
+        <f t="array" ref="T2">SUMPRODUCT(
   IF(LEN(U5:U1000)=0, 0,
      LEN(U5:U1000) - LEN(SUBSTITUTE(U5:U1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
-      <c r="V2" s="1" cm="1">
-        <f t="array" ref="V2">SUMPRODUCT(
+      <c r="U2" s="1" cm="1">
+        <f t="array" ref="U2">SUMPRODUCT(
   IF(LEN(V5:V1000)=0, 0,
      LEN(V5:V1000) - LEN(SUBSTITUTE(V5:V1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
-      <c r="W2" s="1" cm="1">
-        <f t="array" ref="W2">SUMPRODUCT(
+      <c r="V2" s="1" cm="1">
+        <f t="array" ref="V2">SUMPRODUCT(
   IF(LEN(W5:W1000)=0, 0,
      LEN(W5:W1000) - LEN(SUBSTITUTE(W5:W1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>8</v>
-      </c>
-      <c r="X2" s="1" cm="1">
-        <f t="array" ref="X2">SUMPRODUCT(
+        <v>4</v>
+      </c>
+      <c r="W2" s="1" cm="1">
+        <f t="array" ref="W2">SUMPRODUCT(
   IF(LEN(X5:X1000)=0, 0,
      LEN(X5:X1000) - LEN(SUBSTITUTE(X5:X1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>43</v>
-      </c>
-      <c r="Y2" s="1" cm="1">
-        <f t="array" ref="Y2">SUMPRODUCT(
+        <v>8</v>
+      </c>
+      <c r="X2" s="1" cm="1">
+        <f t="array" ref="X2">SUMPRODUCT(
   IF(LEN(Y5:Y1000)=0, 0,
      LEN(Y5:Y1000) - LEN(SUBSTITUTE(Y5:Y1000, CHAR(10), "")) + 1
   )
 )</f>
+        <v>43</v>
+      </c>
+      <c r="Y2" s="1" cm="1">
+        <f t="array" ref="Y2">SUMPRODUCT(
+  IF(LEN(Z5:Z1000)=0, 0,
+     LEN(Z5:Z1000) - LEN(SUBSTITUTE(Z5:Z1000, CHAR(10), "")) + 1
+  )
+)</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" ht="16" x14ac:dyDescent="0.8">
+      <c r="Z2" s="1" cm="1">
+        <f t="array" ref="Z2">SUMPRODUCT(
+  IF(LEN(AA5:AA1000)=0, 0,
+     LEN(AA5:AA1000) - LEN(SUBSTITUTE(AA5:AA1000, CHAR(10), "")) + 1
+  )
+)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="16" x14ac:dyDescent="0.8">
       <c r="F3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="X3" s="1"/>
-    </row>
-    <row r="4" spans="1:25" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="Z3" s="1"/>
+    </row>
+    <row r="4" spans="1:26" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -2960,7 +3048,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>54</v>
@@ -2972,52 +3060,55 @@
         <v>19</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="M4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="Q4" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="T4" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="X4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="5" spans="1:26" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B5" s="3">
         <v>1977</v>
       </c>
@@ -3046,8 +3137,9 @@
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
-    </row>
-    <row r="6" spans="1:25" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="Z5" s="3"/>
+    </row>
+    <row r="6" spans="1:26" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B6" s="3">
         <v>1978</v>
       </c>
@@ -3074,8 +3166,9 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
-    </row>
-    <row r="7" spans="1:25" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="Z6" s="3"/>
+    </row>
+    <row r="7" spans="1:26" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B7" s="3">
         <v>1979</v>
       </c>
@@ -3102,8 +3195,9 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
-    </row>
-    <row r="8" spans="1:25" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" spans="1:26" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B8" s="3">
         <v>1980</v>
       </c>
@@ -3117,10 +3211,10 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="3"/>
+      <c r="N8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -3131,11 +3225,12 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
-      <c r="Y8" s="3" t="s">
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="9" spans="1:26" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B9" s="3">
         <v>1981</v>
       </c>
@@ -3162,8 +3257,9 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
-    </row>
-    <row r="10" spans="1:25" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10" spans="1:26" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B10" s="3">
         <v>1982</v>
       </c>
@@ -3190,8 +3286,9 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
-    </row>
-    <row r="11" spans="1:25" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="Z10" s="3"/>
+    </row>
+    <row r="11" spans="1:26" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B11" s="3">
         <v>1983</v>
       </c>
@@ -3218,8 +3315,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B12" s="3">
         <v>1984</v>
       </c>
@@ -3246,8 +3344,9 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
-    </row>
-    <row r="13" spans="1:25" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="Z12" s="3"/>
+    </row>
+    <row r="13" spans="1:26" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B13" s="3">
         <v>1985</v>
       </c>
@@ -3272,12 +3371,13 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
-      <c r="X13" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y13" s="3"/>
-    </row>
-    <row r="14" spans="1:25" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z13" s="3"/>
+    </row>
+    <row r="14" spans="1:26" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B14" s="3">
         <v>1986</v>
       </c>
@@ -3293,10 +3393,10 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3"/>
+      <c r="P14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -3304,14 +3404,15 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
-      <c r="X14" s="3" t="s">
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="15" spans="1:26" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B15" s="3">
         <v>1987</v>
       </c>
@@ -3337,11 +3438,12 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
-      <c r="Y15" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B16" s="3">
         <v>1988</v>
       </c>
@@ -3359,10 +3461,10 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="3" t="s">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
@@ -3372,8 +3474,9 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="2:25" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="2:26" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B17" s="3">
         <v>1989</v>
       </c>
@@ -3398,14 +3501,15 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
-      <c r="X17" s="3" t="s">
-        <v>159</v>
-      </c>
+      <c r="X17" s="3"/>
       <c r="Y17" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="2:25" ht="16.7" x14ac:dyDescent="0.8">
+        <v>154</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B18" s="3">
         <v>1990</v>
       </c>
@@ -3432,8 +3536,9 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
-    </row>
-    <row r="19" spans="2:25" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="Z18" s="3"/>
+    </row>
+    <row r="19" spans="2:26" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B19" s="3">
         <v>1991</v>
       </c>
@@ -3460,8 +3565,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="2:25" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="2:26" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B20" s="3">
         <v>1992</v>
       </c>
@@ -3488,8 +3594,9 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
-    </row>
-    <row r="21" spans="2:25" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="Z20" s="3"/>
+    </row>
+    <row r="21" spans="2:26" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B21" s="3">
         <v>1993</v>
       </c>
@@ -3516,8 +3623,9 @@
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
-    </row>
-    <row r="22" spans="2:25" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="Z21" s="3"/>
+    </row>
+    <row r="22" spans="2:26" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B22" s="3">
         <v>1994</v>
       </c>
@@ -3544,8 +3652,9 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
-    </row>
-    <row r="23" spans="2:25" ht="83.35" x14ac:dyDescent="0.8">
+      <c r="Z22" s="3"/>
+    </row>
+    <row r="23" spans="2:26" ht="83.35" x14ac:dyDescent="0.8">
       <c r="B23" s="3">
         <v>1995</v>
       </c>
@@ -3565,23 +3674,24 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="R23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
-      <c r="X23" s="3" t="s">
-        <v>167</v>
-      </c>
+      <c r="X23" s="3"/>
       <c r="Y23" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z23" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="2:25" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="24" spans="2:26" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B24" s="3">
         <v>1996</v>
       </c>
@@ -3607,11 +3717,12 @@
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
-      <c r="Y24" s="3" t="s">
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="2:25" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="25" spans="2:26" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B25" s="3">
         <v>1997</v>
       </c>
@@ -3624,10 +3735,10 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="M25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -3639,11 +3750,12 @@
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
-      <c r="Y25" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="2:25" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B26" s="3">
         <v>1998</v>
       </c>
@@ -3668,14 +3780,15 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
-      <c r="X26" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="X26" s="3"/>
       <c r="Y26" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z26" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="2:25" ht="33.35" x14ac:dyDescent="0.8">
+    <row r="27" spans="2:26" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B27" s="3">
         <v>1999</v>
       </c>
@@ -3702,12 +3815,13 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
-      <c r="X27" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y27" s="3"/>
-    </row>
-    <row r="28" spans="2:25" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z27" s="3"/>
+    </row>
+    <row r="28" spans="2:26" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B28" s="3">
         <v>2000</v>
       </c>
@@ -3722,10 +3836,10 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="M28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
@@ -3737,11 +3851,12 @@
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
-      <c r="Y28" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="2:25" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="2:26" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B29" s="3">
         <v>2001</v>
       </c>
@@ -3761,10 +3876,10 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
-      <c r="Q29" s="3" t="s">
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
@@ -3772,8 +3887,9 @@
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
-    </row>
-    <row r="30" spans="2:25" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="Z29" s="3"/>
+    </row>
+    <row r="30" spans="2:26" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B30" s="3">
         <v>2002</v>
       </c>
@@ -3798,12 +3914,13 @@
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
-      <c r="X30" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y30" s="3"/>
-    </row>
-    <row r="31" spans="2:25" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z30" s="3"/>
+    </row>
+    <row r="31" spans="2:26" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B31" s="3">
         <v>2003</v>
       </c>
@@ -3830,8 +3947,9 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
-    </row>
-    <row r="32" spans="2:25" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="Z31" s="3"/>
+    </row>
+    <row r="32" spans="2:26" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B32" s="3">
         <v>2004</v>
       </c>
@@ -3856,14 +3974,15 @@
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
-      <c r="X32" s="3" t="s">
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" ht="50" x14ac:dyDescent="0.8">
+      <c r="Z32" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B33" s="3">
         <v>2005</v>
       </c>
@@ -3882,20 +4001,21 @@
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
-      <c r="R33" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="S33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
-      <c r="X33" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y33" s="3"/>
-    </row>
-    <row r="34" spans="2:25" ht="66.7" x14ac:dyDescent="0.8">
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z33" s="3"/>
+    </row>
+    <row r="34" spans="2:26" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B34" s="3">
         <v>2006</v>
       </c>
@@ -3904,18 +4024,20 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>132</v>
+        <v>219</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="L34" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L34" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="M34" s="3"/>
+      <c r="M34" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
@@ -3925,15 +4047,16 @@
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
-      <c r="W34" s="3" t="s">
+      <c r="W34" s="3"/>
+      <c r="X34" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="35" spans="2:25" ht="50" x14ac:dyDescent="0.8">
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B35" s="3">
         <v>2007</v>
       </c>
@@ -3957,26 +4080,27 @@
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
-      <c r="W35" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="36" spans="2:25" ht="50" x14ac:dyDescent="0.8">
+      <c r="W35" s="3"/>
+      <c r="X35" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="2:26" ht="50" x14ac:dyDescent="0.8">
       <c r="B36" s="3">
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -3993,15 +4117,16 @@
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
-      <c r="W36" s="3" t="s">
+      <c r="W36" s="3"/>
+      <c r="X36" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3" t="s">
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="2:25" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="37" spans="2:26" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B37" s="3">
         <v>2009</v>
       </c>
@@ -4026,12 +4151,13 @@
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
-      <c r="X37" s="3" t="s">
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="Y37" s="3"/>
-    </row>
-    <row r="38" spans="2:25" ht="50" x14ac:dyDescent="0.8">
+      <c r="Z37" s="3"/>
+    </row>
+    <row r="38" spans="2:26" ht="100" x14ac:dyDescent="0.8">
       <c r="B38" s="3">
         <v>2010</v>
       </c>
@@ -4042,16 +4168,16 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
-      <c r="N38" s="3" t="s">
+      <c r="N38" s="3"/>
+      <c r="O38" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
@@ -4060,81 +4186,83 @@
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
-      <c r="X38" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y38" s="3"/>
-    </row>
-    <row r="39" spans="2:25" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z38" s="3"/>
+    </row>
+    <row r="39" spans="2:26" ht="50" x14ac:dyDescent="0.8">
       <c r="B39" s="3">
         <v>2011</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
-      <c r="K39" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="L39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-      <c r="R39" s="3" t="s">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-      <c r="W39" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="40" spans="2:25" ht="83.35" x14ac:dyDescent="0.8">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="2:26" ht="83.35" x14ac:dyDescent="0.8">
       <c r="B40" s="3">
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-      <c r="L40" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="L40" s="3"/>
       <c r="M40" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="N40" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
@@ -4144,20 +4272,21 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-      <c r="X40" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" ht="100" x14ac:dyDescent="0.8">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" ht="100" x14ac:dyDescent="0.8">
       <c r="B41" s="3">
         <v>2013</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -4172,24 +4301,25 @@
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
-      <c r="R41" s="3" t="s">
+      <c r="R41" s="3"/>
+      <c r="S41" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="S41" s="3"/>
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
-      <c r="W41" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="W41" s="3"/>
       <c r="X41" s="3" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="Y41" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" ht="50" x14ac:dyDescent="0.8">
+        <v>186</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" ht="50" x14ac:dyDescent="0.8">
       <c r="B42" s="3">
         <v>2014</v>
       </c>
@@ -4218,19 +4348,20 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
-      <c r="X42" s="3" t="s">
-        <v>173</v>
-      </c>
+      <c r="X42" s="3"/>
       <c r="Y42" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="2:25" ht="66.7" x14ac:dyDescent="0.8">
+        <v>168</v>
+      </c>
+      <c r="Z42" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B43" s="3">
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>45</v>
@@ -4241,10 +4372,10 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
-      <c r="K43" s="3" t="s">
+      <c r="K43" s="3"/>
+      <c r="L43" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
@@ -4255,20 +4386,21 @@
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
-      <c r="W43" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" ht="50" x14ac:dyDescent="0.8">
+      <c r="W43" s="3"/>
+      <c r="X43" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" ht="50" x14ac:dyDescent="0.8">
       <c r="B44" s="3">
         <v>2016</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
@@ -4279,14 +4411,14 @@
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
-      <c r="K44" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3" t="s">
+      <c r="K44" s="3"/>
+      <c r="L44" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
@@ -4296,19 +4428,20 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
-      <c r="X44" s="3" t="s">
-        <v>149</v>
-      </c>
+      <c r="X44" s="3"/>
       <c r="Y44" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45" spans="2:25" ht="66.7" x14ac:dyDescent="0.8">
+        <v>144</v>
+      </c>
+      <c r="Z44" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B45" s="3">
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4316,53 +4449,54 @@
         <v>13</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="L45" s="3"/>
+        <v>152</v>
+      </c>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
-      <c r="O45" s="3" t="s">
+      <c r="O45" s="3"/>
+      <c r="P45" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
-      <c r="S45" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="T45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
-      <c r="W45" s="3" t="s">
-        <v>129</v>
-      </c>
+      <c r="W45" s="3"/>
       <c r="X45" s="3" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="Y45" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" ht="166.7" x14ac:dyDescent="0.8">
+        <v>170</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" ht="200" x14ac:dyDescent="0.8">
       <c r="B46" s="3">
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>15</v>
@@ -4370,47 +4504,48 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
-      <c r="L46" s="3" t="s">
-        <v>108</v>
-      </c>
+      <c r="L46" s="3"/>
       <c r="M46" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="N46" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
-      <c r="Q46" s="3" t="s">
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="V46" s="3"/>
-      <c r="W46" s="3" t="s">
-        <v>114</v>
-      </c>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="W46" s="3"/>
       <c r="X46" s="3" t="s">
-        <v>181</v>
+        <v>113</v>
       </c>
       <c r="Y46" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" ht="66.7" x14ac:dyDescent="0.8">
+        <v>176</v>
+      </c>
+      <c r="Z46" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" ht="83.35" x14ac:dyDescent="0.8">
       <c r="B47" s="3">
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>49</v>
@@ -4418,24 +4553,24 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="K47" s="3"/>
+      <c r="L47" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="M47" s="3"/>
+      <c r="M47" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
@@ -4443,19 +4578,20 @@
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
-      <c r="U47" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="V47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="W47" s="3"/>
-      <c r="X47" s="3" t="s">
-        <v>217</v>
-      </c>
+      <c r="X47" s="3"/>
       <c r="Y47" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="48" spans="2:25" ht="50" x14ac:dyDescent="0.8">
+        <v>212</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" ht="50" x14ac:dyDescent="0.8">
       <c r="B48" s="3">
         <v>2020</v>
       </c>
@@ -4474,30 +4610,31 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
-      <c r="L48" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="M48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
-      <c r="R48" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="S48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
-      <c r="X48" s="3" t="s">
-        <v>147</v>
-      </c>
+      <c r="X48" s="3"/>
       <c r="Y48" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="49" spans="2:25" ht="116.7" x14ac:dyDescent="0.8">
+        <v>142</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="2:26" ht="133.35" x14ac:dyDescent="0.8">
       <c r="B49" s="3">
         <v>2021</v>
       </c>
@@ -4514,92 +4651,96 @@
         <v>12</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
-      <c r="M49" s="3" t="s">
+      <c r="M49" s="3"/>
+      <c r="N49" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N49" s="3" t="s">
+      <c r="O49" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="O49" s="3"/>
       <c r="P49" s="3"/>
-      <c r="Q49" s="3" t="s">
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="R49" s="3"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
-      <c r="V49" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="W49" s="3"/>
-      <c r="X49" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y49" s="3"/>
-    </row>
-    <row r="50" spans="2:25" ht="133.35" x14ac:dyDescent="0.8">
+      <c r="V49" s="3"/>
+      <c r="W49" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z49" s="3"/>
+    </row>
+    <row r="50" spans="2:26" ht="133.35" x14ac:dyDescent="0.8">
       <c r="B50" s="3">
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>141</v>
+        <v>217</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K50" s="3"/>
+      <c r="K50" s="3" t="s">
+        <v>218</v>
+      </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
-      <c r="P50" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
-      <c r="V50" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="W50" s="3"/>
-      <c r="X50" s="3" t="s">
-        <v>206</v>
-      </c>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="X50" s="3"/>
       <c r="Y50" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="51" spans="2:25" ht="100" x14ac:dyDescent="0.8">
+        <v>201</v>
+      </c>
+      <c r="Z50" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="2:26" ht="100" x14ac:dyDescent="0.8">
       <c r="B51" s="3">
         <v>2023</v>
       </c>
@@ -4607,66 +4748,67 @@
         <v>29</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>55</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="L51" s="3"/>
+        <v>133</v>
+      </c>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
-      <c r="O51" s="3" t="s">
-        <v>160</v>
-      </c>
+      <c r="O51" s="3"/>
       <c r="P51" s="3" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="R51" s="3"/>
+        <v>135</v>
+      </c>
+      <c r="R51" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="S51" s="3"/>
-      <c r="T51" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="T51" s="3"/>
       <c r="U51" s="3" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="W51" s="3"/>
-      <c r="X51" s="3" t="s">
-        <v>207</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="W51" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="X51" s="3"/>
       <c r="Y51" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="52" spans="2:25" ht="100" x14ac:dyDescent="0.8">
+        <v>202</v>
+      </c>
+      <c r="Z51" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="2:26" ht="100" x14ac:dyDescent="0.8">
       <c r="B52" s="3">
         <v>2024</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>50</v>
@@ -4675,112 +4817,118 @@
         <v>39</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3" t="s">
-        <v>134</v>
-      </c>
+      <c r="K52" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="L52" s="3"/>
       <c r="M52" s="3" t="s">
         <v>131</v>
       </c>
       <c r="N52" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="O52" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="R52" s="3"/>
-      <c r="S52" s="3" t="s">
-        <v>156</v>
-      </c>
+      <c r="S52" s="3"/>
       <c r="T52" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="U52" s="3"/>
+        <v>151</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
-      <c r="X52" s="3" t="s">
-        <v>190</v>
-      </c>
+      <c r="X52" s="3"/>
       <c r="Y52" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="53" spans="2:25" ht="183.35" x14ac:dyDescent="0.8">
+        <v>185</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="2:26" ht="183.35" x14ac:dyDescent="0.8">
       <c r="B53" s="3">
         <v>2025</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
-      <c r="M53" s="3" t="s">
-        <v>137</v>
-      </c>
+      <c r="M53" s="3"/>
       <c r="N53" s="3" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="P53" s="3"/>
+        <v>146</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
-      <c r="S53" s="3" t="s">
-        <v>155</v>
-      </c>
+      <c r="S53" s="3"/>
       <c r="T53" s="3" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="W53" s="3"/>
-      <c r="X53" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="Y53" s="3"/>
-    </row>
-    <row r="54" spans="2:25" ht="16.7" x14ac:dyDescent="0.8">
-      <c r="B54" s="3"/>
+        <v>172</v>
+      </c>
+      <c r="W53" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z53" s="3"/>
+    </row>
+    <row r="54" spans="2:26" ht="133.35" x14ac:dyDescent="0.8">
+      <c r="B54" s="3">
+        <v>2026</v>
+      </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -4789,7 +4937,9 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
+      <c r="K54" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
@@ -4804,6 +4954,7 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8458F1-6723-4805-9982-5FDD46FBFA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09B0B2B-26D3-4935-B98F-D1C551B0F25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="1067" windowWidth="16547" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="5447" yWindow="300" windowWidth="19020" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -227,10 +227,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NENE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>茉莉</t>
     <rPh sb="0" eb="2">
       <t>マリ</t>
@@ -1442,10 +1438,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Anna</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スーパーW
 フライング・ペンギン(別名あり)
 ぽっぽちゃん</t>
@@ -1767,6 +1759,28 @@
   <si>
     <t>羽南
 メーガンベーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NENE
+シャンシャン(新台湾)</t>
+    <rPh sb="12" eb="13">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイワン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Anna
+Kuumu(新台湾)</t>
+    <rPh sb="11" eb="12">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タイワン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1852,6 +1866,26 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="27">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Noto Serif JP SemiBold"/>
+        <family val="1"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2238,26 +2272,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Noto Serif JP SemiBold"/>
-        <family val="1"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -2422,25 +2436,25 @@
     <tableColumn id="18" xr3:uid="{6DD05DFF-D195-4CF5-BFC5-531553A9ADC5}" name="AWG" dataDxfId="21"/>
     <tableColumn id="3" xr3:uid="{CA5FBB65-FE37-40A8-B1DD-0182D7DD64C3}" name="マリゴ" dataDxfId="20"/>
     <tableColumn id="27" xr3:uid="{50745B86-8D07-4F72-B93E-5C2E105BB03C}" name="IR/ホットシュシュ" dataDxfId="19"/>
+    <tableColumn id="17" xr3:uid="{C0123278-DCF4-45DB-8696-FC0805957C5C}" name="Diana" dataDxfId="0"/>
     <tableColumn id="30" xr3:uid="{BB23C0DC-5AEB-431A-A828-4D1BDF4F315F}" name="JTO" dataDxfId="18"/>
     <tableColumn id="29" xr3:uid="{ADFF1D58-E918-4FF6-B352-AA98020CFD16}" name="チョコプロ" dataDxfId="17"/>
-    <tableColumn id="17" xr3:uid="{C0123278-DCF4-45DB-8696-FC0805957C5C}" name="Diana" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{0D2ABC96-F0CF-44E9-912A-CA35E8452616}" name="Venus(1.4旗揚げ)" dataDxfId="0"/>
-    <tableColumn id="23" xr3:uid="{9647ED0D-42FB-42C1-BFB2-8B8D56D414C4}" name="SENDAI" dataDxfId="15"/>
-    <tableColumn id="32" xr3:uid="{67EA2433-E1D1-4094-BFB4-0EDB7438926B}" name="Pure-J" dataDxfId="14"/>
-    <tableColumn id="21" xr3:uid="{ACF43FBE-31D7-4ED6-A997-E4AF4BF0B9D4}" name="マーベラス" dataDxfId="13"/>
-    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="12"/>
-    <tableColumn id="20" xr3:uid="{86389032-6123-44BF-98AB-D3CA13F2577A}" name="LLPW-X" dataDxfId="11"/>
-    <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="2.5(11.24～なにわ女子)" dataDxfId="10"/>
-    <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{3CAB629B-BA9F-4560-89E7-0980EE2B0905}" name="エボリューション" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{5C631C06-2946-4CE3-901A-57A0BABE156F}" name="BBJ" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{F6B1BCBE-A702-4B7C-9B81-2600AE026FEA}" name="PPP" dataDxfId="4"/>
-    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{0D2ABC96-F0CF-44E9-912A-CA35E8452616}" name="Venus(1.4旗揚げ)" dataDxfId="1"/>
+    <tableColumn id="23" xr3:uid="{9647ED0D-42FB-42C1-BFB2-8B8D56D414C4}" name="SENDAI" dataDxfId="16"/>
+    <tableColumn id="32" xr3:uid="{67EA2433-E1D1-4094-BFB4-0EDB7438926B}" name="Pure-J" dataDxfId="15"/>
+    <tableColumn id="21" xr3:uid="{ACF43FBE-31D7-4ED6-A997-E4AF4BF0B9D4}" name="マーベラス" dataDxfId="14"/>
+    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="13"/>
+    <tableColumn id="20" xr3:uid="{86389032-6123-44BF-98AB-D3CA13F2577A}" name="LLPW-X" dataDxfId="12"/>
+    <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="2.5(11.24～なにわ女子)" dataDxfId="11"/>
+    <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{3CAB629B-BA9F-4560-89E7-0980EE2B0905}" name="エボリューション" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{5C631C06-2946-4CE3-901A-57A0BABE156F}" name="BBJ" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{F6B1BCBE-A702-4B7C-9B81-2600AE026FEA}" name="PPP" dataDxfId="5"/>
+    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2763,13 +2777,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4F8F56-06F6-4E1D-8D81-5A485042419D}">
-  <dimension ref="A1:Z54"/>
+  <dimension ref="A1:AA54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F46" sqref="F46"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2779,53 +2793,57 @@
     <col min="3" max="3" width="18.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.27734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.94140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.609375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.1640625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="21.94140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.27734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="47.77734375" style="1"/>
+    <col min="6" max="6" width="20.27734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.27734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.0546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.94140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.609375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.94140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.609375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.1640625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="21.94140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.27734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="47.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="16" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="S1" s="1"/>
+      <c r="N1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" ht="16" x14ac:dyDescent="0.8">
+      <c r="W1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RZ2)</f>
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2873,7 +2891,7 @@
      LEN(H5:H1000) - LEN(SUBSTITUTE(H5:H1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" cm="1">
         <f t="array" ref="I2">SUMPRODUCT(
@@ -2881,7 +2899,7 @@
      LEN(I5:I1000) - LEN(SUBSTITUTE(I5:I1000, CHAR(10), "")) + 1
   )
 )</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" s="1" cm="1">
         <f t="array" ref="J2">SUMPRODUCT(
@@ -2909,129 +2927,131 @@
       </c>
       <c r="M2" s="1" cm="1">
         <f t="array" ref="M2">SUMPRODUCT(
+  IF(LEN(M5:M1000)=0, 0,
+     LEN(M5:M1000) - LEN(SUBSTITUTE(M5:M1000, CHAR(10), "")) + 1
+  )
+)</f>
+        <v>9</v>
+      </c>
+      <c r="N2" s="1" cm="1">
+        <f t="array" ref="N2">SUMPRODUCT(
   IF(LEN(N5:N1000)=0, 0,
      LEN(N5:N1000) - LEN(SUBSTITUTE(N5:N1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>9</v>
       </c>
-      <c r="N2" s="1" cm="1">
-        <f t="array" ref="N2">SUMPRODUCT(
+      <c r="O2" s="1" cm="1">
+        <f t="array" ref="O2">SUMPRODUCT(
   IF(LEN(O5:O1000)=0, 0,
      LEN(O5:O1000) - LEN(SUBSTITUTE(O5:O1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>6</v>
       </c>
-      <c r="O2" s="1" cm="1">
-        <f t="array" ref="O2">SUMPRODUCT(
+      <c r="P2" s="1" cm="1">
+        <f t="array" ref="P2">SUMPRODUCT(
   IF(LEN(P5:P1000)=0, 0,
      LEN(P5:P1000) - LEN(SUBSTITUTE(P5:P1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>6</v>
       </c>
-      <c r="P2" s="1" cm="1">
-        <f t="array" ref="P2">SUMPRODUCT(
+      <c r="Q2" s="1" cm="1">
+        <f t="array" ref="Q2">SUMPRODUCT(
   IF(LEN(Q5:Q1000)=0, 0,
      LEN(Q5:Q1000) - LEN(SUBSTITUTE(Q5:Q1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>6</v>
       </c>
-      <c r="Q2" s="1" cm="1">
-        <f t="array" ref="Q2">SUMPRODUCT(
+      <c r="R2" s="1" cm="1">
+        <f t="array" ref="R2">SUMPRODUCT(
   IF(LEN(R5:R1000)=0, 0,
      LEN(R5:R1000) - LEN(SUBSTITUTE(R5:R1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>5</v>
       </c>
-      <c r="R2" s="1" cm="1">
-        <f t="array" ref="R2">SUMPRODUCT(
+      <c r="S2" s="1" cm="1">
+        <f t="array" ref="S2">SUMPRODUCT(
   IF(LEN(S5:S1000)=0, 0,
      LEN(S5:S1000) - LEN(SUBSTITUTE(S5:S1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
-      <c r="S2" s="1" cm="1">
-        <f t="array" ref="S2">SUMPRODUCT(
+      <c r="T2" s="1" cm="1">
+        <f t="array" ref="T2">SUMPRODUCT(
   IF(LEN(T5:T1000)=0, 0,
      LEN(T5:T1000) - LEN(SUBSTITUTE(T5:T1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
-      <c r="T2" s="1" cm="1">
-        <f t="array" ref="T2">SUMPRODUCT(
+      <c r="U2" s="1" cm="1">
+        <f t="array" ref="U2">SUMPRODUCT(
   IF(LEN(U5:U1000)=0, 0,
      LEN(U5:U1000) - LEN(SUBSTITUTE(U5:U1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
-      <c r="U2" s="1" cm="1">
-        <f t="array" ref="U2">SUMPRODUCT(
+      <c r="V2" s="1" cm="1">
+        <f t="array" ref="V2">SUMPRODUCT(
   IF(LEN(V5:V1000)=0, 0,
      LEN(V5:V1000) - LEN(SUBSTITUTE(V5:V1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
-      <c r="V2" s="1" cm="1">
-        <f t="array" ref="V2">SUMPRODUCT(
+      <c r="W2" s="1" cm="1">
+        <f t="array" ref="W2">SUMPRODUCT(
   IF(LEN(W5:W1000)=0, 0,
      LEN(W5:W1000) - LEN(SUBSTITUTE(W5:W1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
-      <c r="W2" s="1" cm="1">
-        <f t="array" ref="W2">SUMPRODUCT(
+      <c r="X2" s="1" cm="1">
+        <f t="array" ref="X2">SUMPRODUCT(
   IF(LEN(X5:X1000)=0, 0,
      LEN(X5:X1000) - LEN(SUBSTITUTE(X5:X1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>8</v>
       </c>
-      <c r="X2" s="1" cm="1">
-        <f t="array" ref="X2">SUMPRODUCT(
+      <c r="Y2" s="1" cm="1">
+        <f t="array" ref="Y2">SUMPRODUCT(
   IF(LEN(Y5:Y1000)=0, 0,
      LEN(Y5:Y1000) - LEN(SUBSTITUTE(Y5:Y1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>43</v>
       </c>
-      <c r="Y2" s="1" cm="1">
-        <f t="array" ref="Y2">SUMPRODUCT(
+      <c r="Z2" s="1" cm="1">
+        <f t="array" ref="Z2">SUMPRODUCT(
   IF(LEN(Z5:Z1000)=0, 0,
      LEN(Z5:Z1000) - LEN(SUBSTITUTE(Z5:Z1000, CHAR(10), "")) + 1
   )
 )</f>
         <v>50</v>
       </c>
-      <c r="Z2" s="1" cm="1">
-        <f t="array" ref="Z2">SUMPRODUCT(
-  IF(LEN(AA5:AA1000)=0, 0,
-     LEN(AA5:AA1000) - LEN(SUBSTITUTE(AA5:AA1000, CHAR(10), "")) + 1
-  )
-)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="16" x14ac:dyDescent="0.8">
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.8">
       <c r="F3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="N3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="1:26" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="W3" s="1"/>
+      <c r="AA3" s="1"/>
+    </row>
+    <row r="4" spans="1:27" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -3039,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>5</v>
@@ -3048,25 +3068,25 @@
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>9</v>
@@ -3078,37 +3098,38 @@
         <v>21</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" spans="1:27" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B5" s="3">
         <v>1977</v>
       </c>
@@ -3117,11 +3138,11 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -3138,8 +3159,9 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
-    </row>
-    <row r="6" spans="1:26" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AA5" s="1"/>
+    </row>
+    <row r="6" spans="1:27" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B6" s="3">
         <v>1978</v>
       </c>
@@ -3167,8 +3189,9 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
-    </row>
-    <row r="7" spans="1:26" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AA6" s="1"/>
+    </row>
+    <row r="7" spans="1:27" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B7" s="3">
         <v>1979</v>
       </c>
@@ -3196,8 +3219,9 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
-    </row>
-    <row r="8" spans="1:26" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AA7" s="1"/>
+    </row>
+    <row r="8" spans="1:27" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B8" s="3">
         <v>1980</v>
       </c>
@@ -3213,7 +3237,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -3227,10 +3251,11 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="16.7" x14ac:dyDescent="0.8">
+        <v>33</v>
+      </c>
+      <c r="AA8" s="1"/>
+    </row>
+    <row r="9" spans="1:27" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B9" s="3">
         <v>1981</v>
       </c>
@@ -3258,8 +3283,9 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
-    </row>
-    <row r="10" spans="1:26" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AA9" s="1"/>
+    </row>
+    <row r="10" spans="1:27" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B10" s="3">
         <v>1982</v>
       </c>
@@ -3287,8 +3313,9 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
-    </row>
-    <row r="11" spans="1:26" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AA10" s="1"/>
+    </row>
+    <row r="11" spans="1:27" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B11" s="3">
         <v>1983</v>
       </c>
@@ -3316,8 +3343,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AA11" s="1"/>
+    </row>
+    <row r="12" spans="1:27" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B12" s="3">
         <v>1984</v>
       </c>
@@ -3345,8 +3373,9 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
-    </row>
-    <row r="13" spans="1:26" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="AA12" s="1"/>
+    </row>
+    <row r="13" spans="1:27" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B13" s="3">
         <v>1985</v>
       </c>
@@ -3373,11 +3402,12 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z13" s="3"/>
-    </row>
-    <row r="14" spans="1:26" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="AA13" s="1"/>
+    </row>
+    <row r="14" spans="1:27" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B14" s="3">
         <v>1986</v>
       </c>
@@ -3406,13 +3436,14 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AA14" s="1"/>
+    </row>
+    <row r="15" spans="1:27" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B15" s="3">
         <v>1987</v>
       </c>
@@ -3440,10 +3471,11 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="16.7" x14ac:dyDescent="0.8">
+        <v>120</v>
+      </c>
+      <c r="AA15" s="1"/>
+    </row>
+    <row r="16" spans="1:27" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B16" s="3">
         <v>1988</v>
       </c>
@@ -3452,11 +3484,11 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I16" s="3"/>
-      <c r="J16" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -3475,8 +3507,9 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="2:26" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="AA16" s="1"/>
+    </row>
+    <row r="17" spans="2:27" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B17" s="3">
         <v>1989</v>
       </c>
@@ -3503,13 +3536,14 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="2:26" ht="16.7" x14ac:dyDescent="0.8">
+        <v>152</v>
+      </c>
+      <c r="AA17" s="1"/>
+    </row>
+    <row r="18" spans="2:27" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B18" s="3">
         <v>1990</v>
       </c>
@@ -3537,8 +3571,9 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
-    </row>
-    <row r="19" spans="2:26" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AA18" s="1"/>
+    </row>
+    <row r="19" spans="2:27" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B19" s="3">
         <v>1991</v>
       </c>
@@ -3566,8 +3601,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="2:26" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AA19" s="1"/>
+    </row>
+    <row r="20" spans="2:27" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B20" s="3">
         <v>1992</v>
       </c>
@@ -3595,8 +3631,9 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
-    </row>
-    <row r="21" spans="2:26" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AA20" s="1"/>
+    </row>
+    <row r="21" spans="2:27" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B21" s="3">
         <v>1993</v>
       </c>
@@ -3624,8 +3661,9 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
-    </row>
-    <row r="22" spans="2:26" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AA21" s="1"/>
+    </row>
+    <row r="22" spans="2:27" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B22" s="3">
         <v>1994</v>
       </c>
@@ -3653,8 +3691,9 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
-    </row>
-    <row r="23" spans="2:26" ht="83.35" x14ac:dyDescent="0.8">
+      <c r="AA22" s="1"/>
+    </row>
+    <row r="23" spans="2:27" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B23" s="3">
         <v>1995</v>
       </c>
@@ -3664,10 +3703,10 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -3676,7 +3715,7 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -3685,13 +3724,14 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z23" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="2:26" ht="33.35" x14ac:dyDescent="0.8">
+        <v>70</v>
+      </c>
+      <c r="AA23" s="1"/>
+    </row>
+    <row r="24" spans="2:27" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B24" s="3">
         <v>1996</v>
       </c>
@@ -3719,10 +3759,11 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="2:26" ht="16.7" x14ac:dyDescent="0.8">
+        <v>35</v>
+      </c>
+      <c r="AA24" s="1"/>
+    </row>
+    <row r="25" spans="2:27" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B25" s="3">
         <v>1997</v>
       </c>
@@ -3737,7 +3778,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -3752,10 +3793,11 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="2:26" ht="16.7" x14ac:dyDescent="0.8">
+        <v>95</v>
+      </c>
+      <c r="AA25" s="1"/>
+    </row>
+    <row r="26" spans="2:27" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B26" s="3">
         <v>1998</v>
       </c>
@@ -3782,18 +3824,19 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z26" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="2:26" ht="33.35" x14ac:dyDescent="0.8">
+        <v>36</v>
+      </c>
+      <c r="AA26" s="1"/>
+    </row>
+    <row r="27" spans="2:27" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B27" s="3">
         <v>1999</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -3817,18 +3860,19 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z27" s="3"/>
-    </row>
-    <row r="28" spans="2:26" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="AA27" s="1"/>
+    </row>
+    <row r="28" spans="2:27" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B28" s="3">
         <v>2000</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -3838,7 +3882,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -3853,10 +3897,11 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="2:26" ht="16.7" x14ac:dyDescent="0.8">
+        <v>97</v>
+      </c>
+      <c r="AA28" s="1"/>
+    </row>
+    <row r="29" spans="2:27" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B29" s="3">
         <v>2001</v>
       </c>
@@ -3865,11 +3910,11 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="H29" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="I29" s="3"/>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -3878,7 +3923,7 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
@@ -3888,8 +3933,9 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
-    </row>
-    <row r="30" spans="2:26" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="AA29" s="1"/>
+    </row>
+    <row r="30" spans="2:27" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B30" s="3">
         <v>2002</v>
       </c>
@@ -3916,11 +3962,12 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z30" s="3"/>
-    </row>
-    <row r="31" spans="2:26" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AA30" s="1"/>
+    </row>
+    <row r="31" spans="2:27" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B31" s="3">
         <v>2003</v>
       </c>
@@ -3948,8 +3995,9 @@
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
-    </row>
-    <row r="32" spans="2:26" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="AA31" s="1"/>
+    </row>
+    <row r="32" spans="2:27" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B32" s="3">
         <v>2004</v>
       </c>
@@ -3976,13 +4024,14 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" ht="66.7" x14ac:dyDescent="0.8">
+        <v>94</v>
+      </c>
+      <c r="AA32" s="1"/>
+    </row>
+    <row r="33" spans="2:27" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B33" s="3">
         <v>2005</v>
       </c>
@@ -4003,7 +4052,7 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
@@ -4011,11 +4060,12 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Z33" s="3"/>
-    </row>
-    <row r="34" spans="2:26" ht="66.7" x14ac:dyDescent="0.8">
+      <c r="AA33" s="1"/>
+    </row>
+    <row r="34" spans="2:27" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B34" s="3">
         <v>2006</v>
       </c>
@@ -4024,19 +4074,19 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -4049,14 +4099,15 @@
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35" spans="2:26" ht="66.7" x14ac:dyDescent="0.8">
+        <v>121</v>
+      </c>
+      <c r="AA34" s="1"/>
+    </row>
+    <row r="35" spans="2:27" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B35" s="3">
         <v>2007</v>
       </c>
@@ -4082,25 +4133,26 @@
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="36" spans="2:26" ht="50" x14ac:dyDescent="0.8">
+        <v>178</v>
+      </c>
+      <c r="AA35" s="1"/>
+    </row>
+    <row r="36" spans="2:27" ht="50" x14ac:dyDescent="0.8">
       <c r="B36" s="3">
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -4119,14 +4171,15 @@
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y36" s="3"/>
       <c r="Z36" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" ht="16.7" x14ac:dyDescent="0.8">
+        <v>71</v>
+      </c>
+      <c r="AA36" s="1"/>
+    </row>
+    <row r="37" spans="2:27" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B37" s="3">
         <v>2009</v>
       </c>
@@ -4153,11 +4206,12 @@
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
       <c r="Y37" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Z37" s="3"/>
-    </row>
-    <row r="38" spans="2:26" ht="100" x14ac:dyDescent="0.8">
+      <c r="AA37" s="1"/>
+    </row>
+    <row r="38" spans="2:27" ht="50" x14ac:dyDescent="0.8">
       <c r="B38" s="3">
         <v>2010</v>
       </c>
@@ -4167,16 +4221,16 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
@@ -4188,31 +4242,32 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z38" s="3"/>
-    </row>
-    <row r="39" spans="2:26" ht="50" x14ac:dyDescent="0.8">
+      <c r="AA38" s="1"/>
+    </row>
+    <row r="39" spans="2:27" ht="50" x14ac:dyDescent="0.8">
       <c r="B39" s="3">
         <v>2011</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
@@ -4221,35 +4276,36 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="40" spans="2:26" ht="83.35" x14ac:dyDescent="0.8">
+        <v>180</v>
+      </c>
+      <c r="AA39" s="1"/>
+    </row>
+    <row r="40" spans="2:27" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B40" s="3">
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -4258,7 +4314,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>1</v>
@@ -4274,19 +4330,20 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" ht="100" x14ac:dyDescent="0.8">
+      <c r="AA40" s="1"/>
+    </row>
+    <row r="41" spans="2:27" ht="100" x14ac:dyDescent="0.8">
       <c r="B41" s="3">
         <v>2013</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -4310,16 +4367,17 @@
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y41" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z41" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" ht="50" x14ac:dyDescent="0.8">
+        <v>187</v>
+      </c>
+      <c r="AA41" s="1"/>
+    </row>
+    <row r="42" spans="2:27" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B42" s="3">
         <v>2014</v>
       </c>
@@ -4327,7 +4385,7 @@
         <v>6</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -4350,21 +4408,22 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z42" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="2:26" ht="66.7" x14ac:dyDescent="0.8">
+        <v>125</v>
+      </c>
+      <c r="AA42" s="1"/>
+    </row>
+    <row r="43" spans="2:27" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B43" s="3">
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -4374,7 +4433,7 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
@@ -4388,23 +4447,24 @@
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="44" spans="2:26" ht="50" x14ac:dyDescent="0.8">
+        <v>193</v>
+      </c>
+      <c r="AA43" s="1"/>
+    </row>
+    <row r="44" spans="2:27" ht="50" x14ac:dyDescent="0.8">
       <c r="B44" s="3">
         <v>2016</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -4413,11 +4473,11 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
@@ -4430,18 +4490,19 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Z44" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="45" spans="2:26" ht="66.7" x14ac:dyDescent="0.8">
+        <v>127</v>
+      </c>
+      <c r="AA44" s="1"/>
+    </row>
+    <row r="45" spans="2:27" ht="50" x14ac:dyDescent="0.8">
       <c r="B45" s="3">
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4449,16 +4510,16 @@
         <v>13</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H45" s="3"/>
+        <v>116</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="I45" s="3"/>
-      <c r="J45" s="3" t="s">
-        <v>152</v>
-      </c>
+      <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
@@ -4470,106 +4531,108 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y45" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z45" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="2:26" ht="200" x14ac:dyDescent="0.8">
+        <v>139</v>
+      </c>
+      <c r="AA45" s="1"/>
+    </row>
+    <row r="46" spans="2:27" ht="116.7" x14ac:dyDescent="0.8">
       <c r="B46" s="3">
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="J46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S46" s="3"/>
       <c r="T46" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U46" s="3"/>
       <c r="V46" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W46" s="3"/>
       <c r="X46" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y46" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z46" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="47" spans="2:26" ht="83.35" x14ac:dyDescent="0.8">
+      <c r="AA46" s="1"/>
+    </row>
+    <row r="47" spans="2:27" ht="83.35" x14ac:dyDescent="0.8">
       <c r="B47" s="3">
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -4580,26 +4643,27 @@
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Z47" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="48" spans="2:26" ht="50" x14ac:dyDescent="0.8">
+        <v>209</v>
+      </c>
+      <c r="AA47" s="1"/>
+    </row>
+    <row r="48" spans="2:27" ht="50" x14ac:dyDescent="0.8">
       <c r="B48" s="3">
         <v>2020</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
@@ -4612,7 +4676,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
@@ -4620,7 +4684,7 @@
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
@@ -4628,93 +4692,95 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z48" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="49" spans="2:26" ht="133.35" x14ac:dyDescent="0.8">
+        <v>165</v>
+      </c>
+      <c r="AA48" s="1"/>
+    </row>
+    <row r="49" spans="2:27" ht="100" x14ac:dyDescent="0.8">
       <c r="B49" s="3">
         <v>2021</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I49" s="3"/>
+        <v>186</v>
+      </c>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="X49" s="3"/>
       <c r="Y49" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Z49" s="3"/>
-    </row>
-    <row r="50" spans="2:26" ht="133.35" x14ac:dyDescent="0.8">
+      <c r="AA49" s="1"/>
+    </row>
+    <row r="50" spans="2:27" ht="133.35" x14ac:dyDescent="0.8">
       <c r="B50" s="3">
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
@@ -4722,7 +4788,7 @@
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
@@ -4730,202 +4796,206 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="X50" s="3"/>
       <c r="Y50" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Z50" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="51" spans="2:26" ht="100" x14ac:dyDescent="0.8">
+        <v>195</v>
+      </c>
+      <c r="AA50" s="1"/>
+    </row>
+    <row r="51" spans="2:27" ht="100" x14ac:dyDescent="0.8">
       <c r="B51" s="3">
         <v>2023</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
       <c r="P51" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="X51" s="3"/>
       <c r="Y51" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Z51" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="52" spans="2:26" ht="100" x14ac:dyDescent="0.8">
+        <v>181</v>
+      </c>
+      <c r="AA51" s="1"/>
+    </row>
+    <row r="52" spans="2:27" ht="100" x14ac:dyDescent="0.8">
       <c r="B52" s="3">
         <v>2024</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>91</v>
+        <v>222</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Z52" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="53" spans="2:26" ht="183.35" x14ac:dyDescent="0.8">
+        <v>166</v>
+      </c>
+      <c r="AA52" s="1"/>
+    </row>
+    <row r="53" spans="2:27" ht="116.7" x14ac:dyDescent="0.8">
       <c r="B53" s="3">
         <v>2025</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3" t="s">
-        <v>192</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="X53" s="3"/>
       <c r="Y53" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Z53" s="3"/>
-    </row>
-    <row r="54" spans="2:26" ht="133.35" x14ac:dyDescent="0.8">
+      <c r="AA53" s="1"/>
+    </row>
+    <row r="54" spans="2:27" ht="133.35" x14ac:dyDescent="0.8">
       <c r="B54" s="3">
         <v>2026</v>
       </c>
@@ -4938,7 +5008,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -4955,6 +5025,7 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
+      <c r="AA54" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09B0B2B-26D3-4935-B98F-D1C551B0F25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C797D431-4F72-4B33-90B3-6404D94D4917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5447" yWindow="300" windowWidth="19020" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="187" yWindow="227" windowWidth="19020" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -1699,12 +1699,53 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Venus(1.4旗揚げ)</t>
+    <rPh sb="9" eb="11">
+      <t>ハタア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>朱里</t>
+    <rPh sb="0" eb="2">
+      <t>シュリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>羽南
+メーガンベーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NENE
+シャンシャン(新台湾)</t>
+    <rPh sb="12" eb="13">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイワン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Anna
+Kuumu(新台湾)</t>
+    <rPh sb="11" eb="12">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タイワン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>&lt;希咲みなみ&gt;
 &lt;ひな&gt;
 &lt;髙橋光咲&gt;
 &lt;伊田惟吹&gt;
 &lt;優華&gt;
-&lt;松橋ななを&gt;
+&lt;松橋ななを&gt;(12.6デビュー)
 &lt;当麻煌&gt;
 &lt;直江ミう&gt;</t>
     <rPh sb="1" eb="3">
@@ -1734,52 +1775,11 @@
     <rPh sb="33" eb="35">
       <t>マツハシ</t>
     </rPh>
-    <rPh sb="41" eb="43">
+    <rPh sb="51" eb="53">
       <t>トウマ</t>
     </rPh>
-    <rPh sb="47" eb="49">
+    <rPh sb="57" eb="59">
       <t>ナオエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Venus(1.4旗揚げ)</t>
-    <rPh sb="9" eb="11">
-      <t>ハタア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>朱里</t>
-    <rPh sb="0" eb="2">
-      <t>シュリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>羽南
-メーガンベーン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NENE
-シャンシャン(新台湾)</t>
-    <rPh sb="12" eb="13">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>タイワン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Anna
-Kuumu(新台湾)</t>
-    <rPh sb="11" eb="12">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>タイワン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2780,10 +2780,10 @@
   <dimension ref="A1:AA54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -3080,7 +3080,7 @@
         <v>63</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>57</v>
@@ -4146,7 +4146,7 @@
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -4502,7 +4502,7 @@
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4891,7 +4891,7 @@
         <v>213</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>90</v>
@@ -4955,7 +4955,7 @@
         <v>114</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>212</v>
@@ -4995,7 +4995,7 @@
       <c r="Z53" s="3"/>
       <c r="AA53" s="1"/>
     </row>
-    <row r="54" spans="2:27" ht="133.35" x14ac:dyDescent="0.8">
+    <row r="54" spans="2:27" ht="150" x14ac:dyDescent="0.8">
       <c r="B54" s="3">
         <v>2026</v>
       </c>
@@ -5008,7 +5008,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C797D431-4F72-4B33-90B3-6404D94D4917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6669F4F2-1FD9-49FC-A0B0-0C9200AB041F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="187" yWindow="227" windowWidth="19020" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="-367" yWindow="227" windowWidth="19020" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="231">
   <si>
     <t>Stardom</t>
     <phoneticPr fontId="1"/>
@@ -945,13 +945,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>根本楓花（プロテスト合格）</t>
-    <rPh sb="10" eb="12">
-      <t>ゴウカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>noa</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1040,12 +1033,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>風南ユキ
-望天セレネ
-&lt;せいな&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>柳ヶ瀬</t>
     <rPh sb="0" eb="3">
       <t>ヤナガセ</t>
@@ -1111,11 +1098,6 @@
   </si>
   <si>
     <t>CHIKA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>わかな
-&lt;彩夢&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1348,13 +1330,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>小夏れん
-&lt;シオン&gt;仮
-&lt;アンリ&gt;仮
-&lt;ユウカ&gt;仮</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>浦幌ちほ(北都)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1505,17 +1480,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>梨央
-弥福かな
-&lt;ゴんべ&gt;
-&lt;摩利乃&gt;
-&lt;小谷さつき&gt;</t>
-    <rPh sb="0" eb="2">
-      <t>リオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PPP</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1548,23 +1512,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>苺畑ひより(666)
-横井真菜(REINA)
-&lt;堀このみ&gt;(ZeroOne)
-タギリヒメ真夢(九州女子プロレス)
-彩月悠叶(2AW)</t>
-    <rPh sb="24" eb="25">
-      <t>ホリ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>キュウシュウ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ジョシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ちゃんよた</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1649,22 +1596,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ホルスタイン・エンジュ
-ラブリカ・ヒナーノ
-枢夜 佐季
-&lt;Y&gt;</t>
-    <rPh sb="22" eb="23">
-      <t>クルル</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>サキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>若菜きらり(IR,V)
 緋彩ませ(HCC)</t>
     <rPh sb="0" eb="2">
@@ -1740,45 +1671,136 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;希咲みなみ&gt;
-&lt;ひな&gt;
-&lt;髙橋光咲&gt;
-&lt;伊田惟吹&gt;
-&lt;優華&gt;
-&lt;松橋ななを&gt;(12.6デビュー)
-&lt;当麻煌&gt;
-&lt;直江ミう&gt;</t>
+    <t>苺畑ひより(666)
+横井真菜(REINA)
+タギリヒメ真夢(九州女子プロレス)
+彩月悠叶(2AW)</t>
+    <rPh sb="31" eb="33">
+      <t>キュウシュウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジョシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;堀このみ&gt;(ZeroOne)
+&lt;七世真理子&gt;
+(ZeroOne)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>風南ユキ
+望天セレネ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホルスタイン・エンジュ
+ラブリカ・ヒナーノ
+枢夜 佐季</t>
+    <rPh sb="22" eb="23">
+      <t>クルル</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;Y&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わかな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;彩夢&gt;</t>
+  </si>
+  <si>
+    <t>&lt;根本楓花&gt;（プロテスト合格）</t>
+    <rPh sb="12" eb="14">
+      <t>ゴウカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;ゴんべ&gt;
+&lt;摩利乃&gt;
+&lt;小谷さつき&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>梨央
+弥福かな</t>
+    <rPh sb="0" eb="2">
+      <t>リオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小夏れん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;シオン&gt;仮
+&lt;アンリ&gt;仮
+&lt;ユウカ&gt;仮</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デビュー前</t>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優華</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;希咲みなみ&gt;(2026.1.4デビュー予定)
+&lt;ひな&gt;(2026.1.4デビュー予定)
+&lt;髙橋光咲&gt;(2026.1.4デビュー予定)
+&lt;伊田惟吹&gt;(2026.1.4デビュー予定)
+&lt;松橋ななを&gt;(2025.12.6デビュー予定)
+&lt;当麻煌&gt;(2026.1.4デビュー予定)
+&lt;直江ミう&gt;(2026.1.4デビュー予定)</t>
     <rPh sb="1" eb="3">
       <t>キサキ</t>
     </rPh>
-    <rPh sb="14" eb="16">
+    <rPh sb="20" eb="22">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
       <t>タカハシ</t>
     </rPh>
-    <rPh sb="16" eb="18">
+    <rPh sb="48" eb="50">
       <t>ミサキ</t>
     </rPh>
-    <rPh sb="21" eb="23">
+    <rPh sb="69" eb="71">
       <t>イダ</t>
     </rPh>
-    <rPh sb="23" eb="24">
+    <rPh sb="71" eb="72">
       <t>ノブ</t>
     </rPh>
-    <rPh sb="24" eb="25">
+    <rPh sb="72" eb="73">
       <t>スイ</t>
     </rPh>
-    <rPh sb="28" eb="29">
-      <t>ユウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
+    <rPh sb="92" eb="94">
       <t>マツハシ</t>
     </rPh>
-    <rPh sb="51" eb="53">
+    <rPh sb="112" eb="114">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
       <t>トウマ</t>
     </rPh>
-    <rPh sb="57" eb="59">
+    <rPh sb="139" eb="141">
       <t>ナオエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1848,7 +1870,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1861,31 +1883,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="27">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Noto Serif JP SemiBold"/>
-        <family val="1"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2272,6 +2277,26 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Noto Serif JP SemiBold"/>
+        <family val="1"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -2436,25 +2461,25 @@
     <tableColumn id="18" xr3:uid="{6DD05DFF-D195-4CF5-BFC5-531553A9ADC5}" name="AWG" dataDxfId="21"/>
     <tableColumn id="3" xr3:uid="{CA5FBB65-FE37-40A8-B1DD-0182D7DD64C3}" name="マリゴ" dataDxfId="20"/>
     <tableColumn id="27" xr3:uid="{50745B86-8D07-4F72-B93E-5C2E105BB03C}" name="IR/ホットシュシュ" dataDxfId="19"/>
-    <tableColumn id="17" xr3:uid="{C0123278-DCF4-45DB-8696-FC0805957C5C}" name="Diana" dataDxfId="0"/>
-    <tableColumn id="30" xr3:uid="{BB23C0DC-5AEB-431A-A828-4D1BDF4F315F}" name="JTO" dataDxfId="18"/>
-    <tableColumn id="29" xr3:uid="{ADFF1D58-E918-4FF6-B352-AA98020CFD16}" name="チョコプロ" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{0D2ABC96-F0CF-44E9-912A-CA35E8452616}" name="Venus(1.4旗揚げ)" dataDxfId="1"/>
-    <tableColumn id="23" xr3:uid="{9647ED0D-42FB-42C1-BFB2-8B8D56D414C4}" name="SENDAI" dataDxfId="16"/>
-    <tableColumn id="32" xr3:uid="{67EA2433-E1D1-4094-BFB4-0EDB7438926B}" name="Pure-J" dataDxfId="15"/>
-    <tableColumn id="21" xr3:uid="{ACF43FBE-31D7-4ED6-A997-E4AF4BF0B9D4}" name="マーベラス" dataDxfId="14"/>
-    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="13"/>
-    <tableColumn id="20" xr3:uid="{86389032-6123-44BF-98AB-D3CA13F2577A}" name="LLPW-X" dataDxfId="12"/>
-    <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="2.5(11.24～なにわ女子)" dataDxfId="11"/>
-    <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{3CAB629B-BA9F-4560-89E7-0980EE2B0905}" name="エボリューション" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{5C631C06-2946-4CE3-901A-57A0BABE156F}" name="BBJ" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{F6B1BCBE-A702-4B7C-9B81-2600AE026FEA}" name="PPP" dataDxfId="5"/>
-    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{C0123278-DCF4-45DB-8696-FC0805957C5C}" name="Diana" dataDxfId="18"/>
+    <tableColumn id="30" xr3:uid="{BB23C0DC-5AEB-431A-A828-4D1BDF4F315F}" name="JTO" dataDxfId="17"/>
+    <tableColumn id="29" xr3:uid="{ADFF1D58-E918-4FF6-B352-AA98020CFD16}" name="チョコプロ" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{0D2ABC96-F0CF-44E9-912A-CA35E8452616}" name="Venus(1.4旗揚げ)" dataDxfId="15"/>
+    <tableColumn id="23" xr3:uid="{9647ED0D-42FB-42C1-BFB2-8B8D56D414C4}" name="SENDAI" dataDxfId="14"/>
+    <tableColumn id="32" xr3:uid="{67EA2433-E1D1-4094-BFB4-0EDB7438926B}" name="Pure-J" dataDxfId="13"/>
+    <tableColumn id="21" xr3:uid="{ACF43FBE-31D7-4ED6-A997-E4AF4BF0B9D4}" name="マーベラス" dataDxfId="12"/>
+    <tableColumn id="20" xr3:uid="{86389032-6123-44BF-98AB-D3CA13F2577A}" name="LLPW-X" dataDxfId="11"/>
+    <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="2.5(11.24～なにわ女子)" dataDxfId="10"/>
+    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="0"/>
+    <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{3CAB629B-BA9F-4560-89E7-0980EE2B0905}" name="エボリューション" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{5C631C06-2946-4CE3-901A-57A0BABE156F}" name="BBJ" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{F6B1BCBE-A702-4B7C-9B81-2600AE026FEA}" name="PPP" dataDxfId="4"/>
+    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2777,55 +2802,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4F8F56-06F6-4E1D-8D81-5A485042419D}">
-  <dimension ref="A1:AA54"/>
+  <dimension ref="A1:AB54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K54" sqref="K54"/>
+      <selection pane="bottomRight" activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="47.77734375" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
+  <sheetFormatPr defaultColWidth="27.33203125" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
   <cols>
-    <col min="1" max="1" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.27734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.27734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.0546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.94140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.0546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.94140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.609375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.94140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.609375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.1640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="21.94140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="21.27734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="47.77734375" style="1"/>
+    <col min="11" max="11" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.71875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.0546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.27734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.27734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.27734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.0546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.33203125" style="1"/>
+    <col min="29" max="16384" width="27.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:28" ht="16" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
@@ -2834,224 +2852,226 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="O1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
-      <c r="AA1" s="1"/>
-    </row>
-    <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.8">
+      <c r="X1" s="1"/>
+      <c r="AB1" s="1"/>
+    </row>
+    <row r="2" spans="1:28" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RZ2)</f>
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
-  IF(LEN(C5:C1000)=0, 0,
-     LEN(C5:C1000) - LEN(SUBSTITUTE(C5:C1000, CHAR(10), "")) + 1
+  IF(LEN(C5:C999)=0, 0,
+     LEN(C5:C999) - LEN(SUBSTITUTE(C5:C999, CHAR(10), "")) + 1
   )
 )</f>
         <v>44</v>
       </c>
       <c r="D2" s="1" cm="1">
         <f t="array" ref="D2">SUMPRODUCT(
-  IF(LEN(D5:D1000)=0, 0,
-     LEN(D5:D1000) - LEN(SUBSTITUTE(D5:D1000, CHAR(10), "")) + 1
+  IF(LEN(D5:D999)=0, 0,
+     LEN(D5:D999) - LEN(SUBSTITUTE(D5:D999, CHAR(10), "")) + 1
   )
 )</f>
         <v>30</v>
       </c>
       <c r="E2" s="1" cm="1">
         <f t="array" ref="E2">SUMPRODUCT(
-  IF(LEN(E5:E1000)=0, 0,
-     LEN(E5:E1000) - LEN(SUBSTITUTE(E5:E1000, CHAR(10), "")) + 1
+  IF(LEN(E5:E999)=0, 0,
+     LEN(E5:E999) - LEN(SUBSTITUTE(E5:E999, CHAR(10), "")) + 1
   )
 )</f>
         <v>29</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2">SUMPRODUCT(
-  IF(LEN(F5:F1000)=0, 0,
-     LEN(F5:F1000) - LEN(SUBSTITUTE(F5:F1000, CHAR(10), "")) + 1
+  IF(LEN(F5:F999)=0, 0,
+     LEN(F5:F999) - LEN(SUBSTITUTE(F5:F999, CHAR(10), "")) + 1
   )
 )</f>
         <v>22</v>
       </c>
       <c r="G2" s="1" cm="1">
         <f t="array" ref="G2">SUMPRODUCT(
-  IF(LEN(G5:G1000)=0, 0,
-     LEN(G5:G1000) - LEN(SUBSTITUTE(G5:G1000, CHAR(10), "")) + 1
+  IF(LEN(G5:G999)=0, 0,
+     LEN(G5:G999) - LEN(SUBSTITUTE(G5:G999, CHAR(10), "")) + 1
   )
 )</f>
         <v>18</v>
       </c>
       <c r="H2" s="1" cm="1">
         <f t="array" ref="H2">SUMPRODUCT(
-  IF(LEN(H5:H1000)=0, 0,
-     LEN(H5:H1000) - LEN(SUBSTITUTE(H5:H1000, CHAR(10), "")) + 1
+  IF(LEN(H5:H999)=0, 0,
+     LEN(H5:H999) - LEN(SUBSTITUTE(H5:H999, CHAR(10), "")) + 1
   )
 )</f>
         <v>13</v>
       </c>
       <c r="I2" s="1" cm="1">
         <f t="array" ref="I2">SUMPRODUCT(
-  IF(LEN(I5:I1000)=0, 0,
-     LEN(I5:I1000) - LEN(SUBSTITUTE(I5:I1000, CHAR(10), "")) + 1
+  IF(LEN(I5:I999)=0, 0,
+     LEN(I5:I999) - LEN(SUBSTITUTE(I5:I999, CHAR(10), "")) + 1
   )
 )</f>
         <v>12</v>
       </c>
       <c r="J2" s="1" cm="1">
         <f t="array" ref="J2">SUMPRODUCT(
-  IF(LEN(J5:J1000)=0, 0,
-     LEN(J5:J1000) - LEN(SUBSTITUTE(J5:J1000, CHAR(10), "")) + 1
+  IF(LEN(J5:J999)=0, 0,
+     LEN(J5:J999) - LEN(SUBSTITUTE(J5:J999, CHAR(10), "")) + 1
   )
 )</f>
         <v>11</v>
       </c>
       <c r="K2" s="1" cm="1">
         <f t="array" ref="K2">SUMPRODUCT(
-  IF(LEN(K5:K1000)=0, 0,
-     LEN(K5:K1000) - LEN(SUBSTITUTE(K5:K1000, CHAR(10), "")) + 1
+  IF(LEN(K5:K999)=0, 0,
+     LEN(K5:K999) - LEN(SUBSTITUTE(K5:K999, CHAR(10), "")) + 1
   )
 )</f>
         <v>11</v>
       </c>
       <c r="L2" s="1" cm="1">
         <f t="array" ref="L2">SUMPRODUCT(
-  IF(LEN(L5:L1000)=0, 0,
-     LEN(L5:L1000) - LEN(SUBSTITUTE(L5:L1000, CHAR(10), "")) + 1
+  IF(LEN(L5:L999)=0, 0,
+     LEN(L5:L999) - LEN(SUBSTITUTE(L5:L999, CHAR(10), "")) + 1
   )
 )</f>
         <v>10</v>
       </c>
       <c r="M2" s="1" cm="1">
         <f t="array" ref="M2">SUMPRODUCT(
-  IF(LEN(M5:M1000)=0, 0,
-     LEN(M5:M1000) - LEN(SUBSTITUTE(M5:M1000, CHAR(10), "")) + 1
+  IF(LEN(M5:M999)=0, 0,
+     LEN(M5:M999) - LEN(SUBSTITUTE(M5:M999, CHAR(10), "")) + 1
   )
 )</f>
         <v>9</v>
       </c>
       <c r="N2" s="1" cm="1">
         <f t="array" ref="N2">SUMPRODUCT(
-  IF(LEN(N5:N1000)=0, 0,
-     LEN(N5:N1000) - LEN(SUBSTITUTE(N5:N1000, CHAR(10), "")) + 1
+  IF(LEN(N5:N999)=0, 0,
+     LEN(N5:N999) - LEN(SUBSTITUTE(N5:N999, CHAR(10), "")) + 1
   )
 )</f>
         <v>9</v>
       </c>
       <c r="O2" s="1" cm="1">
         <f t="array" ref="O2">SUMPRODUCT(
-  IF(LEN(O5:O1000)=0, 0,
-     LEN(O5:O1000) - LEN(SUBSTITUTE(O5:O1000, CHAR(10), "")) + 1
+  IF(LEN(O5:O999)=0, 0,
+     LEN(O5:O999) - LEN(SUBSTITUTE(O5:O999, CHAR(10), "")) + 1
   )
 )</f>
         <v>6</v>
       </c>
       <c r="P2" s="1" cm="1">
         <f t="array" ref="P2">SUMPRODUCT(
-  IF(LEN(P5:P1000)=0, 0,
-     LEN(P5:P1000) - LEN(SUBSTITUTE(P5:P1000, CHAR(10), "")) + 1
+  IF(LEN(P5:P999)=0, 0,
+     LEN(P5:P999) - LEN(SUBSTITUTE(P5:P999, CHAR(10), "")) + 1
   )
 )</f>
         <v>6</v>
       </c>
       <c r="Q2" s="1" cm="1">
         <f t="array" ref="Q2">SUMPRODUCT(
-  IF(LEN(Q5:Q1000)=0, 0,
-     LEN(Q5:Q1000) - LEN(SUBSTITUTE(Q5:Q1000, CHAR(10), "")) + 1
-  )
-)</f>
-        <v>6</v>
-      </c>
-      <c r="R2" s="1" cm="1">
-        <f t="array" ref="R2">SUMPRODUCT(
-  IF(LEN(R5:R1000)=0, 0,
-     LEN(R5:R1000) - LEN(SUBSTITUTE(R5:R1000, CHAR(10), "")) + 1
+  IF(LEN(Q5:Q999)=0, 0,
+     LEN(Q5:Q999) - LEN(SUBSTITUTE(Q5:Q999, CHAR(10), "")) + 1
   )
 )</f>
         <v>5</v>
       </c>
+      <c r="R2" s="1" cm="1">
+        <f t="array" ref="R2">SUMPRODUCT(
+  IF(LEN(R5:R999)=0, 0,
+     LEN(R5:R999) - LEN(SUBSTITUTE(R5:R999, CHAR(10), "")) + 1
+  )
+)</f>
+        <v>5</v>
+      </c>
       <c r="S2" s="1" cm="1">
         <f t="array" ref="S2">SUMPRODUCT(
-  IF(LEN(S5:S1000)=0, 0,
-     LEN(S5:S1000) - LEN(SUBSTITUTE(S5:S1000, CHAR(10), "")) + 1
+  IF(LEN(S5:S999)=0, 0,
+     LEN(S5:S999) - LEN(SUBSTITUTE(S5:S999, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
       <c r="T2" s="1" cm="1">
         <f t="array" ref="T2">SUMPRODUCT(
-  IF(LEN(T5:T1000)=0, 0,
-     LEN(T5:T1000) - LEN(SUBSTITUTE(T5:T1000, CHAR(10), "")) + 1
+  IF(LEN(T5:T999)=0, 0,
+     LEN(T5:T999) - LEN(SUBSTITUTE(T5:T999, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
       <c r="U2" s="1" cm="1">
         <f t="array" ref="U2">SUMPRODUCT(
-  IF(LEN(U5:U1000)=0, 0,
-     LEN(U5:U1000) - LEN(SUBSTITUTE(U5:U1000, CHAR(10), "")) + 1
+  IF(LEN(U5:U999)=0, 0,
+     LEN(U5:U999) - LEN(SUBSTITUTE(U5:U999, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
       <c r="V2" s="1" cm="1">
         <f t="array" ref="V2">SUMPRODUCT(
-  IF(LEN(V5:V1000)=0, 0,
-     LEN(V5:V1000) - LEN(SUBSTITUTE(V5:V1000, CHAR(10), "")) + 1
+  IF(LEN(V5:V999)=0, 0,
+     LEN(V5:V999) - LEN(SUBSTITUTE(V5:V999, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
       <c r="W2" s="1" cm="1">
         <f t="array" ref="W2">SUMPRODUCT(
-  IF(LEN(W5:W1000)=0, 0,
-     LEN(W5:W1000) - LEN(SUBSTITUTE(W5:W1000, CHAR(10), "")) + 1
+  IF(LEN(W5:W999)=0, 0,
+     LEN(W5:W999) - LEN(SUBSTITUTE(W5:W999, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
       <c r="X2" s="1" cm="1">
         <f t="array" ref="X2">SUMPRODUCT(
-  IF(LEN(X5:X1000)=0, 0,
-     LEN(X5:X1000) - LEN(SUBSTITUTE(X5:X1000, CHAR(10), "")) + 1
+  IF(LEN(X5:X999)=0, 0,
+     LEN(X5:X999) - LEN(SUBSTITUTE(X5:X999, CHAR(10), "")) + 1
   )
 )</f>
         <v>8</v>
       </c>
       <c r="Y2" s="1" cm="1">
         <f t="array" ref="Y2">SUMPRODUCT(
-  IF(LEN(Y5:Y1000)=0, 0,
-     LEN(Y5:Y1000) - LEN(SUBSTITUTE(Y5:Y1000, CHAR(10), "")) + 1
+  IF(LEN(Y5:Y999)=0, 0,
+     LEN(Y5:Y999) - LEN(SUBSTITUTE(Y5:Y999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Z2" s="1" cm="1">
         <f t="array" ref="Z2">SUMPRODUCT(
-  IF(LEN(Z5:Z1000)=0, 0,
-     LEN(Z5:Z1000) - LEN(SUBSTITUTE(Z5:Z1000, CHAR(10), "")) + 1
+  IF(LEN(Z5:Z999)=0, 0,
+     LEN(Z5:Z999) - LEN(SUBSTITUTE(Z5:Z999, CHAR(10), "")) + 1
   )
 )</f>
         <v>50</v>
       </c>
-      <c r="AA2" s="1"/>
-    </row>
-    <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.8">
+      <c r="AB2" s="1"/>
+    </row>
+    <row r="3" spans="1:28" ht="16" x14ac:dyDescent="0.8">
       <c r="F3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="T3" s="1"/>
+      <c r="O3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="AA3" s="1"/>
-    </row>
-    <row r="4" spans="1:27" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="X3" s="1"/>
+      <c r="AB3" s="1"/>
+    </row>
+    <row r="4" spans="1:28" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -3080,7 +3100,7 @@
         <v>63</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>57</v>
@@ -3092,13 +3112,13 @@
         <v>9</v>
       </c>
       <c r="O4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>29</v>
@@ -3107,16 +3127,16 @@
         <v>8</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="X4" s="2" t="s">
         <v>108</v>
@@ -3127,9 +3147,9 @@
       <c r="Z4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AA4" s="1"/>
-    </row>
-    <row r="5" spans="1:27" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AB4" s="1"/>
+    </row>
+    <row r="5" spans="1:28" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B5" s="3">
         <v>1977</v>
       </c>
@@ -3159,9 +3179,9 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
-      <c r="AA5" s="1"/>
-    </row>
-    <row r="6" spans="1:27" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AB5" s="1"/>
+    </row>
+    <row r="6" spans="1:28" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B6" s="3">
         <v>1978</v>
       </c>
@@ -3189,9 +3209,9 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
-      <c r="AA6" s="1"/>
-    </row>
-    <row r="7" spans="1:27" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AB6" s="1"/>
+    </row>
+    <row r="7" spans="1:28" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B7" s="3">
         <v>1979</v>
       </c>
@@ -3219,9 +3239,9 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
-      <c r="AA7" s="1"/>
-    </row>
-    <row r="8" spans="1:27" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AB7" s="1"/>
+    </row>
+    <row r="8" spans="1:28" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B8" s="3">
         <v>1980</v>
       </c>
@@ -3253,9 +3273,9 @@
       <c r="Z8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AA8" s="1"/>
-    </row>
-    <row r="9" spans="1:27" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AB8" s="1"/>
+    </row>
+    <row r="9" spans="1:28" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B9" s="3">
         <v>1981</v>
       </c>
@@ -3283,9 +3303,9 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
-      <c r="AA9" s="1"/>
-    </row>
-    <row r="10" spans="1:27" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AB9" s="1"/>
+    </row>
+    <row r="10" spans="1:28" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B10" s="3">
         <v>1982</v>
       </c>
@@ -3313,9 +3333,9 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
-      <c r="AA10" s="1"/>
-    </row>
-    <row r="11" spans="1:27" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AB10" s="1"/>
+    </row>
+    <row r="11" spans="1:28" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B11" s="3">
         <v>1983</v>
       </c>
@@ -3343,9 +3363,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-      <c r="AA11" s="1"/>
-    </row>
-    <row r="12" spans="1:27" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AB11" s="1"/>
+    </row>
+    <row r="12" spans="1:28" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B12" s="3">
         <v>1984</v>
       </c>
@@ -3373,9 +3393,9 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
-      <c r="AA12" s="1"/>
-    </row>
-    <row r="13" spans="1:27" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="AB12" s="1"/>
+    </row>
+    <row r="13" spans="1:28" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B13" s="3">
         <v>1985</v>
       </c>
@@ -3402,12 +3422,12 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Z13" s="3"/>
-      <c r="AA13" s="1"/>
-    </row>
-    <row r="14" spans="1:27" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AB13" s="1"/>
+    </row>
+    <row r="14" spans="1:28" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B14" s="3">
         <v>1986</v>
       </c>
@@ -3423,10 +3443,10 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -3441,9 +3461,9 @@
       <c r="Z14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AA14" s="1"/>
-    </row>
-    <row r="15" spans="1:27" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AB14" s="1"/>
+    </row>
+    <row r="15" spans="1:28" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B15" s="3">
         <v>1987</v>
       </c>
@@ -3473,9 +3493,9 @@
       <c r="Z15" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="AA15" s="1"/>
-    </row>
-    <row r="16" spans="1:27" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AB15" s="1"/>
+    </row>
+    <row r="16" spans="1:28" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B16" s="3">
         <v>1988</v>
       </c>
@@ -3493,10 +3513,10 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3" t="s">
+      <c r="O16" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
@@ -3507,9 +3527,9 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-      <c r="AA16" s="1"/>
-    </row>
-    <row r="17" spans="2:27" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AB16" s="1"/>
+    </row>
+    <row r="17" spans="2:28" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B17" s="3">
         <v>1989</v>
       </c>
@@ -3536,14 +3556,14 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA17" s="1"/>
-    </row>
-    <row r="18" spans="2:27" ht="16.7" x14ac:dyDescent="0.8">
+        <v>150</v>
+      </c>
+      <c r="AB17" s="1"/>
+    </row>
+    <row r="18" spans="2:28" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B18" s="3">
         <v>1990</v>
       </c>
@@ -3571,9 +3591,9 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
-      <c r="AA18" s="1"/>
-    </row>
-    <row r="19" spans="2:27" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AB18" s="1"/>
+    </row>
+    <row r="19" spans="2:28" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B19" s="3">
         <v>1991</v>
       </c>
@@ -3601,9 +3621,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-      <c r="AA19" s="1"/>
-    </row>
-    <row r="20" spans="2:27" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AB19" s="1"/>
+    </row>
+    <row r="20" spans="2:28" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B20" s="3">
         <v>1992</v>
       </c>
@@ -3631,9 +3651,9 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
-      <c r="AA20" s="1"/>
-    </row>
-    <row r="21" spans="2:27" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AB20" s="1"/>
+    </row>
+    <row r="21" spans="2:28" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B21" s="3">
         <v>1993</v>
       </c>
@@ -3661,9 +3681,9 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
-      <c r="AA21" s="1"/>
-    </row>
-    <row r="22" spans="2:27" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AB21" s="1"/>
+    </row>
+    <row r="22" spans="2:28" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B22" s="3">
         <v>1994</v>
       </c>
@@ -3691,9 +3711,9 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
-      <c r="AA22" s="1"/>
-    </row>
-    <row r="23" spans="2:27" ht="66.7" x14ac:dyDescent="0.8">
+      <c r="AB22" s="1"/>
+    </row>
+    <row r="23" spans="2:28" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B23" s="3">
         <v>1995</v>
       </c>
@@ -3715,7 +3735,7 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -3724,14 +3744,14 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Z23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AA23" s="1"/>
-    </row>
-    <row r="24" spans="2:27" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="AB23" s="1"/>
+    </row>
+    <row r="24" spans="2:28" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B24" s="3">
         <v>1996</v>
       </c>
@@ -3761,9 +3781,9 @@
       <c r="Z24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AA24" s="1"/>
-    </row>
-    <row r="25" spans="2:27" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AB24" s="1"/>
+    </row>
+    <row r="25" spans="2:28" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B25" s="3">
         <v>1997</v>
       </c>
@@ -3795,9 +3815,9 @@
       <c r="Z25" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AA25" s="1"/>
-    </row>
-    <row r="26" spans="2:27" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AB25" s="1"/>
+    </row>
+    <row r="26" spans="2:28" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B26" s="3">
         <v>1998</v>
       </c>
@@ -3829,9 +3849,9 @@
       <c r="Z26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AA26" s="1"/>
-    </row>
-    <row r="27" spans="2:27" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AB26" s="1"/>
+    </row>
+    <row r="27" spans="2:28" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B27" s="3">
         <v>1999</v>
       </c>
@@ -3863,9 +3883,9 @@
         <v>93</v>
       </c>
       <c r="Z27" s="3"/>
-      <c r="AA27" s="1"/>
-    </row>
-    <row r="28" spans="2:27" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="AB27" s="1"/>
+    </row>
+    <row r="28" spans="2:28" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B28" s="3">
         <v>2000</v>
       </c>
@@ -3899,9 +3919,9 @@
       <c r="Z28" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AA28" s="1"/>
-    </row>
-    <row r="29" spans="2:27" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AB28" s="1"/>
+    </row>
+    <row r="29" spans="2:28" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B29" s="3">
         <v>2001</v>
       </c>
@@ -3933,9 +3953,9 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
-      <c r="AA29" s="1"/>
-    </row>
-    <row r="30" spans="2:27" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="AB29" s="1"/>
+    </row>
+    <row r="30" spans="2:28" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B30" s="3">
         <v>2002</v>
       </c>
@@ -3965,9 +3985,9 @@
         <v>96</v>
       </c>
       <c r="Z30" s="3"/>
-      <c r="AA30" s="1"/>
-    </row>
-    <row r="31" spans="2:27" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AB30" s="1"/>
+    </row>
+    <row r="31" spans="2:28" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B31" s="3">
         <v>2003</v>
       </c>
@@ -3995,9 +4015,9 @@
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
-      <c r="AA31" s="1"/>
-    </row>
-    <row r="32" spans="2:27" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="AB31" s="1"/>
+    </row>
+    <row r="32" spans="2:28" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B32" s="3">
         <v>2004</v>
       </c>
@@ -4029,9 +4049,9 @@
       <c r="Z32" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AA32" s="1"/>
-    </row>
-    <row r="33" spans="2:27" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="AB32" s="1"/>
+    </row>
+    <row r="33" spans="2:28" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B33" s="3">
         <v>2005</v>
       </c>
@@ -4060,12 +4080,12 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Z33" s="3"/>
-      <c r="AA33" s="1"/>
-    </row>
-    <row r="34" spans="2:27" ht="66.7" x14ac:dyDescent="0.8">
+      <c r="AB33" s="1"/>
+    </row>
+    <row r="34" spans="2:28" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B34" s="3">
         <v>2006</v>
       </c>
@@ -4074,13 +4094,13 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>58</v>
@@ -4105,9 +4125,9 @@
       <c r="Z34" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="AA34" s="1"/>
-    </row>
-    <row r="35" spans="2:27" ht="66.7" x14ac:dyDescent="0.8">
+      <c r="AB34" s="1"/>
+    </row>
+    <row r="35" spans="2:28" ht="50" x14ac:dyDescent="0.8">
       <c r="B35" s="3">
         <v>2007</v>
       </c>
@@ -4137,22 +4157,22 @@
       </c>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="AA35" s="1"/>
-    </row>
-    <row r="36" spans="2:27" ht="50" x14ac:dyDescent="0.8">
+        <v>175</v>
+      </c>
+      <c r="AB35" s="1"/>
+    </row>
+    <row r="36" spans="2:28" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B36" s="3">
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -4177,9 +4197,9 @@
       <c r="Z36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AA36" s="1"/>
-    </row>
-    <row r="37" spans="2:27" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AB36" s="1"/>
+    </row>
+    <row r="37" spans="2:28" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B37" s="3">
         <v>2009</v>
       </c>
@@ -4209,9 +4229,9 @@
         <v>65</v>
       </c>
       <c r="Z37" s="3"/>
-      <c r="AA37" s="1"/>
-    </row>
-    <row r="38" spans="2:27" ht="50" x14ac:dyDescent="0.8">
+      <c r="AB37" s="1"/>
+    </row>
+    <row r="38" spans="2:28" ht="50" x14ac:dyDescent="0.8">
       <c r="B38" s="3">
         <v>2010</v>
       </c>
@@ -4229,11 +4249,11 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
-      <c r="O38" s="3" t="s">
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
@@ -4245,9 +4265,9 @@
         <v>98</v>
       </c>
       <c r="Z38" s="3"/>
-      <c r="AA38" s="1"/>
-    </row>
-    <row r="39" spans="2:27" ht="50" x14ac:dyDescent="0.8">
+      <c r="AB38" s="1"/>
+    </row>
+    <row r="39" spans="2:28" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B39" s="3">
         <v>2011</v>
       </c>
@@ -4257,7 +4277,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>117</v>
@@ -4287,25 +4307,25 @@
       </c>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA39" s="1"/>
-    </row>
-    <row r="40" spans="2:27" ht="66.7" x14ac:dyDescent="0.8">
+        <v>177</v>
+      </c>
+      <c r="AB39" s="1"/>
+    </row>
+    <row r="40" spans="2:28" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B40" s="3">
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -4330,12 +4350,12 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Z40" s="3"/>
-      <c r="AA40" s="1"/>
-    </row>
-    <row r="41" spans="2:27" ht="100" x14ac:dyDescent="0.8">
+      <c r="AB40" s="1"/>
+    </row>
+    <row r="41" spans="2:28" ht="100" x14ac:dyDescent="0.8">
       <c r="B41" s="3">
         <v>2013</v>
       </c>
@@ -4343,7 +4363,7 @@
         <v>75</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -4351,7 +4371,9 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
+      <c r="K41" s="3" t="s">
+        <v>229</v>
+      </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
@@ -4370,14 +4392,14 @@
         <v>113</v>
       </c>
       <c r="Y41" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Z41" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA41" s="1"/>
-    </row>
-    <row r="42" spans="2:27" ht="33.35" x14ac:dyDescent="0.8">
+        <v>183</v>
+      </c>
+      <c r="AB41" s="1"/>
+    </row>
+    <row r="42" spans="2:28" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B42" s="3">
         <v>2014</v>
       </c>
@@ -4408,14 +4430,14 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Z42" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AA42" s="1"/>
-    </row>
-    <row r="43" spans="2:27" ht="66.7" x14ac:dyDescent="0.8">
+      <c r="AB42" s="1"/>
+    </row>
+    <row r="43" spans="2:28" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B43" s="3">
         <v>2015</v>
       </c>
@@ -4451,11 +4473,11 @@
       </c>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AA43" s="1"/>
-    </row>
-    <row r="44" spans="2:27" ht="50" x14ac:dyDescent="0.8">
+        <v>189</v>
+      </c>
+      <c r="AB43" s="1"/>
+    </row>
+    <row r="44" spans="2:28" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B44" s="3">
         <v>2016</v>
       </c>
@@ -4473,7 +4495,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3" t="s">
@@ -4490,19 +4512,19 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Z44" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AA44" s="1"/>
-    </row>
-    <row r="45" spans="2:27" ht="50" x14ac:dyDescent="0.8">
+      <c r="AB44" s="1"/>
+    </row>
+    <row r="45" spans="2:28" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B45" s="3">
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4513,25 +4535,25 @@
         <v>116</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3" t="s">
+      <c r="O45" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
@@ -4540,25 +4562,25 @@
         <v>126</v>
       </c>
       <c r="Y45" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Z45" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA45" s="1"/>
-    </row>
-    <row r="46" spans="2:27" ht="116.7" x14ac:dyDescent="0.8">
+        <v>138</v>
+      </c>
+      <c r="AB45" s="1"/>
+    </row>
+    <row r="46" spans="2:28" ht="100" x14ac:dyDescent="0.8">
       <c r="B46" s="3">
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>15</v>
@@ -4585,25 +4607,25 @@
       </c>
       <c r="S46" s="3"/>
       <c r="T46" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="U46" s="3"/>
       <c r="V46" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="W46" s="3"/>
       <c r="X46" s="3" t="s">
         <v>112</v>
       </c>
       <c r="Y46" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Z46" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA46" s="1"/>
-    </row>
-    <row r="47" spans="2:27" ht="83.35" x14ac:dyDescent="0.8">
+        <v>173</v>
+      </c>
+      <c r="AB46" s="1"/>
+    </row>
+    <row r="47" spans="2:28" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B47" s="3">
         <v>2019</v>
       </c>
@@ -4643,19 +4665,19 @@
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="Z47" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA47" s="1"/>
-    </row>
-    <row r="48" spans="2:27" ht="50" x14ac:dyDescent="0.8">
+        <v>203</v>
+      </c>
+      <c r="AB47" s="1"/>
+    </row>
+    <row r="48" spans="2:28" ht="50" x14ac:dyDescent="0.8">
       <c r="B48" s="3">
         <v>2020</v>
       </c>
@@ -4692,14 +4714,14 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z48" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA48" s="1"/>
-    </row>
-    <row r="49" spans="2:27" ht="100" x14ac:dyDescent="0.8">
+        <v>162</v>
+      </c>
+      <c r="AB48" s="1"/>
+    </row>
+    <row r="49" spans="2:28" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B49" s="3">
         <v>2021</v>
       </c>
@@ -4716,7 +4738,7 @@
         <v>12</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3" t="s">
@@ -4729,11 +4751,11 @@
       <c r="N49" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O49" s="3" t="s">
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
       <c r="R49" s="3" t="s">
         <v>74</v>
       </c>
@@ -4742,33 +4764,33 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="X49" s="3"/>
       <c r="Y49" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="Z49" s="3"/>
-      <c r="AA49" s="1"/>
-    </row>
-    <row r="50" spans="2:27" ht="133.35" x14ac:dyDescent="0.8">
+      <c r="AB49" s="1"/>
+    </row>
+    <row r="50" spans="2:28" ht="133.35" x14ac:dyDescent="0.8">
       <c r="B50" s="3">
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>25</v>
@@ -4780,34 +4802,34 @@
         <v>84</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3" t="s">
-        <v>191</v>
-      </c>
+      <c r="P50" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="X50" s="3"/>
       <c r="Y50" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="Z50" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA50" s="1"/>
-    </row>
-    <row r="51" spans="2:27" ht="100" x14ac:dyDescent="0.8">
+        <v>191</v>
+      </c>
+      <c r="AB50" s="1"/>
+    </row>
+    <row r="51" spans="2:28" ht="100" x14ac:dyDescent="0.8">
       <c r="B51" s="3">
         <v>2023</v>
       </c>
@@ -4818,7 +4840,7 @@
         <v>124</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>16</v>
@@ -4837,41 +4859,41 @@
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
+      <c r="O51" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="P51" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q51" s="3" t="s">
-        <v>134</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="Q51" s="3"/>
       <c r="R51" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="X51" s="3"/>
       <c r="Y51" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="Z51" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA51" s="1"/>
-    </row>
-    <row r="52" spans="2:27" ht="100" x14ac:dyDescent="0.8">
+        <v>178</v>
+      </c>
+      <c r="AB51" s="1"/>
+    </row>
+    <row r="52" spans="2:28" ht="100" x14ac:dyDescent="0.8">
       <c r="B52" s="3">
         <v>2024</v>
       </c>
@@ -4885,13 +4907,13 @@
         <v>38</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>90</v>
@@ -4900,7 +4922,7 @@
         <v>86</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3" t="s">
@@ -4909,33 +4931,33 @@
       <c r="N52" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="O52" s="3" t="s">
+      <c r="O52" s="3"/>
+      <c r="P52" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q52" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Z52" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA52" s="1"/>
-    </row>
-    <row r="53" spans="2:27" ht="116.7" x14ac:dyDescent="0.8">
+        <v>163</v>
+      </c>
+      <c r="AB52" s="1"/>
+    </row>
+    <row r="53" spans="2:28" ht="83.35" x14ac:dyDescent="0.8">
       <c r="B53" s="3">
         <v>2025</v>
       </c>
@@ -4943,10 +4965,10 @@
         <v>79</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>122</v>
@@ -4955,77 +4977,87 @@
         <v>114</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
-      <c r="N53" s="3" t="s">
-        <v>133</v>
-      </c>
+      <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="P53" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q53" s="3"/>
+        <v>221</v>
+      </c>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3" t="s">
+        <v>218</v>
+      </c>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="X53" s="3"/>
       <c r="Y53" s="3" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="Z53" s="3"/>
-      <c r="AA53" s="1"/>
-    </row>
-    <row r="54" spans="2:27" ht="150" x14ac:dyDescent="0.8">
-      <c r="B54" s="3">
-        <v>2026</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
+      <c r="AB53" s="1"/>
+    </row>
+    <row r="54" spans="2:28" ht="116.7" x14ac:dyDescent="0.8">
+      <c r="B54" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F54" s="4"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
+      <c r="I54" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
+      <c r="N54" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>222</v>
+      </c>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
+      <c r="S54" s="4"/>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
-      <c r="Z54" s="3"/>
-      <c r="AA54" s="1"/>
+      <c r="Y54" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z54" s="4"/>
+      <c r="AB54" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6669F4F2-1FD9-49FC-A0B0-0C9200AB041F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D18AB99-896C-4C23-8398-675163DEB705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-367" yWindow="227" windowWidth="19020" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="5107" yWindow="227" windowWidth="19020" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="232">
   <si>
     <t>Stardom</t>
     <phoneticPr fontId="1"/>
@@ -79,10 +79,6 @@
   </si>
   <si>
     <t>AWG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>渡辺桃</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -588,19 +584,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スターライト・キッド
-なつぽい
-安納サオリ
-小波</t>
-    <rPh sb="16" eb="18">
-      <t>アノウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>コナミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>鉄アキラ
 姫ゆりあ
 金屋あんね
@@ -998,27 +981,6 @@
   </si>
   <si>
     <t>鈴木ユラ(アルマリブレ)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>吏南
-妃南
-鈴季すず
-水森由菜
-星来芽依
-ジーナ</t>
-    <rPh sb="6" eb="8">
-      <t>スズキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ミズモリ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ユナ</t>
-    </rPh>
-    <rPh sb="16" eb="20">
-      <t>セイラメイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1721,13 +1683,6 @@
     <t>&lt;彩夢&gt;</t>
   </si>
   <si>
-    <t>&lt;根本楓花&gt;（プロテスト合格）</t>
-    <rPh sb="12" eb="14">
-      <t>ゴウカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;ゴんべ&gt;
 &lt;摩利乃&gt;
 &lt;小谷さつき&gt;</t>
@@ -1763,11 +1718,58 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>吏南
+妃南
+鈴季すず
+水森由菜
+星来芽依
+ジーナ(休)</t>
+    <rPh sb="6" eb="8">
+      <t>スズキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ミズモリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ユナ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>セイラメイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スターライト・キッド(休)
+なつぽい
+安納サオリ
+小波</t>
+    <rPh sb="19" eb="21">
+      <t>アノウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コナミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渡辺桃(休)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;根本楓花&gt;(プロテスト合格)</t>
+    <rPh sb="12" eb="14">
+      <t>ゴウカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>&lt;希咲みなみ&gt;(2026.1.4デビュー予定)
 &lt;ひな&gt;(2026.1.4デビュー予定)
 &lt;髙橋光咲&gt;(2026.1.4デビュー予定)
 &lt;伊田惟吹&gt;(2026.1.4デビュー予定)
-&lt;松橋ななを&gt;(2025.12.6デビュー予定)
 &lt;当麻煌&gt;(2026.1.4デビュー予定)
 &lt;直江ミう&gt;(2026.1.4デビュー予定)</t>
     <rPh sb="1" eb="3">
@@ -1792,17 +1794,15 @@
       <t>スイ</t>
     </rPh>
     <rPh sb="92" eb="94">
-      <t>マツハシ</t>
-    </rPh>
-    <rPh sb="112" eb="114">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="117" eb="119">
       <t>トウマ</t>
     </rPh>
-    <rPh sb="139" eb="141">
+    <rPh sb="114" eb="116">
       <t>ナオエ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;松橋ななを&gt;(2025.12.6デビュー予定)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1870,7 +1870,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1883,34 +1883,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="27">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Noto Serif JP SemiBold"/>
-        <family val="1"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2073,6 +2050,26 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Noto Serif JP SemiBold"/>
+        <family val="1"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2470,16 +2467,16 @@
     <tableColumn id="21" xr3:uid="{ACF43FBE-31D7-4ED6-A997-E4AF4BF0B9D4}" name="マーベラス" dataDxfId="12"/>
     <tableColumn id="20" xr3:uid="{86389032-6123-44BF-98AB-D3CA13F2577A}" name="LLPW-X" dataDxfId="11"/>
     <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="2.5(11.24～なにわ女子)" dataDxfId="10"/>
-    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="0"/>
-    <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{3CAB629B-BA9F-4560-89E7-0980EE2B0905}" name="エボリューション" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{5C631C06-2946-4CE3-901A-57A0BABE156F}" name="BBJ" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{F6B1BCBE-A702-4B7C-9B81-2600AE026FEA}" name="PPP" dataDxfId="4"/>
-    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="1"/>
+    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="9"/>
+    <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{3CAB629B-BA9F-4560-89E7-0980EE2B0905}" name="エボリューション" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{5C631C06-2946-4CE3-901A-57A0BABE156F}" name="BBJ" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{F6B1BCBE-A702-4B7C-9B81-2600AE026FEA}" name="PPP" dataDxfId="3"/>
+    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2805,10 +2802,10 @@
   <dimension ref="A1:AB54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="M49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L54" sqref="L54"/>
+      <selection pane="bottomRight" activeCell="X54" sqref="X54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.33203125" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2845,7 +2842,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="16" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F1" s="1"/>
       <c r="K1" s="1"/>
@@ -3073,13 +3070,13 @@
     </row>
     <row r="4" spans="1:28" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>5</v>
@@ -3088,64 +3085,64 @@
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB4" s="1"/>
     </row>
@@ -3159,7 +3156,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -3257,7 +3254,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -3271,7 +3268,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB8" s="1"/>
     </row>
@@ -3422,7 +3419,7 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Z13" s="3"/>
       <c r="AB13" s="1"/>
@@ -3444,7 +3441,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -3456,10 +3453,10 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AB14" s="1"/>
     </row>
@@ -3491,7 +3488,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AB15" s="1"/>
     </row>
@@ -3505,7 +3502,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -3514,7 +3511,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -3556,10 +3553,10 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AB17" s="1"/>
     </row>
@@ -3725,7 +3722,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -3735,7 +3732,7 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -3744,10 +3741,10 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Z23" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB23" s="1"/>
     </row>
@@ -3779,7 +3776,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB24" s="1"/>
     </row>
@@ -3798,7 +3795,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -3813,7 +3810,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AB25" s="1"/>
     </row>
@@ -3844,10 +3841,10 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Z26" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB26" s="1"/>
     </row>
@@ -3856,7 +3853,7 @@
         <v>1999</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -3880,7 +3877,7 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Z27" s="3"/>
       <c r="AB27" s="1"/>
@@ -3892,7 +3889,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -3902,7 +3899,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -3917,7 +3914,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AB28" s="1"/>
     </row>
@@ -3931,7 +3928,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -3943,7 +3940,7 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
@@ -3982,7 +3979,7 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Z30" s="3"/>
       <c r="AB30" s="1"/>
@@ -4044,10 +4041,10 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AB32" s="1"/>
     </row>
@@ -4072,7 +4069,7 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
@@ -4080,7 +4077,7 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Z33" s="3"/>
       <c r="AB33" s="1"/>
@@ -4094,19 +4091,19 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -4119,11 +4116,11 @@
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AB34" s="1"/>
     </row>
@@ -4153,11 +4150,11 @@
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB35" s="1"/>
     </row>
@@ -4166,13 +4163,13 @@
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -4191,11 +4188,11 @@
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y36" s="3"/>
       <c r="Z36" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB36" s="1"/>
     </row>
@@ -4226,7 +4223,7 @@
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
       <c r="Y37" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z37" s="3"/>
       <c r="AB37" s="1"/>
@@ -4243,7 +4240,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -4252,7 +4249,7 @@
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
@@ -4262,7 +4259,7 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Z38" s="3"/>
       <c r="AB38" s="1"/>
@@ -4272,22 +4269,22 @@
         <v>2011</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
@@ -4296,18 +4293,18 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AB39" s="1"/>
     </row>
@@ -4316,16 +4313,16 @@
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -4334,7 +4331,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>1</v>
@@ -4350,7 +4347,7 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Z40" s="3"/>
       <c r="AB40" s="1"/>
@@ -4360,10 +4357,10 @@
         <v>2013</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -4372,7 +4369,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -4389,13 +4386,13 @@
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Y41" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Z41" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AB41" s="1"/>
     </row>
@@ -4404,10 +4401,10 @@
         <v>2014</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>6</v>
+        <v>228</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -4430,22 +4427,22 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Z42" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="2:28" ht="66.7" x14ac:dyDescent="0.8">
+    <row r="43" spans="2:28" ht="83.35" x14ac:dyDescent="0.8">
       <c r="B43" s="3">
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -4455,7 +4452,7 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
@@ -4469,11 +4466,11 @@
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AB43" s="1"/>
     </row>
@@ -4482,11 +4479,11 @@
         <v>2016</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -4495,11 +4492,11 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
@@ -4512,10 +4509,10 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Z44" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AB44" s="1"/>
     </row>
@@ -4524,48 +4521,48 @@
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Y45" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Z45" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AB45" s="1"/>
     </row>
@@ -4574,54 +4571,54 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>141</v>
+        <v>226</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S46" s="3"/>
       <c r="T46" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="U46" s="3"/>
       <c r="V46" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="W46" s="3"/>
       <c r="X46" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Y46" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Z46" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AB46" s="1"/>
     </row>
@@ -4630,31 +4627,31 @@
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -4665,15 +4662,15 @@
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Z47" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AB47" s="1"/>
     </row>
@@ -4682,14 +4679,14 @@
         <v>2020</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -4698,7 +4695,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
@@ -4706,7 +4703,7 @@
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
@@ -4714,10 +4711,10 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Z48" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AB48" s="1"/>
     </row>
@@ -4726,49 +4723,49 @@
         <v>2021</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="F49" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="X49" s="3"/>
       <c r="Y49" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Z49" s="3"/>
       <c r="AB49" s="1"/>
@@ -4778,38 +4775,38 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="H50" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
@@ -4818,14 +4815,14 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="X50" s="3"/>
       <c r="Y50" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Z50" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AB50" s="1"/>
     </row>
@@ -4834,62 +4831,62 @@
         <v>2023</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="X51" s="3"/>
       <c r="Y51" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Z51" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AB51" s="1"/>
     </row>
@@ -4898,62 +4895,62 @@
         <v>2024</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O52" s="3"/>
       <c r="P52" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Z52" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AB52" s="1"/>
     </row>
@@ -4962,75 +4959,77 @@
         <v>2025</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
+      <c r="K53" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P53" s="3"/>
       <c r="Q53" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="X53" s="3"/>
       <c r="Y53" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Z53" s="3"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="2:28" ht="116.7" x14ac:dyDescent="0.8">
-      <c r="B54" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C54" s="4"/>
+    <row r="54" spans="2:28" ht="100" x14ac:dyDescent="0.8">
+      <c r="B54" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F54" s="4"/>
+        <v>220</v>
+      </c>
+      <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
@@ -5039,24 +5038,24 @@
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
-      <c r="S54" s="4"/>
+      <c r="S54" s="3"/>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
       <c r="Y54" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z54" s="4"/>
+        <v>214</v>
+      </c>
+      <c r="Z54" s="3"/>
       <c r="AB54" s="1"/>
     </row>
   </sheetData>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D18AB99-896C-4C23-8398-675163DEB705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EFEB98-9C0D-4A3C-ACFE-599DEB5C0E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5107" yWindow="227" windowWidth="19020" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="5613" yWindow="280" windowWidth="19020" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -277,13 +277,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シン・広田さくら</t>
-    <rPh sb="2" eb="5">
-      <t>ヒロタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>救世忍者乱丸</t>
     <rPh sb="0" eb="6">
       <t>キュウセイニンジャランマル</t>
@@ -1803,6 +1796,10 @@
   </si>
   <si>
     <t>&lt;松橋ななを&gt;(2025.12.6デビュー予定)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シン・広田・葛飾さくら</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2802,10 +2799,10 @@
   <dimension ref="A1:AB54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="M49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="S8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="X54" sqref="X54"/>
+      <selection pane="bottomRight" activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.33203125" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2842,7 +2839,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="16" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1"/>
       <c r="K1" s="1"/>
@@ -3076,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>5</v>
@@ -3085,25 +3082,25 @@
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>8</v>
@@ -3112,7 +3109,7 @@
         <v>20</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>4</v>
@@ -3124,22 +3121,22 @@
         <v>7</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z4" s="2" t="s">
         <v>10</v>
@@ -3419,7 +3416,7 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z13" s="3"/>
       <c r="AB13" s="1"/>
@@ -3453,7 +3450,7 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>16</v>
@@ -3488,7 +3485,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB15" s="1"/>
     </row>
@@ -3553,10 +3550,10 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB17" s="1"/>
     </row>
@@ -3722,7 +3719,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -3732,7 +3729,7 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -3741,14 +3738,14 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z23" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="2:28" ht="16.7" x14ac:dyDescent="0.8">
+    <row r="24" spans="2:28" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B24" s="3">
         <v>1996</v>
       </c>
@@ -3776,7 +3773,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3" t="s">
-        <v>34</v>
+        <v>231</v>
       </c>
       <c r="AB24" s="1"/>
     </row>
@@ -3795,7 +3792,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -3810,7 +3807,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB25" s="1"/>
     </row>
@@ -3841,10 +3838,10 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Z26" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB26" s="1"/>
     </row>
@@ -3853,7 +3850,7 @@
         <v>1999</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -3877,7 +3874,7 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z27" s="3"/>
       <c r="AB27" s="1"/>
@@ -3889,7 +3886,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -3899,7 +3896,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -3914,7 +3911,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB28" s="1"/>
     </row>
@@ -3940,7 +3937,7 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
@@ -3979,7 +3976,7 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z30" s="3"/>
       <c r="AB30" s="1"/>
@@ -4041,10 +4038,10 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB32" s="1"/>
     </row>
@@ -4069,7 +4066,7 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
@@ -4077,7 +4074,7 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z33" s="3"/>
       <c r="AB33" s="1"/>
@@ -4091,19 +4088,19 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -4116,11 +4113,11 @@
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB34" s="1"/>
     </row>
@@ -4150,11 +4147,11 @@
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB35" s="1"/>
     </row>
@@ -4163,13 +4160,13 @@
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -4188,11 +4185,11 @@
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y36" s="3"/>
       <c r="Z36" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB36" s="1"/>
     </row>
@@ -4223,7 +4220,7 @@
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
       <c r="Y37" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z37" s="3"/>
       <c r="AB37" s="1"/>
@@ -4240,7 +4237,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -4249,7 +4246,7 @@
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
@@ -4259,7 +4256,7 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Z38" s="3"/>
       <c r="AB38" s="1"/>
@@ -4269,22 +4266,22 @@
         <v>2011</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
@@ -4293,18 +4290,18 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AB39" s="1"/>
     </row>
@@ -4313,16 +4310,16 @@
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -4331,7 +4328,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>1</v>
@@ -4347,7 +4344,7 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Z40" s="3"/>
       <c r="AB40" s="1"/>
@@ -4357,10 +4354,10 @@
         <v>2013</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -4369,7 +4366,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -4386,13 +4383,13 @@
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y41" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Z41" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AB41" s="1"/>
     </row>
@@ -4401,10 +4398,10 @@
         <v>2014</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -4427,10 +4424,10 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z42" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB42" s="1"/>
     </row>
@@ -4439,10 +4436,10 @@
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -4452,7 +4449,7 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
@@ -4466,11 +4463,11 @@
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB43" s="1"/>
     </row>
@@ -4479,7 +4476,7 @@
         <v>2016</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
@@ -4492,7 +4489,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3" t="s">
@@ -4509,10 +4506,10 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z44" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AB44" s="1"/>
     </row>
@@ -4521,7 +4518,7 @@
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4529,16 +4526,16 @@
         <v>12</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
@@ -4550,19 +4547,19 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Y45" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z45" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB45" s="1"/>
     </row>
@@ -4571,13 +4568,13 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>14</v>
@@ -4586,12 +4583,12 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>31</v>
@@ -4600,25 +4597,25 @@
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S46" s="3"/>
       <c r="T46" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U46" s="3"/>
       <c r="V46" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="W46" s="3"/>
       <c r="X46" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Y46" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z46" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="Z46" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="AB46" s="1"/>
     </row>
@@ -4627,31 +4624,31 @@
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -4662,15 +4659,15 @@
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Z47" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AB47" s="1"/>
     </row>
@@ -4679,10 +4676,10 @@
         <v>2020</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
@@ -4695,7 +4692,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
@@ -4703,7 +4700,7 @@
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
@@ -4711,10 +4708,10 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z48" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AB48" s="1"/>
     </row>
@@ -4723,23 +4720,23 @@
         <v>2021</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -4751,21 +4748,21 @@
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X49" s="3"/>
       <c r="Y49" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Z49" s="3"/>
       <c r="AB49" s="1"/>
@@ -4775,38 +4772,38 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
@@ -4815,14 +4812,14 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X50" s="3"/>
       <c r="Y50" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z50" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AB50" s="1"/>
     </row>
@@ -4834,59 +4831,59 @@
         <v>27</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X51" s="3"/>
       <c r="Y51" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z51" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB51" s="1"/>
     </row>
@@ -4895,62 +4892,62 @@
         <v>2024</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G52" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K52" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O52" s="3"/>
       <c r="P52" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Z52" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AB52" s="1"/>
     </row>
@@ -4959,89 +4956,89 @@
         <v>2025</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P53" s="3"/>
       <c r="Q53" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X53" s="3"/>
       <c r="Y53" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z53" s="3"/>
       <c r="AB53" s="1"/>
     </row>
     <row r="54" spans="2:28" ht="100" x14ac:dyDescent="0.8">
       <c r="B54" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
@@ -5053,7 +5050,7 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
       <c r="Y54" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Z54" s="3"/>
       <c r="AB54" s="1"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EFEB98-9C0D-4A3C-ACFE-599DEB5C0E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B39771-0FDA-411B-B090-1485CA841D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5613" yWindow="280" windowWidth="19020" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
@@ -624,14 +624,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>稲葉ともか
-rhythm</t>
-    <rPh sb="0" eb="2">
-      <t>イナバ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>HisokA</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1676,20 +1668,6 @@
     <t>&lt;彩夢&gt;</t>
   </si>
   <si>
-    <t>&lt;ゴんべ&gt;
-&lt;摩利乃&gt;
-&lt;小谷さつき&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>梨央
-弥福かな</t>
-    <rPh sb="0" eb="2">
-      <t>リオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>小夏れん</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1800,6 +1778,34 @@
   </si>
   <si>
     <t>シン・広田・葛飾さくら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>稲葉ともか
+rhythm(12.31退団予定)</t>
+    <rPh sb="0" eb="2">
+      <t>イナバ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タイダン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;摩利乃&gt;
+&lt;小谷さつき&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>梨央
+弥福かな
+&lt;ゴんべ&gt;(11.24プレデビュー)</t>
+    <rPh sb="0" eb="2">
+      <t>リオ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2799,10 +2805,10 @@
   <dimension ref="A1:AB54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="S8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="X23" sqref="X23"/>
+      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.33203125" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2839,7 +2845,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="16" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1"/>
       <c r="K1" s="1"/>
@@ -3082,7 +3088,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>18</v>
@@ -3094,13 +3100,13 @@
         <v>61</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>55</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>8</v>
@@ -3109,7 +3115,7 @@
         <v>20</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>4</v>
@@ -3121,19 +3127,19 @@
         <v>7</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>37</v>
@@ -3416,7 +3422,7 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z13" s="3"/>
       <c r="AB13" s="1"/>
@@ -3485,7 +3491,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB15" s="1"/>
     </row>
@@ -3550,10 +3556,10 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AB17" s="1"/>
     </row>
@@ -3729,7 +3735,7 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -3738,7 +3744,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z23" s="3" t="s">
         <v>68</v>
@@ -3773,7 +3779,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AB24" s="1"/>
     </row>
@@ -3792,7 +3798,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -3807,7 +3813,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB25" s="1"/>
     </row>
@@ -3838,7 +3844,7 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z26" s="3" t="s">
         <v>34</v>
@@ -3874,7 +3880,7 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Z27" s="3"/>
       <c r="AB27" s="1"/>
@@ -3896,7 +3902,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -3911,7 +3917,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB28" s="1"/>
     </row>
@@ -3976,7 +3982,7 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z30" s="3"/>
       <c r="AB30" s="1"/>
@@ -4041,7 +4047,7 @@
         <v>64</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB32" s="1"/>
     </row>
@@ -4066,7 +4072,7 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
@@ -4074,7 +4080,7 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z33" s="3"/>
       <c r="AB33" s="1"/>
@@ -4088,19 +4094,19 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>56</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -4117,7 +4123,7 @@
       </c>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB34" s="1"/>
     </row>
@@ -4147,11 +4153,11 @@
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AB35" s="1"/>
     </row>
@@ -4160,13 +4166,13 @@
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -4256,7 +4262,7 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z38" s="3"/>
       <c r="AB38" s="1"/>
@@ -4271,17 +4277,17 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
@@ -4297,11 +4303,11 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AB39" s="1"/>
     </row>
@@ -4310,16 +4316,16 @@
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -4328,7 +4334,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>1</v>
@@ -4344,7 +4350,7 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z40" s="3"/>
       <c r="AB40" s="1"/>
@@ -4357,7 +4363,7 @@
         <v>73</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -4366,7 +4372,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -4383,13 +4389,13 @@
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Y41" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Z41" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AB41" s="1"/>
     </row>
@@ -4398,7 +4404,7 @@
         <v>2014</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>45</v>
@@ -4424,10 +4430,10 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z42" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AB42" s="1"/>
     </row>
@@ -4436,7 +4442,7 @@
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>42</v>
@@ -4463,11 +4469,11 @@
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AB43" s="1"/>
     </row>
@@ -4489,7 +4495,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3" t="s">
@@ -4506,10 +4512,10 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z44" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AB44" s="1"/>
     </row>
@@ -4518,7 +4524,7 @@
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4526,16 +4532,16 @@
         <v>12</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
@@ -4547,19 +4553,19 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y45" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z45" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB45" s="1"/>
     </row>
@@ -4568,13 +4574,13 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>14</v>
@@ -4588,7 +4594,7 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>31</v>
@@ -4601,21 +4607,21 @@
       </c>
       <c r="S46" s="3"/>
       <c r="T46" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U46" s="3"/>
       <c r="V46" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W46" s="3"/>
       <c r="X46" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y46" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z46" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="Z46" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="AB46" s="1"/>
     </row>
@@ -4624,7 +4630,7 @@
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>46</v>
@@ -4632,13 +4638,13 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>84</v>
+        <v>229</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>80</v>
@@ -4648,7 +4654,7 @@
         <v>58</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -4659,15 +4665,15 @@
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Z47" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AB47" s="1"/>
     </row>
@@ -4692,7 +4698,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
@@ -4700,7 +4706,7 @@
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
@@ -4708,10 +4714,10 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z48" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AB48" s="1"/>
     </row>
@@ -4732,11 +4738,11 @@
         <v>11</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -4758,11 +4764,11 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X49" s="3"/>
       <c r="Y49" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Z49" s="3"/>
       <c r="AB49" s="1"/>
@@ -4772,38 +4778,38 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>81</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
@@ -4812,14 +4818,14 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X50" s="3"/>
       <c r="Y50" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Z50" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AB50" s="1"/>
     </row>
@@ -4831,19 +4837,19 @@
         <v>27</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>52</v>
@@ -4853,37 +4859,37 @@
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X51" s="3"/>
       <c r="Y51" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z51" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AB51" s="1"/>
     </row>
@@ -4901,33 +4907,33 @@
         <v>36</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>83</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O52" s="3"/>
       <c r="P52" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>65</v>
@@ -4935,19 +4941,19 @@
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z52" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AB52" s="1"/>
     </row>
@@ -4959,86 +4965,86 @@
         <v>76</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P53" s="3"/>
       <c r="Q53" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X53" s="3"/>
       <c r="Y53" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Z53" s="3"/>
       <c r="AB53" s="1"/>
     </row>
     <row r="54" spans="2:28" ht="100" x14ac:dyDescent="0.8">
       <c r="B54" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
@@ -5050,7 +5056,7 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
       <c r="Y54" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z54" s="3"/>
       <c r="AB54" s="1"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B39771-0FDA-411B-B090-1485CA841D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9E8544-8140-4049-A2FA-A466980187AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5613" yWindow="280" windowWidth="19020" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
@@ -1052,26 +1052,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>加藤園子(OZ)(2025.11.23引退予定)
-ミス・モンゴル(世界)</t>
-    <rPh sb="0" eb="2">
-      <t>カトウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ソノコ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>インタイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>セカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>宮崎有妃(2026.1.1引退予定)</t>
     <rPh sb="0" eb="4">
       <t>ミヤザキユキ</t>
@@ -1805,6 +1785,13 @@
 &lt;ゴんべ&gt;(11.24プレデビュー)</t>
     <rPh sb="0" eb="2">
       <t>リオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミス・モンゴル(世界)</t>
+    <rPh sb="8" eb="10">
+      <t>セカイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2805,10 +2792,10 @@
   <dimension ref="A1:AB54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
+      <selection pane="bottomRight" activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.33203125" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2862,7 +2849,7 @@
     <row r="2" spans="1:28" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RZ2)</f>
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -3046,7 +3033,7 @@
      LEN(Y5:Y999) - LEN(SUBSTITUTE(Y5:Y999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z2" s="1" cm="1">
         <f t="array" ref="Z2">SUMPRODUCT(
@@ -3100,7 +3087,7 @@
         <v>61</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>55</v>
@@ -3115,7 +3102,7 @@
         <v>20</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>4</v>
@@ -3133,10 +3120,10 @@
         <v>148</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X4" s="2" t="s">
         <v>104</v>
@@ -3735,7 +3722,7 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -3744,7 +3731,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3" t="s">
-        <v>153</v>
+        <v>231</v>
       </c>
       <c r="Z23" s="3" t="s">
         <v>68</v>
@@ -3779,7 +3766,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AB24" s="1"/>
     </row>
@@ -4080,7 +4067,7 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Z33" s="3"/>
       <c r="AB33" s="1"/>
@@ -4094,13 +4081,13 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>56</v>
@@ -4157,7 +4144,7 @@
       </c>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AB35" s="1"/>
     </row>
@@ -4166,7 +4153,7 @@
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -4307,7 +4294,7 @@
       </c>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB39" s="1"/>
     </row>
@@ -4316,13 +4303,13 @@
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>132</v>
@@ -4350,7 +4337,7 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z40" s="3"/>
       <c r="AB40" s="1"/>
@@ -4363,7 +4350,7 @@
         <v>73</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -4372,7 +4359,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -4392,10 +4379,10 @@
         <v>109</v>
       </c>
       <c r="Y41" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z41" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AB41" s="1"/>
     </row>
@@ -4404,7 +4391,7 @@
         <v>2014</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>45</v>
@@ -4430,7 +4417,7 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Z42" s="3" t="s">
         <v>121</v>
@@ -4442,7 +4429,7 @@
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>42</v>
@@ -4473,7 +4460,7 @@
       </c>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AB43" s="1"/>
     </row>
@@ -4524,7 +4511,7 @@
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4562,7 +4549,7 @@
         <v>122</v>
       </c>
       <c r="Y45" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z45" s="3" t="s">
         <v>134</v>
@@ -4574,13 +4561,13 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>14</v>
@@ -4611,17 +4598,17 @@
       </c>
       <c r="U46" s="3"/>
       <c r="V46" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="W46" s="3"/>
       <c r="X46" s="3" t="s">
         <v>108</v>
       </c>
       <c r="Y46" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z46" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="Z46" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="AB46" s="1"/>
     </row>
@@ -4644,7 +4631,7 @@
         <v>25</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>80</v>
@@ -4665,15 +4652,15 @@
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Z47" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AB47" s="1"/>
     </row>
@@ -4717,7 +4704,7 @@
         <v>136</v>
       </c>
       <c r="Z48" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB48" s="1"/>
     </row>
@@ -4738,7 +4725,7 @@
         <v>11</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3" t="s">
@@ -4764,11 +4751,11 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X49" s="3"/>
       <c r="Y49" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Z49" s="3"/>
       <c r="AB49" s="1"/>
@@ -4778,19 +4765,19 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>24</v>
@@ -4802,14 +4789,14 @@
         <v>81</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
@@ -4818,14 +4805,14 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X50" s="3"/>
       <c r="Y50" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Z50" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB50" s="1"/>
     </row>
@@ -4840,7 +4827,7 @@
         <v>120</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>15</v>
@@ -4859,7 +4846,7 @@
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
@@ -4871,7 +4858,7 @@
       </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
@@ -4879,17 +4866,17 @@
         <v>150</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X51" s="3"/>
       <c r="Y51" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Z51" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AB51" s="1"/>
     </row>
@@ -4907,13 +4894,13 @@
         <v>36</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>86</v>
@@ -4922,7 +4909,7 @@
         <v>83</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3" t="s">
@@ -4950,10 +4937,10 @@
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Z52" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AB52" s="1"/>
     </row>
@@ -4965,10 +4952,10 @@
         <v>76</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>118</v>
@@ -4977,24 +4964,24 @@
         <v>110</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P53" s="3"/>
       <c r="Q53" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
@@ -5005,46 +4992,46 @@
         <v>151</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X53" s="3"/>
       <c r="Y53" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Z53" s="3"/>
       <c r="AB53" s="1"/>
     </row>
     <row r="54" spans="2:28" ht="100" x14ac:dyDescent="0.8">
       <c r="B54" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
@@ -5056,7 +5043,7 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
       <c r="Y54" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Z54" s="3"/>
       <c r="AB54" s="1"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9E8544-8140-4049-A2FA-A466980187AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78F9913-4AEB-405D-982B-68BA365CAAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5613" yWindow="280" windowWidth="19020" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
@@ -1780,18 +1780,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>梨央
-弥福かな
-&lt;ゴんべ&gt;(11.24プレデビュー)</t>
-    <rPh sb="0" eb="2">
-      <t>リオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ミス・モンゴル(世界)</t>
     <rPh sb="8" eb="10">
       <t>セカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>梨央
+弥福かな
+ゴんべ</t>
+    <rPh sb="0" eb="2">
+      <t>リオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2792,10 +2792,10 @@
   <dimension ref="A1:AB54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Y24" sqref="Y24"/>
+      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.33203125" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -3731,7 +3731,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Z23" s="3" t="s">
         <v>68</v>
@@ -4955,7 +4955,7 @@
         <v>217</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>118</v>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78F9913-4AEB-405D-982B-68BA365CAAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C870584F-E5C9-455F-A2D3-6DA9941ADF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5613" yWindow="280" windowWidth="19020" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="26520" yWindow="433" windowWidth="19020" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -922,23 +922,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>藤本つかさ(IR)(休)
-星ハム子(IR)</t>
-    <rPh sb="0" eb="2">
-      <t>フジモト</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>キュウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ホシ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>翔月なつみ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1665,10 +1648,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>優華</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>吏南
 妃南
 鈴季すず
@@ -1793,6 +1772,27 @@
     <rPh sb="0" eb="2">
       <t>リオ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤本つかさ(IR)(休)
+星ハム子(IR)(休)</t>
+    <rPh sb="0" eb="2">
+      <t>フジモト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ホシ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優華(IR,V)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2792,10 +2792,10 @@
   <dimension ref="A1:AB54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
+      <selection pane="bottomRight" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.33203125" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2889,7 +2889,7 @@
      LEN(G5:G999) - LEN(SUBSTITUTE(G5:G999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" cm="1">
         <f t="array" ref="H2">SUMPRODUCT(
@@ -2921,7 +2921,7 @@
      LEN(K5:K999) - LEN(SUBSTITUTE(K5:K999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L2" s="1" cm="1">
         <f t="array" ref="L2">SUMPRODUCT(
@@ -3087,7 +3087,7 @@
         <v>61</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>55</v>
@@ -3102,7 +3102,7 @@
         <v>20</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>4</v>
@@ -3114,16 +3114,16 @@
         <v>7</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X4" s="2" t="s">
         <v>104</v>
@@ -3409,7 +3409,7 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z13" s="3"/>
       <c r="AB13" s="1"/>
@@ -3543,10 +3543,10 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB17" s="1"/>
     </row>
@@ -3722,7 +3722,7 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -3731,7 +3731,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Z23" s="3" t="s">
         <v>68</v>
@@ -3766,7 +3766,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AB24" s="1"/>
     </row>
@@ -4067,7 +4067,7 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z33" s="3"/>
       <c r="AB33" s="1"/>
@@ -4081,13 +4081,13 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>56</v>
@@ -4144,7 +4144,7 @@
       </c>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AB35" s="1"/>
     </row>
@@ -4153,13 +4153,13 @@
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>131</v>
+        <v>230</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -4264,7 +4264,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>113</v>
@@ -4294,7 +4294,7 @@
       </c>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AB39" s="1"/>
     </row>
@@ -4303,16 +4303,16 @@
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -4337,7 +4337,7 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z40" s="3"/>
       <c r="AB40" s="1"/>
@@ -4350,17 +4350,17 @@
         <v>73</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
+      <c r="G41" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
-      <c r="K41" s="3" t="s">
-        <v>220</v>
-      </c>
+      <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
@@ -4379,10 +4379,10 @@
         <v>109</v>
       </c>
       <c r="Y41" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Z41" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AB41" s="1"/>
     </row>
@@ -4391,7 +4391,7 @@
         <v>2014</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>45</v>
@@ -4417,7 +4417,7 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z42" s="3" t="s">
         <v>121</v>
@@ -4429,7 +4429,7 @@
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>42</v>
@@ -4460,7 +4460,7 @@
       </c>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB43" s="1"/>
     </row>
@@ -4482,7 +4482,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3" t="s">
@@ -4499,7 +4499,7 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z44" s="3" t="s">
         <v>123</v>
@@ -4511,7 +4511,7 @@
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4522,13 +4522,13 @@
         <v>112</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
@@ -4540,7 +4540,7 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
@@ -4549,10 +4549,10 @@
         <v>122</v>
       </c>
       <c r="Y45" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z45" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AB45" s="1"/>
     </row>
@@ -4561,13 +4561,13 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>14</v>
@@ -4594,21 +4594,21 @@
       </c>
       <c r="S46" s="3"/>
       <c r="T46" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U46" s="3"/>
       <c r="V46" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W46" s="3"/>
       <c r="X46" s="3" t="s">
         <v>108</v>
       </c>
       <c r="Y46" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z46" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="Z46" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="AB46" s="1"/>
     </row>
@@ -4631,7 +4631,7 @@
         <v>25</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>80</v>
@@ -4652,15 +4652,15 @@
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Z47" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AB47" s="1"/>
     </row>
@@ -4701,10 +4701,10 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z48" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AB48" s="1"/>
     </row>
@@ -4725,7 +4725,7 @@
         <v>11</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3" t="s">
@@ -4751,11 +4751,11 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X49" s="3"/>
       <c r="Y49" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Z49" s="3"/>
       <c r="AB49" s="1"/>
@@ -4765,19 +4765,19 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>24</v>
@@ -4789,14 +4789,14 @@
         <v>81</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
@@ -4805,14 +4805,14 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X50" s="3"/>
       <c r="Y50" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Z50" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AB50" s="1"/>
     </row>
@@ -4827,7 +4827,7 @@
         <v>120</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>15</v>
@@ -4846,37 +4846,37 @@
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P51" s="3" t="s">
         <v>129</v>
       </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X51" s="3"/>
       <c r="Y51" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Z51" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB51" s="1"/>
     </row>
@@ -4894,13 +4894,13 @@
         <v>36</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>86</v>
@@ -4909,7 +4909,7 @@
         <v>83</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3" t="s">
@@ -4928,19 +4928,19 @@
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Z52" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB52" s="1"/>
     </row>
@@ -4952,10 +4952,10 @@
         <v>76</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>118</v>
@@ -4964,74 +4964,74 @@
         <v>110</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P53" s="3"/>
       <c r="Q53" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X53" s="3"/>
       <c r="Y53" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Z53" s="3"/>
       <c r="AB53" s="1"/>
     </row>
     <row r="54" spans="2:28" ht="100" x14ac:dyDescent="0.8">
       <c r="B54" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
@@ -5043,7 +5043,7 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
       <c r="Y54" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Z54" s="3"/>
       <c r="AB54" s="1"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C870584F-E5C9-455F-A2D3-6DA9941ADF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B05C4F-5295-41B6-B3D7-5A0CD8340357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="433" windowWidth="19020" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="-67" yWindow="-67" windowWidth="25734" windowHeight="13814" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -917,11 +917,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レディくらら
-レディせりな</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>翔月なつみ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1078,19 +1073,6 @@
 神姫楽ミサ</t>
     <rPh sb="0" eb="4">
       <t>マシロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>咲村良子</t>
-    <rPh sb="0" eb="1">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ムラ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヨシコ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1233,13 +1215,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2.5(11.24～なにわ女子)</t>
-    <rPh sb="13" eb="15">
-      <t>ジョシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>浦幌ちほ(北都)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1320,12 +1295,6 @@
   <si>
     <t>YUNA
 スパイク・ニシムラ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スーパーW
-フライング・ペンギン(別名あり)
-ぽっぽちゃん</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1384,12 +1353,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>七星
-馬頭ほかげ
-りえまる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PPP</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1793,6 +1756,35 @@
   </si>
   <si>
     <t>優華(IR,V)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なにわ女子</t>
+    <rPh sb="3" eb="5">
+      <t>ジョシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レディくらら
+レディせりな
+咲村良子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>馬頭ほかげ
+りえまる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スーパーW
+フライング・ペンギン(別名あり)
+ぽっぽちゃん
+七星</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>れな</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1878,6 +1870,26 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="27">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Noto Serif JP SemiBold"/>
+        <family val="1"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2040,26 +2052,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Noto Serif JP SemiBold"/>
-        <family val="1"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2455,18 +2447,18 @@
     <tableColumn id="23" xr3:uid="{9647ED0D-42FB-42C1-BFB2-8B8D56D414C4}" name="SENDAI" dataDxfId="14"/>
     <tableColumn id="32" xr3:uid="{67EA2433-E1D1-4094-BFB4-0EDB7438926B}" name="Pure-J" dataDxfId="13"/>
     <tableColumn id="21" xr3:uid="{ACF43FBE-31D7-4ED6-A997-E4AF4BF0B9D4}" name="マーベラス" dataDxfId="12"/>
+    <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="なにわ女子" dataDxfId="0"/>
     <tableColumn id="20" xr3:uid="{86389032-6123-44BF-98AB-D3CA13F2577A}" name="LLPW-X" dataDxfId="11"/>
-    <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="2.5(11.24～なにわ女子)" dataDxfId="10"/>
-    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="9"/>
-    <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{3CAB629B-BA9F-4560-89E7-0980EE2B0905}" name="エボリューション" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{5C631C06-2946-4CE3-901A-57A0BABE156F}" name="BBJ" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{F6B1BCBE-A702-4B7C-9B81-2600AE026FEA}" name="PPP" dataDxfId="3"/>
-    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="0"/>
+    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="10"/>
+    <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{3CAB629B-BA9F-4560-89E7-0980EE2B0905}" name="エボリューション" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{5C631C06-2946-4CE3-901A-57A0BABE156F}" name="BBJ" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{F6B1BCBE-A702-4B7C-9B81-2600AE026FEA}" name="PPP" dataDxfId="4"/>
+    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2789,13 +2781,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4F8F56-06F6-4E1D-8D81-5A485042419D}">
-  <dimension ref="A1:AB54"/>
+  <dimension ref="A1:AC54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="K50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G41" sqref="G41"/>
+      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.33203125" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2814,23 +2806,23 @@
     <col min="12" max="12" width="28.71875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="27" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.0546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.27734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.27734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.27734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="30.0546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="27.33203125" style="1"/>
-    <col min="29" max="16384" width="27.33203125" style="1"/>
+    <col min="15" max="15" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.0546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.27734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.27734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.27734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="30.0546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.33203125" style="1"/>
+    <col min="30" max="16384" width="27.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="16" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:29" ht="16" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
@@ -2839,17 +2831,18 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="U1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-      <c r="AB1" s="1"/>
-    </row>
-    <row r="2" spans="1:28" ht="16" x14ac:dyDescent="0.8">
+      <c r="Y1" s="1"/>
+      <c r="AC1" s="1"/>
+    </row>
+    <row r="2" spans="1:29" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RZ2)</f>
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2953,7 +2946,7 @@
      LEN(O5:O999) - LEN(SUBSTITUTE(O5:O999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P2" s="1" cm="1">
         <f t="array" ref="P2">SUMPRODUCT(
@@ -3013,52 +3006,53 @@
       </c>
       <c r="W2" s="1" cm="1">
         <f t="array" ref="W2">SUMPRODUCT(
-  IF(LEN(W5:W999)=0, 0,
-     LEN(W5:W999) - LEN(SUBSTITUTE(W5:W999, CHAR(10), "")) + 1
-  )
-)</f>
-        <v>4</v>
-      </c>
-      <c r="X2" s="1" cm="1">
-        <f t="array" ref="X2">SUMPRODUCT(
   IF(LEN(X5:X999)=0, 0,
      LEN(X5:X999) - LEN(SUBSTITUTE(X5:X999, CHAR(10), "")) + 1
   )
 )</f>
         <v>8</v>
       </c>
-      <c r="Y2" s="1" cm="1">
-        <f t="array" ref="Y2">SUMPRODUCT(
+      <c r="X2" s="1" cm="1">
+        <f t="array" ref="X2">SUMPRODUCT(
   IF(LEN(Y5:Y999)=0, 0,
      LEN(Y5:Y999) - LEN(SUBSTITUTE(Y5:Y999, CHAR(10), "")) + 1
   )
 )</f>
         <v>44</v>
       </c>
-      <c r="Z2" s="1" cm="1">
-        <f t="array" ref="Z2">SUMPRODUCT(
+      <c r="Y2" s="1" cm="1">
+        <f t="array" ref="Y2">SUMPRODUCT(
   IF(LEN(Z5:Z999)=0, 0,
      LEN(Z5:Z999) - LEN(SUBSTITUTE(Z5:Z999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>50</v>
-      </c>
-      <c r="AB2" s="1"/>
-    </row>
-    <row r="3" spans="1:28" ht="16" x14ac:dyDescent="0.8">
+        <v>48</v>
+      </c>
+      <c r="Z2" s="1" cm="1">
+        <f t="array" ref="Z2">SUMPRODUCT(
+  IF(LEN(AA5:AA999)=0, 0,
+     LEN(AA5:AA999) - LEN(SUBSTITUTE(AA5:AA999, CHAR(10), "")) + 1
+  )
+)</f>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1"/>
+    </row>
+    <row r="3" spans="1:29" ht="16" x14ac:dyDescent="0.8">
       <c r="F3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="U3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
-      <c r="AB3" s="1"/>
-    </row>
-    <row r="4" spans="1:28" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="Y3" s="1"/>
+      <c r="AC3" s="1"/>
+    </row>
+    <row r="4" spans="1:29" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -3087,7 +3081,7 @@
         <v>61</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>55</v>
@@ -3099,10 +3093,10 @@
         <v>8</v>
       </c>
       <c r="O4" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>4</v>
@@ -3114,16 +3108,16 @@
         <v>7</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="X4" s="2" t="s">
         <v>104</v>
@@ -3134,9 +3128,9 @@
       <c r="Z4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="1"/>
-    </row>
-    <row r="5" spans="1:28" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AC4" s="1"/>
+    </row>
+    <row r="5" spans="1:29" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B5" s="3">
         <v>1977</v>
       </c>
@@ -3166,9 +3160,9 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
-      <c r="AB5" s="1"/>
-    </row>
-    <row r="6" spans="1:28" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AC5" s="1"/>
+    </row>
+    <row r="6" spans="1:29" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B6" s="3">
         <v>1978</v>
       </c>
@@ -3196,9 +3190,9 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
-      <c r="AB6" s="1"/>
-    </row>
-    <row r="7" spans="1:28" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AC6" s="1"/>
+    </row>
+    <row r="7" spans="1:29" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B7" s="3">
         <v>1979</v>
       </c>
@@ -3226,9 +3220,9 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
-      <c r="AB7" s="1"/>
-    </row>
-    <row r="8" spans="1:28" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AC7" s="1"/>
+    </row>
+    <row r="8" spans="1:29" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B8" s="3">
         <v>1980</v>
       </c>
@@ -3260,9 +3254,9 @@
       <c r="Z8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AB8" s="1"/>
-    </row>
-    <row r="9" spans="1:28" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AC8" s="1"/>
+    </row>
+    <row r="9" spans="1:29" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B9" s="3">
         <v>1981</v>
       </c>
@@ -3290,9 +3284,9 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
-      <c r="AB9" s="1"/>
-    </row>
-    <row r="10" spans="1:28" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AC9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B10" s="3">
         <v>1982</v>
       </c>
@@ -3320,9 +3314,9 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
-      <c r="AB10" s="1"/>
-    </row>
-    <row r="11" spans="1:28" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AC10" s="1"/>
+    </row>
+    <row r="11" spans="1:29" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B11" s="3">
         <v>1983</v>
       </c>
@@ -3350,9 +3344,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-      <c r="AB11" s="1"/>
-    </row>
-    <row r="12" spans="1:28" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AC11" s="1"/>
+    </row>
+    <row r="12" spans="1:29" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B12" s="3">
         <v>1984</v>
       </c>
@@ -3380,9 +3374,9 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
-      <c r="AB12" s="1"/>
-    </row>
-    <row r="13" spans="1:28" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AC12" s="1"/>
+    </row>
+    <row r="13" spans="1:29" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B13" s="3">
         <v>1985</v>
       </c>
@@ -3409,12 +3403,12 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z13" s="3"/>
-      <c r="AB13" s="1"/>
-    </row>
-    <row r="14" spans="1:28" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AC13" s="1"/>
+    </row>
+    <row r="14" spans="1:29" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B14" s="3">
         <v>1986</v>
       </c>
@@ -3430,10 +3424,10 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3"/>
+      <c r="P14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -3448,9 +3442,9 @@
       <c r="Z14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AB14" s="1"/>
-    </row>
-    <row r="15" spans="1:28" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AC14" s="1"/>
+    </row>
+    <row r="15" spans="1:29" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B15" s="3">
         <v>1987</v>
       </c>
@@ -3480,9 +3474,9 @@
       <c r="Z15" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AB15" s="1"/>
-    </row>
-    <row r="16" spans="1:28" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AC15" s="1"/>
+    </row>
+    <row r="16" spans="1:29" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B16" s="3">
         <v>1988</v>
       </c>
@@ -3500,10 +3494,10 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="3" t="s">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
@@ -3514,9 +3508,9 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-      <c r="AB16" s="1"/>
-    </row>
-    <row r="17" spans="2:28" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AC16" s="1"/>
+    </row>
+    <row r="17" spans="2:29" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B17" s="3">
         <v>1989</v>
       </c>
@@ -3543,14 +3537,14 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB17" s="1"/>
-    </row>
-    <row r="18" spans="2:28" ht="16.7" x14ac:dyDescent="0.8">
+        <v>143</v>
+      </c>
+      <c r="AC17" s="1"/>
+    </row>
+    <row r="18" spans="2:29" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B18" s="3">
         <v>1990</v>
       </c>
@@ -3578,9 +3572,9 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
-      <c r="AB18" s="1"/>
-    </row>
-    <row r="19" spans="2:28" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AC18" s="1"/>
+    </row>
+    <row r="19" spans="2:29" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B19" s="3">
         <v>1991</v>
       </c>
@@ -3608,9 +3602,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-      <c r="AB19" s="1"/>
-    </row>
-    <row r="20" spans="2:28" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AC19" s="1"/>
+    </row>
+    <row r="20" spans="2:29" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B20" s="3">
         <v>1992</v>
       </c>
@@ -3638,9 +3632,9 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
-      <c r="AB20" s="1"/>
-    </row>
-    <row r="21" spans="2:28" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AC20" s="1"/>
+    </row>
+    <row r="21" spans="2:29" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B21" s="3">
         <v>1993</v>
       </c>
@@ -3668,9 +3662,9 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
-      <c r="AB21" s="1"/>
-    </row>
-    <row r="22" spans="2:28" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AC21" s="1"/>
+    </row>
+    <row r="22" spans="2:29" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B22" s="3">
         <v>1994</v>
       </c>
@@ -3698,9 +3692,9 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
-      <c r="AB22" s="1"/>
-    </row>
-    <row r="23" spans="2:28" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="AC22" s="1"/>
+    </row>
+    <row r="23" spans="2:29" ht="50" x14ac:dyDescent="0.8">
       <c r="B23" s="3">
         <v>1995</v>
       </c>
@@ -3722,7 +3716,7 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -3731,14 +3725,14 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="Z23" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AB23" s="1"/>
-    </row>
-    <row r="24" spans="2:28" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="AC23" s="1"/>
+    </row>
+    <row r="24" spans="2:29" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B24" s="3">
         <v>1996</v>
       </c>
@@ -3766,11 +3760,11 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AB24" s="1"/>
-    </row>
-    <row r="25" spans="2:28" ht="16.7" x14ac:dyDescent="0.8">
+        <v>220</v>
+      </c>
+      <c r="AC24" s="1"/>
+    </row>
+    <row r="25" spans="2:29" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B25" s="3">
         <v>1997</v>
       </c>
@@ -3802,9 +3796,9 @@
       <c r="Z25" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AB25" s="1"/>
-    </row>
-    <row r="26" spans="2:28" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AC25" s="1"/>
+    </row>
+    <row r="26" spans="2:29" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B26" s="3">
         <v>1998</v>
       </c>
@@ -3836,9 +3830,9 @@
       <c r="Z26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AB26" s="1"/>
-    </row>
-    <row r="27" spans="2:28" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AC26" s="1"/>
+    </row>
+    <row r="27" spans="2:29" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B27" s="3">
         <v>1999</v>
       </c>
@@ -3870,9 +3864,9 @@
         <v>89</v>
       </c>
       <c r="Z27" s="3"/>
-      <c r="AB27" s="1"/>
-    </row>
-    <row r="28" spans="2:28" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="AC27" s="1"/>
+    </row>
+    <row r="28" spans="2:29" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B28" s="3">
         <v>2000</v>
       </c>
@@ -3906,9 +3900,9 @@
       <c r="Z28" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AB28" s="1"/>
-    </row>
-    <row r="29" spans="2:28" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AC28" s="1"/>
+    </row>
+    <row r="29" spans="2:29" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B29" s="3">
         <v>2001</v>
       </c>
@@ -3940,9 +3934,9 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
-      <c r="AB29" s="1"/>
-    </row>
-    <row r="30" spans="2:28" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AC29" s="1"/>
+    </row>
+    <row r="30" spans="2:29" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B30" s="3">
         <v>2002</v>
       </c>
@@ -3972,9 +3966,9 @@
         <v>92</v>
       </c>
       <c r="Z30" s="3"/>
-      <c r="AB30" s="1"/>
-    </row>
-    <row r="31" spans="2:28" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AC30" s="1"/>
+    </row>
+    <row r="31" spans="2:29" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B31" s="3">
         <v>2003</v>
       </c>
@@ -4002,9 +3996,9 @@
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
-      <c r="AB31" s="1"/>
-    </row>
-    <row r="32" spans="2:28" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="AC31" s="1"/>
+    </row>
+    <row r="32" spans="2:29" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B32" s="3">
         <v>2004</v>
       </c>
@@ -4036,9 +4030,9 @@
       <c r="Z32" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AB32" s="1"/>
-    </row>
-    <row r="33" spans="2:28" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="AC32" s="1"/>
+    </row>
+    <row r="33" spans="2:29" ht="50" x14ac:dyDescent="0.8">
       <c r="B33" s="3">
         <v>2005</v>
       </c>
@@ -4067,12 +4061,12 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Z33" s="3"/>
-      <c r="AB33" s="1"/>
-    </row>
-    <row r="34" spans="2:28" ht="66.7" x14ac:dyDescent="0.8">
+      <c r="AC33" s="1"/>
+    </row>
+    <row r="34" spans="2:29" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B34" s="3">
         <v>2006</v>
       </c>
@@ -4081,13 +4075,13 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>56</v>
@@ -4112,9 +4106,9 @@
       <c r="Z34" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AB34" s="1"/>
-    </row>
-    <row r="35" spans="2:28" ht="50" x14ac:dyDescent="0.8">
+      <c r="AC34" s="1"/>
+    </row>
+    <row r="35" spans="2:29" ht="50" x14ac:dyDescent="0.8">
       <c r="B35" s="3">
         <v>2007</v>
       </c>
@@ -4144,22 +4138,22 @@
       </c>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB35" s="1"/>
-    </row>
-    <row r="36" spans="2:28" ht="33.35" x14ac:dyDescent="0.8">
+        <v>166</v>
+      </c>
+      <c r="AC35" s="1"/>
+    </row>
+    <row r="36" spans="2:29" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B36" s="3">
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -4184,9 +4178,9 @@
       <c r="Z36" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AB36" s="1"/>
-    </row>
-    <row r="37" spans="2:28" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AC36" s="1"/>
+    </row>
+    <row r="37" spans="2:29" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B37" s="3">
         <v>2009</v>
       </c>
@@ -4216,9 +4210,9 @@
         <v>63</v>
       </c>
       <c r="Z37" s="3"/>
-      <c r="AB37" s="1"/>
-    </row>
-    <row r="38" spans="2:28" ht="50" x14ac:dyDescent="0.8">
+      <c r="AC37" s="1"/>
+    </row>
+    <row r="38" spans="2:29" ht="50" x14ac:dyDescent="0.8">
       <c r="B38" s="3">
         <v>2010</v>
       </c>
@@ -4252,9 +4246,9 @@
         <v>94</v>
       </c>
       <c r="Z38" s="3"/>
-      <c r="AB38" s="1"/>
-    </row>
-    <row r="39" spans="2:28" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="AC38" s="1"/>
+    </row>
+    <row r="39" spans="2:29" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B39" s="3">
         <v>2011</v>
       </c>
@@ -4264,7 +4258,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>113</v>
@@ -4294,25 +4288,25 @@
       </c>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AB39" s="1"/>
-    </row>
-    <row r="40" spans="2:28" ht="33.35" x14ac:dyDescent="0.8">
+        <v>168</v>
+      </c>
+      <c r="AC39" s="1"/>
+    </row>
+    <row r="40" spans="2:29" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B40" s="3">
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -4337,12 +4331,12 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z40" s="3"/>
-      <c r="AB40" s="1"/>
-    </row>
-    <row r="41" spans="2:28" ht="100" x14ac:dyDescent="0.8">
+      <c r="AC40" s="1"/>
+    </row>
+    <row r="41" spans="2:29" ht="100" x14ac:dyDescent="0.8">
       <c r="B41" s="3">
         <v>2013</v>
       </c>
@@ -4350,12 +4344,12 @@
         <v>73</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -4379,19 +4373,19 @@
         <v>109</v>
       </c>
       <c r="Y41" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Z41" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="AB41" s="1"/>
-    </row>
-    <row r="42" spans="2:28" ht="16.7" x14ac:dyDescent="0.8">
+        <v>173</v>
+      </c>
+      <c r="AC41" s="1"/>
+    </row>
+    <row r="42" spans="2:29" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B42" s="3">
         <v>2014</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>45</v>
@@ -4417,19 +4411,19 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Z42" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="AB42" s="1"/>
-    </row>
-    <row r="43" spans="2:28" ht="83.35" x14ac:dyDescent="0.8">
+      <c r="AC42" s="1"/>
+    </row>
+    <row r="43" spans="2:29" ht="83.35" x14ac:dyDescent="0.8">
       <c r="B43" s="3">
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>42</v>
@@ -4460,11 +4454,11 @@
       </c>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB43" s="1"/>
-    </row>
-    <row r="44" spans="2:28" ht="33.35" x14ac:dyDescent="0.8">
+        <v>178</v>
+      </c>
+      <c r="AC43" s="1"/>
+    </row>
+    <row r="44" spans="2:29" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B44" s="3">
         <v>2016</v>
       </c>
@@ -4482,7 +4476,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3" t="s">
@@ -4499,19 +4493,19 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z44" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="AB44" s="1"/>
-    </row>
-    <row r="45" spans="2:28" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="AC44" s="1"/>
+    </row>
+    <row r="45" spans="2:29" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B45" s="3">
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4522,25 +4516,25 @@
         <v>112</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
-      <c r="O45" s="3" t="s">
+      <c r="O45" s="3"/>
+      <c r="P45" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
@@ -4549,25 +4543,25 @@
         <v>122</v>
       </c>
       <c r="Y45" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Z45" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB45" s="1"/>
-    </row>
-    <row r="46" spans="2:28" ht="100" x14ac:dyDescent="0.8">
+        <v>132</v>
+      </c>
+      <c r="AC45" s="1"/>
+    </row>
+    <row r="46" spans="2:29" ht="166.7" x14ac:dyDescent="0.8">
       <c r="B46" s="3">
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>14</v>
@@ -4594,25 +4588,25 @@
       </c>
       <c r="S46" s="3"/>
       <c r="T46" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U46" s="3"/>
       <c r="V46" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="W46" s="3"/>
       <c r="X46" s="3" t="s">
         <v>108</v>
       </c>
       <c r="Y46" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Z46" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AB46" s="1"/>
-    </row>
-    <row r="47" spans="2:28" ht="66.7" x14ac:dyDescent="0.8">
+        <v>164</v>
+      </c>
+      <c r="AC46" s="1"/>
+    </row>
+    <row r="47" spans="2:29" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B47" s="3">
         <v>2019</v>
       </c>
@@ -4631,7 +4625,7 @@
         <v>25</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>80</v>
@@ -4652,19 +4646,19 @@
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Z47" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AB47" s="1"/>
-    </row>
-    <row r="48" spans="2:28" ht="50" x14ac:dyDescent="0.8">
+        <v>191</v>
+      </c>
+      <c r="AC47" s="1"/>
+    </row>
+    <row r="48" spans="2:29" ht="50" x14ac:dyDescent="0.8">
       <c r="B48" s="3">
         <v>2020</v>
       </c>
@@ -4701,14 +4695,14 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z48" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB48" s="1"/>
-    </row>
-    <row r="49" spans="2:28" ht="66.7" x14ac:dyDescent="0.8">
+        <v>154</v>
+      </c>
+      <c r="AC48" s="1"/>
+    </row>
+    <row r="49" spans="2:29" ht="100" x14ac:dyDescent="0.8">
       <c r="B49" s="3">
         <v>2021</v>
       </c>
@@ -4725,7 +4719,7 @@
         <v>11</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3" t="s">
@@ -4751,33 +4745,33 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="X49" s="3"/>
       <c r="Y49" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="Z49" s="3"/>
-      <c r="AB49" s="1"/>
-    </row>
-    <row r="50" spans="2:28" ht="133.35" x14ac:dyDescent="0.8">
+      <c r="AC49" s="1"/>
+    </row>
+    <row r="50" spans="2:29" ht="133.35" x14ac:dyDescent="0.8">
       <c r="B50" s="3">
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>24</v>
@@ -4789,15 +4783,15 @@
         <v>81</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3" t="s">
-        <v>180</v>
-      </c>
+      <c r="O50" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
@@ -4805,18 +4799,18 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="X50" s="3"/>
       <c r="Y50" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="Z50" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB50" s="1"/>
-    </row>
-    <row r="51" spans="2:28" ht="100" x14ac:dyDescent="0.8">
+        <v>229</v>
+      </c>
+      <c r="AC50" s="1"/>
+    </row>
+    <row r="51" spans="2:29" ht="100" x14ac:dyDescent="0.8">
       <c r="B51" s="3">
         <v>2023</v>
       </c>
@@ -4827,7 +4821,7 @@
         <v>120</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>15</v>
@@ -4846,41 +4840,41 @@
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="X51" s="3"/>
       <c r="Y51" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="Z51" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB51" s="1"/>
-    </row>
-    <row r="52" spans="2:28" ht="100" x14ac:dyDescent="0.8">
+        <v>169</v>
+      </c>
+      <c r="AC51" s="1"/>
+    </row>
+    <row r="52" spans="2:29" ht="100" x14ac:dyDescent="0.8">
       <c r="B52" s="3">
         <v>2024</v>
       </c>
@@ -4894,13 +4888,13 @@
         <v>36</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>86</v>
@@ -4909,7 +4903,7 @@
         <v>83</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3" t="s">
@@ -4918,33 +4912,31 @@
       <c r="N52" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3" t="s">
-        <v>130</v>
-      </c>
+      <c r="O52" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="P52" s="3"/>
       <c r="Q52" s="3" t="s">
         <v>65</v>
       </c>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z52" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB52" s="1"/>
-    </row>
-    <row r="53" spans="2:28" ht="83.35" x14ac:dyDescent="0.8">
+        <v>170</v>
+      </c>
+      <c r="Z52" s="3"/>
+      <c r="AC52" s="1"/>
+    </row>
+    <row r="53" spans="2:29" ht="83.35" x14ac:dyDescent="0.8">
       <c r="B53" s="3">
         <v>2025</v>
       </c>
@@ -4952,10 +4944,10 @@
         <v>76</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>118</v>
@@ -4964,76 +4956,78 @@
         <v>110</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="P53" s="3"/>
+        <v>231</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="Q53" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="X53" s="3"/>
       <c r="Y53" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="Z53" s="3"/>
-      <c r="AB53" s="1"/>
-    </row>
-    <row r="54" spans="2:28" ht="100" x14ac:dyDescent="0.8">
+      <c r="AC53" s="1"/>
+    </row>
+    <row r="54" spans="2:29" ht="100" x14ac:dyDescent="0.8">
       <c r="B54" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="P54" s="3"/>
+        <v>217</v>
+      </c>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3" t="s">
+        <v>210</v>
+      </c>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
@@ -5043,10 +5037,10 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
       <c r="Y54" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Z54" s="3"/>
-      <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B05C4F-5295-41B6-B3D7-5A0CD8340357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902A1626-16CA-4811-BE47-6CC76AF58E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-67" yWindow="-67" windowWidth="25734" windowHeight="13814" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="233">
   <si>
     <t>Stardom</t>
     <phoneticPr fontId="1"/>
@@ -1785,6 +1785,10 @@
   </si>
   <si>
     <t>れな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;るい&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1870,26 +1874,6 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="27">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Noto Serif JP SemiBold"/>
-        <family val="1"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2052,6 +2036,26 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Noto Serif JP SemiBold"/>
+        <family val="1"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2447,18 +2451,18 @@
     <tableColumn id="23" xr3:uid="{9647ED0D-42FB-42C1-BFB2-8B8D56D414C4}" name="SENDAI" dataDxfId="14"/>
     <tableColumn id="32" xr3:uid="{67EA2433-E1D1-4094-BFB4-0EDB7438926B}" name="Pure-J" dataDxfId="13"/>
     <tableColumn id="21" xr3:uid="{ACF43FBE-31D7-4ED6-A997-E4AF4BF0B9D4}" name="マーベラス" dataDxfId="12"/>
-    <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="なにわ女子" dataDxfId="0"/>
-    <tableColumn id="20" xr3:uid="{86389032-6123-44BF-98AB-D3CA13F2577A}" name="LLPW-X" dataDxfId="11"/>
-    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="10"/>
-    <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{3CAB629B-BA9F-4560-89E7-0980EE2B0905}" name="エボリューション" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{5C631C06-2946-4CE3-901A-57A0BABE156F}" name="BBJ" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{F6B1BCBE-A702-4B7C-9B81-2600AE026FEA}" name="PPP" dataDxfId="4"/>
-    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="1"/>
+    <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="なにわ女子" dataDxfId="11"/>
+    <tableColumn id="20" xr3:uid="{86389032-6123-44BF-98AB-D3CA13F2577A}" name="LLPW-X" dataDxfId="10"/>
+    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="9"/>
+    <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{3CAB629B-BA9F-4560-89E7-0980EE2B0905}" name="エボリューション" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{5C631C06-2946-4CE3-901A-57A0BABE156F}" name="BBJ" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{F6B1BCBE-A702-4B7C-9B81-2600AE026FEA}" name="PPP" dataDxfId="3"/>
+    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2787,7 +2791,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="K50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomRight" activeCell="Q54" sqref="Q54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.33203125" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2842,7 +2846,7 @@
     <row r="2" spans="1:29" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RZ2)</f>
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2962,7 +2966,7 @@
      LEN(Q5:Q999) - LEN(SUBSTITUTE(Q5:Q999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R2" s="1" cm="1">
         <f t="array" ref="R2">SUMPRODUCT(
@@ -5028,7 +5032,9 @@
       <c r="P54" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="Q54" s="3"/>
+      <c r="Q54" s="3" t="s">
+        <v>232</v>
+      </c>
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902A1626-16CA-4811-BE47-6CC76AF58E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7434DC-5C1F-4BC7-A7A6-F6F60D77D8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-67" yWindow="-67" windowWidth="25734" windowHeight="13814" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
@@ -881,25 +881,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>飯田沙耶
-上谷沙弥
-向後桃
-舞華(休)</t>
-    <rPh sb="10" eb="12">
-      <t>コウゴ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>モモ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>マイカ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>キュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>JENNE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1598,12 +1579,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;シオン&gt;仮
-&lt;アンリ&gt;仮
-&lt;ユウカ&gt;仮</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>デビュー前</t>
     <rPh sb="4" eb="5">
       <t>マエ</t>
@@ -1695,10 +1670,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;松橋ななを&gt;(2025.12.6デビュー予定)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>シン・広田・葛飾さくら</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1789,6 +1760,35 @@
   </si>
   <si>
     <t>&lt;るい&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飯田沙耶
+上谷沙弥
+向後桃
+舞華</t>
+    <rPh sb="10" eb="12">
+      <t>コウゴ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モモ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>マイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松橋ななを</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;シオン&gt;仮(2026.1.4デビュー予定)
+&lt;アンリ&gt;仮(2026.1.4デビュー予定)
+&lt;ユウカ&gt;仮</t>
+    <rPh sb="42" eb="44">
+      <t>ヨテイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2788,10 +2788,10 @@
   <dimension ref="A1:AC54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="K50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q54" sqref="Q54"/>
+      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.33203125" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -3085,7 +3085,7 @@
         <v>61</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>55</v>
@@ -3097,7 +3097,7 @@
         <v>8</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>20</v>
@@ -3112,16 +3112,16 @@
         <v>7</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X4" s="2" t="s">
         <v>104</v>
@@ -3407,7 +3407,7 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z13" s="3"/>
       <c r="AC13" s="1"/>
@@ -3541,10 +3541,10 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AC17" s="1"/>
     </row>
@@ -3720,7 +3720,7 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -3729,7 +3729,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Z23" s="3" t="s">
         <v>68</v>
@@ -3764,7 +3764,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AC24" s="1"/>
     </row>
@@ -4065,7 +4065,7 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z33" s="3"/>
       <c r="AC33" s="1"/>
@@ -4079,13 +4079,13 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>56</v>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AC35" s="1"/>
     </row>
@@ -4151,13 +4151,13 @@
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -4262,7 +4262,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>113</v>
@@ -4292,7 +4292,7 @@
       </c>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AC39" s="1"/>
     </row>
@@ -4301,16 +4301,16 @@
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -4335,7 +4335,7 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z40" s="3"/>
       <c r="AC40" s="1"/>
@@ -4348,12 +4348,12 @@
         <v>73</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -4377,10 +4377,10 @@
         <v>109</v>
       </c>
       <c r="Y41" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z41" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AC41" s="1"/>
     </row>
@@ -4389,7 +4389,7 @@
         <v>2014</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>45</v>
@@ -4415,7 +4415,7 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z42" s="3" t="s">
         <v>121</v>
@@ -4427,7 +4427,7 @@
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>42</v>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC43" s="1"/>
     </row>
@@ -4480,7 +4480,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3" t="s">
@@ -4497,7 +4497,7 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z44" s="3" t="s">
         <v>123</v>
@@ -4509,7 +4509,7 @@
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4520,13 +4520,13 @@
         <v>112</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
@@ -4538,7 +4538,7 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
@@ -4547,10 +4547,10 @@
         <v>122</v>
       </c>
       <c r="Y45" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Z45" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AC45" s="1"/>
     </row>
@@ -4559,13 +4559,13 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>14</v>
@@ -4592,21 +4592,21 @@
       </c>
       <c r="S46" s="3"/>
       <c r="T46" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U46" s="3"/>
       <c r="V46" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="W46" s="3"/>
       <c r="X46" s="3" t="s">
         <v>108</v>
       </c>
       <c r="Y46" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z46" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="Z46" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="AC46" s="1"/>
     </row>
@@ -4615,7 +4615,7 @@
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>125</v>
+        <v>230</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>46</v>
@@ -4629,7 +4629,7 @@
         <v>25</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>80</v>
@@ -4639,7 +4639,7 @@
         <v>58</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -4650,15 +4650,15 @@
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z47" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC47" s="1"/>
     </row>
@@ -4699,10 +4699,10 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Z48" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC48" s="1"/>
     </row>
@@ -4723,7 +4723,7 @@
         <v>11</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3" t="s">
@@ -4749,11 +4749,11 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X49" s="3"/>
       <c r="Y49" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z49" s="3"/>
       <c r="AC49" s="1"/>
@@ -4763,19 +4763,19 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>24</v>
@@ -4787,13 +4787,13 @@
         <v>81</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
@@ -4803,14 +4803,14 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X50" s="3"/>
       <c r="Y50" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Z50" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AC50" s="1"/>
     </row>
@@ -4825,7 +4825,7 @@
         <v>120</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>15</v>
@@ -4834,7 +4834,7 @@
         <v>119</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>52</v>
@@ -4844,37 +4844,37 @@
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X51" s="3"/>
       <c r="Y51" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Z51" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AC51" s="1"/>
     </row>
@@ -4892,13 +4892,13 @@
         <v>36</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>86</v>
@@ -4907,17 +4907,17 @@
         <v>83</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>124</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3" t="s">
@@ -4926,16 +4926,16 @@
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z52" s="3"/>
       <c r="AC52" s="1"/>
@@ -4948,10 +4948,10 @@
         <v>76</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>118</v>
@@ -4960,80 +4960,80 @@
         <v>110</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X53" s="3"/>
       <c r="Y53" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Z53" s="3"/>
       <c r="AC53" s="1"/>
     </row>
-    <row r="54" spans="2:29" ht="100" x14ac:dyDescent="0.8">
+    <row r="54" spans="2:29" ht="116.7" x14ac:dyDescent="0.8">
       <c r="B54" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O54" s="3"/>
       <c r="P54" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
@@ -5043,7 +5043,7 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
       <c r="Y54" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Z54" s="3"/>
       <c r="AC54" s="1"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7434DC-5C1F-4BC7-A7A6-F6F60D77D8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B99422E-1CC2-47F2-9E96-A1C72EC6B680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-67" yWindow="-67" windowWidth="25734" windowHeight="13814" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
@@ -1586,30 +1586,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>吏南
-妃南
-鈴季すず
-水森由菜
-星来芽依
-ジーナ(休)</t>
-    <rPh sb="6" eb="8">
-      <t>スズキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ミズモリ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ユナ</t>
-    </rPh>
-    <rPh sb="16" eb="20">
-      <t>セイラメイ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>キュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スターライト・キッド(休)
 なつぽい
 安納サオリ
@@ -1788,6 +1764,27 @@
 &lt;ユウカ&gt;仮</t>
     <rPh sb="42" eb="44">
       <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吏南
+妃南
+鈴季すず
+水森由菜
+星来芽依
+ジーナ</t>
+    <rPh sb="6" eb="8">
+      <t>スズキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ミズモリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ユナ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>セイラメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2788,10 +2785,10 @@
   <dimension ref="A1:AC54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
+      <selection pane="bottomRight" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.33203125" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -3097,7 +3094,7 @@
         <v>8</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>20</v>
@@ -3729,7 +3726,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Z23" s="3" t="s">
         <v>68</v>
@@ -3764,7 +3761,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AC24" s="1"/>
     </row>
@@ -4157,7 +4154,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -4353,7 +4350,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -4389,7 +4386,7 @@
         <v>2014</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>45</v>
@@ -4427,7 +4424,7 @@
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>42</v>
@@ -4559,7 +4556,7 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>174</v>
@@ -4615,7 +4612,7 @@
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>46</v>
@@ -4629,7 +4626,7 @@
         <v>25</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>80</v>
@@ -4793,7 +4790,7 @@
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
@@ -4810,7 +4807,7 @@
         <v>181</v>
       </c>
       <c r="Z50" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AC50" s="1"/>
     </row>
@@ -4917,7 +4914,7 @@
         <v>124</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3" t="s">
@@ -4951,7 +4948,7 @@
         <v>210</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>118</v>
@@ -4967,13 +4964,13 @@
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P53" s="3" t="s">
         <v>208</v>
@@ -5008,10 +5005,10 @@
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -5021,19 +5018,19 @@
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O54" s="3"/>
       <c r="P54" s="3" t="s">
         <v>209</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B99422E-1CC2-47F2-9E96-A1C72EC6B680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B758C767-4F82-486F-86FE-5EFFD9B9649C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-67" yWindow="-67" windowWidth="25734" windowHeight="13814" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
@@ -1498,11 +1498,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>羽南
-メーガンベーン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>NENE
 シャンシャン(新台湾)</t>
     <rPh sb="12" eb="13">
@@ -1786,6 +1781,10 @@
     <rPh sb="16" eb="20">
       <t>セイラメイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>羽南</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2785,10 +2784,10 @@
   <dimension ref="A1:AC54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C46" sqref="C46"/>
+      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.33203125" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2843,7 +2842,7 @@
     <row r="2" spans="1:29" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RZ2)</f>
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2851,7 +2850,7 @@
      LEN(C5:C999) - LEN(SUBSTITUTE(C5:C999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" cm="1">
         <f t="array" ref="D2">SUMPRODUCT(
@@ -3094,7 +3093,7 @@
         <v>8</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>20</v>
@@ -3726,7 +3725,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Z23" s="3" t="s">
         <v>68</v>
@@ -3761,7 +3760,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AC24" s="1"/>
     </row>
@@ -4154,7 +4153,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -4350,7 +4349,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -4386,7 +4385,7 @@
         <v>2014</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>45</v>
@@ -4424,7 +4423,7 @@
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>42</v>
@@ -4506,7 +4505,7 @@
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4556,7 +4555,7 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>174</v>
@@ -4612,7 +4611,7 @@
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>46</v>
@@ -4626,7 +4625,7 @@
         <v>25</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>80</v>
@@ -4790,7 +4789,7 @@
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
@@ -4807,7 +4806,7 @@
         <v>181</v>
       </c>
       <c r="Z50" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AC50" s="1"/>
     </row>
@@ -4895,7 +4894,7 @@
         <v>193</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>86</v>
@@ -4914,7 +4913,7 @@
         <v>124</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3" t="s">
@@ -4945,10 +4944,10 @@
         <v>76</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>118</v>
@@ -4957,26 +4956,26 @@
         <v>110</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
@@ -4994,43 +4993,43 @@
       </c>
       <c r="X53" s="3"/>
       <c r="Y53" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Z53" s="3"/>
       <c r="AC53" s="1"/>
     </row>
     <row r="54" spans="2:29" ht="116.7" x14ac:dyDescent="0.8">
       <c r="B54" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O54" s="3"/>
       <c r="P54" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
@@ -5040,7 +5039,7 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
       <c r="Y54" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Z54" s="3"/>
       <c r="AC54" s="1"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B758C767-4F82-486F-86FE-5EFFD9B9649C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFBD782-CBD2-4DB8-BB12-49D86544FD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-67" yWindow="-67" windowWidth="25734" windowHeight="13814" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="1820" yWindow="280" windowWidth="19020" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -1378,13 +1378,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;虎牙のん&gt;(2025.12.29デビュー予定)</t>
-    <rPh sb="21" eb="23">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>青葉ちい
 山下真菜
 研菜々美
@@ -1784,7 +1777,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>羽南</t>
+    <t>羽南(休)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>虎牙のん</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2784,10 +2781,10 @@
   <dimension ref="A1:AC54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="O50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomRight" activeCell="X53" sqref="X53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.33203125" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -3081,7 +3078,7 @@
         <v>61</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>55</v>
@@ -3093,7 +3090,7 @@
         <v>8</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>20</v>
@@ -3725,7 +3722,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Z23" s="3" t="s">
         <v>68</v>
@@ -3760,7 +3757,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC24" s="1"/>
     </row>
@@ -4075,13 +4072,13 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>56</v>
@@ -4147,13 +4144,13 @@
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -4303,7 +4300,7 @@
         <v>43</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>129</v>
@@ -4349,7 +4346,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -4385,7 +4382,7 @@
         <v>2014</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>45</v>
@@ -4423,7 +4420,7 @@
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>42</v>
@@ -4505,7 +4502,7 @@
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4555,13 +4552,13 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>174</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>14</v>
@@ -4611,7 +4608,7 @@
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>46</v>
@@ -4625,7 +4622,7 @@
         <v>25</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>80</v>
@@ -4651,10 +4648,10 @@
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z47" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AC47" s="1"/>
     </row>
@@ -4759,7 +4756,7 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>41</v>
@@ -4771,7 +4768,7 @@
         <v>176</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>24</v>
@@ -4783,13 +4780,13 @@
         <v>81</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
@@ -4806,7 +4803,7 @@
         <v>181</v>
       </c>
       <c r="Z50" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AC50" s="1"/>
     </row>
@@ -4821,7 +4818,7 @@
         <v>120</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>15</v>
@@ -4891,10 +4888,10 @@
         <v>152</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>86</v>
@@ -4903,7 +4900,7 @@
         <v>83</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3" t="s">
@@ -4913,7 +4910,7 @@
         <v>124</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3" t="s">
@@ -4944,10 +4941,10 @@
         <v>76</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>118</v>
@@ -4956,26 +4953,26 @@
         <v>110</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
@@ -4989,47 +4986,47 @@
         <v>158</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="X53" s="3"/>
       <c r="Y53" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Z53" s="3"/>
       <c r="AC53" s="1"/>
     </row>
     <row r="54" spans="2:29" ht="116.7" x14ac:dyDescent="0.8">
       <c r="B54" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O54" s="3"/>
       <c r="P54" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
@@ -5039,7 +5036,7 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
       <c r="Y54" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Z54" s="3"/>
       <c r="AC54" s="1"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFBD782-CBD2-4DB8-BB12-49D86544FD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CBEBBF-1249-4F5E-8F55-139347472EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1820" yWindow="280" windowWidth="19020" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="232">
   <si>
     <t>Stardom</t>
     <phoneticPr fontId="1"/>
@@ -342,13 +342,6 @@
     <t>瑞希</t>
     <rPh sb="0" eb="2">
       <t>ミズキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宮本もか</t>
-    <rPh sb="0" eb="2">
-      <t>ミヤモト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2781,10 +2774,10 @@
   <dimension ref="A1:AC54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="O50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="X53" sqref="X53"/>
+      <selection pane="bottomRight" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.33203125" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2821,7 +2814,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="16" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1"/>
       <c r="K1" s="1"/>
@@ -2839,7 +2832,7 @@
     <row r="2" spans="1:29" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RZ2)</f>
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2855,7 +2848,7 @@
      LEN(D5:D999) - LEN(SUBSTITUTE(D5:D999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" cm="1">
         <f t="array" ref="E2">SUMPRODUCT(
@@ -3066,31 +3059,31 @@
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>20</v>
@@ -3105,19 +3098,19 @@
         <v>7</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>37</v>
@@ -3400,7 +3393,7 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z13" s="3"/>
       <c r="AC13" s="1"/>
@@ -3434,7 +3427,7 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>16</v>
@@ -3469,7 +3462,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC15" s="1"/>
     </row>
@@ -3534,10 +3527,10 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AC17" s="1"/>
     </row>
@@ -3703,7 +3696,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -3713,7 +3706,7 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -3722,10 +3715,10 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z23" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AC23" s="1"/>
     </row>
@@ -3757,7 +3750,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AC24" s="1"/>
     </row>
@@ -3776,7 +3769,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -3791,7 +3784,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC25" s="1"/>
     </row>
@@ -3822,7 +3815,7 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z26" s="3" t="s">
         <v>34</v>
@@ -3834,7 +3827,7 @@
         <v>1999</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -3858,7 +3851,7 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z27" s="3"/>
       <c r="AC27" s="1"/>
@@ -3880,7 +3873,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -3895,7 +3888,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC28" s="1"/>
     </row>
@@ -3921,7 +3914,7 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
@@ -3960,7 +3953,7 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z30" s="3"/>
       <c r="AC30" s="1"/>
@@ -4022,10 +4015,10 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC32" s="1"/>
     </row>
@@ -4050,7 +4043,7 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
@@ -4058,7 +4051,7 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Z33" s="3"/>
       <c r="AC33" s="1"/>
@@ -4072,19 +4065,19 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -4097,11 +4090,11 @@
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AC34" s="1"/>
     </row>
@@ -4131,11 +4124,11 @@
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC35" s="1"/>
     </row>
@@ -4144,13 +4137,13 @@
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -4169,11 +4162,11 @@
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Y36" s="3"/>
       <c r="Z36" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AC36" s="1"/>
     </row>
@@ -4204,7 +4197,7 @@
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
       <c r="Y37" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z37" s="3"/>
       <c r="AC37" s="1"/>
@@ -4221,7 +4214,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -4240,7 +4233,7 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z38" s="3"/>
       <c r="AC38" s="1"/>
@@ -4250,22 +4243,22 @@
         <v>2011</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
@@ -4281,11 +4274,11 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AC39" s="1"/>
     </row>
@@ -4294,16 +4287,16 @@
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -4312,7 +4305,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>1</v>
@@ -4328,7 +4321,7 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Z40" s="3"/>
       <c r="AC40" s="1"/>
@@ -4338,15 +4331,15 @@
         <v>2013</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -4367,13 +4360,13 @@
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y41" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z41" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AC41" s="1"/>
     </row>
@@ -4382,10 +4375,10 @@
         <v>2014</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -4408,10 +4401,10 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z42" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AC42" s="1"/>
     </row>
@@ -4420,7 +4413,7 @@
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>42</v>
@@ -4433,7 +4426,7 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
@@ -4447,11 +4440,11 @@
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC43" s="1"/>
     </row>
@@ -4460,7 +4453,7 @@
         <v>2016</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
@@ -4473,7 +4466,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3" t="s">
@@ -4490,10 +4483,10 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Z44" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AC44" s="1"/>
     </row>
@@ -4502,7 +4495,7 @@
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4510,16 +4503,16 @@
         <v>12</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
@@ -4531,19 +4524,19 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Y45" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z45" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AC45" s="1"/>
     </row>
@@ -4552,13 +4545,13 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>14</v>
@@ -4567,12 +4560,12 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>31</v>
@@ -4581,25 +4574,25 @@
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S46" s="3"/>
       <c r="T46" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U46" s="3"/>
       <c r="V46" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W46" s="3"/>
       <c r="X46" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y46" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z46" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="Z46" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="AC46" s="1"/>
     </row>
@@ -4608,31 +4601,31 @@
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -4643,15 +4636,15 @@
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Z47" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC47" s="1"/>
     </row>
@@ -4660,11 +4653,9 @@
         <v>2020</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
         <v>13</v>
@@ -4676,7 +4667,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
@@ -4684,7 +4675,7 @@
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
@@ -4692,10 +4683,10 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z48" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AC48" s="1"/>
     </row>
@@ -4704,23 +4695,23 @@
         <v>2021</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -4732,21 +4723,21 @@
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X49" s="3"/>
       <c r="Y49" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Z49" s="3"/>
       <c r="AC49" s="1"/>
@@ -4756,37 +4747,37 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
@@ -4796,14 +4787,14 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X50" s="3"/>
       <c r="Y50" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z50" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AC50" s="1"/>
     </row>
@@ -4815,59 +4806,59 @@
         <v>27</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X51" s="3"/>
       <c r="Y51" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Z51" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AC51" s="1"/>
     </row>
@@ -4876,59 +4867,59 @@
         <v>2024</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G52" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K52" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Z52" s="3"/>
       <c r="AC52" s="1"/>
@@ -4938,95 +4929,95 @@
         <v>2025</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X53" s="3"/>
       <c r="Y53" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Z53" s="3"/>
       <c r="AC53" s="1"/>
     </row>
     <row r="54" spans="2:29" ht="116.7" x14ac:dyDescent="0.8">
       <c r="B54" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O54" s="3"/>
       <c r="P54" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
@@ -5036,7 +5027,7 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
       <c r="Y54" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Z54" s="3"/>
       <c r="AC54" s="1"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CBEBBF-1249-4F5E-8F55-139347472EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C00DB1-6F2C-404D-901D-6C43D1823225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="280" windowWidth="19020" windowHeight="13400" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="1587" yWindow="507" windowWidth="19020" windowHeight="13466" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -864,11 +864,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>伊藤麻希
-小橋マリカ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>彩芽蒼空
 暁千華</t>
     <phoneticPr fontId="1"/>
@@ -1519,12 +1514,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;堀このみ&gt;(ZeroOne)
-&lt;七世真理子&gt;
-(ZeroOne)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>風南ユキ
 望天セレネ</t>
     <phoneticPr fontId="1"/>
@@ -1645,23 +1634,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;摩利乃&gt;
-&lt;小谷さつき&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ミス・モンゴル(世界)</t>
     <rPh sb="8" eb="10">
       <t>セカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>梨央
-弥福かな
-ゴんべ</t>
-    <rPh sb="0" eb="2">
-      <t>リオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1775,6 +1750,41 @@
   </si>
   <si>
     <t>虎牙のん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;堀このみ&gt;(ZeroOne)
+&lt;七世真理子&gt;(ZeroOne)
+&lt;星野 さやか&gt;(九州女子プロレス)</t>
+    <rPh sb="42" eb="46">
+      <t>キュウシュウジョシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>梨央
+弥福かな
+ゴんべ
+&lt;摩利乃&gt;(12.29デビュー予定)</t>
+    <rPh sb="0" eb="2">
+      <t>リオ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+&lt;小谷さつき&gt;
+&lt;松﨑紗弥&gt;
+&lt;山根百合&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伊藤麻希
+小橋マリカ
+凛</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1860,6 +1870,26 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="27">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Noto Serif JP SemiBold"/>
+        <family val="1"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2308,26 +2338,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Noto Serif JP SemiBold"/>
-        <family val="1"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -2426,29 +2436,29 @@
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{C5BCADDE-F600-4480-BD2B-E93168A1BF7F}" name="デビュー年" dataDxfId="24"/>
     <tableColumn id="2" xr3:uid="{7319872F-B1DE-47E8-ADFA-F5962E445AE2}" name="Stardom" dataDxfId="23"/>
+    <tableColumn id="18" xr3:uid="{6DD05DFF-D195-4CF5-BFC5-531553A9ADC5}" name="AWG" dataDxfId="0"/>
     <tableColumn id="22" xr3:uid="{8EA6491D-1F78-431F-AD9B-C8AB4F6616E9}" name="TJPW" dataDxfId="22"/>
-    <tableColumn id="18" xr3:uid="{6DD05DFF-D195-4CF5-BFC5-531553A9ADC5}" name="AWG" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{CA5FBB65-FE37-40A8-B1DD-0182D7DD64C3}" name="マリゴ" dataDxfId="20"/>
-    <tableColumn id="27" xr3:uid="{50745B86-8D07-4F72-B93E-5C2E105BB03C}" name="IR/ホットシュシュ" dataDxfId="19"/>
-    <tableColumn id="17" xr3:uid="{C0123278-DCF4-45DB-8696-FC0805957C5C}" name="Diana" dataDxfId="18"/>
-    <tableColumn id="30" xr3:uid="{BB23C0DC-5AEB-431A-A828-4D1BDF4F315F}" name="JTO" dataDxfId="17"/>
-    <tableColumn id="29" xr3:uid="{ADFF1D58-E918-4FF6-B352-AA98020CFD16}" name="チョコプロ" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{0D2ABC96-F0CF-44E9-912A-CA35E8452616}" name="Venus(1.4旗揚げ)" dataDxfId="15"/>
-    <tableColumn id="23" xr3:uid="{9647ED0D-42FB-42C1-BFB2-8B8D56D414C4}" name="SENDAI" dataDxfId="14"/>
-    <tableColumn id="32" xr3:uid="{67EA2433-E1D1-4094-BFB4-0EDB7438926B}" name="Pure-J" dataDxfId="13"/>
-    <tableColumn id="21" xr3:uid="{ACF43FBE-31D7-4ED6-A997-E4AF4BF0B9D4}" name="マーベラス" dataDxfId="12"/>
-    <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="なにわ女子" dataDxfId="11"/>
-    <tableColumn id="20" xr3:uid="{86389032-6123-44BF-98AB-D3CA13F2577A}" name="LLPW-X" dataDxfId="10"/>
-    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="9"/>
-    <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{3CAB629B-BA9F-4560-89E7-0980EE2B0905}" name="エボリューション" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{5C631C06-2946-4CE3-901A-57A0BABE156F}" name="BBJ" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{F6B1BCBE-A702-4B7C-9B81-2600AE026FEA}" name="PPP" dataDxfId="3"/>
-    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{CA5FBB65-FE37-40A8-B1DD-0182D7DD64C3}" name="マリゴ" dataDxfId="21"/>
+    <tableColumn id="27" xr3:uid="{50745B86-8D07-4F72-B93E-5C2E105BB03C}" name="IR/ホットシュシュ" dataDxfId="20"/>
+    <tableColumn id="17" xr3:uid="{C0123278-DCF4-45DB-8696-FC0805957C5C}" name="Diana" dataDxfId="19"/>
+    <tableColumn id="30" xr3:uid="{BB23C0DC-5AEB-431A-A828-4D1BDF4F315F}" name="JTO" dataDxfId="18"/>
+    <tableColumn id="29" xr3:uid="{ADFF1D58-E918-4FF6-B352-AA98020CFD16}" name="チョコプロ" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{0D2ABC96-F0CF-44E9-912A-CA35E8452616}" name="Venus(1.4旗揚げ)" dataDxfId="16"/>
+    <tableColumn id="23" xr3:uid="{9647ED0D-42FB-42C1-BFB2-8B8D56D414C4}" name="SENDAI" dataDxfId="15"/>
+    <tableColumn id="32" xr3:uid="{67EA2433-E1D1-4094-BFB4-0EDB7438926B}" name="Pure-J" dataDxfId="14"/>
+    <tableColumn id="21" xr3:uid="{ACF43FBE-31D7-4ED6-A997-E4AF4BF0B9D4}" name="マーベラス" dataDxfId="13"/>
+    <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="なにわ女子" dataDxfId="12"/>
+    <tableColumn id="20" xr3:uid="{86389032-6123-44BF-98AB-D3CA13F2577A}" name="LLPW-X" dataDxfId="11"/>
+    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="10"/>
+    <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{3CAB629B-BA9F-4560-89E7-0980EE2B0905}" name="エボリューション" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{5C631C06-2946-4CE3-901A-57A0BABE156F}" name="BBJ" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{F6B1BCBE-A702-4B7C-9B81-2600AE026FEA}" name="PPP" dataDxfId="4"/>
+    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2771,13 +2781,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4F8F56-06F6-4E1D-8D81-5A485042419D}">
-  <dimension ref="A1:AC54"/>
+  <dimension ref="A1:AD54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="J41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D48" sqref="D48"/>
+      <selection pane="bottomRight" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.33203125" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2785,54 +2795,55 @@
     <col min="1" max="1" width="1.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.27734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.94140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.0546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.71875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.0546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.27734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.27734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26.27734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="30.0546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="27.33203125" style="1"/>
-    <col min="30" max="16384" width="27.33203125" style="1"/>
+    <col min="4" max="4" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.27734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.94140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.0546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.71875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.0546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.27734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.27734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.27734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="30.0546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="27.33203125" style="1"/>
+    <col min="31" max="16384" width="27.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:30" ht="16" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="G1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="P1" s="1"/>
+      <c r="O1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="V1" s="1"/>
+      <c r="R1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
-      <c r="AC1" s="1"/>
-    </row>
-    <row r="2" spans="1:29" ht="16" x14ac:dyDescent="0.8">
+      <c r="Z1" s="1"/>
+      <c r="AD1" s="1"/>
+    </row>
+    <row r="2" spans="1:30" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RZ2)</f>
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2848,7 +2859,7 @@
      LEN(D5:D999) - LEN(SUBSTITUTE(D5:D999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" cm="1">
         <f t="array" ref="E2">SUMPRODUCT(
@@ -2868,181 +2879,182 @@
       </c>
       <c r="G2" s="1" cm="1">
         <f t="array" ref="G2">SUMPRODUCT(
-  IF(LEN(G5:G999)=0, 0,
-     LEN(G5:G999) - LEN(SUBSTITUTE(G5:G999, CHAR(10), "")) + 1
-  )
-)</f>
-        <v>19</v>
-      </c>
-      <c r="H2" s="1" cm="1">
-        <f t="array" ref="H2">SUMPRODUCT(
   IF(LEN(H5:H999)=0, 0,
      LEN(H5:H999) - LEN(SUBSTITUTE(H5:H999, CHAR(10), "")) + 1
   )
 )</f>
         <v>13</v>
       </c>
-      <c r="I2" s="1" cm="1">
-        <f t="array" ref="I2">SUMPRODUCT(
+      <c r="H2" s="1" cm="1">
+        <f t="array" ref="H2">SUMPRODUCT(
   IF(LEN(I5:I999)=0, 0,
      LEN(I5:I999) - LEN(SUBSTITUTE(I5:I999, CHAR(10), "")) + 1
   )
 )</f>
         <v>12</v>
       </c>
-      <c r="J2" s="1" cm="1">
-        <f t="array" ref="J2">SUMPRODUCT(
+      <c r="I2" s="1" cm="1">
+        <f t="array" ref="I2">SUMPRODUCT(
   IF(LEN(J5:J999)=0, 0,
      LEN(J5:J999) - LEN(SUBSTITUTE(J5:J999, CHAR(10), "")) + 1
   )
 )</f>
         <v>11</v>
       </c>
-      <c r="K2" s="1" cm="1">
-        <f t="array" ref="K2">SUMPRODUCT(
+      <c r="J2" s="1" cm="1">
+        <f t="array" ref="J2">SUMPRODUCT(
   IF(LEN(K5:K999)=0, 0,
      LEN(K5:K999) - LEN(SUBSTITUTE(K5:K999, CHAR(10), "")) + 1
   )
 )</f>
         <v>10</v>
       </c>
-      <c r="L2" s="1" cm="1">
-        <f t="array" ref="L2">SUMPRODUCT(
+      <c r="K2" s="1" cm="1">
+        <f t="array" ref="K2">SUMPRODUCT(
   IF(LEN(L5:L999)=0, 0,
      LEN(L5:L999) - LEN(SUBSTITUTE(L5:L999, CHAR(10), "")) + 1
   )
 )</f>
         <v>10</v>
       </c>
-      <c r="M2" s="1" cm="1">
-        <f t="array" ref="M2">SUMPRODUCT(
+      <c r="L2" s="1" cm="1">
+        <f t="array" ref="L2">SUMPRODUCT(
   IF(LEN(M5:M999)=0, 0,
      LEN(M5:M999) - LEN(SUBSTITUTE(M5:M999, CHAR(10), "")) + 1
   )
 )</f>
         <v>9</v>
       </c>
-      <c r="N2" s="1" cm="1">
-        <f t="array" ref="N2">SUMPRODUCT(
+      <c r="M2" s="1" cm="1">
+        <f t="array" ref="M2">SUMPRODUCT(
   IF(LEN(N5:N999)=0, 0,
      LEN(N5:N999) - LEN(SUBSTITUTE(N5:N999, CHAR(10), "")) + 1
   )
 )</f>
         <v>9</v>
       </c>
-      <c r="O2" s="1" cm="1">
-        <f t="array" ref="O2">SUMPRODUCT(
+      <c r="N2" s="1" cm="1">
+        <f t="array" ref="N2">SUMPRODUCT(
   IF(LEN(O5:O999)=0, 0,
      LEN(O5:O999) - LEN(SUBSTITUTE(O5:O999, CHAR(10), "")) + 1
   )
 )</f>
         <v>9</v>
       </c>
-      <c r="P2" s="1" cm="1">
-        <f t="array" ref="P2">SUMPRODUCT(
+      <c r="O2" s="1" cm="1">
+        <f t="array" ref="O2">SUMPRODUCT(
   IF(LEN(P5:P999)=0, 0,
      LEN(P5:P999) - LEN(SUBSTITUTE(P5:P999, CHAR(10), "")) + 1
   )
 )</f>
         <v>6</v>
       </c>
-      <c r="Q2" s="1" cm="1">
-        <f t="array" ref="Q2">SUMPRODUCT(
+      <c r="P2" s="1" cm="1">
+        <f t="array" ref="P2">SUMPRODUCT(
   IF(LEN(Q5:Q999)=0, 0,
      LEN(Q5:Q999) - LEN(SUBSTITUTE(Q5:Q999, CHAR(10), "")) + 1
   )
 )</f>
         <v>6</v>
       </c>
-      <c r="R2" s="1" cm="1">
-        <f t="array" ref="R2">SUMPRODUCT(
+      <c r="Q2" s="1" cm="1">
+        <f t="array" ref="Q2">SUMPRODUCT(
   IF(LEN(R5:R999)=0, 0,
      LEN(R5:R999) - LEN(SUBSTITUTE(R5:R999, CHAR(10), "")) + 1
   )
 )</f>
         <v>5</v>
       </c>
-      <c r="S2" s="1" cm="1">
-        <f t="array" ref="S2">SUMPRODUCT(
+      <c r="R2" s="1" cm="1">
+        <f t="array" ref="R2">SUMPRODUCT(
   IF(LEN(S5:S999)=0, 0,
      LEN(S5:S999) - LEN(SUBSTITUTE(S5:S999, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
-      <c r="T2" s="1" cm="1">
-        <f t="array" ref="T2">SUMPRODUCT(
+      <c r="S2" s="1" cm="1">
+        <f t="array" ref="S2">SUMPRODUCT(
   IF(LEN(T5:T999)=0, 0,
      LEN(T5:T999) - LEN(SUBSTITUTE(T5:T999, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
-      <c r="U2" s="1" cm="1">
-        <f t="array" ref="U2">SUMPRODUCT(
+      <c r="T2" s="1" cm="1">
+        <f t="array" ref="T2">SUMPRODUCT(
   IF(LEN(U5:U999)=0, 0,
      LEN(U5:U999) - LEN(SUBSTITUTE(U5:U999, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
-      <c r="V2" s="1" cm="1">
-        <f t="array" ref="V2">SUMPRODUCT(
+      <c r="U2" s="1" cm="1">
+        <f t="array" ref="U2">SUMPRODUCT(
   IF(LEN(V5:V999)=0, 0,
      LEN(V5:V999) - LEN(SUBSTITUTE(V5:V999, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
+      <c r="V2" s="1" cm="1">
+        <f t="array" ref="V2">SUMPRODUCT(
+  IF(LEN(W5:W999)=0, 0,
+     LEN(W5:W999) - LEN(SUBSTITUTE(W5:W999, CHAR(10), "")) + 1
+  )
+)</f>
+        <v>4</v>
+      </c>
       <c r="W2" s="1" cm="1">
         <f t="array" ref="W2">SUMPRODUCT(
-  IF(LEN(X5:X999)=0, 0,
-     LEN(X5:X999) - LEN(SUBSTITUTE(X5:X999, CHAR(10), "")) + 1
-  )
-)</f>
-        <v>8</v>
-      </c>
-      <c r="X2" s="1" cm="1">
-        <f t="array" ref="X2">SUMPRODUCT(
   IF(LEN(Y5:Y999)=0, 0,
      LEN(Y5:Y999) - LEN(SUBSTITUTE(Y5:Y999, CHAR(10), "")) + 1
   )
 )</f>
         <v>44</v>
       </c>
-      <c r="Y2" s="1" cm="1">
-        <f t="array" ref="Y2">SUMPRODUCT(
+      <c r="X2" s="1" cm="1">
+        <f t="array" ref="X2">SUMPRODUCT(
   IF(LEN(Z5:Z999)=0, 0,
      LEN(Z5:Z999) - LEN(SUBSTITUTE(Z5:Z999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>48</v>
-      </c>
-      <c r="Z2" s="1" cm="1">
-        <f t="array" ref="Z2">SUMPRODUCT(
+        <v>49</v>
+      </c>
+      <c r="Y2" s="1" cm="1">
+        <f t="array" ref="Y2">SUMPRODUCT(
   IF(LEN(AA5:AA999)=0, 0,
      LEN(AA5:AA999) - LEN(SUBSTITUTE(AA5:AA999, CHAR(10), "")) + 1
   )
 )</f>
         <v>0</v>
       </c>
-      <c r="AC2" s="1"/>
-    </row>
-    <row r="3" spans="1:29" ht="16" x14ac:dyDescent="0.8">
+      <c r="Z2" s="1" cm="1">
+        <f t="array" ref="Z2">SUMPRODUCT(
+  IF(LEN(AB5:AB999)=0, 0,
+     LEN(AB5:AB999) - LEN(SUBSTITUTE(AB5:AB999, CHAR(10), "")) + 1
+  )
+)</f>
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1"/>
+    </row>
+    <row r="3" spans="1:30" ht="16" x14ac:dyDescent="0.8">
       <c r="F3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="G3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="P3" s="1"/>
+      <c r="O3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="V3" s="1"/>
+      <c r="R3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
-      <c r="AC3" s="1"/>
-    </row>
-    <row r="4" spans="1:29" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="Z3" s="1"/>
+      <c r="AD3" s="1"/>
+    </row>
+    <row r="4" spans="1:30" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -3050,10 +3062,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>3</v>
@@ -3071,7 +3083,7 @@
         <v>60</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>54</v>
@@ -3083,7 +3095,7 @@
         <v>8</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>20</v>
@@ -3098,16 +3110,16 @@
         <v>7</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X4" s="2" t="s">
         <v>103</v>
@@ -3118,9 +3130,9 @@
       <c r="Z4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AC4" s="1"/>
-    </row>
-    <row r="5" spans="1:29" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AD4" s="1"/>
+    </row>
+    <row r="5" spans="1:30" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B5" s="3">
         <v>1977</v>
       </c>
@@ -3150,9 +3162,9 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
-      <c r="AC5" s="1"/>
-    </row>
-    <row r="6" spans="1:29" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AD5" s="1"/>
+    </row>
+    <row r="6" spans="1:30" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B6" s="3">
         <v>1978</v>
       </c>
@@ -3180,9 +3192,9 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
-      <c r="AC6" s="1"/>
-    </row>
-    <row r="7" spans="1:29" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AD6" s="1"/>
+    </row>
+    <row r="7" spans="1:30" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B7" s="3">
         <v>1979</v>
       </c>
@@ -3210,9 +3222,9 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
-      <c r="AC7" s="1"/>
-    </row>
-    <row r="8" spans="1:29" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AD7" s="1"/>
+    </row>
+    <row r="8" spans="1:30" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B8" s="3">
         <v>1980</v>
       </c>
@@ -3244,9 +3256,9 @@
       <c r="Z8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AC8" s="1"/>
-    </row>
-    <row r="9" spans="1:29" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AD8" s="1"/>
+    </row>
+    <row r="9" spans="1:30" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B9" s="3">
         <v>1981</v>
       </c>
@@ -3274,9 +3286,9 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
-      <c r="AC9" s="1"/>
-    </row>
-    <row r="10" spans="1:29" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AD9" s="1"/>
+    </row>
+    <row r="10" spans="1:30" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B10" s="3">
         <v>1982</v>
       </c>
@@ -3304,9 +3316,9 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
-      <c r="AC10" s="1"/>
-    </row>
-    <row r="11" spans="1:29" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AD10" s="1"/>
+    </row>
+    <row r="11" spans="1:30" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B11" s="3">
         <v>1983</v>
       </c>
@@ -3334,9 +3346,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-      <c r="AC11" s="1"/>
-    </row>
-    <row r="12" spans="1:29" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AD11" s="1"/>
+    </row>
+    <row r="12" spans="1:30" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B12" s="3">
         <v>1984</v>
       </c>
@@ -3364,9 +3376,9 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
-      <c r="AC12" s="1"/>
-    </row>
-    <row r="13" spans="1:29" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="AD12" s="1"/>
+    </row>
+    <row r="13" spans="1:30" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B13" s="3">
         <v>1985</v>
       </c>
@@ -3393,12 +3405,12 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Z13" s="3"/>
-      <c r="AC13" s="1"/>
-    </row>
-    <row r="14" spans="1:29" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AD13" s="1"/>
+    </row>
+    <row r="14" spans="1:30" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B14" s="3">
         <v>1986</v>
       </c>
@@ -3432,9 +3444,9 @@
       <c r="Z14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AC14" s="1"/>
-    </row>
-    <row r="15" spans="1:29" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AD14" s="1"/>
+    </row>
+    <row r="15" spans="1:30" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B15" s="3">
         <v>1987</v>
       </c>
@@ -3464,9 +3476,9 @@
       <c r="Z15" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AC15" s="1"/>
-    </row>
-    <row r="16" spans="1:29" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AD15" s="1"/>
+    </row>
+    <row r="16" spans="1:30" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B16" s="3">
         <v>1988</v>
       </c>
@@ -3498,9 +3510,9 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-      <c r="AC16" s="1"/>
-    </row>
-    <row r="17" spans="2:29" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AD16" s="1"/>
+    </row>
+    <row r="17" spans="2:30" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B17" s="3">
         <v>1989</v>
       </c>
@@ -3527,14 +3539,14 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC17" s="1"/>
-    </row>
-    <row r="18" spans="2:29" ht="16.7" x14ac:dyDescent="0.8">
+        <v>140</v>
+      </c>
+      <c r="AD17" s="1"/>
+    </row>
+    <row r="18" spans="2:30" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B18" s="3">
         <v>1990</v>
       </c>
@@ -3562,9 +3574,9 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
-      <c r="AC18" s="1"/>
-    </row>
-    <row r="19" spans="2:29" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AD18" s="1"/>
+    </row>
+    <row r="19" spans="2:30" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B19" s="3">
         <v>1991</v>
       </c>
@@ -3592,9 +3604,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-      <c r="AC19" s="1"/>
-    </row>
-    <row r="20" spans="2:29" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AD19" s="1"/>
+    </row>
+    <row r="20" spans="2:30" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B20" s="3">
         <v>1992</v>
       </c>
@@ -3622,9 +3634,9 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
-      <c r="AC20" s="1"/>
-    </row>
-    <row r="21" spans="2:29" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AD20" s="1"/>
+    </row>
+    <row r="21" spans="2:30" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B21" s="3">
         <v>1993</v>
       </c>
@@ -3652,9 +3664,9 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
-      <c r="AC21" s="1"/>
-    </row>
-    <row r="22" spans="2:29" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AD21" s="1"/>
+    </row>
+    <row r="22" spans="2:30" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B22" s="3">
         <v>1994</v>
       </c>
@@ -3682,9 +3694,9 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
-      <c r="AC22" s="1"/>
-    </row>
-    <row r="23" spans="2:29" ht="50" x14ac:dyDescent="0.8">
+      <c r="AD22" s="1"/>
+    </row>
+    <row r="23" spans="2:30" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B23" s="3">
         <v>1995</v>
       </c>
@@ -3706,7 +3718,7 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -3715,14 +3727,14 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Z23" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AC23" s="1"/>
-    </row>
-    <row r="24" spans="2:29" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AD23" s="1"/>
+    </row>
+    <row r="24" spans="2:30" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B24" s="3">
         <v>1996</v>
       </c>
@@ -3750,11 +3762,11 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="AC24" s="1"/>
-    </row>
-    <row r="25" spans="2:29" ht="16.7" x14ac:dyDescent="0.8">
+        <v>211</v>
+      </c>
+      <c r="AD24" s="1"/>
+    </row>
+    <row r="25" spans="2:30" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B25" s="3">
         <v>1997</v>
       </c>
@@ -3786,9 +3798,9 @@
       <c r="Z25" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AC25" s="1"/>
-    </row>
-    <row r="26" spans="2:29" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AD25" s="1"/>
+    </row>
+    <row r="26" spans="2:30" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B26" s="3">
         <v>1998</v>
       </c>
@@ -3820,9 +3832,9 @@
       <c r="Z26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AC26" s="1"/>
-    </row>
-    <row r="27" spans="2:29" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="AD26" s="1"/>
+    </row>
+    <row r="27" spans="2:30" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B27" s="3">
         <v>1999</v>
       </c>
@@ -3854,17 +3866,17 @@
         <v>88</v>
       </c>
       <c r="Z27" s="3"/>
-      <c r="AC27" s="1"/>
-    </row>
-    <row r="28" spans="2:29" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="AD27" s="1"/>
+    </row>
+    <row r="28" spans="2:30" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B28" s="3">
         <v>2000</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -3890,9 +3902,9 @@
       <c r="Z28" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AC28" s="1"/>
-    </row>
-    <row r="29" spans="2:29" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AD28" s="1"/>
+    </row>
+    <row r="29" spans="2:30" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B29" s="3">
         <v>2001</v>
       </c>
@@ -3924,9 +3936,9 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
-      <c r="AC29" s="1"/>
-    </row>
-    <row r="30" spans="2:29" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="AD29" s="1"/>
+    </row>
+    <row r="30" spans="2:30" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B30" s="3">
         <v>2002</v>
       </c>
@@ -3956,9 +3968,9 @@
         <v>91</v>
       </c>
       <c r="Z30" s="3"/>
-      <c r="AC30" s="1"/>
-    </row>
-    <row r="31" spans="2:29" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AD30" s="1"/>
+    </row>
+    <row r="31" spans="2:30" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B31" s="3">
         <v>2003</v>
       </c>
@@ -3986,9 +3998,9 @@
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
-      <c r="AC31" s="1"/>
-    </row>
-    <row r="32" spans="2:29" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="AD31" s="1"/>
+    </row>
+    <row r="32" spans="2:30" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B32" s="3">
         <v>2004</v>
       </c>
@@ -4020,9 +4032,9 @@
       <c r="Z32" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AC32" s="1"/>
-    </row>
-    <row r="33" spans="2:29" ht="50" x14ac:dyDescent="0.8">
+      <c r="AD32" s="1"/>
+    </row>
+    <row r="33" spans="2:30" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B33" s="3">
         <v>2005</v>
       </c>
@@ -4051,12 +4063,12 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z33" s="3"/>
-      <c r="AC33" s="1"/>
-    </row>
-    <row r="34" spans="2:29" ht="66.7" x14ac:dyDescent="0.8">
+      <c r="AD33" s="1"/>
+    </row>
+    <row r="34" spans="2:30" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B34" s="3">
         <v>2006</v>
       </c>
@@ -4065,13 +4077,13 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>55</v>
@@ -4096,9 +4108,9 @@
       <c r="Z34" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AC34" s="1"/>
-    </row>
-    <row r="35" spans="2:29" ht="50" x14ac:dyDescent="0.8">
+      <c r="AD34" s="1"/>
+    </row>
+    <row r="35" spans="2:30" ht="50" x14ac:dyDescent="0.8">
       <c r="B35" s="3">
         <v>2007</v>
       </c>
@@ -4128,22 +4140,22 @@
       </c>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AC35" s="1"/>
-    </row>
-    <row r="36" spans="2:29" ht="33.35" x14ac:dyDescent="0.8">
+        <v>163</v>
+      </c>
+      <c r="AD35" s="1"/>
+    </row>
+    <row r="36" spans="2:30" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B36" s="3">
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -4168,9 +4180,9 @@
       <c r="Z36" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AC36" s="1"/>
-    </row>
-    <row r="37" spans="2:29" ht="16.7" x14ac:dyDescent="0.8">
+      <c r="AD36" s="1"/>
+    </row>
+    <row r="37" spans="2:30" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B37" s="3">
         <v>2009</v>
       </c>
@@ -4200,9 +4212,9 @@
         <v>62</v>
       </c>
       <c r="Z37" s="3"/>
-      <c r="AC37" s="1"/>
-    </row>
-    <row r="38" spans="2:29" ht="50" x14ac:dyDescent="0.8">
+      <c r="AD37" s="1"/>
+    </row>
+    <row r="38" spans="2:30" ht="50" x14ac:dyDescent="0.8">
       <c r="B38" s="3">
         <v>2010</v>
       </c>
@@ -4236,9 +4248,9 @@
         <v>93</v>
       </c>
       <c r="Z38" s="3"/>
-      <c r="AC38" s="1"/>
-    </row>
-    <row r="39" spans="2:29" ht="33.35" x14ac:dyDescent="0.8">
+      <c r="AD38" s="1"/>
+    </row>
+    <row r="39" spans="2:30" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B39" s="3">
         <v>2011</v>
       </c>
@@ -4248,7 +4260,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>112</v>
@@ -4278,25 +4290,25 @@
       </c>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC39" s="1"/>
-    </row>
-    <row r="40" spans="2:29" ht="66.7" x14ac:dyDescent="0.8">
+        <v>165</v>
+      </c>
+      <c r="AD39" s="1"/>
+    </row>
+    <row r="40" spans="2:30" ht="50" x14ac:dyDescent="0.8">
       <c r="B40" s="3">
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D40" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="F40" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -4321,25 +4333,25 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Z40" s="3"/>
-      <c r="AC40" s="1"/>
-    </row>
-    <row r="41" spans="2:29" ht="100" x14ac:dyDescent="0.8">
+      <c r="AD40" s="1"/>
+    </row>
+    <row r="41" spans="2:30" ht="100" x14ac:dyDescent="0.8">
       <c r="B41" s="3">
         <v>2013</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -4363,24 +4375,24 @@
         <v>108</v>
       </c>
       <c r="Y41" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Z41" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC41" s="1"/>
-    </row>
-    <row r="42" spans="2:29" ht="33.35" x14ac:dyDescent="0.8">
+        <v>170</v>
+      </c>
+      <c r="AD41" s="1"/>
+    </row>
+    <row r="42" spans="2:30" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B42" s="3">
         <v>2014</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D42" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -4401,24 +4413,24 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z42" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="AC42" s="1"/>
-    </row>
-    <row r="43" spans="2:29" ht="83.35" x14ac:dyDescent="0.8">
+      <c r="AD42" s="1"/>
+    </row>
+    <row r="43" spans="2:30" ht="83.35" x14ac:dyDescent="0.8">
       <c r="B43" s="3">
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D43" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -4444,21 +4456,21 @@
       </c>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="AC43" s="1"/>
-    </row>
-    <row r="44" spans="2:29" ht="33.35" x14ac:dyDescent="0.8">
+        <v>175</v>
+      </c>
+      <c r="AD43" s="1"/>
+    </row>
+    <row r="44" spans="2:30" ht="50" x14ac:dyDescent="0.8">
       <c r="B44" s="3">
         <v>2016</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -4466,7 +4478,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3" t="s">
@@ -4483,19 +4495,19 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z44" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC44" s="1"/>
-    </row>
-    <row r="45" spans="2:29" ht="33.35" x14ac:dyDescent="0.8">
+        <v>231</v>
+      </c>
+      <c r="AD44" s="1"/>
+    </row>
+    <row r="45" spans="2:30" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B45" s="3">
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4506,13 +4518,13 @@
         <v>111</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
@@ -4524,7 +4536,7 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
@@ -4533,25 +4545,25 @@
         <v>121</v>
       </c>
       <c r="Y45" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z45" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC45" s="1"/>
-    </row>
-    <row r="46" spans="2:29" ht="166.7" x14ac:dyDescent="0.8">
+        <v>129</v>
+      </c>
+      <c r="AD45" s="1"/>
+    </row>
+    <row r="46" spans="2:30" ht="100" x14ac:dyDescent="0.8">
       <c r="B46" s="3">
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>14</v>
@@ -4578,35 +4590,35 @@
       </c>
       <c r="S46" s="3"/>
       <c r="T46" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U46" s="3"/>
       <c r="V46" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="W46" s="3"/>
       <c r="X46" s="3" t="s">
         <v>107</v>
       </c>
       <c r="Y46" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z46" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AC46" s="1"/>
-    </row>
-    <row r="47" spans="2:29" ht="66.7" x14ac:dyDescent="0.8">
+      <c r="AD46" s="1"/>
+    </row>
+    <row r="47" spans="2:30" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B47" s="3">
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D47" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
         <v>110</v>
@@ -4615,7 +4627,7 @@
         <v>25</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>79</v>
@@ -4625,7 +4637,7 @@
         <v>57</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -4636,19 +4648,19 @@
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Z47" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="AC47" s="1"/>
-    </row>
-    <row r="48" spans="2:29" ht="50" x14ac:dyDescent="0.8">
+        <v>187</v>
+      </c>
+      <c r="AD47" s="1"/>
+    </row>
+    <row r="48" spans="2:30" ht="50" x14ac:dyDescent="0.8">
       <c r="B48" s="3">
         <v>2020</v>
       </c>
@@ -4683,14 +4695,14 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Z48" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC48" s="1"/>
-    </row>
-    <row r="49" spans="2:29" ht="100" x14ac:dyDescent="0.8">
+        <v>151</v>
+      </c>
+      <c r="AD48" s="1"/>
+    </row>
+    <row r="49" spans="2:30" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B49" s="3">
         <v>2021</v>
       </c>
@@ -4698,16 +4710,16 @@
         <v>52</v>
       </c>
       <c r="D49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3" t="s">
@@ -4733,33 +4745,33 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X49" s="3"/>
       <c r="Y49" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Z49" s="3"/>
-      <c r="AC49" s="1"/>
-    </row>
-    <row r="50" spans="2:29" ht="133.35" x14ac:dyDescent="0.8">
+      <c r="AD49" s="1"/>
+    </row>
+    <row r="50" spans="2:30" ht="133.35" x14ac:dyDescent="0.8">
       <c r="B50" s="3">
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D50" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="F50" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>24</v>
@@ -4771,13 +4783,13 @@
         <v>80</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
@@ -4787,18 +4799,18 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X50" s="3"/>
       <c r="Y50" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Z50" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="AC50" s="1"/>
-    </row>
-    <row r="51" spans="2:29" ht="100" x14ac:dyDescent="0.8">
+        <v>218</v>
+      </c>
+      <c r="AD50" s="1"/>
+    </row>
+    <row r="51" spans="2:30" ht="100" x14ac:dyDescent="0.8">
       <c r="B51" s="3">
         <v>2023</v>
       </c>
@@ -4806,10 +4818,10 @@
         <v>27</v>
       </c>
       <c r="D51" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>15</v>
@@ -4818,7 +4830,7 @@
         <v>118</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>51</v>
@@ -4828,41 +4840,41 @@
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X51" s="3"/>
       <c r="Y51" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z51" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="AC51" s="1"/>
-    </row>
-    <row r="52" spans="2:29" ht="100" x14ac:dyDescent="0.8">
+        <v>166</v>
+      </c>
+      <c r="AD51" s="1"/>
+    </row>
+    <row r="52" spans="2:30" ht="100" x14ac:dyDescent="0.8">
       <c r="B52" s="3">
         <v>2024</v>
       </c>
@@ -4870,19 +4882,19 @@
         <v>76</v>
       </c>
       <c r="D52" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="F52" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>85</v>
@@ -4891,17 +4903,17 @@
         <v>82</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3" t="s">
@@ -4910,21 +4922,21 @@
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z52" s="3"/>
-      <c r="AC52" s="1"/>
-    </row>
-    <row r="53" spans="2:29" ht="83.35" x14ac:dyDescent="0.8">
+      <c r="AD52" s="1"/>
+    </row>
+    <row r="53" spans="2:30" ht="83.35" x14ac:dyDescent="0.8">
       <c r="B53" s="3">
         <v>2025</v>
       </c>
@@ -4932,10 +4944,10 @@
         <v>75</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>117</v>
@@ -4944,80 +4956,80 @@
         <v>109</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="X53" s="3"/>
       <c r="Y53" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Z53" s="3"/>
-      <c r="AC53" s="1"/>
-    </row>
-    <row r="54" spans="2:29" ht="116.7" x14ac:dyDescent="0.8">
+      <c r="AD53" s="1"/>
+    </row>
+    <row r="54" spans="2:30" ht="283.35000000000002" x14ac:dyDescent="0.8">
       <c r="B54" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O54" s="3"/>
       <c r="P54" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
@@ -5027,10 +5039,10 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
       <c r="Y54" s="3" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="Z54" s="3"/>
-      <c r="AC54" s="1"/>
+      <c r="AD54" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C00DB1-6F2C-404D-901D-6C43D1823225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27618EF9-4103-4E0F-A64D-8E3E2EF9944F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1587" yWindow="507" windowWidth="19020" windowHeight="13466" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="1587" yWindow="213" windowWidth="19020" windowHeight="13467" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -1715,15 +1715,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;シオン&gt;仮(2026.1.4デビュー予定)
-&lt;アンリ&gt;仮(2026.1.4デビュー予定)
-&lt;ユウカ&gt;仮</t>
-    <rPh sb="42" eb="44">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>吏南
 妃南
 鈴季すず
@@ -1785,6 +1776,12 @@
     <t>伊藤麻希
 小橋マリカ
 凛</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;神嵜志音&gt;仮(2026.1.4デビュー予定)
+&lt;アンリ&gt;仮
+&lt;ユウカ&gt;仮</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1870,26 +1867,6 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="27">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Noto Serif JP SemiBold"/>
-        <family val="1"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2338,6 +2315,26 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Noto Serif JP SemiBold"/>
+        <family val="1"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -2436,29 +2433,29 @@
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{C5BCADDE-F600-4480-BD2B-E93168A1BF7F}" name="デビュー年" dataDxfId="24"/>
     <tableColumn id="2" xr3:uid="{7319872F-B1DE-47E8-ADFA-F5962E445AE2}" name="Stardom" dataDxfId="23"/>
-    <tableColumn id="18" xr3:uid="{6DD05DFF-D195-4CF5-BFC5-531553A9ADC5}" name="AWG" dataDxfId="0"/>
-    <tableColumn id="22" xr3:uid="{8EA6491D-1F78-431F-AD9B-C8AB4F6616E9}" name="TJPW" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{CA5FBB65-FE37-40A8-B1DD-0182D7DD64C3}" name="マリゴ" dataDxfId="21"/>
-    <tableColumn id="27" xr3:uid="{50745B86-8D07-4F72-B93E-5C2E105BB03C}" name="IR/ホットシュシュ" dataDxfId="20"/>
-    <tableColumn id="17" xr3:uid="{C0123278-DCF4-45DB-8696-FC0805957C5C}" name="Diana" dataDxfId="19"/>
-    <tableColumn id="30" xr3:uid="{BB23C0DC-5AEB-431A-A828-4D1BDF4F315F}" name="JTO" dataDxfId="18"/>
-    <tableColumn id="29" xr3:uid="{ADFF1D58-E918-4FF6-B352-AA98020CFD16}" name="チョコプロ" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{0D2ABC96-F0CF-44E9-912A-CA35E8452616}" name="Venus(1.4旗揚げ)" dataDxfId="16"/>
-    <tableColumn id="23" xr3:uid="{9647ED0D-42FB-42C1-BFB2-8B8D56D414C4}" name="SENDAI" dataDxfId="15"/>
-    <tableColumn id="32" xr3:uid="{67EA2433-E1D1-4094-BFB4-0EDB7438926B}" name="Pure-J" dataDxfId="14"/>
-    <tableColumn id="21" xr3:uid="{ACF43FBE-31D7-4ED6-A997-E4AF4BF0B9D4}" name="マーベラス" dataDxfId="13"/>
-    <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="なにわ女子" dataDxfId="12"/>
-    <tableColumn id="20" xr3:uid="{86389032-6123-44BF-98AB-D3CA13F2577A}" name="LLPW-X" dataDxfId="11"/>
-    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="10"/>
-    <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{3CAB629B-BA9F-4560-89E7-0980EE2B0905}" name="エボリューション" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{5C631C06-2946-4CE3-901A-57A0BABE156F}" name="BBJ" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{F6B1BCBE-A702-4B7C-9B81-2600AE026FEA}" name="PPP" dataDxfId="4"/>
-    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{6DD05DFF-D195-4CF5-BFC5-531553A9ADC5}" name="AWG" dataDxfId="22"/>
+    <tableColumn id="22" xr3:uid="{8EA6491D-1F78-431F-AD9B-C8AB4F6616E9}" name="TJPW" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{CA5FBB65-FE37-40A8-B1DD-0182D7DD64C3}" name="マリゴ" dataDxfId="20"/>
+    <tableColumn id="27" xr3:uid="{50745B86-8D07-4F72-B93E-5C2E105BB03C}" name="IR/ホットシュシュ" dataDxfId="19"/>
+    <tableColumn id="17" xr3:uid="{C0123278-DCF4-45DB-8696-FC0805957C5C}" name="Diana" dataDxfId="18"/>
+    <tableColumn id="30" xr3:uid="{BB23C0DC-5AEB-431A-A828-4D1BDF4F315F}" name="JTO" dataDxfId="17"/>
+    <tableColumn id="29" xr3:uid="{ADFF1D58-E918-4FF6-B352-AA98020CFD16}" name="チョコプロ" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{0D2ABC96-F0CF-44E9-912A-CA35E8452616}" name="Venus(1.4旗揚げ)" dataDxfId="15"/>
+    <tableColumn id="23" xr3:uid="{9647ED0D-42FB-42C1-BFB2-8B8D56D414C4}" name="SENDAI" dataDxfId="14"/>
+    <tableColumn id="32" xr3:uid="{67EA2433-E1D1-4094-BFB4-0EDB7438926B}" name="Pure-J" dataDxfId="13"/>
+    <tableColumn id="21" xr3:uid="{ACF43FBE-31D7-4ED6-A997-E4AF4BF0B9D4}" name="マーベラス" dataDxfId="12"/>
+    <tableColumn id="34" xr3:uid="{C9FDFCD5-EB7A-4498-855C-DD4AF6E60734}" name="なにわ女子" dataDxfId="11"/>
+    <tableColumn id="20" xr3:uid="{86389032-6123-44BF-98AB-D3CA13F2577A}" name="LLPW-X" dataDxfId="10"/>
+    <tableColumn id="28" xr3:uid="{8FEFA60F-BAF5-466B-B569-8C96F8534AF7}" name="シード" dataDxfId="9"/>
+    <tableColumn id="26" xr3:uid="{73103D07-0C18-49E4-833A-41ADC2D3DE61}" name="Wave" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{11B98A53-6EA8-44AD-B33B-82B313F30661}" name="ガンプロ" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{DDF38F40-8A77-4C8C-A9E5-47A29D5A7C86}" name="柳ヶ瀬" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{3CAB629B-BA9F-4560-89E7-0980EE2B0905}" name="エボリューション" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{5C631C06-2946-4CE3-901A-57A0BABE156F}" name="BBJ" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{F6B1BCBE-A702-4B7C-9B81-2600AE026FEA}" name="PPP" dataDxfId="3"/>
+    <tableColumn id="33" xr3:uid="{56EE63D7-2296-4070-86B8-49B5D171AF20}" name="海外" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{50B4283E-4FFA-4BD0-B17F-8B3414F0E4D2}" name="その他" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{CE5E3F3B-FB92-45D8-AA5E-A154DC9761D3}" name="フリー" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2784,10 +2781,10 @@
   <dimension ref="A1:AD54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="J41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J45" sqref="J45"/>
+      <selection pane="bottomRight" activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.33203125" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -4498,7 +4495,7 @@
         <v>132</v>
       </c>
       <c r="Z44" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AD44" s="1"/>
     </row>
@@ -4507,7 +4504,7 @@
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4557,7 +4554,7 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>185</v>
@@ -4944,7 +4941,7 @@
         <v>75</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>205</v>
@@ -4989,7 +4986,7 @@
         <v>156</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X53" s="3"/>
       <c r="Y53" s="3" t="s">
@@ -5004,10 +5001,10 @@
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -5039,7 +5036,7 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
       <c r="Y54" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Z54" s="3"/>
       <c r="AD54" s="1"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27618EF9-4103-4E0F-A64D-8E3E2EF9944F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEF34F7-3520-42DF-9F20-5821CE36BEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1587" yWindow="213" windowWidth="19020" windowHeight="13467" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="5973" yWindow="553" windowWidth="19020" windowHeight="13467" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="231">
   <si>
     <t>Stardom</t>
     <phoneticPr fontId="1"/>
@@ -824,11 +824,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゆづき(HCC)
-chou・chou(HCC)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>風城ハル
 芦田美歩
 大久保琉那(休)
@@ -992,10 +987,6 @@
   </si>
   <si>
     <t>CHIKA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>優宇(EVE)(2025.12.28引退予定)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1766,22 +1757,31 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>伊藤麻希
+小橋マリカ
+凛</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;神嵜志音&gt;仮(2026.1.4デビュー予定)
+&lt;アンリ&gt;仮
+&lt;ユウカ&gt;仮</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆづき(HCC)(休)
+chou・chou(HCC)</t>
+    <rPh sb="9" eb="10">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t xml:space="preserve">
 &lt;小谷さつき&gt;
 &lt;松﨑紗弥&gt;
-&lt;山根百合&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>伊藤麻希
-小橋マリカ
-凛</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;神嵜志音&gt;仮(2026.1.4デビュー予定)
-&lt;アンリ&gt;仮
-&lt;ユウカ&gt;仮</t>
+&lt;山根百合&gt;
+&lt;桃羽もえは&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2781,10 +2781,10 @@
   <dimension ref="A1:AD54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E55" sqref="E55"/>
+      <selection pane="bottomRight" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.33203125" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2798,8 +2798,8 @@
     <col min="8" max="8" width="27" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.94140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.0546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="28.71875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27" bestFit="1" customWidth="1"/>
@@ -2840,7 +2840,7 @@
     <row r="2" spans="1:30" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RZ2)</f>
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2856,7 +2856,7 @@
      LEN(D5:D999) - LEN(SUBSTITUTE(D5:D999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1" cm="1">
         <f t="array" ref="E2">SUMPRODUCT(
@@ -2876,163 +2876,163 @@
       </c>
       <c r="G2" s="1" cm="1">
         <f t="array" ref="G2">SUMPRODUCT(
+  IF(LEN(G5:G999)=0, 0,
+     LEN(G5:G999) - LEN(SUBSTITUTE(G5:G999, CHAR(10), "")) + 1
+  )
+)</f>
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" cm="1">
+        <f t="array" ref="H2">SUMPRODUCT(
   IF(LEN(H5:H999)=0, 0,
      LEN(H5:H999) - LEN(SUBSTITUTE(H5:H999, CHAR(10), "")) + 1
   )
 )</f>
         <v>13</v>
       </c>
-      <c r="H2" s="1" cm="1">
-        <f t="array" ref="H2">SUMPRODUCT(
+      <c r="I2" s="1" cm="1">
+        <f t="array" ref="I2">SUMPRODUCT(
   IF(LEN(I5:I999)=0, 0,
      LEN(I5:I999) - LEN(SUBSTITUTE(I5:I999, CHAR(10), "")) + 1
   )
 )</f>
         <v>12</v>
       </c>
-      <c r="I2" s="1" cm="1">
-        <f t="array" ref="I2">SUMPRODUCT(
+      <c r="J2" s="1" cm="1">
+        <f t="array" ref="J2">SUMPRODUCT(
   IF(LEN(J5:J999)=0, 0,
      LEN(J5:J999) - LEN(SUBSTITUTE(J5:J999, CHAR(10), "")) + 1
   )
 )</f>
         <v>11</v>
       </c>
-      <c r="J2" s="1" cm="1">
-        <f t="array" ref="J2">SUMPRODUCT(
+      <c r="K2" s="1" cm="1">
+        <f t="array" ref="K2">SUMPRODUCT(
   IF(LEN(K5:K999)=0, 0,
      LEN(K5:K999) - LEN(SUBSTITUTE(K5:K999, CHAR(10), "")) + 1
   )
 )</f>
         <v>10</v>
       </c>
-      <c r="K2" s="1" cm="1">
-        <f t="array" ref="K2">SUMPRODUCT(
+      <c r="L2" s="1" cm="1">
+        <f t="array" ref="L2">SUMPRODUCT(
   IF(LEN(L5:L999)=0, 0,
      LEN(L5:L999) - LEN(SUBSTITUTE(L5:L999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>10</v>
-      </c>
-      <c r="L2" s="1" cm="1">
-        <f t="array" ref="L2">SUMPRODUCT(
+        <v>9</v>
+      </c>
+      <c r="M2" s="1" cm="1">
+        <f t="array" ref="M2">SUMPRODUCT(
   IF(LEN(M5:M999)=0, 0,
      LEN(M5:M999) - LEN(SUBSTITUTE(M5:M999, CHAR(10), "")) + 1
   )
 )</f>
         <v>9</v>
       </c>
-      <c r="M2" s="1" cm="1">
-        <f t="array" ref="M2">SUMPRODUCT(
+      <c r="N2" s="1" cm="1">
+        <f t="array" ref="N2">SUMPRODUCT(
   IF(LEN(N5:N999)=0, 0,
      LEN(N5:N999) - LEN(SUBSTITUTE(N5:N999, CHAR(10), "")) + 1
   )
 )</f>
         <v>9</v>
       </c>
-      <c r="N2" s="1" cm="1">
-        <f t="array" ref="N2">SUMPRODUCT(
+      <c r="O2" s="1" cm="1">
+        <f t="array" ref="O2">SUMPRODUCT(
   IF(LEN(O5:O999)=0, 0,
      LEN(O5:O999) - LEN(SUBSTITUTE(O5:O999, CHAR(10), "")) + 1
   )
 )</f>
         <v>9</v>
       </c>
-      <c r="O2" s="1" cm="1">
-        <f t="array" ref="O2">SUMPRODUCT(
+      <c r="P2" s="1" cm="1">
+        <f t="array" ref="P2">SUMPRODUCT(
   IF(LEN(P5:P999)=0, 0,
      LEN(P5:P999) - LEN(SUBSTITUTE(P5:P999, CHAR(10), "")) + 1
   )
 )</f>
         <v>6</v>
       </c>
-      <c r="P2" s="1" cm="1">
-        <f t="array" ref="P2">SUMPRODUCT(
+      <c r="Q2" s="1" cm="1">
+        <f t="array" ref="Q2">SUMPRODUCT(
   IF(LEN(Q5:Q999)=0, 0,
      LEN(Q5:Q999) - LEN(SUBSTITUTE(Q5:Q999, CHAR(10), "")) + 1
   )
 )</f>
         <v>6</v>
       </c>
-      <c r="Q2" s="1" cm="1">
-        <f t="array" ref="Q2">SUMPRODUCT(
+      <c r="R2" s="1" cm="1">
+        <f t="array" ref="R2">SUMPRODUCT(
   IF(LEN(R5:R999)=0, 0,
      LEN(R5:R999) - LEN(SUBSTITUTE(R5:R999, CHAR(10), "")) + 1
   )
 )</f>
         <v>5</v>
       </c>
-      <c r="R2" s="1" cm="1">
-        <f t="array" ref="R2">SUMPRODUCT(
+      <c r="S2" s="1" cm="1">
+        <f t="array" ref="S2">SUMPRODUCT(
   IF(LEN(S5:S999)=0, 0,
      LEN(S5:S999) - LEN(SUBSTITUTE(S5:S999, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
-      <c r="S2" s="1" cm="1">
-        <f t="array" ref="S2">SUMPRODUCT(
+      <c r="T2" s="1" cm="1">
+        <f t="array" ref="T2">SUMPRODUCT(
   IF(LEN(T5:T999)=0, 0,
      LEN(T5:T999) - LEN(SUBSTITUTE(T5:T999, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
-      <c r="T2" s="1" cm="1">
-        <f t="array" ref="T2">SUMPRODUCT(
+      <c r="U2" s="1" cm="1">
+        <f t="array" ref="U2">SUMPRODUCT(
   IF(LEN(U5:U999)=0, 0,
      LEN(U5:U999) - LEN(SUBSTITUTE(U5:U999, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
-      <c r="U2" s="1" cm="1">
-        <f t="array" ref="U2">SUMPRODUCT(
+      <c r="V2" s="1" cm="1">
+        <f t="array" ref="V2">SUMPRODUCT(
   IF(LEN(V5:V999)=0, 0,
      LEN(V5:V999) - LEN(SUBSTITUTE(V5:V999, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
-      <c r="V2" s="1" cm="1">
-        <f t="array" ref="V2">SUMPRODUCT(
+      <c r="W2" s="1" cm="1">
+        <f t="array" ref="W2">SUMPRODUCT(
   IF(LEN(W5:W999)=0, 0,
      LEN(W5:W999) - LEN(SUBSTITUTE(W5:W999, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
-      <c r="W2" s="1" cm="1">
-        <f t="array" ref="W2">SUMPRODUCT(
+      <c r="X2" s="1" cm="1">
+        <f t="array" ref="X2">SUMPRODUCT(
+  IF(LEN(X5:X999)=0, 0,
+     LEN(X5:X999) - LEN(SUBSTITUTE(X5:X999, CHAR(10), "")) + 1
+  )
+)</f>
+        <v>8</v>
+      </c>
+      <c r="Y2" s="1" cm="1">
+        <f t="array" ref="Y2">SUMPRODUCT(
   IF(LEN(Y5:Y999)=0, 0,
      LEN(Y5:Y999) - LEN(SUBSTITUTE(Y5:Y999, CHAR(10), "")) + 1
   )
 )</f>
         <v>44</v>
       </c>
-      <c r="X2" s="1" cm="1">
-        <f t="array" ref="X2">SUMPRODUCT(
+      <c r="Z2" s="1" cm="1">
+        <f t="array" ref="Z2">SUMPRODUCT(
   IF(LEN(Z5:Z999)=0, 0,
      LEN(Z5:Z999) - LEN(SUBSTITUTE(Z5:Z999, CHAR(10), "")) + 1
   )
 )</f>
         <v>49</v>
-      </c>
-      <c r="Y2" s="1" cm="1">
-        <f t="array" ref="Y2">SUMPRODUCT(
-  IF(LEN(AA5:AA999)=0, 0,
-     LEN(AA5:AA999) - LEN(SUBSTITUTE(AA5:AA999, CHAR(10), "")) + 1
-  )
-)</f>
-        <v>0</v>
-      </c>
-      <c r="Z2" s="1" cm="1">
-        <f t="array" ref="Z2">SUMPRODUCT(
-  IF(LEN(AB5:AB999)=0, 0,
-     LEN(AB5:AB999) - LEN(SUBSTITUTE(AB5:AB999, CHAR(10), "")) + 1
-  )
-)</f>
-        <v>0</v>
       </c>
       <c r="AD2" s="1"/>
     </row>
@@ -3080,7 +3080,7 @@
         <v>60</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>54</v>
@@ -3092,7 +3092,7 @@
         <v>8</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>20</v>
@@ -3107,16 +3107,16 @@
         <v>7</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="X4" s="2" t="s">
         <v>103</v>
@@ -3402,7 +3402,7 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z13" s="3"/>
       <c r="AD13" s="1"/>
@@ -3536,10 +3536,10 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AD17" s="1"/>
     </row>
@@ -3715,7 +3715,7 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -3724,7 +3724,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Z23" s="3" t="s">
         <v>67</v>
@@ -3759,7 +3759,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AD24" s="1"/>
     </row>
@@ -4060,7 +4060,7 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Z33" s="3"/>
       <c r="AD33" s="1"/>
@@ -4074,13 +4074,13 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>55</v>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AD35" s="1"/>
     </row>
@@ -4146,13 +4146,13 @@
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -4257,7 +4257,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>112</v>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AD39" s="1"/>
     </row>
@@ -4296,16 +4296,16 @@
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -4330,7 +4330,7 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Z40" s="3"/>
       <c r="AD40" s="1"/>
@@ -4344,11 +4344,11 @@
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -4372,10 +4372,10 @@
         <v>108</v>
       </c>
       <c r="Y41" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z41" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="Z41" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="AD41" s="1"/>
     </row>
@@ -4384,7 +4384,7 @@
         <v>2014</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
@@ -4410,10 +4410,10 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Z42" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AD42" s="1"/>
     </row>
@@ -4422,7 +4422,7 @@
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
@@ -4453,7 +4453,7 @@
       </c>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AD43" s="1"/>
     </row>
@@ -4474,9 +4474,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
-      <c r="L44" s="3" t="s">
-        <v>147</v>
-      </c>
+      <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3" t="s">
         <v>29</v>
@@ -4492,10 +4490,10 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Z44" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AD44" s="1"/>
     </row>
@@ -4504,7 +4502,7 @@
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4515,13 +4513,13 @@
         <v>111</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
@@ -4533,19 +4531,19 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Y45" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Z45" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AD45" s="1"/>
     </row>
@@ -4554,13 +4552,13 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>14</v>
@@ -4587,21 +4585,21 @@
       </c>
       <c r="S46" s="3"/>
       <c r="T46" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U46" s="3"/>
       <c r="V46" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W46" s="3"/>
       <c r="X46" s="3" t="s">
         <v>107</v>
       </c>
       <c r="Y46" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="Z46" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AD46" s="1"/>
     </row>
@@ -4610,7 +4608,7 @@
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
@@ -4624,7 +4622,7 @@
         <v>25</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>79</v>
@@ -4634,7 +4632,7 @@
         <v>57</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -4645,15 +4643,15 @@
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Z47" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AD47" s="1"/>
     </row>
@@ -4692,10 +4690,10 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Z48" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AD48" s="1"/>
     </row>
@@ -4716,7 +4714,7 @@
         <v>11</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3" t="s">
@@ -4742,11 +4740,11 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="X49" s="3"/>
       <c r="Y49" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Z49" s="3"/>
       <c r="AD49" s="1"/>
@@ -4756,19 +4754,19 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>24</v>
@@ -4780,13 +4778,13 @@
         <v>80</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
@@ -4796,14 +4794,14 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="X50" s="3"/>
       <c r="Y50" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Z50" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AD50" s="1"/>
     </row>
@@ -4815,19 +4813,19 @@
         <v>27</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>118</v>
+        <v>229</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>51</v>
@@ -4837,37 +4835,37 @@
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="X51" s="3"/>
       <c r="Y51" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Z51" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AD51" s="1"/>
     </row>
@@ -4885,13 +4883,13 @@
         <v>46</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>85</v>
@@ -4900,17 +4898,17 @@
         <v>82</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3" t="s">
@@ -4919,16 +4917,16 @@
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Z52" s="3"/>
       <c r="AD52" s="1"/>
@@ -4941,10 +4939,10 @@
         <v>75</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>117</v>
@@ -4953,80 +4951,80 @@
         <v>109</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="X53" s="3"/>
       <c r="Y53" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Z53" s="3"/>
       <c r="AD53" s="1"/>
     </row>
-    <row r="54" spans="2:30" ht="283.35000000000002" x14ac:dyDescent="0.8">
+    <row r="54" spans="2:30" ht="100" x14ac:dyDescent="0.8">
       <c r="B54" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O54" s="3"/>
       <c r="P54" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
@@ -5036,7 +5034,7 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
       <c r="Y54" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="Z54" s="3"/>
       <c r="AD54" s="1"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEF34F7-3520-42DF-9F20-5821CE36BEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFED78B5-F5FD-4647-AF51-E921B79DBD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5973" yWindow="553" windowWidth="19020" windowHeight="13467" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="5973" yWindow="213" windowWidth="19020" windowHeight="13467" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -1357,34 +1357,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>青葉ちい
-山下真菜
-研菜々美
-天翔ゆい(2025.12.29卒業予定)</t>
-    <rPh sb="0" eb="2">
-      <t>アオバ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヤマシタ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>マナ</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>トギナナミ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>テンショウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ソツギョウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>入江彩乃</t>
     <rPh sb="0" eb="4">
       <t>イリエアヤノ</t>
@@ -1782,6 +1754,24 @@
 &lt;松﨑紗弥&gt;
 &lt;山根百合&gt;
 &lt;桃羽もえは&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青葉ちい
+山下真菜
+研菜々美</t>
+    <rPh sb="0" eb="2">
+      <t>アオバ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヤマシタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>マナ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>トギナナミ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2781,10 +2771,10 @@
   <dimension ref="A1:AD54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="N49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D55" sqref="D55"/>
+      <selection pane="bottomRight" activeCell="Z51" sqref="Z51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.33203125" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2840,7 +2830,7 @@
     <row r="2" spans="1:30" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RZ2)</f>
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2856,7 +2846,7 @@
      LEN(D5:D999) - LEN(SUBSTITUTE(D5:D999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" cm="1">
         <f t="array" ref="E2">SUMPRODUCT(
@@ -3080,7 +3070,7 @@
         <v>60</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>54</v>
@@ -3092,7 +3082,7 @@
         <v>8</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>20</v>
@@ -3724,7 +3714,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Z23" s="3" t="s">
         <v>67</v>
@@ -3759,7 +3749,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AD24" s="1"/>
     </row>
@@ -4074,13 +4064,13 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>55</v>
@@ -4146,13 +4136,13 @@
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -4299,7 +4289,7 @@
         <v>151</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>43</v>
@@ -4348,7 +4338,7 @@
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -4384,7 +4374,7 @@
         <v>2014</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
@@ -4422,7 +4412,7 @@
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
@@ -4493,7 +4483,7 @@
         <v>131</v>
       </c>
       <c r="Z44" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AD44" s="1"/>
     </row>
@@ -4502,7 +4492,7 @@
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4552,10 +4542,10 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>170</v>
@@ -4608,7 +4598,7 @@
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
@@ -4622,7 +4612,7 @@
         <v>25</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>79</v>
@@ -4648,10 +4638,10 @@
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z47" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AD47" s="1"/>
     </row>
@@ -4754,7 +4744,7 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>174</v>
@@ -4766,7 +4756,7 @@
         <v>172</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>24</v>
@@ -4778,13 +4768,13 @@
         <v>80</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
@@ -4801,7 +4791,7 @@
         <v>177</v>
       </c>
       <c r="Z50" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD50" s="1"/>
     </row>
@@ -4813,7 +4803,7 @@
         <v>27</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>118</v>
@@ -4822,7 +4812,7 @@
         <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>124</v>
@@ -4886,10 +4876,10 @@
         <v>148</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>85</v>
@@ -4898,7 +4888,7 @@
         <v>82</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3" t="s">
@@ -4908,7 +4898,7 @@
         <v>121</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3" t="s">
@@ -4939,10 +4929,10 @@
         <v>75</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>117</v>
@@ -4951,26 +4941,26 @@
         <v>109</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
@@ -4984,47 +4974,47 @@
         <v>154</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="X53" s="3"/>
       <c r="Y53" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Z53" s="3"/>
       <c r="AD53" s="1"/>
     </row>
     <row r="54" spans="2:30" ht="100" x14ac:dyDescent="0.8">
       <c r="B54" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O54" s="3"/>
       <c r="P54" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
@@ -5034,7 +5024,7 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
       <c r="Y54" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Z54" s="3"/>
       <c r="AD54" s="1"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFED78B5-F5FD-4647-AF51-E921B79DBD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B2A0EF-71D7-474F-A09A-16D05C6AF841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5973" yWindow="213" windowWidth="19020" windowHeight="13467" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
@@ -1716,19 +1716,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>梨央
-弥福かな
-ゴんべ
-&lt;摩利乃&gt;(12.29デビュー予定)</t>
-    <rPh sb="0" eb="2">
-      <t>リオ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>伊藤麻希
 小橋マリカ
 凛</t>
@@ -1746,14 +1733,6 @@
     <rPh sb="9" eb="10">
       <t>キュウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-&lt;小谷さつき&gt;
-&lt;松﨑紗弥&gt;
-&lt;山根百合&gt;
-&lt;桃羽もえは&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1772,6 +1751,23 @@
     <rPh sb="10" eb="14">
       <t>トギナナミ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>梨央
+弥福かな
+ゴんべ
+摩利乃</t>
+    <rPh sb="0" eb="2">
+      <t>リオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;小谷さつき&gt;
+&lt;松﨑紗弥&gt;
+&lt;山根百合&gt;
+&lt;桃羽もえは&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2771,10 +2767,10 @@
   <dimension ref="A1:AD54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="N49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Z51" sqref="Z51"/>
+      <selection pane="bottomRight" activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.33203125" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2830,7 +2826,7 @@
     <row r="2" spans="1:30" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RZ2)</f>
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2846,7 +2842,7 @@
      LEN(D5:D999) - LEN(SUBSTITUTE(D5:D999, CHAR(10), "")) + 1
   )
 )</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" cm="1">
         <f t="array" ref="E2">SUMPRODUCT(
@@ -4483,7 +4479,7 @@
         <v>131</v>
       </c>
       <c r="Z44" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AD44" s="1"/>
     </row>
@@ -4803,7 +4799,7 @@
         <v>27</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>118</v>
@@ -4812,7 +4808,7 @@
         <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>124</v>
@@ -4929,7 +4925,7 @@
         <v>75</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>202</v>
@@ -4989,10 +4985,10 @@
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B2A0EF-71D7-474F-A09A-16D05C6AF841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271DB4C0-26CB-4E57-AA95-1FF86E80420F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5973" yWindow="213" windowWidth="19020" windowHeight="13467" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
@@ -1078,35 +1078,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>櫻井裕子(COLORS)
-網倉理奈(COLORS)
-KONOHA(銀河)(2026.5引退予定)
-花園桃花(アップタウン)
-杏ちゃむ(信州)</t>
-    <rPh sb="0" eb="4">
-      <t>サクライユウコ</t>
-    </rPh>
-    <rPh sb="13" eb="17">
-      <t>アミクラリナ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ギンガ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>インタイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="49" eb="53">
-      <t>ハナゾノモモカ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>シンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>藍川はるか</t>
     <rPh sb="0" eb="2">
       <t>アイカワ</t>
@@ -1768,6 +1739,35 @@
 &lt;松﨑紗弥&gt;
 &lt;山根百合&gt;
 &lt;桃羽もえは&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>櫻井裕子(COLORS)
+網倉理奈(COLORS)
+KONOHA(銀河)(2026.5引退予定)
+花園桃花(アップタウン)
+杏ちゃむ(信州, DIE)</t>
+    <rPh sb="0" eb="4">
+      <t>サクライユウコ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>アミクラリナ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ギンガ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>インタイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="49" eb="53">
+      <t>ハナゾノモモカ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>シンシュウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2767,10 +2767,10 @@
   <dimension ref="A1:AD54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="Q40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H54" sqref="H54"/>
+      <selection pane="bottomRight" activeCell="X47" sqref="X47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.33203125" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -3066,7 +3066,7 @@
         <v>60</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>54</v>
@@ -3078,7 +3078,7 @@
         <v>8</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>20</v>
@@ -3102,7 +3102,7 @@
         <v>153</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X4" s="2" t="s">
         <v>103</v>
@@ -3710,7 +3710,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Z23" s="3" t="s">
         <v>67</v>
@@ -3745,7 +3745,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AD24" s="1"/>
     </row>
@@ -4046,7 +4046,7 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z33" s="3"/>
       <c r="AD33" s="1"/>
@@ -4060,13 +4060,13 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>55</v>
@@ -4123,7 +4123,7 @@
       </c>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AD35" s="1"/>
     </row>
@@ -4132,13 +4132,13 @@
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -4273,7 +4273,7 @@
       </c>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AD39" s="1"/>
     </row>
@@ -4285,7 +4285,7 @@
         <v>151</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>43</v>
@@ -4330,11 +4330,11 @@
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -4358,10 +4358,10 @@
         <v>108</v>
       </c>
       <c r="Y41" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Z41" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AD41" s="1"/>
     </row>
@@ -4370,7 +4370,7 @@
         <v>2014</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
@@ -4408,7 +4408,7 @@
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
@@ -4439,7 +4439,7 @@
       </c>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AD43" s="1"/>
     </row>
@@ -4479,7 +4479,7 @@
         <v>131</v>
       </c>
       <c r="Z44" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AD44" s="1"/>
     </row>
@@ -4488,7 +4488,7 @@
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4538,13 +4538,13 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>14</v>
@@ -4582,10 +4582,10 @@
         <v>107</v>
       </c>
       <c r="Y46" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z46" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="Z46" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="AD46" s="1"/>
     </row>
@@ -4594,7 +4594,7 @@
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
@@ -4608,7 +4608,7 @@
         <v>25</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>79</v>
@@ -4634,10 +4634,10 @@
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Z47" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD47" s="1"/>
     </row>
@@ -4700,7 +4700,7 @@
         <v>11</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3" t="s">
@@ -4726,11 +4726,11 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X49" s="3"/>
       <c r="Y49" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z49" s="3"/>
       <c r="AD49" s="1"/>
@@ -4740,19 +4740,19 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>24</v>
@@ -4764,13 +4764,13 @@
         <v>80</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
@@ -4780,14 +4780,14 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X50" s="3"/>
       <c r="Y50" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Z50" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AD50" s="1"/>
     </row>
@@ -4799,7 +4799,7 @@
         <v>27</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>118</v>
@@ -4808,7 +4808,7 @@
         <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>124</v>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
@@ -4844,14 +4844,14 @@
         <v>155</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X51" s="3"/>
       <c r="Y51" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Z51" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AD51" s="1"/>
     </row>
@@ -4872,10 +4872,10 @@
         <v>148</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>85</v>
@@ -4884,7 +4884,7 @@
         <v>82</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3" t="s">
@@ -4894,7 +4894,7 @@
         <v>121</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3" t="s">
@@ -4912,7 +4912,7 @@
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z52" s="3"/>
       <c r="AD52" s="1"/>
@@ -4925,10 +4925,10 @@
         <v>75</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>117</v>
@@ -4937,26 +4937,26 @@
         <v>109</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
@@ -4970,47 +4970,47 @@
         <v>154</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="X53" s="3"/>
       <c r="Y53" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Z53" s="3"/>
       <c r="AD53" s="1"/>
     </row>
     <row r="54" spans="2:30" ht="100" x14ac:dyDescent="0.8">
       <c r="B54" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O54" s="3"/>
       <c r="P54" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
@@ -5020,7 +5020,7 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
       <c r="Y54" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Z54" s="3"/>
       <c r="AD54" s="1"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271DB4C0-26CB-4E57-AA95-1FF86E80420F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65A5E01-8EF0-4F63-8F85-23932DEE09AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5973" yWindow="213" windowWidth="19020" windowHeight="13467" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="232">
   <si>
     <t>Stardom</t>
     <phoneticPr fontId="1"/>
@@ -987,16 +987,6 @@
   </si>
   <si>
     <t>CHIKA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宮崎有妃(2026.1.1引退予定)</t>
-    <rPh sb="0" eb="4">
-      <t>ミヤザキユキ</t>
-    </rPh>
-    <rPh sb="13" eb="17">
-      <t>インタイヨテイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1342,19 +1332,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>バニー及川
-マドレーヌ
-ウナギ・サヤカ
-松澤さん</t>
-    <rPh sb="3" eb="5">
-      <t>オイカワ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>マツザワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MIRAI(みちのく)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1395,13 +1372,6 @@
     <t>みなみ飛香(IR,V)</t>
     <rPh sb="3" eb="5">
       <t>ヒカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Venus(1.4旗揚げ)</t>
-    <rPh sb="9" eb="11">
-      <t>ハタア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1514,57 +1484,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;希咲みなみ&gt;(2026.1.4デビュー予定)
-&lt;ひな&gt;(2026.1.4デビュー予定)
-&lt;髙橋光咲&gt;(2026.1.4デビュー予定)
-&lt;伊田惟吹&gt;(2026.1.4デビュー予定)
-&lt;当麻煌&gt;(2026.1.4デビュー予定)
-&lt;直江ミう&gt;(2026.1.4デビュー予定)</t>
-    <rPh sb="1" eb="3">
-      <t>キサキ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>タカハシ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ミサキ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>イダ</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>ノブ</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>スイ</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>トウマ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>ナオエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>シン・広田・葛飾さくら</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>稲葉ともか
-rhythm(12.31退団予定)</t>
-    <rPh sb="0" eb="2">
-      <t>イナバ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>タイダン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヨテイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1693,12 +1613,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;神嵜志音&gt;仮(2026.1.4デビュー予定)
-&lt;アンリ&gt;仮
-&lt;ユウカ&gt;仮</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゆづき(HCC)(休)
 chou・chou(HCC)</t>
     <rPh sb="9" eb="10">
@@ -1768,6 +1682,55 @@
     <rPh sb="67" eb="69">
       <t>シンシュウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>稲葉ともか</t>
+    <rPh sb="0" eb="2">
+      <t>イナバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バニー及川
+マドレーヌ
+ウナギ・サヤカ
+松澤さん
+rhythm</t>
+    <rPh sb="3" eb="5">
+      <t>オイカワ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>マツザワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Venus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>髙橋光咲
+伊田惟吹
+当麻煌</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひな
+希咲みなみ
+直江ミう</t>
+    <rPh sb="9" eb="11">
+      <t>ナオエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;アンリ&gt;仮
+&lt;ユウカ&gt;仮</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神嵜志音</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1835,7 +1798,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1846,6 +1809,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2414,8 +2380,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A34D807-EC26-4518-9852-7FFB26CEC57B}" name="テーブル1" displayName="テーブル1" ref="B4:Z54" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="B4:Z54" xr:uid="{4A34D807-EC26-4518-9852-7FFB26CEC57B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A34D807-EC26-4518-9852-7FFB26CEC57B}" name="テーブル1" displayName="テーブル1" ref="B4:Z56" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="B4:Z56" xr:uid="{4A34D807-EC26-4518-9852-7FFB26CEC57B}"/>
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{C5BCADDE-F600-4480-BD2B-E93168A1BF7F}" name="デビュー年" dataDxfId="24"/>
     <tableColumn id="2" xr3:uid="{7319872F-B1DE-47E8-ADFA-F5962E445AE2}" name="Stardom" dataDxfId="23"/>
@@ -2426,7 +2392,7 @@
     <tableColumn id="17" xr3:uid="{C0123278-DCF4-45DB-8696-FC0805957C5C}" name="Diana" dataDxfId="18"/>
     <tableColumn id="30" xr3:uid="{BB23C0DC-5AEB-431A-A828-4D1BDF4F315F}" name="JTO" dataDxfId="17"/>
     <tableColumn id="29" xr3:uid="{ADFF1D58-E918-4FF6-B352-AA98020CFD16}" name="チョコプロ" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{0D2ABC96-F0CF-44E9-912A-CA35E8452616}" name="Venus(1.4旗揚げ)" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{0D2ABC96-F0CF-44E9-912A-CA35E8452616}" name="Venus" dataDxfId="15"/>
     <tableColumn id="23" xr3:uid="{9647ED0D-42FB-42C1-BFB2-8B8D56D414C4}" name="SENDAI" dataDxfId="14"/>
     <tableColumn id="32" xr3:uid="{67EA2433-E1D1-4094-BFB4-0EDB7438926B}" name="Pure-J" dataDxfId="13"/>
     <tableColumn id="21" xr3:uid="{ACF43FBE-31D7-4ED6-A997-E4AF4BF0B9D4}" name="マーベラス" dataDxfId="12"/>
@@ -2764,41 +2730,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4F8F56-06F6-4E1D-8D81-5A485042419D}">
-  <dimension ref="A1:AD54"/>
+  <dimension ref="A1:AD56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="Q40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="L50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="X47" sqref="X47"/>
+      <selection pane="bottomRight" activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.33203125" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
   <cols>
     <col min="1" max="1" width="1.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.27734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.94140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.0546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.38671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.27734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.94140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.38671875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.71875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.0546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.27734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.27734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="26.27734375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.609375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.0546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.27734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.94140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.27734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.94140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.27734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="30.0546875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="27.33203125" style="1"/>
@@ -2830,195 +2797,195 @@
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
-  IF(LEN(C5:C999)=0, 0,
-     LEN(C5:C999) - LEN(SUBSTITUTE(C5:C999, CHAR(10), "")) + 1
+  IF(LEN(C5:C1001)=0, 0,
+     LEN(C5:C1001) - LEN(SUBSTITUTE(C5:C1001, CHAR(10), "")) + 1
   )
 )</f>
         <v>43</v>
       </c>
       <c r="D2" s="1" cm="1">
         <f t="array" ref="D2">SUMPRODUCT(
-  IF(LEN(D5:D999)=0, 0,
-     LEN(D5:D999) - LEN(SUBSTITUTE(D5:D999, CHAR(10), "")) + 1
+  IF(LEN(D5:D1001)=0, 0,
+     LEN(D5:D1001) - LEN(SUBSTITUTE(D5:D1001, CHAR(10), "")) + 1
   )
 )</f>
         <v>31</v>
       </c>
       <c r="E2" s="1" cm="1">
         <f t="array" ref="E2">SUMPRODUCT(
-  IF(LEN(E5:E999)=0, 0,
-     LEN(E5:E999) - LEN(SUBSTITUTE(E5:E999, CHAR(10), "")) + 1
+  IF(LEN(E5:E1001)=0, 0,
+     LEN(E5:E1001) - LEN(SUBSTITUTE(E5:E1001, CHAR(10), "")) + 1
   )
 )</f>
         <v>29</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2">SUMPRODUCT(
-  IF(LEN(F5:F999)=0, 0,
-     LEN(F5:F999) - LEN(SUBSTITUTE(F5:F999, CHAR(10), "")) + 1
+  IF(LEN(F5:F1001)=0, 0,
+     LEN(F5:F1001) - LEN(SUBSTITUTE(F5:F1001, CHAR(10), "")) + 1
   )
 )</f>
         <v>22</v>
       </c>
       <c r="G2" s="1" cm="1">
         <f t="array" ref="G2">SUMPRODUCT(
-  IF(LEN(G5:G999)=0, 0,
-     LEN(G5:G999) - LEN(SUBSTITUTE(G5:G999, CHAR(10), "")) + 1
+  IF(LEN(G5:G1001)=0, 0,
+     LEN(G5:G1001) - LEN(SUBSTITUTE(G5:G1001, CHAR(10), "")) + 1
   )
 )</f>
         <v>19</v>
       </c>
       <c r="H2" s="1" cm="1">
         <f t="array" ref="H2">SUMPRODUCT(
-  IF(LEN(H5:H999)=0, 0,
-     LEN(H5:H999) - LEN(SUBSTITUTE(H5:H999, CHAR(10), "")) + 1
+  IF(LEN(H5:H1001)=0, 0,
+     LEN(H5:H1001) - LEN(SUBSTITUTE(H5:H1001, CHAR(10), "")) + 1
   )
 )</f>
         <v>13</v>
       </c>
       <c r="I2" s="1" cm="1">
         <f t="array" ref="I2">SUMPRODUCT(
-  IF(LEN(I5:I999)=0, 0,
-     LEN(I5:I999) - LEN(SUBSTITUTE(I5:I999, CHAR(10), "")) + 1
-  )
-)</f>
-        <v>12</v>
-      </c>
-      <c r="J2" s="1" cm="1">
-        <f t="array" ref="J2">SUMPRODUCT(
-  IF(LEN(J5:J999)=0, 0,
-     LEN(J5:J999) - LEN(SUBSTITUTE(J5:J999, CHAR(10), "")) + 1
+  IF(LEN(I5:I1001)=0, 0,
+     LEN(I5:I1001) - LEN(SUBSTITUTE(I5:I1001, CHAR(10), "")) + 1
   )
 )</f>
         <v>11</v>
       </c>
+      <c r="J2" s="1" cm="1">
+        <f t="array" ref="J2">SUMPRODUCT(
+  IF(LEN(J5:J1001)=0, 0,
+     LEN(J5:J1001) - LEN(SUBSTITUTE(J5:J1001, CHAR(10), "")) + 1
+  )
+)</f>
+        <v>11</v>
+      </c>
       <c r="K2" s="1" cm="1">
         <f t="array" ref="K2">SUMPRODUCT(
-  IF(LEN(K5:K999)=0, 0,
-     LEN(K5:K999) - LEN(SUBSTITUTE(K5:K999, CHAR(10), "")) + 1
+  IF(LEN(K5:K1001)=0, 0,
+     LEN(K5:K1001) - LEN(SUBSTITUTE(K5:K1001, CHAR(10), "")) + 1
   )
 )</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L2" s="1" cm="1">
         <f t="array" ref="L2">SUMPRODUCT(
-  IF(LEN(L5:L999)=0, 0,
-     LEN(L5:L999) - LEN(SUBSTITUTE(L5:L999, CHAR(10), "")) + 1
+  IF(LEN(L5:L1001)=0, 0,
+     LEN(L5:L1001) - LEN(SUBSTITUTE(L5:L1001, CHAR(10), "")) + 1
   )
 )</f>
         <v>9</v>
       </c>
       <c r="M2" s="1" cm="1">
         <f t="array" ref="M2">SUMPRODUCT(
-  IF(LEN(M5:M999)=0, 0,
-     LEN(M5:M999) - LEN(SUBSTITUTE(M5:M999, CHAR(10), "")) + 1
+  IF(LEN(M5:M1001)=0, 0,
+     LEN(M5:M1001) - LEN(SUBSTITUTE(M5:M1001, CHAR(10), "")) + 1
   )
 )</f>
         <v>9</v>
       </c>
       <c r="N2" s="1" cm="1">
         <f t="array" ref="N2">SUMPRODUCT(
-  IF(LEN(N5:N999)=0, 0,
-     LEN(N5:N999) - LEN(SUBSTITUTE(N5:N999, CHAR(10), "")) + 1
+  IF(LEN(N5:N1001)=0, 0,
+     LEN(N5:N1001) - LEN(SUBSTITUTE(N5:N1001, CHAR(10), "")) + 1
   )
 )</f>
         <v>9</v>
       </c>
       <c r="O2" s="1" cm="1">
         <f t="array" ref="O2">SUMPRODUCT(
-  IF(LEN(O5:O999)=0, 0,
-     LEN(O5:O999) - LEN(SUBSTITUTE(O5:O999, CHAR(10), "")) + 1
+  IF(LEN(O5:O1001)=0, 0,
+     LEN(O5:O1001) - LEN(SUBSTITUTE(O5:O1001, CHAR(10), "")) + 1
   )
 )</f>
         <v>9</v>
       </c>
       <c r="P2" s="1" cm="1">
         <f t="array" ref="P2">SUMPRODUCT(
-  IF(LEN(P5:P999)=0, 0,
-     LEN(P5:P999) - LEN(SUBSTITUTE(P5:P999, CHAR(10), "")) + 1
+  IF(LEN(P5:P1001)=0, 0,
+     LEN(P5:P1001) - LEN(SUBSTITUTE(P5:P1001, CHAR(10), "")) + 1
   )
 )</f>
         <v>6</v>
       </c>
       <c r="Q2" s="1" cm="1">
         <f t="array" ref="Q2">SUMPRODUCT(
-  IF(LEN(Q5:Q999)=0, 0,
-     LEN(Q5:Q999) - LEN(SUBSTITUTE(Q5:Q999, CHAR(10), "")) + 1
+  IF(LEN(Q5:Q1001)=0, 0,
+     LEN(Q5:Q1001) - LEN(SUBSTITUTE(Q5:Q1001, CHAR(10), "")) + 1
   )
 )</f>
         <v>6</v>
       </c>
       <c r="R2" s="1" cm="1">
         <f t="array" ref="R2">SUMPRODUCT(
-  IF(LEN(R5:R999)=0, 0,
-     LEN(R5:R999) - LEN(SUBSTITUTE(R5:R999, CHAR(10), "")) + 1
-  )
-)</f>
-        <v>5</v>
-      </c>
-      <c r="S2" s="1" cm="1">
-        <f t="array" ref="S2">SUMPRODUCT(
-  IF(LEN(S5:S999)=0, 0,
-     LEN(S5:S999) - LEN(SUBSTITUTE(S5:S999, CHAR(10), "")) + 1
+  IF(LEN(R5:R1001)=0, 0,
+     LEN(R5:R1001) - LEN(SUBSTITUTE(R5:R1001, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
-      <c r="T2" s="1" cm="1">
-        <f t="array" ref="T2">SUMPRODUCT(
-  IF(LEN(T5:T999)=0, 0,
-     LEN(T5:T999) - LEN(SUBSTITUTE(T5:T999, CHAR(10), "")) + 1
+      <c r="S2" s="1" cm="1">
+        <f t="array" ref="S2">SUMPRODUCT(
+  IF(LEN(S5:S1001)=0, 0,
+     LEN(S5:S1001) - LEN(SUBSTITUTE(S5:S1001, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
-      <c r="U2" s="1" cm="1">
-        <f t="array" ref="U2">SUMPRODUCT(
-  IF(LEN(U5:U999)=0, 0,
-     LEN(U5:U999) - LEN(SUBSTITUTE(U5:U999, CHAR(10), "")) + 1
+      <c r="T2" s="1" cm="1">
+        <f t="array" ref="T2">SUMPRODUCT(
+  IF(LEN(T5:T1001)=0, 0,
+     LEN(T5:T1001) - LEN(SUBSTITUTE(T5:T1001, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
-      <c r="V2" s="1" cm="1">
-        <f t="array" ref="V2">SUMPRODUCT(
-  IF(LEN(V5:V999)=0, 0,
-     LEN(V5:V999) - LEN(SUBSTITUTE(V5:V999, CHAR(10), "")) + 1
+      <c r="U2" s="1" cm="1">
+        <f t="array" ref="U2">SUMPRODUCT(
+  IF(LEN(U5:U1001)=0, 0,
+     LEN(U5:U1001) - LEN(SUBSTITUTE(U5:U1001, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
-      <c r="W2" s="1" cm="1">
-        <f t="array" ref="W2">SUMPRODUCT(
-  IF(LEN(W5:W999)=0, 0,
-     LEN(W5:W999) - LEN(SUBSTITUTE(W5:W999, CHAR(10), "")) + 1
+      <c r="V2" s="1" cm="1">
+        <f t="array" ref="V2">SUMPRODUCT(
+  IF(LEN(V5:V1001)=0, 0,
+     LEN(V5:V1001) - LEN(SUBSTITUTE(V5:V1001, CHAR(10), "")) + 1
   )
 )</f>
         <v>4</v>
       </c>
+      <c r="W2" s="1" cm="1">
+        <f t="array" ref="W2">SUMPRODUCT(
+  IF(LEN(W5:W1001)=0, 0,
+     LEN(W5:W1001) - LEN(SUBSTITUTE(W5:W1001, CHAR(10), "")) + 1
+  )
+)</f>
+        <v>4</v>
+      </c>
       <c r="X2" s="1" cm="1">
         <f t="array" ref="X2">SUMPRODUCT(
-  IF(LEN(X5:X999)=0, 0,
-     LEN(X5:X999) - LEN(SUBSTITUTE(X5:X999, CHAR(10), "")) + 1
+  IF(LEN(X5:X1001)=0, 0,
+     LEN(X5:X1001) - LEN(SUBSTITUTE(X5:X1001, CHAR(10), "")) + 1
   )
 )</f>
         <v>8</v>
       </c>
       <c r="Y2" s="1" cm="1">
         <f t="array" ref="Y2">SUMPRODUCT(
-  IF(LEN(Y5:Y999)=0, 0,
-     LEN(Y5:Y999) - LEN(SUBSTITUTE(Y5:Y999, CHAR(10), "")) + 1
+  IF(LEN(Y5:Y1001)=0, 0,
+     LEN(Y5:Y1001) - LEN(SUBSTITUTE(Y5:Y1001, CHAR(10), "")) + 1
   )
 )</f>
         <v>44</v>
       </c>
       <c r="Z2" s="1" cm="1">
         <f t="array" ref="Z2">SUMPRODUCT(
-  IF(LEN(Z5:Z999)=0, 0,
-     LEN(Z5:Z999) - LEN(SUBSTITUTE(Z5:Z999, CHAR(10), "")) + 1
+  IF(LEN(Z5:Z1001)=0, 0,
+     LEN(Z5:Z1001) - LEN(SUBSTITUTE(Z5:Z1001, CHAR(10), "")) + 1
   )
 )</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AD2" s="1"/>
     </row>
@@ -3066,7 +3033,7 @@
         <v>60</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>54</v>
@@ -3078,7 +3045,7 @@
         <v>8</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>20</v>
@@ -3099,10 +3066,10 @@
         <v>142</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X4" s="2" t="s">
         <v>103</v>
@@ -3700,9 +3667,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
-      <c r="R23" s="3" t="s">
-        <v>146</v>
-      </c>
+      <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
@@ -3710,7 +3675,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="Z23" s="3" t="s">
         <v>67</v>
@@ -3745,7 +3710,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AD24" s="1"/>
     </row>
@@ -4046,7 +4011,7 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Z33" s="3"/>
       <c r="AD33" s="1"/>
@@ -4060,13 +4025,13 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>55</v>
@@ -4123,7 +4088,7 @@
       </c>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD35" s="1"/>
     </row>
@@ -4132,13 +4097,13 @@
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -4273,7 +4238,7 @@
       </c>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AD39" s="1"/>
     </row>
@@ -4282,10 +4247,10 @@
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>43</v>
@@ -4316,7 +4281,7 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z40" s="3"/>
       <c r="AD40" s="1"/>
@@ -4330,16 +4295,18 @@
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
+      <c r="K41" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
@@ -4358,10 +4325,10 @@
         <v>108</v>
       </c>
       <c r="Y41" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z41" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AD41" s="1"/>
     </row>
@@ -4370,7 +4337,7 @@
         <v>2014</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
@@ -4396,7 +4363,7 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Z42" s="3" t="s">
         <v>119</v>
@@ -4408,7 +4375,7 @@
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
@@ -4439,7 +4406,7 @@
       </c>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AD43" s="1"/>
     </row>
@@ -4479,7 +4446,7 @@
         <v>131</v>
       </c>
       <c r="Z44" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="AD44" s="1"/>
     </row>
@@ -4488,7 +4455,7 @@
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4526,7 +4493,7 @@
         <v>120</v>
       </c>
       <c r="Y45" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z45" s="3" t="s">
         <v>128</v>
@@ -4538,13 +4505,13 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>14</v>
@@ -4575,26 +4542,26 @@
       </c>
       <c r="U46" s="3"/>
       <c r="V46" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="W46" s="3"/>
       <c r="X46" s="3" t="s">
         <v>107</v>
       </c>
       <c r="Y46" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Z46" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AD46" s="1"/>
     </row>
-    <row r="47" spans="2:30" ht="66.7" x14ac:dyDescent="0.8">
+    <row r="47" spans="2:30" ht="83.35" x14ac:dyDescent="0.8">
       <c r="B47" s="3">
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
@@ -4608,7 +4575,7 @@
         <v>25</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>79</v>
@@ -4629,15 +4596,15 @@
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Z47" s="3" t="s">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="AD47" s="1"/>
     </row>
@@ -4679,7 +4646,7 @@
         <v>130</v>
       </c>
       <c r="Z48" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AD48" s="1"/>
     </row>
@@ -4700,7 +4667,7 @@
         <v>11</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3" t="s">
@@ -4726,11 +4693,11 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X49" s="3"/>
       <c r="Y49" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Z49" s="3"/>
       <c r="AD49" s="1"/>
@@ -4740,19 +4707,19 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>24</v>
@@ -4764,13 +4731,13 @@
         <v>80</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
@@ -4780,14 +4747,14 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X50" s="3"/>
       <c r="Y50" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z50" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="AD50" s="1"/>
     </row>
@@ -4799,7 +4766,7 @@
         <v>27</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>118</v>
@@ -4808,7 +4775,7 @@
         <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>124</v>
@@ -4821,7 +4788,7 @@
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
@@ -4833,7 +4800,7 @@
       </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
@@ -4841,17 +4808,17 @@
         <v>144</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X51" s="3"/>
       <c r="Y51" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Z51" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AD51" s="1"/>
     </row>
@@ -4869,13 +4836,13 @@
         <v>46</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>85</v>
@@ -4884,7 +4851,7 @@
         <v>82</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3" t="s">
@@ -4894,7 +4861,7 @@
         <v>121</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3" t="s">
@@ -4912,7 +4879,7 @@
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Z52" s="3"/>
       <c r="AD52" s="1"/>
@@ -4925,10 +4892,10 @@
         <v>75</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>117</v>
@@ -4937,26 +4904,26 @@
         <v>109</v>
       </c>
       <c r="H53" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I53" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
@@ -4967,63 +4934,124 @@
         <v>145</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="X53" s="3"/>
       <c r="Y53" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Z53" s="3"/>
       <c r="AD53" s="1"/>
     </row>
-    <row r="54" spans="2:30" ht="100" x14ac:dyDescent="0.8">
-      <c r="B54" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3" t="s">
-        <v>229</v>
-      </c>
+    <row r="54" spans="2:30" ht="50" x14ac:dyDescent="0.8">
+      <c r="B54" s="4">
+        <v>2026</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F54" s="3"/>
+        <v>231</v>
+      </c>
+      <c r="F54" s="4"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
-      <c r="I54" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
-      <c r="N54" s="3" t="s">
-        <v>205</v>
-      </c>
+      <c r="N54" s="3"/>
       <c r="O54" s="3"/>
-      <c r="P54" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>217</v>
-      </c>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
+      <c r="S54" s="4"/>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
-      <c r="Y54" s="3" t="s">
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="4"/>
+      <c r="AD54" s="1"/>
+    </row>
+    <row r="55" spans="2:30" ht="66.7" x14ac:dyDescent="0.8">
+      <c r="B55" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="Z54" s="3"/>
-      <c r="AD54" s="1"/>
+      <c r="E55" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q55" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z55" s="3"/>
+      <c r="AD55" s="1"/>
+    </row>
+    <row r="56" spans="2:30" x14ac:dyDescent="0.8">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65A5E01-8EF0-4F63-8F85-23932DEE09AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A7B4B6-D284-4A90-A70D-8E999062A9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5973" yWindow="213" windowWidth="19020" windowHeight="13467" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
@@ -1442,10 +1442,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>わかな</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;彩夢&gt;</t>
   </si>
   <si>
@@ -1731,6 +1727,11 @@
   </si>
   <si>
     <t>神嵜志音</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わかな
+藤原あむ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1798,7 +1799,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1809,9 +1810,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2736,7 +2734,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="L50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="X17" sqref="X17"/>
+      <selection pane="bottomRight" activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.33203125" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2793,7 +2791,7 @@
     <row r="2" spans="1:30" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RZ2)</f>
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2905,7 +2903,7 @@
      LEN(P5:P1001) - LEN(SUBSTITUTE(P5:P1001, CHAR(10), "")) + 1
   )
 )</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q2" s="1" cm="1">
         <f t="array" ref="Q2">SUMPRODUCT(
@@ -3033,7 +3031,7 @@
         <v>60</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>54</v>
@@ -3045,7 +3043,7 @@
         <v>8</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>20</v>
@@ -3675,14 +3673,14 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Z23" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AD23" s="1"/>
     </row>
-    <row r="24" spans="2:30" ht="33.35" x14ac:dyDescent="0.8">
+    <row r="24" spans="2:30" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B24" s="3">
         <v>1996</v>
       </c>
@@ -3710,7 +3708,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AD24" s="1"/>
     </row>
@@ -4103,7 +4101,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -4242,7 +4240,7 @@
       </c>
       <c r="AD39" s="1"/>
     </row>
-    <row r="40" spans="2:30" ht="50" x14ac:dyDescent="0.8">
+    <row r="40" spans="2:30" ht="33.35" x14ac:dyDescent="0.8">
       <c r="B40" s="3">
         <v>2012</v>
       </c>
@@ -4299,13 +4297,13 @@
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -4337,7 +4335,7 @@
         <v>2014</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
@@ -4370,12 +4368,12 @@
       </c>
       <c r="AD42" s="1"/>
     </row>
-    <row r="43" spans="2:30" ht="83.35" x14ac:dyDescent="0.8">
+    <row r="43" spans="2:30" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B43" s="3">
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
@@ -4446,7 +4444,7 @@
         <v>131</v>
       </c>
       <c r="Z44" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AD44" s="1"/>
     </row>
@@ -4455,7 +4453,7 @@
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4505,7 +4503,7 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>180</v>
@@ -4549,7 +4547,7 @@
         <v>107</v>
       </c>
       <c r="Y46" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Z46" s="3" t="s">
         <v>157</v>
@@ -4561,7 +4559,7 @@
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
@@ -4575,7 +4573,7 @@
         <v>25</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>79</v>
@@ -4604,7 +4602,7 @@
         <v>182</v>
       </c>
       <c r="Z47" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AD47" s="1"/>
     </row>
@@ -4737,7 +4735,7 @@
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
@@ -4754,7 +4752,7 @@
         <v>175</v>
       </c>
       <c r="Z50" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AD50" s="1"/>
     </row>
@@ -4766,7 +4764,7 @@
         <v>27</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>118</v>
@@ -4775,7 +4773,7 @@
         <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>124</v>
@@ -4861,7 +4859,7 @@
         <v>121</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3" t="s">
@@ -4892,10 +4890,10 @@
         <v>75</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>117</v>
@@ -4911,16 +4909,16 @@
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="Q53" s="3" t="s">
         <v>193</v>
@@ -4937,7 +4935,7 @@
         <v>153</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X53" s="3"/>
       <c r="Y53" s="3" t="s">
@@ -4947,21 +4945,21 @@
       <c r="AD53" s="1"/>
     </row>
     <row r="54" spans="2:30" ht="50" x14ac:dyDescent="0.8">
-      <c r="B54" s="4">
+      <c r="B54" s="3">
         <v>2026</v>
       </c>
-      <c r="C54" s="4"/>
+      <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="F54" s="4"/>
+        <v>230</v>
+      </c>
+      <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -4970,26 +4968,26 @@
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
-      <c r="S54" s="4"/>
+      <c r="S54" s="3"/>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
-      <c r="Z54" s="4"/>
+      <c r="Z54" s="3"/>
       <c r="AD54" s="1"/>
     </row>
     <row r="55" spans="2:30" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B55" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -4999,19 +4997,19 @@
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O55" s="3"/>
       <c r="P55" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
@@ -5021,17 +5019,17 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Z55" s="3"/>
       <c r="AD55" s="1"/>
     </row>
     <row r="56" spans="2:30" x14ac:dyDescent="0.8">
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="4"/>
+      <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -5044,14 +5042,14 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-      <c r="S56" s="4"/>
+      <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-      <c r="Z56" s="4"/>
+      <c r="Z56" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A7B4B6-D284-4A90-A70D-8E999062A9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7AF6C9-83AD-4D76-87E7-D024D94761FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5973" yWindow="213" windowWidth="19020" windowHeight="13467" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
@@ -570,14 +570,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>鉄アキラ
-姫ゆりあ
-金屋あんね
-儛島エマ
-古沢稀杏</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>梨杏
 浜辺纏</t>
     <phoneticPr fontId="1"/>
@@ -1336,12 +1328,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>天咲光由
-ボジラ
-フワちゃん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>若菜きらり(IR,V)
 緋彩ませ(HCC)</t>
     <rPh sb="0" eb="2">
@@ -1732,6 +1718,20 @@
   <si>
     <t>わかな
 藤原あむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天咲光由
+ボジラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄アキラ
+姫ゆりあ
+金屋あんね
+儛島エマ
+古沢稀杏
+フワちゃん</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2731,10 +2731,10 @@
   <dimension ref="A1:AD56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="L50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P54" sqref="P54"/>
+      <selection pane="bottomRight" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.33203125" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2772,7 +2772,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="16" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -3019,7 +3019,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>18</v>
@@ -3031,19 +3031,19 @@
         <v>60</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>54</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>20</v>
@@ -3058,19 +3058,19 @@
         <v>7</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>37</v>
@@ -3353,7 +3353,7 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Z13" s="3"/>
       <c r="AD13" s="1"/>
@@ -3422,7 +3422,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD15" s="1"/>
     </row>
@@ -3487,10 +3487,10 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AD17" s="1"/>
     </row>
@@ -3673,7 +3673,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Z23" s="3" t="s">
         <v>67</v>
@@ -3708,7 +3708,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AD24" s="1"/>
     </row>
@@ -3727,7 +3727,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -3742,7 +3742,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AD25" s="1"/>
     </row>
@@ -3773,7 +3773,7 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Z26" s="3" t="s">
         <v>34</v>
@@ -3809,7 +3809,7 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z27" s="3"/>
       <c r="AD27" s="1"/>
@@ -3831,7 +3831,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -3846,7 +3846,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD28" s="1"/>
     </row>
@@ -3911,7 +3911,7 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z30" s="3"/>
       <c r="AD30" s="1"/>
@@ -3976,7 +3976,7 @@
         <v>63</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD32" s="1"/>
     </row>
@@ -4001,7 +4001,7 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
@@ -4009,7 +4009,7 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z33" s="3"/>
       <c r="AD33" s="1"/>
@@ -4023,19 +4023,19 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>55</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AD34" s="1"/>
     </row>
@@ -4082,11 +4082,11 @@
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AD35" s="1"/>
     </row>
@@ -4095,13 +4095,13 @@
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -4172,7 +4172,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -4191,7 +4191,7 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z38" s="3"/>
       <c r="AD38" s="1"/>
@@ -4206,17 +4206,17 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
@@ -4232,11 +4232,11 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AD39" s="1"/>
     </row>
@@ -4245,16 +4245,16 @@
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -4263,7 +4263,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>1</v>
@@ -4279,7 +4279,7 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z40" s="3"/>
       <c r="AD40" s="1"/>
@@ -4293,17 +4293,17 @@
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -4320,13 +4320,13 @@
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y41" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Z41" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AD41" s="1"/>
     </row>
@@ -4335,7 +4335,7 @@
         <v>2014</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
@@ -4361,10 +4361,10 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Z42" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD42" s="1"/>
     </row>
@@ -4373,7 +4373,7 @@
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
@@ -4400,11 +4400,11 @@
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD43" s="1"/>
     </row>
@@ -4441,10 +4441,10 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Z44" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AD44" s="1"/>
     </row>
@@ -4453,7 +4453,7 @@
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4461,16 +4461,16 @@
         <v>12</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
@@ -4482,19 +4482,19 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Y45" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Z45" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD45" s="1"/>
     </row>
@@ -4503,13 +4503,13 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>14</v>
@@ -4518,12 +4518,12 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>31</v>
@@ -4536,21 +4536,21 @@
       </c>
       <c r="S46" s="3"/>
       <c r="T46" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U46" s="3"/>
       <c r="V46" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="W46" s="3"/>
       <c r="X46" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Y46" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Z46" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AD46" s="1"/>
     </row>
@@ -4559,7 +4559,7 @@
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
@@ -4567,23 +4567,23 @@
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="3" t="s">
         <v>57</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -4594,15 +4594,15 @@
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Z47" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AD47" s="1"/>
     </row>
@@ -4625,7 +4625,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
@@ -4633,7 +4633,7 @@
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
@@ -4641,10 +4641,10 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Z48" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AD48" s="1"/>
     </row>
@@ -4665,11 +4665,11 @@
         <v>11</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -4691,11 +4691,11 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X49" s="3"/>
       <c r="Y49" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Z49" s="3"/>
       <c r="AD49" s="1"/>
@@ -4705,37 +4705,37 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
@@ -4745,14 +4745,14 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X50" s="3"/>
       <c r="Y50" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Z50" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AD50" s="1"/>
     </row>
@@ -4764,59 +4764,59 @@
         <v>27</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>51</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X51" s="3"/>
       <c r="Y51" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z51" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AD51" s="1"/>
     </row>
@@ -4825,7 +4825,7 @@
         <v>2024</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>36</v>
@@ -4834,32 +4834,32 @@
         <v>46</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3" t="s">
@@ -4868,78 +4868,78 @@
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z52" s="3"/>
       <c r="AD52" s="1"/>
     </row>
-    <row r="53" spans="2:30" ht="83.35" x14ac:dyDescent="0.8">
+    <row r="53" spans="2:30" ht="100" x14ac:dyDescent="0.8">
       <c r="B53" s="3">
         <v>2025</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>75</v>
+        <v>231</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="X53" s="3"/>
       <c r="Y53" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Z53" s="3"/>
       <c r="AD53" s="1"/>
@@ -4951,7 +4951,7 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -4959,7 +4959,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -4980,36 +4980,36 @@
     </row>
     <row r="55" spans="2:30" ht="66.7" x14ac:dyDescent="0.8">
       <c r="B55" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O55" s="3"/>
       <c r="P55" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
@@ -5019,7 +5019,7 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Z55" s="3"/>
       <c r="AD55" s="1"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7AF6C9-83AD-4D76-87E7-D024D94761FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEA8F4F-FA69-4BBA-9423-A2B2E34B5D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5973" yWindow="213" windowWidth="19020" windowHeight="13467" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
@@ -1631,13 +1631,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;小谷さつき&gt;
-&lt;松﨑紗弥&gt;
-&lt;山根百合&gt;
-&lt;桃羽もえは&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>櫻井裕子(COLORS)
 網倉理奈(COLORS)
 KONOHA(銀河)(2026.5引退予定)
@@ -1732,6 +1725,17 @@
 儛島エマ
 古沢稀杏
 フワちゃん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;小谷さつき&gt;
+&lt;松﨑紗弥&gt;
+&lt;山根百合&gt;
+&lt;桃羽もえは&gt;
+&lt;確変むぎ&gt;</t>
+    <rPh sb="31" eb="33">
+      <t>カクヘン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2734,7 +2738,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C54" sqref="C54"/>
+      <selection pane="bottomRight" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.33203125" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2791,7 +2795,7 @@
     <row r="2" spans="1:30" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RZ2)</f>
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2807,7 +2811,7 @@
      LEN(D5:D1001) - LEN(SUBSTITUTE(D5:D1001, CHAR(10), "")) + 1
   )
 )</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" cm="1">
         <f t="array" ref="E2">SUMPRODUCT(
@@ -3031,7 +3035,7 @@
         <v>60</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>54</v>
@@ -4547,7 +4551,7 @@
         <v>106</v>
       </c>
       <c r="Y46" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Z46" s="3" t="s">
         <v>156</v>
@@ -4573,7 +4577,7 @@
         <v>25</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>78</v>
@@ -4602,7 +4606,7 @@
         <v>181</v>
       </c>
       <c r="Z47" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AD47" s="1"/>
     </row>
@@ -4705,7 +4709,7 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>171</v>
@@ -4887,7 +4891,7 @@
         <v>2025</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>219</v>
@@ -4918,7 +4922,7 @@
         <v>208</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q53" s="3" t="s">
         <v>191</v>
@@ -4951,7 +4955,7 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -4959,7 +4963,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -4978,16 +4982,16 @@
       <c r="Z54" s="3"/>
       <c r="AD54" s="1"/>
     </row>
-    <row r="55" spans="2:30" ht="66.7" x14ac:dyDescent="0.8">
+    <row r="55" spans="2:30" ht="83.35" x14ac:dyDescent="0.8">
       <c r="B55" s="3" t="s">
         <v>196</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -4997,7 +5001,7 @@
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEA8F4F-FA69-4BBA-9423-A2B2E34B5D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED0D869-312B-4D4F-98D7-0A5E61A2FCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5973" yWindow="213" windowWidth="19020" windowHeight="13467" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
@@ -558,18 +558,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>鹿島沙希</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>刀羅ナツコ
-琉悪夏</t>
-    <rPh sb="6" eb="9">
-      <t>ルアカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>梨杏
 浜辺纏</t>
     <phoneticPr fontId="1"/>
@@ -1442,19 +1430,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スターライト・キッド(休)
-なつぽい
-安納サオリ
-小波</t>
-    <rPh sb="19" eb="21">
-      <t>アノウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>コナミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>渡辺桃(休)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1589,12 +1564,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>伊藤麻希
-小橋マリカ
-凛</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゆづき(HCC)(休)
 chou・chou(HCC)</t>
     <rPh sb="9" eb="10">
@@ -1735,6 +1704,43 @@
 &lt;確変むぎ&gt;</t>
     <rPh sb="31" eb="33">
       <t>カクヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鹿島沙希(2026.4.26引退予定)</t>
+    <rPh sb="14" eb="16">
+      <t>インタイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小橋マリカ
+凛</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伊藤麻希
+刀羅ナツコ
+琉悪夏</t>
+    <rPh sb="11" eb="14">
+      <t>ルアカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スターライト・キッド
+なつぽい
+安納サオリ
+小波</t>
+    <rPh sb="16" eb="18">
+      <t>アノウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コナミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2735,10 +2741,10 @@
   <dimension ref="A1:AD56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F50" sqref="F50"/>
+      <selection pane="bottomRight" activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.33203125" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2776,7 +2782,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="16" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2803,7 +2809,7 @@
      LEN(C5:C1001) - LEN(SUBSTITUTE(C5:C1001, CHAR(10), "")) + 1
   )
 )</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" cm="1">
         <f t="array" ref="D2">SUMPRODUCT(
@@ -2987,7 +2993,7 @@
      LEN(Z5:Z1001) - LEN(SUBSTITUTE(Z5:Z1001, CHAR(10), "")) + 1
   )
 )</f>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AD2" s="1"/>
     </row>
@@ -3023,7 +3029,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>18</v>
@@ -3035,19 +3041,19 @@
         <v>60</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>54</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>20</v>
@@ -3062,19 +3068,19 @@
         <v>7</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>37</v>
@@ -3357,7 +3363,7 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Z13" s="3"/>
       <c r="AD13" s="1"/>
@@ -3426,7 +3432,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AD15" s="1"/>
     </row>
@@ -3491,10 +3497,10 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AD17" s="1"/>
     </row>
@@ -3677,7 +3683,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Z23" s="3" t="s">
         <v>67</v>
@@ -3712,7 +3718,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AD24" s="1"/>
     </row>
@@ -3731,7 +3737,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -3746,7 +3752,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AD25" s="1"/>
     </row>
@@ -3777,7 +3783,7 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Z26" s="3" t="s">
         <v>34</v>
@@ -3813,7 +3819,7 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Z27" s="3"/>
       <c r="AD27" s="1"/>
@@ -3835,7 +3841,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -3850,7 +3856,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AD28" s="1"/>
     </row>
@@ -3915,7 +3921,7 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z30" s="3"/>
       <c r="AD30" s="1"/>
@@ -3980,7 +3986,7 @@
         <v>63</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AD32" s="1"/>
     </row>
@@ -4005,7 +4011,7 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
@@ -4013,7 +4019,7 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Z33" s="3"/>
       <c r="AD33" s="1"/>
@@ -4027,19 +4033,19 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>55</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -4056,7 +4062,7 @@
       </c>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AD34" s="1"/>
     </row>
@@ -4086,11 +4092,11 @@
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AD35" s="1"/>
     </row>
@@ -4099,13 +4105,13 @@
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -4176,7 +4182,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -4195,7 +4201,7 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Z38" s="3"/>
       <c r="AD38" s="1"/>
@@ -4205,22 +4211,22 @@
         <v>2011</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>73</v>
+        <v>228</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
@@ -4236,11 +4242,11 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AD39" s="1"/>
     </row>
@@ -4249,16 +4255,16 @@
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -4267,7 +4273,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>1</v>
@@ -4283,7 +4289,7 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Z40" s="3"/>
       <c r="AD40" s="1"/>
@@ -4297,17 +4303,17 @@
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -4324,13 +4330,13 @@
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Y41" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z41" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="Z41" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="AD41" s="1"/>
     </row>
@@ -4339,7 +4345,7 @@
         <v>2014</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
@@ -4365,10 +4371,10 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Z42" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AD42" s="1"/>
     </row>
@@ -4377,7 +4383,7 @@
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
@@ -4404,11 +4410,11 @@
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AD43" s="1"/>
     </row>
@@ -4417,7 +4423,7 @@
         <v>2016</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>26</v>
@@ -4445,10 +4451,10 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Z44" s="3" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="AD44" s="1"/>
     </row>
@@ -4457,7 +4463,7 @@
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4465,16 +4471,16 @@
         <v>12</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
@@ -4486,19 +4492,19 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Y45" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Z45" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AD45" s="1"/>
     </row>
@@ -4507,13 +4513,13 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>14</v>
@@ -4522,12 +4528,12 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>31</v>
@@ -4540,21 +4546,21 @@
       </c>
       <c r="S46" s="3"/>
       <c r="T46" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U46" s="3"/>
       <c r="V46" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="W46" s="3"/>
       <c r="X46" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Y46" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Z46" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AD46" s="1"/>
     </row>
@@ -4563,7 +4569,7 @@
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
@@ -4571,23 +4577,23 @@
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="3" t="s">
         <v>57</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -4598,15 +4604,15 @@
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Z47" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AD47" s="1"/>
     </row>
@@ -4629,7 +4635,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
@@ -4637,7 +4643,7 @@
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
@@ -4645,10 +4651,10 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Z48" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AD48" s="1"/>
     </row>
@@ -4669,11 +4675,11 @@
         <v>11</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -4695,11 +4701,11 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="X49" s="3"/>
       <c r="Y49" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z49" s="3"/>
       <c r="AD49" s="1"/>
@@ -4709,37 +4715,37 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
@@ -4749,14 +4755,14 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="X50" s="3"/>
       <c r="Y50" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Z50" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AD50" s="1"/>
     </row>
@@ -4768,59 +4774,59 @@
         <v>27</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>51</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="X51" s="3"/>
       <c r="Y51" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z51" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AD51" s="1"/>
     </row>
@@ -4829,7 +4835,7 @@
         <v>2024</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>36</v>
@@ -4838,32 +4844,32 @@
         <v>46</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3" t="s">
@@ -4872,16 +4878,16 @@
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Z52" s="3"/>
       <c r="AD52" s="1"/>
@@ -4891,59 +4897,59 @@
         <v>2025</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="X53" s="3"/>
       <c r="Y53" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Z53" s="3"/>
       <c r="AD53" s="1"/>
@@ -4955,7 +4961,7 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -4963,7 +4969,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -4984,36 +4990,36 @@
     </row>
     <row r="55" spans="2:30" ht="83.35" x14ac:dyDescent="0.8">
       <c r="B55" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O55" s="3"/>
       <c r="P55" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
@@ -5023,7 +5029,7 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Z55" s="3"/>
       <c r="AD55" s="1"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED0D869-312B-4D4F-98D7-0A5E61A2FCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B92559-94AC-4C02-82C7-8CFE48A9DEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5973" yWindow="213" windowWidth="19020" windowHeight="13467" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="1807" yWindow="213" windowWidth="19020" windowHeight="13467" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -970,20 +970,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SAKI(COLORS)
-世羅りさ(PR)(2026.1.12引退予定)</t>
-    <rPh sb="13" eb="15">
-      <t>セラ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>インタイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>南小桃
 橘渚</t>
     <rPh sb="0" eb="3">
@@ -1742,6 +1728,10 @@
     <rPh sb="22" eb="24">
       <t>コナミ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SAKI(COLORS)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2741,10 +2731,10 @@
   <dimension ref="A1:AD56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="R49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K63" sqref="K63"/>
+      <selection pane="bottomRight" activeCell="Y59" sqref="Y59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.33203125" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2801,7 +2791,7 @@
     <row r="2" spans="1:30" ht="16" x14ac:dyDescent="0.8">
       <c r="B2" s="1">
         <f>SUM(C2:RZ2)</f>
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2">SUMPRODUCT(
@@ -2985,7 +2975,7 @@
      LEN(Y5:Y1001) - LEN(SUBSTITUTE(Y5:Y1001, CHAR(10), "")) + 1
   )
 )</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z2" s="1" cm="1">
         <f t="array" ref="Z2">SUMPRODUCT(
@@ -3041,7 +3031,7 @@
         <v>60</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>54</v>
@@ -3053,7 +3043,7 @@
         <v>8</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>20</v>
@@ -3074,10 +3064,10 @@
         <v>139</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X4" s="2" t="s">
         <v>100</v>
@@ -3683,7 +3673,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Z23" s="3" t="s">
         <v>67</v>
@@ -3718,7 +3708,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AD24" s="1"/>
     </row>
@@ -4019,7 +4009,7 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z33" s="3"/>
       <c r="AD33" s="1"/>
@@ -4033,13 +4023,13 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>55</v>
@@ -4096,7 +4086,7 @@
       </c>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD35" s="1"/>
     </row>
@@ -4105,13 +4095,13 @@
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -4211,7 +4201,7 @@
         <v>2011</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -4246,19 +4236,19 @@
       </c>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AD39" s="1"/>
     </row>
-    <row r="40" spans="2:30" ht="33.35" x14ac:dyDescent="0.8">
+    <row r="40" spans="2:30" ht="16.7" x14ac:dyDescent="0.8">
       <c r="B40" s="3">
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>43</v>
@@ -4289,7 +4279,7 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3" t="s">
-        <v>143</v>
+        <v>231</v>
       </c>
       <c r="Z40" s="3"/>
       <c r="AD40" s="1"/>
@@ -4303,17 +4293,17 @@
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -4333,10 +4323,10 @@
         <v>105</v>
       </c>
       <c r="Y41" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z41" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AD41" s="1"/>
     </row>
@@ -4345,7 +4335,7 @@
         <v>2014</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
@@ -4371,7 +4361,7 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z42" s="3" t="s">
         <v>116</v>
@@ -4383,7 +4373,7 @@
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
@@ -4414,7 +4404,7 @@
       </c>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AD43" s="1"/>
     </row>
@@ -4423,7 +4413,7 @@
         <v>2016</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>26</v>
@@ -4454,7 +4444,7 @@
         <v>128</v>
       </c>
       <c r="Z44" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AD44" s="1"/>
     </row>
@@ -4463,7 +4453,7 @@
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4501,7 +4491,7 @@
         <v>117</v>
       </c>
       <c r="Y45" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Z45" s="3" t="s">
         <v>125</v>
@@ -4513,13 +4503,13 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>14</v>
@@ -4550,17 +4540,17 @@
       </c>
       <c r="U46" s="3"/>
       <c r="V46" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W46" s="3"/>
       <c r="X46" s="3" t="s">
         <v>104</v>
       </c>
       <c r="Y46" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z46" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AD46" s="1"/>
     </row>
@@ -4569,7 +4559,7 @@
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
@@ -4583,7 +4573,7 @@
         <v>25</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>76</v>
@@ -4604,15 +4594,15 @@
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Z47" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AD47" s="1"/>
     </row>
@@ -4654,7 +4644,7 @@
         <v>127</v>
       </c>
       <c r="Z48" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AD48" s="1"/>
     </row>
@@ -4675,7 +4665,7 @@
         <v>11</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3" t="s">
@@ -4701,11 +4691,11 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X49" s="3"/>
       <c r="Y49" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z49" s="3"/>
       <c r="AD49" s="1"/>
@@ -4715,19 +4705,19 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>24</v>
@@ -4739,13 +4729,13 @@
         <v>77</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
@@ -4755,14 +4745,14 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X50" s="3"/>
       <c r="Y50" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z50" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AD50" s="1"/>
     </row>
@@ -4774,7 +4764,7 @@
         <v>27</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>115</v>
@@ -4783,7 +4773,7 @@
         <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>121</v>
@@ -4796,7 +4786,7 @@
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
@@ -4808,7 +4798,7 @@
       </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
@@ -4816,17 +4806,17 @@
         <v>141</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X51" s="3"/>
       <c r="Y51" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Z51" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AD51" s="1"/>
     </row>
@@ -4844,13 +4834,13 @@
         <v>46</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>82</v>
@@ -4859,7 +4849,7 @@
         <v>79</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3" t="s">
@@ -4869,7 +4859,7 @@
         <v>118</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3" t="s">
@@ -4887,7 +4877,7 @@
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z52" s="3"/>
       <c r="AD52" s="1"/>
@@ -4897,13 +4887,13 @@
         <v>2025</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>114</v>
@@ -4912,26 +4902,26 @@
         <v>106</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
@@ -4942,14 +4932,14 @@
         <v>142</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="X53" s="3"/>
       <c r="Y53" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Z53" s="3"/>
       <c r="AD53" s="1"/>
@@ -4961,7 +4951,7 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -4969,7 +4959,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -4990,36 +4980,36 @@
     </row>
     <row r="55" spans="2:30" ht="83.35" x14ac:dyDescent="0.8">
       <c r="B55" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O55" s="3"/>
       <c r="P55" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
@@ -5029,7 +5019,7 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Z55" s="3"/>
       <c r="AD55" s="1"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B92559-94AC-4C02-82C7-8CFE48A9DEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED67B88-62FE-4E50-B17F-9E27ED5C9908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1807" yWindow="213" windowWidth="19020" windowHeight="13467" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
@@ -1541,15 +1541,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;堀このみ&gt;(ZeroOne)
-&lt;七世真理子&gt;(ZeroOne)
-&lt;星野 さやか&gt;(九州女子プロレス)</t>
-    <rPh sb="42" eb="46">
-      <t>キュウシュウジョシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゆづき(HCC)(休)
 chou・chou(HCC)</t>
     <rPh sb="9" eb="10">
@@ -1732,6 +1723,18 @@
   </si>
   <si>
     <t>SAKI(COLORS)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;堀このみ&gt;(ZeroOne)26.2.7デビュー予定
+&lt;七世真理子&gt;(ZeroOne)
+&lt;星野 さやか&gt;(九州女子プロレス)</t>
+    <rPh sb="25" eb="27">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="54" eb="58">
+      <t>キュウシュウジョシ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2734,7 +2737,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="R49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Y59" sqref="Y59"/>
+      <selection pane="bottomRight" activeCell="Y56" sqref="Y56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.33203125" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -3031,7 +3034,7 @@
         <v>60</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>54</v>
@@ -4201,7 +4204,7 @@
         <v>2011</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -4279,7 +4282,7 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Z40" s="3"/>
       <c r="AD40" s="1"/>
@@ -4373,7 +4376,7 @@
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
@@ -4413,7 +4416,7 @@
         <v>2016</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>26</v>
@@ -4444,7 +4447,7 @@
         <v>128</v>
       </c>
       <c r="Z44" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AD44" s="1"/>
     </row>
@@ -4547,7 +4550,7 @@
         <v>104</v>
       </c>
       <c r="Y46" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Z46" s="3" t="s">
         <v>153</v>
@@ -4573,7 +4576,7 @@
         <v>25</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>76</v>
@@ -4602,7 +4605,7 @@
         <v>178</v>
       </c>
       <c r="Z47" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AD47" s="1"/>
     </row>
@@ -4705,7 +4708,7 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>168</v>
@@ -4764,7 +4767,7 @@
         <v>27</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>115</v>
@@ -4773,7 +4776,7 @@
         <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>121</v>
@@ -4887,10 +4890,10 @@
         <v>2025</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>192</v>
@@ -4918,7 +4921,7 @@
         <v>204</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q53" s="3" t="s">
         <v>188</v>
@@ -4951,7 +4954,7 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -4959,7 +4962,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -4984,10 +4987,10 @@
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -4997,7 +5000,7 @@
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
@@ -5019,7 +5022,7 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="Z55" s="3"/>
       <c r="AD55" s="1"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED67B88-62FE-4E50-B17F-9E27ED5C9908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1F1A12-2E3A-45B0-84F8-860796048361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1807" yWindow="213" windowWidth="19020" windowHeight="13467" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
@@ -831,10 +831,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>雪妃真矢</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ジュリア(WWE)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1734,6 +1730,13 @@
     </rPh>
     <rPh sb="54" eb="58">
       <t>キュウシュウジョシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雪妃真矢(休)</t>
+    <rPh sb="5" eb="6">
+      <t>キュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2734,10 +2737,10 @@
   <dimension ref="A1:AD56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="R49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="R41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Y56" sqref="Y56"/>
+      <selection pane="bottomRight" activeCell="Z43" sqref="Z43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.33203125" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -3034,7 +3037,7 @@
         <v>60</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>54</v>
@@ -3046,7 +3049,7 @@
         <v>8</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>20</v>
@@ -3061,16 +3064,16 @@
         <v>7</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X4" s="2" t="s">
         <v>100</v>
@@ -3356,7 +3359,7 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Z13" s="3"/>
       <c r="AD13" s="1"/>
@@ -3490,10 +3493,10 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD17" s="1"/>
     </row>
@@ -3676,7 +3679,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Z23" s="3" t="s">
         <v>67</v>
@@ -3711,7 +3714,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AD24" s="1"/>
     </row>
@@ -4012,7 +4015,7 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z33" s="3"/>
       <c r="AD33" s="1"/>
@@ -4026,13 +4029,13 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>55</v>
@@ -4089,7 +4092,7 @@
       </c>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AD35" s="1"/>
     </row>
@@ -4098,13 +4101,13 @@
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -4204,12 +4207,12 @@
         <v>2011</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>109</v>
@@ -4239,7 +4242,7 @@
       </c>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AD39" s="1"/>
     </row>
@@ -4248,16 +4251,16 @@
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -4282,7 +4285,7 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Z40" s="3"/>
       <c r="AD40" s="1"/>
@@ -4296,17 +4299,17 @@
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -4326,10 +4329,10 @@
         <v>105</v>
       </c>
       <c r="Y41" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z41" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AD41" s="1"/>
     </row>
@@ -4338,7 +4341,7 @@
         <v>2014</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
@@ -4364,10 +4367,10 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z42" s="3" t="s">
-        <v>116</v>
+        <v>231</v>
       </c>
       <c r="AD42" s="1"/>
     </row>
@@ -4376,7 +4379,7 @@
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
@@ -4407,7 +4410,7 @@
       </c>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AD43" s="1"/>
     </row>
@@ -4416,7 +4419,7 @@
         <v>2016</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>26</v>
@@ -4444,10 +4447,10 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z44" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AD44" s="1"/>
     </row>
@@ -4456,7 +4459,7 @@
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4467,13 +4470,13 @@
         <v>108</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
@@ -4485,19 +4488,19 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y45" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z45" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AD45" s="1"/>
     </row>
@@ -4506,13 +4509,13 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>14</v>
@@ -4539,21 +4542,21 @@
       </c>
       <c r="S46" s="3"/>
       <c r="T46" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U46" s="3"/>
       <c r="V46" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="W46" s="3"/>
       <c r="X46" s="3" t="s">
         <v>104</v>
       </c>
       <c r="Y46" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Z46" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AD46" s="1"/>
     </row>
@@ -4562,7 +4565,7 @@
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
@@ -4576,7 +4579,7 @@
         <v>25</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>76</v>
@@ -4586,7 +4589,7 @@
         <v>57</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -4597,15 +4600,15 @@
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Z47" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD47" s="1"/>
     </row>
@@ -4644,10 +4647,10 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z48" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AD48" s="1"/>
     </row>
@@ -4668,7 +4671,7 @@
         <v>11</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3" t="s">
@@ -4694,11 +4697,11 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X49" s="3"/>
       <c r="Y49" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z49" s="3"/>
       <c r="AD49" s="1"/>
@@ -4708,19 +4711,19 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>24</v>
@@ -4732,13 +4735,13 @@
         <v>77</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
@@ -4748,14 +4751,14 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X50" s="3"/>
       <c r="Y50" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z50" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AD50" s="1"/>
     </row>
@@ -4767,7 +4770,7 @@
         <v>27</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>115</v>
@@ -4776,10 +4779,10 @@
         <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>51</v>
@@ -4789,37 +4792,37 @@
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X51" s="3"/>
       <c r="Y51" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z51" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AD51" s="1"/>
     </row>
@@ -4837,13 +4840,13 @@
         <v>46</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>82</v>
@@ -4852,17 +4855,17 @@
         <v>79</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3" t="s">
@@ -4871,16 +4874,16 @@
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Z52" s="3"/>
       <c r="AD52" s="1"/>
@@ -4890,13 +4893,13 @@
         <v>2025</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>114</v>
@@ -4905,44 +4908,44 @@
         <v>106</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="X53" s="3"/>
       <c r="Y53" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Z53" s="3"/>
       <c r="AD53" s="1"/>
@@ -4954,7 +4957,7 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -4962,7 +4965,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -4983,36 +4986,36 @@
     </row>
     <row r="55" spans="2:30" ht="83.35" x14ac:dyDescent="0.8">
       <c r="B55" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O55" s="3"/>
       <c r="P55" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
@@ -5022,7 +5025,7 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Z55" s="3"/>
       <c r="AD55" s="1"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1F1A12-2E3A-45B0-84F8-860796048361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E3A8DA-6BD7-4FF3-B83C-FF96CD4EDCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1807" yWindow="213" windowWidth="19020" windowHeight="13467" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
+    <workbookView xWindow="-67" yWindow="-67" windowWidth="25734" windowHeight="13814" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
   <sheets>
     <sheet name="現役選手デビュー年団体別一覧" sheetId="1" r:id="rId1"/>
@@ -193,10 +193,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NORI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>佐藤綾子</t>
     <rPh sb="0" eb="2">
       <t>サトウ</t>
@@ -1737,6 +1733,13 @@
     <t>雪妃真矢(休)</t>
     <rPh sb="5" eb="6">
       <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>里奈</t>
+    <rPh sb="0" eb="2">
+      <t>リナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2737,10 +2740,10 @@
   <dimension ref="A1:AD56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="R41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="O35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Z43" sqref="Z43"/>
+      <selection pane="bottomRight" activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.33203125" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2778,7 +2781,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="16" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -3019,37 +3022,37 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>20</v>
@@ -3058,28 +3061,28 @@
         <v>4</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z4" s="2" t="s">
         <v>10</v>
@@ -3194,7 +3197,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -3208,7 +3211,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AD8" s="1"/>
     </row>
@@ -3359,7 +3362,7 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z13" s="3"/>
       <c r="AD13" s="1"/>
@@ -3393,7 +3396,7 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>16</v>
@@ -3428,7 +3431,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AD15" s="1"/>
     </row>
@@ -3493,10 +3496,10 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AD17" s="1"/>
     </row>
@@ -3662,7 +3665,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -3679,10 +3682,10 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Z23" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AD23" s="1"/>
     </row>
@@ -3714,7 +3717,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AD24" s="1"/>
     </row>
@@ -3733,7 +3736,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -3748,7 +3751,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AD25" s="1"/>
     </row>
@@ -3779,10 +3782,10 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z26" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD26" s="1"/>
     </row>
@@ -3791,7 +3794,7 @@
         <v>1999</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -3815,7 +3818,7 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z27" s="3"/>
       <c r="AD27" s="1"/>
@@ -3826,7 +3829,7 @@
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -3837,7 +3840,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -3852,7 +3855,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD28" s="1"/>
     </row>
@@ -3866,7 +3869,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -3878,7 +3881,7 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
@@ -3917,7 +3920,7 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z30" s="3"/>
       <c r="AD30" s="1"/>
@@ -3979,10 +3982,10 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD32" s="1"/>
     </row>
@@ -4007,7 +4010,7 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
@@ -4015,7 +4018,7 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z33" s="3"/>
       <c r="AD33" s="1"/>
@@ -4029,19 +4032,19 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -4054,11 +4057,11 @@
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD34" s="1"/>
     </row>
@@ -4088,11 +4091,11 @@
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AD35" s="1"/>
     </row>
@@ -4101,13 +4104,13 @@
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -4126,11 +4129,11 @@
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Y36" s="3"/>
       <c r="Z36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AD36" s="1"/>
     </row>
@@ -4161,7 +4164,7 @@
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
       <c r="Y37" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z37" s="3"/>
       <c r="AD37" s="1"/>
@@ -4178,7 +4181,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -4187,7 +4190,7 @@
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
@@ -4197,7 +4200,7 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Z38" s="3"/>
       <c r="AD38" s="1"/>
@@ -4207,22 +4210,22 @@
         <v>2011</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
@@ -4231,18 +4234,18 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD39" s="1"/>
     </row>
@@ -4251,16 +4254,16 @@
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -4269,7 +4272,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>1</v>
@@ -4285,7 +4288,7 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Z40" s="3"/>
       <c r="AD40" s="1"/>
@@ -4295,21 +4298,21 @@
         <v>2013</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -4326,13 +4329,13 @@
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Y41" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Z41" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AD41" s="1"/>
     </row>
@@ -4341,11 +4344,11 @@
         <v>2014</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -4367,10 +4370,10 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Z42" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AD42" s="1"/>
     </row>
@@ -4379,11 +4382,11 @@
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -4392,7 +4395,7 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
@@ -4406,11 +4409,11 @@
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AD43" s="1"/>
     </row>
@@ -4419,10 +4422,10 @@
         <v>2016</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -4434,7 +4437,7 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
@@ -4447,10 +4450,10 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z44" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AD44" s="1"/>
     </row>
@@ -4459,7 +4462,7 @@
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4467,40 +4470,40 @@
         <v>12</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3" t="s">
-        <v>22</v>
+        <v>231</v>
       </c>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y45" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z45" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AD45" s="1"/>
     </row>
@@ -4509,13 +4512,13 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>14</v>
@@ -4524,39 +4527,39 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S46" s="3"/>
       <c r="T46" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U46" s="3"/>
       <c r="V46" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W46" s="3"/>
       <c r="X46" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y46" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z46" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AD46" s="1"/>
     </row>
@@ -4565,31 +4568,31 @@
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -4600,15 +4603,15 @@
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Z47" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AD47" s="1"/>
     </row>
@@ -4617,7 +4620,7 @@
         <v>2020</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -4631,7 +4634,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
@@ -4639,7 +4642,7 @@
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
@@ -4647,10 +4650,10 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Z48" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AD48" s="1"/>
     </row>
@@ -4659,49 +4662,49 @@
         <v>2021</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="E49" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X49" s="3"/>
       <c r="Y49" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Z49" s="3"/>
       <c r="AD49" s="1"/>
@@ -4711,37 +4714,37 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G50" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K50" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
@@ -4751,14 +4754,14 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X50" s="3"/>
       <c r="Y50" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z50" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AD50" s="1"/>
     </row>
@@ -4767,62 +4770,62 @@
         <v>2023</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X51" s="3"/>
       <c r="Y51" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z51" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AD51" s="1"/>
     </row>
@@ -4831,59 +4834,59 @@
         <v>2024</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G52" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K52" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z52" s="3"/>
       <c r="AD52" s="1"/>
@@ -4893,59 +4896,59 @@
         <v>2025</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="X53" s="3"/>
       <c r="Y53" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z53" s="3"/>
       <c r="AD53" s="1"/>
@@ -4957,7 +4960,7 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -4965,7 +4968,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -4986,36 +4989,36 @@
     </row>
     <row r="55" spans="2:30" ht="83.35" x14ac:dyDescent="0.8">
       <c r="B55" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O55" s="3"/>
       <c r="P55" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
@@ -5025,7 +5028,7 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Z55" s="3"/>
       <c r="AD55" s="1"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\docker-claudecode\2女子プロレスラーの一覧\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E3A8DA-6BD7-4FF3-B83C-FF96CD4EDCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597E7291-0AF7-4835-8414-9D5551DBF842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-67" yWindow="-67" windowWidth="25734" windowHeight="13814" xr2:uid="{006E6351-9C88-4E01-B808-191D08DA05AD}"/>
   </bookViews>
@@ -141,22 +141,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ビクトリア弓月
-田中きずな
-勇気みなみ
-瀬戸レア</t>
-    <rPh sb="8" eb="10">
-      <t>タナカ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ユウキ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>セト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アジャコング</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -420,14 +404,6 @@
     <t>虎龍清花</t>
     <rPh sb="0" eb="4">
       <t>コタツキヨカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>なる
-夏葵</t>
-    <rPh sb="3" eb="5">
-      <t>ナツキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1525,10 +1501,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>羽南(休)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>虎牙のん</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1740,6 +1712,43 @@
     <t>里奈</t>
     <rPh sb="0" eb="2">
       <t>リナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>羽南</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビクトリア弓月
+田中きずな(休)
+勇気みなみ
+瀬戸レア</t>
+    <rPh sb="8" eb="10">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ユウキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なる
+夏葵(5.2引退予定)</t>
+    <rPh sb="3" eb="5">
+      <t>ナツキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>インタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヨテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2740,10 +2749,10 @@
   <dimension ref="A1:AD56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="O35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P46" sqref="P46"/>
+      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.33203125" defaultRowHeight="18" x14ac:dyDescent="0.8"/>
@@ -2781,7 +2790,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="16" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -3022,67 +3031,67 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z4" s="2" t="s">
         <v>10</v>
@@ -3197,7 +3206,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -3211,7 +3220,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AD8" s="1"/>
     </row>
@@ -3362,7 +3371,7 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Z13" s="3"/>
       <c r="AD13" s="1"/>
@@ -3385,7 +3394,7 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
@@ -3396,10 +3405,10 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD14" s="1"/>
     </row>
@@ -3431,7 +3440,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AD15" s="1"/>
     </row>
@@ -3445,7 +3454,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -3455,7 +3464,7 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -3496,10 +3505,10 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AD17" s="1"/>
     </row>
@@ -3665,7 +3674,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -3682,10 +3691,10 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Z23" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AD23" s="1"/>
     </row>
@@ -3717,7 +3726,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AD24" s="1"/>
     </row>
@@ -3736,7 +3745,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -3751,7 +3760,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AD25" s="1"/>
     </row>
@@ -3782,10 +3791,10 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Z26" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AD26" s="1"/>
     </row>
@@ -3794,7 +3803,7 @@
         <v>1999</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -3818,7 +3827,7 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Z27" s="3"/>
       <c r="AD27" s="1"/>
@@ -3829,7 +3838,7 @@
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -3840,7 +3849,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -3855,7 +3864,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AD28" s="1"/>
     </row>
@@ -3869,7 +3878,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -3881,7 +3890,7 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
@@ -3920,7 +3929,7 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Z30" s="3"/>
       <c r="AD30" s="1"/>
@@ -3982,10 +3991,10 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AD32" s="1"/>
     </row>
@@ -4010,7 +4019,7 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
@@ -4018,7 +4027,7 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Z33" s="3"/>
       <c r="AD33" s="1"/>
@@ -4032,19 +4041,19 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -4057,11 +4066,11 @@
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AD34" s="1"/>
     </row>
@@ -4091,11 +4100,11 @@
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AD35" s="1"/>
     </row>
@@ -4104,13 +4113,13 @@
         <v>2008</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -4129,11 +4138,11 @@
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Y36" s="3"/>
       <c r="Z36" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AD36" s="1"/>
     </row>
@@ -4164,7 +4173,7 @@
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
       <c r="Y37" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z37" s="3"/>
       <c r="AD37" s="1"/>
@@ -4181,7 +4190,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -4190,7 +4199,7 @@
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
@@ -4200,7 +4209,7 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z38" s="3"/>
       <c r="AD38" s="1"/>
@@ -4210,22 +4219,22 @@
         <v>2011</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
@@ -4234,18 +4243,18 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AD39" s="1"/>
     </row>
@@ -4254,16 +4263,16 @@
         <v>2012</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -4272,7 +4281,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>1</v>
@@ -4288,7 +4297,7 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Z40" s="3"/>
       <c r="AD40" s="1"/>
@@ -4298,21 +4307,21 @@
         <v>2013</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -4329,13 +4338,13 @@
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Y41" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z41" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="Z41" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="AD41" s="1"/>
     </row>
@@ -4344,11 +4353,11 @@
         <v>2014</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -4370,10 +4379,10 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Z42" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AD42" s="1"/>
     </row>
@@ -4382,11 +4391,11 @@
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -4395,7 +4404,7 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
@@ -4409,11 +4418,11 @@
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AD43" s="1"/>
     </row>
@@ -4422,10 +4431,10 @@
         <v>2016</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -4437,7 +4446,7 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
@@ -4450,10 +4459,10 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Z44" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AD44" s="1"/>
     </row>
@@ -4462,7 +4471,7 @@
         <v>2017</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4470,40 +4479,40 @@
         <v>12</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Y45" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Z45" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AD45" s="1"/>
     </row>
@@ -4512,13 +4521,13 @@
         <v>2018</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>14</v>
@@ -4527,39 +4536,39 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="S46" s="3"/>
       <c r="T46" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="U46" s="3"/>
       <c r="V46" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="W46" s="3"/>
       <c r="X46" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Y46" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Z46" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AD46" s="1"/>
     </row>
@@ -4568,31 +4577,31 @@
         <v>2019</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -4603,15 +4612,15 @@
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Z47" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AD47" s="1"/>
     </row>
@@ -4620,7 +4629,7 @@
         <v>2020</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -4634,7 +4643,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
@@ -4642,7 +4651,7 @@
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
@@ -4650,10 +4659,10 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Z48" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AD48" s="1"/>
     </row>
@@ -4662,49 +4671,49 @@
         <v>2021</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>52</v>
+        <v>231</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="X49" s="3"/>
       <c r="Y49" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Z49" s="3"/>
       <c r="AD49" s="1"/>
@@ -4714,37 +4723,37 @@
         <v>2022</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
@@ -4754,14 +4763,14 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="X50" s="3"/>
       <c r="Y50" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Z50" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AD50" s="1"/>
     </row>
@@ -4770,62 +4779,62 @@
         <v>2023</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>15</v>
+        <v>230</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="X51" s="3"/>
       <c r="Y51" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Z51" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AD51" s="1"/>
     </row>
@@ -4834,59 +4843,59 @@
         <v>2024</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Z52" s="3"/>
       <c r="AD52" s="1"/>
@@ -4896,59 +4905,59 @@
         <v>2025</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="X53" s="3"/>
       <c r="Y53" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Z53" s="3"/>
       <c r="AD53" s="1"/>
@@ -4960,7 +4969,7 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -4968,7 +4977,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -4989,36 +4998,36 @@
     </row>
     <row r="55" spans="2:30" ht="83.35" x14ac:dyDescent="0.8">
       <c r="B55" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O55" s="3"/>
       <c r="P55" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
@@ -5028,7 +5037,7 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Z55" s="3"/>
       <c r="AD55" s="1"/>

--- a/woman-excel.xlsx
+++ b/woman-excel.xlsx
@@ -1660,7 +1660,7 @@
   </si>
   <si>
     <t>小橋マリカ
-凛</t>
+凛(5.1引退予定)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
